--- a/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -625,12 +625,48 @@
   <si>
     <t>基本給管理更新</t>
   </si>
+  <si>
+    <t>稼働時間Fromの項目は空の場合</t>
+  </si>
+  <si>
+    <t>基本給の項目は文字の場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">稼働時間To の科目は文字の場合    </t>
+  </si>
+  <si>
+    <t>稼働期間Fromの科目は数字ではない場合</t>
+  </si>
+  <si>
+    <t>基本給の項目は数字ではない場合</t>
+  </si>
+  <si>
+    <t>数字ではない場合</t>
+  </si>
+  <si>
+    <t>稼働時間To の科目は数字ではない場合</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>　２）</t>
+  </si>
+  <si>
+    <t>　２）更新ボタン押すと基本給情報更新画面に移動す。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="77" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,6 +1128,46 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1141,7 +1217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="173">
+  <borders count="204">
     <border>
       <left/>
       <right/>
@@ -3193,13 +3269,399 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="479">
+  <cellXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4600,6 +5062,195 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="3" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="173" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="173" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="174" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="175" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="176" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="177" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="178" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="179" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="180" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="181" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="179" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="180" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="181" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="182" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="182" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="183" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="183" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="184" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="185" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="185" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="186" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="187" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="187" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="188" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="189" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="190" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="190" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="191" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="193" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="194" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="3" applyFill="1" borderId="195" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="75" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="75" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="75" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="196" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="196" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="197" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="197" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="198" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="199" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="200" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="201" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="202" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" borderId="203" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="187" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="187" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="188" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="188" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="187" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="188" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="187" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="188" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="188" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5924,8 +6575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" tabSelected="1">
-      <selection activeCell="CC28" sqref="CC28" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BE17" sqref="BE17:BM17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7609,7 +8260,7 @@
   <dimension ref="A1:BM33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21" activeCellId="0"/>
+      <selection activeCell="D16" sqref="D16:BL16" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8816,7 +9467,9 @@
       <c r="A15" s="37"/>
       <c r="B15" s="43"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="224"/>
+      <c r="D15" s="44" t="s">
+        <v>205</v>
+      </c>
       <c r="E15" s="219"/>
       <c r="F15" s="219"/>
       <c r="G15" s="219"/>
@@ -10145,7 +10798,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" zoomScale="150" zoomScaleNormal="150" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AB26" sqref="AB26" activeCellId="0"/>
+      <selection activeCell="AF24" sqref="AF24" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10883,7 +11536,7 @@
       <c r="K9" s="269"/>
       <c r="L9" s="270"/>
       <c r="M9" s="271" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="N9" s="272"/>
       <c r="O9" s="272"/>
@@ -10893,7 +11546,7 @@
       </c>
       <c r="R9" s="86"/>
       <c r="S9" s="271" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="T9" s="273"/>
       <c r="U9" s="276" t="s">
@@ -10970,20 +11623,20 @@
       <c r="J10" s="287"/>
       <c r="K10" s="287"/>
       <c r="L10" s="288"/>
-      <c r="M10" s="271" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="272"/>
-      <c r="O10" s="272"/>
-      <c r="P10" s="273"/>
+      <c r="M10" s="518" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="519"/>
+      <c r="O10" s="519"/>
+      <c r="P10" s="520"/>
       <c r="Q10" s="85">
         <v>8</v>
       </c>
       <c r="R10" s="86"/>
-      <c r="S10" s="271" t="s">
-        <v>95</v>
-      </c>
-      <c r="T10" s="273"/>
+      <c r="S10" s="531" t="s">
+        <v>203</v>
+      </c>
+      <c r="T10" s="532"/>
       <c r="U10" s="276" t="s">
         <v>104</v>
       </c>
@@ -11059,7 +11712,7 @@
       <c r="K11" s="287"/>
       <c r="L11" s="288"/>
       <c r="M11" s="271" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N11" s="272"/>
       <c r="O11" s="272"/>
@@ -11069,7 +11722,7 @@
       </c>
       <c r="R11" s="86"/>
       <c r="S11" s="290" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="T11" s="291"/>
       <c r="U11" s="276" t="s">
@@ -11147,7 +11800,7 @@
       <c r="K12" s="287"/>
       <c r="L12" s="288"/>
       <c r="M12" s="271" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N12" s="272"/>
       <c r="O12" s="272"/>
@@ -11157,7 +11810,7 @@
       </c>
       <c r="R12" s="86"/>
       <c r="S12" s="290" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="T12" s="291"/>
       <c r="U12" s="276" t="s">
@@ -11235,7 +11888,7 @@
       <c r="K13" s="287"/>
       <c r="L13" s="288"/>
       <c r="M13" s="271" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N13" s="272"/>
       <c r="O13" s="272"/>
@@ -11245,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="290" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="T13" s="291"/>
       <c r="U13" s="276" t="s">
@@ -11323,7 +11976,7 @@
       <c r="K14" s="157"/>
       <c r="L14" s="288"/>
       <c r="M14" s="271" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="N14" s="272"/>
       <c r="O14" s="272"/>
@@ -11333,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="290" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="T14" s="291"/>
       <c r="U14" s="276" t="s">
@@ -11411,7 +12064,7 @@
       <c r="K15" s="287"/>
       <c r="L15" s="288"/>
       <c r="M15" s="271" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="N15" s="272"/>
       <c r="O15" s="272"/>
@@ -11421,7 +12074,7 @@
         <v>141</v>
       </c>
       <c r="S15" s="290" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="T15" s="291"/>
       <c r="U15" s="276" t="s">
@@ -11499,7 +12152,7 @@
       <c r="K16" s="287"/>
       <c r="L16" s="288"/>
       <c r="M16" s="271" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="N16" s="272"/>
       <c r="O16" s="272"/>
@@ -11509,7 +12162,7 @@
         <v>141</v>
       </c>
       <c r="S16" s="399" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="T16" s="291"/>
       <c r="U16" s="276" t="s">
@@ -11587,7 +12240,7 @@
       <c r="K17" s="287"/>
       <c r="L17" s="288"/>
       <c r="M17" s="271" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="N17" s="272"/>
       <c r="O17" s="272"/>
@@ -11597,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="290" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="T17" s="291"/>
       <c r="U17" s="276" t="s">
@@ -11675,7 +12328,7 @@
       <c r="K18" s="157"/>
       <c r="L18" s="288"/>
       <c r="M18" s="271" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N18" s="272"/>
       <c r="O18" s="272"/>
@@ -11685,7 +12338,7 @@
         <v>8</v>
       </c>
       <c r="S18" s="290" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="T18" s="298"/>
       <c r="U18" s="276" t="s">
@@ -11765,7 +12418,7 @@
       <c r="K19" s="157"/>
       <c r="L19" s="288"/>
       <c r="M19" s="390" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N19" s="391"/>
       <c r="O19" s="391"/>
@@ -11775,7 +12428,7 @@
         <v>8</v>
       </c>
       <c r="S19" s="290" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="T19" s="298"/>
       <c r="U19" s="276" t="s">
@@ -12055,8 +12708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150">
-      <selection activeCell="AG18" sqref="AG18" activeCellId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150" tabSelected="1">
+      <selection activeCell="P9" sqref="P9:AF9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12621,7 +13274,7 @@
       <c r="N7" s="309"/>
       <c r="O7" s="309"/>
       <c r="P7" s="320" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="320"/>
       <c r="R7" s="320"/>
@@ -12685,26 +13338,26 @@
       <c r="M8" s="309"/>
       <c r="N8" s="309"/>
       <c r="O8" s="311"/>
-      <c r="P8" s="439" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q8" s="440"/>
-      <c r="R8" s="440"/>
-      <c r="S8" s="440"/>
-      <c r="T8" s="440"/>
-      <c r="U8" s="440"/>
-      <c r="V8" s="440"/>
-      <c r="W8" s="440"/>
-      <c r="X8" s="440"/>
-      <c r="Y8" s="440"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="440"/>
-      <c r="AE8" s="440"/>
-      <c r="AF8" s="440"/>
-      <c r="AG8" s="440"/>
+      <c r="P8" s="490" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q8" s="491"/>
+      <c r="R8" s="491"/>
+      <c r="S8" s="491"/>
+      <c r="T8" s="491"/>
+      <c r="U8" s="491"/>
+      <c r="V8" s="491"/>
+      <c r="W8" s="491"/>
+      <c r="X8" s="491"/>
+      <c r="Y8" s="491"/>
+      <c r="Z8" s="491"/>
+      <c r="AA8" s="491"/>
+      <c r="AB8" s="491"/>
+      <c r="AC8" s="491"/>
+      <c r="AD8" s="491"/>
+      <c r="AE8" s="491"/>
+      <c r="AF8" s="491"/>
+      <c r="AG8" s="492"/>
       <c r="AH8" s="326" t="s">
         <v>175</v>
       </c>
@@ -12750,25 +13403,25 @@
       <c r="M9" s="450"/>
       <c r="N9" s="450"/>
       <c r="O9" s="450"/>
-      <c r="P9" s="441" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="442"/>
-      <c r="AF9" s="442"/>
+      <c r="P9" s="533" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q9" s="533"/>
+      <c r="R9" s="533"/>
+      <c r="S9" s="533"/>
+      <c r="T9" s="533"/>
+      <c r="U9" s="533"/>
+      <c r="V9" s="533"/>
+      <c r="W9" s="533"/>
+      <c r="X9" s="533"/>
+      <c r="Y9" s="533"/>
+      <c r="Z9" s="533"/>
+      <c r="AA9" s="533"/>
+      <c r="AB9" s="533"/>
+      <c r="AC9" s="533"/>
+      <c r="AD9" s="533"/>
+      <c r="AE9" s="533"/>
+      <c r="AF9" s="541"/>
       <c r="AG9" s="442"/>
       <c r="AH9" s="329" t="s">
         <v>165</v>
@@ -12816,7 +13469,7 @@
       <c r="N10" s="443"/>
       <c r="O10" s="453"/>
       <c r="P10" s="454" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="320"/>
       <c r="R10" s="320"/>
@@ -12881,13 +13534,13 @@
       <c r="N11" s="309"/>
       <c r="O11" s="309"/>
       <c r="P11" s="457" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="457"/>
       <c r="R11" s="457"/>
       <c r="S11" s="457"/>
       <c r="T11" s="457"/>
-      <c r="U11" s="457"/>
+      <c r="U11" s="513"/>
       <c r="V11" s="457"/>
       <c r="W11" s="457"/>
       <c r="X11" s="457"/>
@@ -12944,20 +13597,15 @@
       <c r="L12" s="309"/>
       <c r="M12" s="309"/>
       <c r="N12" s="309"/>
-      <c r="O12" s="443"/>
-      <c r="P12" s="458"/>
-      <c r="Q12" s="459" t="s">
-        <v>179</v>
-      </c>
+      <c r="O12" s="514"/>
+      <c r="P12" s="458" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="460"/>
       <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
+      <c r="S12" s="56"/>
       <c r="T12" s="93"/>
-      <c r="U12" s="460" t="s">
-        <v>183</v>
-      </c>
-      <c r="V12" s="460" t="s">
-        <v>184</v>
-      </c>
+      <c r="U12" s="460"/>
       <c r="W12" s="460"/>
       <c r="X12" s="460"/>
       <c r="Y12" s="460"/>
@@ -13016,24 +13664,17 @@
       <c r="M13" s="450"/>
       <c r="N13" s="450"/>
       <c r="O13" s="450"/>
-      <c r="P13" s="441" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="359"/>
+      <c r="P13" s="359" t="s">
+        <v>187</v>
+      </c>
       <c r="R13" s="359"/>
       <c r="S13" s="359"/>
       <c r="T13" s="359"/>
-      <c r="U13" s="433" t="s">
-        <v>187</v>
-      </c>
-      <c r="V13" s="359"/>
-      <c r="W13" s="359"/>
+      <c r="V13" s="359" t="s">
+        <v>201</v>
+      </c>
       <c r="X13" s="359"/>
       <c r="Y13" s="359"/>
-      <c r="Z13" s="359"/>
-      <c r="AA13" s="359" t="s">
-        <v>188</v>
-      </c>
       <c r="AB13" s="359"/>
       <c r="AC13" s="359"/>
       <c r="AD13" s="359"/>
@@ -13086,7 +13727,7 @@
       <c r="N14" s="443"/>
       <c r="O14" s="453"/>
       <c r="P14" s="454" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="320"/>
       <c r="R14" s="320"/>
@@ -13131,7 +13772,7 @@
       <c r="BC14" s="467"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="42">
     <mergeCell ref="A2:AA2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:O3"/>
@@ -13156,8 +13797,10 @@
     <mergeCell ref="P7:AG7"/>
     <mergeCell ref="AH7:BC7"/>
     <mergeCell ref="B8:O8"/>
+    <mergeCell ref="P8:AG8"/>
     <mergeCell ref="AH8:BC8"/>
     <mergeCell ref="B9:O9"/>
+    <mergeCell ref="P9:AF9"/>
     <mergeCell ref="AH9:BC9"/>
     <mergeCell ref="B10:O10"/>
     <mergeCell ref="P10:AG10"/>

--- a/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
@@ -10,11 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="5"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
     <sheet name="履歴一覧" sheetId="8" r:id="rId2"/>
+    <sheet name="画面遷移" sheetId="14" r:id="rId11"/>
     <sheet name="画面レイアウト" sheetId="10" r:id="rId3"/>
     <sheet name="処理概要" sheetId="11" r:id="rId4"/>
     <sheet name="入出力項目定義書" sheetId="12" r:id="rId5"/>
@@ -661,12 +662,114 @@
   <si>
     <t>　２）更新ボタン押すと基本給情報更新画面に移動す。</t>
   </si>
+  <si>
+    <t>基本給管理リスト更新</t>
+  </si>
+  <si>
+    <t>基本給管理テーブル更新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１）親画面の「更新」ボタンが押された場合、                         該当行の「雇用保険ID」を持ち、DBからデータを取得して、画面に表示する                                               ２）親画面の「新規追加」ボタンが押された場合、                         雇用保険IDを採番して、画面に表示する                                               </t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>１）ぴ</t>
+  </si>
+  <si>
+    <t>１）親画面の「更新」ボタンが押された場合、</t>
+  </si>
+  <si>
+    <t>　該当行の「社員ID」</t>
+  </si>
+  <si>
+    <t>がい</t>
+  </si>
+  <si>
+    <t>　該当行の「社員」を持ち、DBからデータを取得して、画面に表示する</t>
+  </si>
+  <si>
+    <t>２）親画面の</t>
+  </si>
+  <si>
+    <t>２）親画面の「新規追加」ボタンが押された場合、</t>
+  </si>
+  <si>
+    <t>　　雇用保険IDを採番して、画面に表示する</t>
+  </si>
+  <si>
+    <t>すい</t>
+  </si>
+  <si>
+    <t>　該当行の「社員ID」を持ち、DBからデータを取得して、画面に表示する</t>
+  </si>
+  <si>
+    <t>　　社員IDを採番して、画面に表示する</t>
+  </si>
+  <si>
+    <t>３）「雇用保険ID」を変更不可にする</t>
+  </si>
+  <si>
+    <t>該当行の「雇用保険ID」を持ち、DBからデータを取得して、画面に表示する</t>
+  </si>
+  <si>
+    <t>雇用保険IDを採番して、画面に表示する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面処理  </t>
+  </si>
+  <si>
+    <t>チェックには空の場合、エラーメッセージを表示し処理を中止する。</t>
+  </si>
+  <si>
+    <t>雇用保険率テーブルに登録する。</t>
+  </si>
+  <si>
+    <t>該当行の「社員ID」を持ち、DBからデータを取得して、画面に表示する</t>
+  </si>
+  <si>
+    <t>社員IDを採番して、画面に表示する</t>
+  </si>
+  <si>
+    <t>３）「社員ID」を変更不可にする</t>
+  </si>
+  <si>
+    <t>基本給管理リストに登録する。</t>
+  </si>
+  <si>
+    <t>　　　―</t>
+  </si>
+  <si>
+    <t>稼働期間Fromは空の場合</t>
+  </si>
+  <si>
+    <t>対象年度は空の場合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">稼働時間Toは空の場合    </t>
+  </si>
+  <si>
+    <t>基本給は数字ではない場合</t>
+  </si>
+  <si>
+    <t>対象年度に月日入れた場合</t>
+  </si>
+  <si>
+    <t>稼働期間From</t>
+  </si>
+  <si>
+    <t>稼働期間From数字ではない場合</t>
+  </si>
+  <si>
+    <t>稼働時間Toは数字ではない場合</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="77" x14ac:knownFonts="1">
+  <fonts count="99" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,6 +1271,155 @@
       <color rgb="FF000000"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <u val="single"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1217,7 +1469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="204">
+  <borders count="233">
     <border>
       <left/>
       <right/>
@@ -3655,13 +3907,484 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="642">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5251,6 +5974,306 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" borderId="188" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="204" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="205" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="205" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="206" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="206" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="206" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="206" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="204" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="205" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="207" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="84" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="87" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="87" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="87" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="87" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="87" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="87" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="208" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="209" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="209" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="210" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="86" applyFont="1" fillId="0" applyFill="1" borderId="211" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="88" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="212" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="89" applyFont="1" fillId="0" applyFill="1" borderId="213" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="214" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="215" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="216" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="88" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="90" applyFont="1" fillId="0" applyFill="1" borderId="217" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="91" applyFont="1" fillId="5" applyFill="1" borderId="212" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="204" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="205" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" borderId="218" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="89" applyFont="1" fillId="0" applyFill="1" borderId="219" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="0" applyFill="1" borderId="220" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="0" applyFill="1" borderId="221" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="3" applyFill="1" borderId="222" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="93" applyFont="1" fillId="3" applyFill="1" borderId="223" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="224" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="225" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="94" applyFont="1" fillId="0" applyFill="1" borderId="225" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="205" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="226" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="3" applyFill="1" borderId="227" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="3" applyFill="1" borderId="228" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="3" applyFill="1" borderId="229" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="92" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="95" applyFont="1" fillId="3" applyFill="1" borderId="230" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="3" applyFill="1" borderId="224" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="3" applyFill="1" borderId="225" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="3" applyFill="1" borderId="231" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="3" applyFill="1" borderId="229" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="3" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="3" applyFill="1" borderId="227" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="96" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="96" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="96" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="224" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="225" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" borderId="226" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="97" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="98" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="86" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5310,6 +6333,589 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="1181100"/>
+          <a:ext cx="1600200" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>凡例：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　：画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　：画面遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="1457325"/>
+          <a:ext cx="485775" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="1800225"/>
+          <a:ext cx="523875" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="3333750"/>
+          <a:ext cx="1562100" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>基本給管理リスト</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="3324225"/>
+          <a:ext cx="1562100" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>基本給管理リスト更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="コネクタ: カギ線 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4733925" y="1676400"/>
+          <a:ext cx="9525" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2399748"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4810125" y="2181225"/>
+          <a:ext cx="9525" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1200063"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="2714625"/>
+          <a:ext cx="942975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="4057650"/>
+          <a:ext cx="942975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5614,7 +7220,7 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:R20" activeCellId="0"/>
+      <selection activeCell="L5" sqref="L5" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5823,7 +7429,7 @@
     <row r="23" customFormat="1" s="4">
       <c r="A23" s="5"/>
       <c r="G23" s="348" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="H23" s="111"/>
       <c r="I23" s="111"/>
@@ -6575,8 +8181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BE17" sqref="BE17:BM17" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="Y1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6978,7 +8584,7 @@
       <c r="S4" s="125"/>
       <c r="T4" s="126"/>
       <c r="U4" s="127" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="V4" s="128"/>
       <c r="W4" s="128"/>
@@ -8259,268 +9865,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:BL16" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" tabSelected="1">
+      <selection activeCell="AU15" sqref="AU15" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="0.75" style="24" customWidth="1"/>
-    <col min="2" max="33" width="2.125" style="24"/>
-    <col min="34" max="34" width="0.25" style="24" customWidth="1"/>
-    <col min="35" max="256" width="2.125" style="24"/>
-    <col min="257" max="257" width="0.75" style="24" customWidth="1"/>
-    <col min="258" max="289" width="2.125" style="24"/>
-    <col min="290" max="290" width="0.25" style="24" customWidth="1"/>
-    <col min="291" max="512" width="2.125" style="24"/>
-    <col min="513" max="513" width="0.75" style="24" customWidth="1"/>
-    <col min="514" max="545" width="2.125" style="24"/>
-    <col min="546" max="546" width="0.25" style="24" customWidth="1"/>
-    <col min="547" max="768" width="2.125" style="24"/>
-    <col min="769" max="769" width="0.75" style="24" customWidth="1"/>
-    <col min="770" max="801" width="2.125" style="24"/>
-    <col min="802" max="802" width="0.25" style="24" customWidth="1"/>
-    <col min="803" max="1024" width="2.125" style="24"/>
-    <col min="1025" max="1025" width="0.75" style="24" customWidth="1"/>
-    <col min="1026" max="1057" width="2.125" style="24"/>
-    <col min="1058" max="1058" width="0.25" style="24" customWidth="1"/>
-    <col min="1059" max="1280" width="2.125" style="24"/>
-    <col min="1281" max="1281" width="0.75" style="24" customWidth="1"/>
-    <col min="1282" max="1313" width="2.125" style="24"/>
-    <col min="1314" max="1314" width="0.25" style="24" customWidth="1"/>
-    <col min="1315" max="1536" width="2.125" style="24"/>
-    <col min="1537" max="1537" width="0.75" style="24" customWidth="1"/>
-    <col min="1538" max="1569" width="2.125" style="24"/>
-    <col min="1570" max="1570" width="0.25" style="24" customWidth="1"/>
-    <col min="1571" max="1792" width="2.125" style="24"/>
-    <col min="1793" max="1793" width="0.75" style="24" customWidth="1"/>
-    <col min="1794" max="1825" width="2.125" style="24"/>
-    <col min="1826" max="1826" width="0.25" style="24" customWidth="1"/>
-    <col min="1827" max="2048" width="2.125" style="24"/>
-    <col min="2049" max="2049" width="0.75" style="24" customWidth="1"/>
-    <col min="2050" max="2081" width="2.125" style="24"/>
-    <col min="2082" max="2082" width="0.25" style="24" customWidth="1"/>
-    <col min="2083" max="2304" width="2.125" style="24"/>
-    <col min="2305" max="2305" width="0.75" style="24" customWidth="1"/>
-    <col min="2306" max="2337" width="2.125" style="24"/>
-    <col min="2338" max="2338" width="0.25" style="24" customWidth="1"/>
-    <col min="2339" max="2560" width="2.125" style="24"/>
-    <col min="2561" max="2561" width="0.75" style="24" customWidth="1"/>
-    <col min="2562" max="2593" width="2.125" style="24"/>
-    <col min="2594" max="2594" width="0.25" style="24" customWidth="1"/>
-    <col min="2595" max="2816" width="2.125" style="24"/>
-    <col min="2817" max="2817" width="0.75" style="24" customWidth="1"/>
-    <col min="2818" max="2849" width="2.125" style="24"/>
-    <col min="2850" max="2850" width="0.25" style="24" customWidth="1"/>
-    <col min="2851" max="3072" width="2.125" style="24"/>
-    <col min="3073" max="3073" width="0.75" style="24" customWidth="1"/>
-    <col min="3074" max="3105" width="2.125" style="24"/>
-    <col min="3106" max="3106" width="0.25" style="24" customWidth="1"/>
-    <col min="3107" max="3328" width="2.125" style="24"/>
-    <col min="3329" max="3329" width="0.75" style="24" customWidth="1"/>
-    <col min="3330" max="3361" width="2.125" style="24"/>
-    <col min="3362" max="3362" width="0.25" style="24" customWidth="1"/>
-    <col min="3363" max="3584" width="2.125" style="24"/>
-    <col min="3585" max="3585" width="0.75" style="24" customWidth="1"/>
-    <col min="3586" max="3617" width="2.125" style="24"/>
-    <col min="3618" max="3618" width="0.25" style="24" customWidth="1"/>
-    <col min="3619" max="3840" width="2.125" style="24"/>
-    <col min="3841" max="3841" width="0.75" style="24" customWidth="1"/>
-    <col min="3842" max="3873" width="2.125" style="24"/>
-    <col min="3874" max="3874" width="0.25" style="24" customWidth="1"/>
-    <col min="3875" max="4096" width="2.125" style="24"/>
-    <col min="4097" max="4097" width="0.75" style="24" customWidth="1"/>
-    <col min="4098" max="4129" width="2.125" style="24"/>
-    <col min="4130" max="4130" width="0.25" style="24" customWidth="1"/>
-    <col min="4131" max="4352" width="2.125" style="24"/>
-    <col min="4353" max="4353" width="0.75" style="24" customWidth="1"/>
-    <col min="4354" max="4385" width="2.125" style="24"/>
-    <col min="4386" max="4386" width="0.25" style="24" customWidth="1"/>
-    <col min="4387" max="4608" width="2.125" style="24"/>
-    <col min="4609" max="4609" width="0.75" style="24" customWidth="1"/>
-    <col min="4610" max="4641" width="2.125" style="24"/>
-    <col min="4642" max="4642" width="0.25" style="24" customWidth="1"/>
-    <col min="4643" max="4864" width="2.125" style="24"/>
-    <col min="4865" max="4865" width="0.75" style="24" customWidth="1"/>
-    <col min="4866" max="4897" width="2.125" style="24"/>
-    <col min="4898" max="4898" width="0.25" style="24" customWidth="1"/>
-    <col min="4899" max="5120" width="2.125" style="24"/>
-    <col min="5121" max="5121" width="0.75" style="24" customWidth="1"/>
-    <col min="5122" max="5153" width="2.125" style="24"/>
-    <col min="5154" max="5154" width="0.25" style="24" customWidth="1"/>
-    <col min="5155" max="5376" width="2.125" style="24"/>
-    <col min="5377" max="5377" width="0.75" style="24" customWidth="1"/>
-    <col min="5378" max="5409" width="2.125" style="24"/>
-    <col min="5410" max="5410" width="0.25" style="24" customWidth="1"/>
-    <col min="5411" max="5632" width="2.125" style="24"/>
-    <col min="5633" max="5633" width="0.75" style="24" customWidth="1"/>
-    <col min="5634" max="5665" width="2.125" style="24"/>
-    <col min="5666" max="5666" width="0.25" style="24" customWidth="1"/>
-    <col min="5667" max="5888" width="2.125" style="24"/>
-    <col min="5889" max="5889" width="0.75" style="24" customWidth="1"/>
-    <col min="5890" max="5921" width="2.125" style="24"/>
-    <col min="5922" max="5922" width="0.25" style="24" customWidth="1"/>
-    <col min="5923" max="6144" width="2.125" style="24"/>
-    <col min="6145" max="6145" width="0.75" style="24" customWidth="1"/>
-    <col min="6146" max="6177" width="2.125" style="24"/>
-    <col min="6178" max="6178" width="0.25" style="24" customWidth="1"/>
-    <col min="6179" max="6400" width="2.125" style="24"/>
-    <col min="6401" max="6401" width="0.75" style="24" customWidth="1"/>
-    <col min="6402" max="6433" width="2.125" style="24"/>
-    <col min="6434" max="6434" width="0.25" style="24" customWidth="1"/>
-    <col min="6435" max="6656" width="2.125" style="24"/>
-    <col min="6657" max="6657" width="0.75" style="24" customWidth="1"/>
-    <col min="6658" max="6689" width="2.125" style="24"/>
-    <col min="6690" max="6690" width="0.25" style="24" customWidth="1"/>
-    <col min="6691" max="6912" width="2.125" style="24"/>
-    <col min="6913" max="6913" width="0.75" style="24" customWidth="1"/>
-    <col min="6914" max="6945" width="2.125" style="24"/>
-    <col min="6946" max="6946" width="0.25" style="24" customWidth="1"/>
-    <col min="6947" max="7168" width="2.125" style="24"/>
-    <col min="7169" max="7169" width="0.75" style="24" customWidth="1"/>
-    <col min="7170" max="7201" width="2.125" style="24"/>
-    <col min="7202" max="7202" width="0.25" style="24" customWidth="1"/>
-    <col min="7203" max="7424" width="2.125" style="24"/>
-    <col min="7425" max="7425" width="0.75" style="24" customWidth="1"/>
-    <col min="7426" max="7457" width="2.125" style="24"/>
-    <col min="7458" max="7458" width="0.25" style="24" customWidth="1"/>
-    <col min="7459" max="7680" width="2.125" style="24"/>
-    <col min="7681" max="7681" width="0.75" style="24" customWidth="1"/>
-    <col min="7682" max="7713" width="2.125" style="24"/>
-    <col min="7714" max="7714" width="0.25" style="24" customWidth="1"/>
-    <col min="7715" max="7936" width="2.125" style="24"/>
-    <col min="7937" max="7937" width="0.75" style="24" customWidth="1"/>
-    <col min="7938" max="7969" width="2.125" style="24"/>
-    <col min="7970" max="7970" width="0.25" style="24" customWidth="1"/>
-    <col min="7971" max="8192" width="2.125" style="24"/>
-    <col min="8193" max="8193" width="0.75" style="24" customWidth="1"/>
-    <col min="8194" max="8225" width="2.125" style="24"/>
-    <col min="8226" max="8226" width="0.25" style="24" customWidth="1"/>
-    <col min="8227" max="8448" width="2.125" style="24"/>
-    <col min="8449" max="8449" width="0.75" style="24" customWidth="1"/>
-    <col min="8450" max="8481" width="2.125" style="24"/>
-    <col min="8482" max="8482" width="0.25" style="24" customWidth="1"/>
-    <col min="8483" max="8704" width="2.125" style="24"/>
-    <col min="8705" max="8705" width="0.75" style="24" customWidth="1"/>
-    <col min="8706" max="8737" width="2.125" style="24"/>
-    <col min="8738" max="8738" width="0.25" style="24" customWidth="1"/>
-    <col min="8739" max="8960" width="2.125" style="24"/>
-    <col min="8961" max="8961" width="0.75" style="24" customWidth="1"/>
-    <col min="8962" max="8993" width="2.125" style="24"/>
-    <col min="8994" max="8994" width="0.25" style="24" customWidth="1"/>
-    <col min="8995" max="9216" width="2.125" style="24"/>
-    <col min="9217" max="9217" width="0.75" style="24" customWidth="1"/>
-    <col min="9218" max="9249" width="2.125" style="24"/>
-    <col min="9250" max="9250" width="0.25" style="24" customWidth="1"/>
-    <col min="9251" max="9472" width="2.125" style="24"/>
-    <col min="9473" max="9473" width="0.75" style="24" customWidth="1"/>
-    <col min="9474" max="9505" width="2.125" style="24"/>
-    <col min="9506" max="9506" width="0.25" style="24" customWidth="1"/>
-    <col min="9507" max="9728" width="2.125" style="24"/>
-    <col min="9729" max="9729" width="0.75" style="24" customWidth="1"/>
-    <col min="9730" max="9761" width="2.125" style="24"/>
-    <col min="9762" max="9762" width="0.25" style="24" customWidth="1"/>
-    <col min="9763" max="9984" width="2.125" style="24"/>
-    <col min="9985" max="9985" width="0.75" style="24" customWidth="1"/>
-    <col min="9986" max="10017" width="2.125" style="24"/>
-    <col min="10018" max="10018" width="0.25" style="24" customWidth="1"/>
-    <col min="10019" max="10240" width="2.125" style="24"/>
-    <col min="10241" max="10241" width="0.75" style="24" customWidth="1"/>
-    <col min="10242" max="10273" width="2.125" style="24"/>
-    <col min="10274" max="10274" width="0.25" style="24" customWidth="1"/>
-    <col min="10275" max="10496" width="2.125" style="24"/>
-    <col min="10497" max="10497" width="0.75" style="24" customWidth="1"/>
-    <col min="10498" max="10529" width="2.125" style="24"/>
-    <col min="10530" max="10530" width="0.25" style="24" customWidth="1"/>
-    <col min="10531" max="10752" width="2.125" style="24"/>
-    <col min="10753" max="10753" width="0.75" style="24" customWidth="1"/>
-    <col min="10754" max="10785" width="2.125" style="24"/>
-    <col min="10786" max="10786" width="0.25" style="24" customWidth="1"/>
-    <col min="10787" max="11008" width="2.125" style="24"/>
-    <col min="11009" max="11009" width="0.75" style="24" customWidth="1"/>
-    <col min="11010" max="11041" width="2.125" style="24"/>
-    <col min="11042" max="11042" width="0.25" style="24" customWidth="1"/>
-    <col min="11043" max="11264" width="2.125" style="24"/>
-    <col min="11265" max="11265" width="0.75" style="24" customWidth="1"/>
-    <col min="11266" max="11297" width="2.125" style="24"/>
-    <col min="11298" max="11298" width="0.25" style="24" customWidth="1"/>
-    <col min="11299" max="11520" width="2.125" style="24"/>
-    <col min="11521" max="11521" width="0.75" style="24" customWidth="1"/>
-    <col min="11522" max="11553" width="2.125" style="24"/>
-    <col min="11554" max="11554" width="0.25" style="24" customWidth="1"/>
-    <col min="11555" max="11776" width="2.125" style="24"/>
-    <col min="11777" max="11777" width="0.75" style="24" customWidth="1"/>
-    <col min="11778" max="11809" width="2.125" style="24"/>
-    <col min="11810" max="11810" width="0.25" style="24" customWidth="1"/>
-    <col min="11811" max="12032" width="2.125" style="24"/>
-    <col min="12033" max="12033" width="0.75" style="24" customWidth="1"/>
-    <col min="12034" max="12065" width="2.125" style="24"/>
-    <col min="12066" max="12066" width="0.25" style="24" customWidth="1"/>
-    <col min="12067" max="12288" width="2.125" style="24"/>
-    <col min="12289" max="12289" width="0.75" style="24" customWidth="1"/>
-    <col min="12290" max="12321" width="2.125" style="24"/>
-    <col min="12322" max="12322" width="0.25" style="24" customWidth="1"/>
-    <col min="12323" max="12544" width="2.125" style="24"/>
-    <col min="12545" max="12545" width="0.75" style="24" customWidth="1"/>
-    <col min="12546" max="12577" width="2.125" style="24"/>
-    <col min="12578" max="12578" width="0.25" style="24" customWidth="1"/>
-    <col min="12579" max="12800" width="2.125" style="24"/>
-    <col min="12801" max="12801" width="0.75" style="24" customWidth="1"/>
-    <col min="12802" max="12833" width="2.125" style="24"/>
-    <col min="12834" max="12834" width="0.25" style="24" customWidth="1"/>
-    <col min="12835" max="13056" width="2.125" style="24"/>
-    <col min="13057" max="13057" width="0.75" style="24" customWidth="1"/>
-    <col min="13058" max="13089" width="2.125" style="24"/>
-    <col min="13090" max="13090" width="0.25" style="24" customWidth="1"/>
-    <col min="13091" max="13312" width="2.125" style="24"/>
-    <col min="13313" max="13313" width="0.75" style="24" customWidth="1"/>
-    <col min="13314" max="13345" width="2.125" style="24"/>
-    <col min="13346" max="13346" width="0.25" style="24" customWidth="1"/>
-    <col min="13347" max="13568" width="2.125" style="24"/>
-    <col min="13569" max="13569" width="0.75" style="24" customWidth="1"/>
-    <col min="13570" max="13601" width="2.125" style="24"/>
-    <col min="13602" max="13602" width="0.25" style="24" customWidth="1"/>
-    <col min="13603" max="13824" width="2.125" style="24"/>
-    <col min="13825" max="13825" width="0.75" style="24" customWidth="1"/>
-    <col min="13826" max="13857" width="2.125" style="24"/>
-    <col min="13858" max="13858" width="0.25" style="24" customWidth="1"/>
-    <col min="13859" max="14080" width="2.125" style="24"/>
-    <col min="14081" max="14081" width="0.75" style="24" customWidth="1"/>
-    <col min="14082" max="14113" width="2.125" style="24"/>
-    <col min="14114" max="14114" width="0.25" style="24" customWidth="1"/>
-    <col min="14115" max="14336" width="2.125" style="24"/>
-    <col min="14337" max="14337" width="0.75" style="24" customWidth="1"/>
-    <col min="14338" max="14369" width="2.125" style="24"/>
-    <col min="14370" max="14370" width="0.25" style="24" customWidth="1"/>
-    <col min="14371" max="14592" width="2.125" style="24"/>
-    <col min="14593" max="14593" width="0.75" style="24" customWidth="1"/>
-    <col min="14594" max="14625" width="2.125" style="24"/>
-    <col min="14626" max="14626" width="0.25" style="24" customWidth="1"/>
-    <col min="14627" max="14848" width="2.125" style="24"/>
-    <col min="14849" max="14849" width="0.75" style="24" customWidth="1"/>
-    <col min="14850" max="14881" width="2.125" style="24"/>
-    <col min="14882" max="14882" width="0.25" style="24" customWidth="1"/>
-    <col min="14883" max="15104" width="2.125" style="24"/>
-    <col min="15105" max="15105" width="0.75" style="24" customWidth="1"/>
-    <col min="15106" max="15137" width="2.125" style="24"/>
-    <col min="15138" max="15138" width="0.25" style="24" customWidth="1"/>
-    <col min="15139" max="15360" width="2.125" style="24"/>
-    <col min="15361" max="15361" width="0.75" style="24" customWidth="1"/>
-    <col min="15362" max="15393" width="2.125" style="24"/>
-    <col min="15394" max="15394" width="0.25" style="24" customWidth="1"/>
-    <col min="15395" max="15616" width="2.125" style="24"/>
-    <col min="15617" max="15617" width="0.75" style="24" customWidth="1"/>
-    <col min="15618" max="15649" width="2.125" style="24"/>
-    <col min="15650" max="15650" width="0.25" style="24" customWidth="1"/>
-    <col min="15651" max="15872" width="2.125" style="24"/>
-    <col min="15873" max="15873" width="0.75" style="24" customWidth="1"/>
-    <col min="15874" max="15905" width="2.125" style="24"/>
-    <col min="15906" max="15906" width="0.25" style="24" customWidth="1"/>
-    <col min="15907" max="16128" width="2.125" style="24"/>
-    <col min="16129" max="16129" width="0.75" style="24" customWidth="1"/>
-    <col min="16130" max="16161" width="2.125" style="24"/>
-    <col min="16162" max="16162" width="0.25" style="24" customWidth="1"/>
-    <col min="16163" max="16384" width="2.125" style="24"/>
+    <col min="1" max="1" width="1.5" style="24" customWidth="1"/>
+    <col min="2" max="2" width="2.125" style="24"/>
+    <col min="2" max="2" width="0.875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="2.625" style="24" customWidth="1"/>
+    <col min="5" max="31" width="2.125" style="24"/>
+    <col min="32" max="32" width="2.125" style="24"/>
+    <col min="33" max="33" width="5.625" style="24" customWidth="1"/>
+    <col min="34" max="34" width="2.125" style="24"/>
+    <col min="35" max="36" width="2.125" style="24"/>
+    <col min="36" max="36" width="5.125" style="24" customWidth="1"/>
+    <col min="37" max="200" width="2.125" style="24"/>
+    <col min="201" max="201" width="0.75" style="24" customWidth="1"/>
+    <col min="202" max="233" width="2.125" style="24"/>
+    <col min="234" max="234" width="0.25" style="24" customWidth="1"/>
+    <col min="235" max="456" width="2.125" style="24"/>
+    <col min="457" max="457" width="0.75" style="24" customWidth="1"/>
+    <col min="458" max="489" width="2.125" style="24"/>
+    <col min="490" max="490" width="0.25" style="24" customWidth="1"/>
+    <col min="491" max="712" width="2.125" style="24"/>
+    <col min="713" max="713" width="0.75" style="24" customWidth="1"/>
+    <col min="714" max="745" width="2.125" style="24"/>
+    <col min="746" max="746" width="0.25" style="24" customWidth="1"/>
+    <col min="747" max="968" width="2.125" style="24"/>
+    <col min="969" max="969" width="0.75" style="24" customWidth="1"/>
+    <col min="970" max="1001" width="2.125" style="24"/>
+    <col min="1002" max="1002" width="0.25" style="24" customWidth="1"/>
+    <col min="1003" max="1224" width="2.125" style="24"/>
+    <col min="1225" max="1225" width="0.75" style="24" customWidth="1"/>
+    <col min="1226" max="1257" width="2.125" style="24"/>
+    <col min="1258" max="1258" width="0.25" style="24" customWidth="1"/>
+    <col min="1259" max="1480" width="2.125" style="24"/>
+    <col min="1481" max="1481" width="0.75" style="24" customWidth="1"/>
+    <col min="1482" max="1513" width="2.125" style="24"/>
+    <col min="1514" max="1514" width="0.25" style="24" customWidth="1"/>
+    <col min="1515" max="1736" width="2.125" style="24"/>
+    <col min="1737" max="1737" width="0.75" style="24" customWidth="1"/>
+    <col min="1738" max="1769" width="2.125" style="24"/>
+    <col min="1770" max="1770" width="0.25" style="24" customWidth="1"/>
+    <col min="1771" max="1992" width="2.125" style="24"/>
+    <col min="1993" max="1993" width="0.75" style="24" customWidth="1"/>
+    <col min="1994" max="2025" width="2.125" style="24"/>
+    <col min="2026" max="2026" width="0.25" style="24" customWidth="1"/>
+    <col min="2027" max="2248" width="2.125" style="24"/>
+    <col min="2249" max="2249" width="0.75" style="24" customWidth="1"/>
+    <col min="2250" max="2281" width="2.125" style="24"/>
+    <col min="2282" max="2282" width="0.25" style="24" customWidth="1"/>
+    <col min="2283" max="2504" width="2.125" style="24"/>
+    <col min="2505" max="2505" width="0.75" style="24" customWidth="1"/>
+    <col min="2506" max="2537" width="2.125" style="24"/>
+    <col min="2538" max="2538" width="0.25" style="24" customWidth="1"/>
+    <col min="2539" max="2760" width="2.125" style="24"/>
+    <col min="2761" max="2761" width="0.75" style="24" customWidth="1"/>
+    <col min="2762" max="2793" width="2.125" style="24"/>
+    <col min="2794" max="2794" width="0.25" style="24" customWidth="1"/>
+    <col min="2795" max="3016" width="2.125" style="24"/>
+    <col min="3017" max="3017" width="0.75" style="24" customWidth="1"/>
+    <col min="3018" max="3049" width="2.125" style="24"/>
+    <col min="3050" max="3050" width="0.25" style="24" customWidth="1"/>
+    <col min="3051" max="3272" width="2.125" style="24"/>
+    <col min="3273" max="3273" width="0.75" style="24" customWidth="1"/>
+    <col min="3274" max="3305" width="2.125" style="24"/>
+    <col min="3306" max="3306" width="0.25" style="24" customWidth="1"/>
+    <col min="3307" max="3528" width="2.125" style="24"/>
+    <col min="3529" max="3529" width="0.75" style="24" customWidth="1"/>
+    <col min="3530" max="3561" width="2.125" style="24"/>
+    <col min="3562" max="3562" width="0.25" style="24" customWidth="1"/>
+    <col min="3563" max="3784" width="2.125" style="24"/>
+    <col min="3785" max="3785" width="0.75" style="24" customWidth="1"/>
+    <col min="3786" max="3817" width="2.125" style="24"/>
+    <col min="3818" max="3818" width="0.25" style="24" customWidth="1"/>
+    <col min="3819" max="4040" width="2.125" style="24"/>
+    <col min="4041" max="4041" width="0.75" style="24" customWidth="1"/>
+    <col min="4042" max="4073" width="2.125" style="24"/>
+    <col min="4074" max="4074" width="0.25" style="24" customWidth="1"/>
+    <col min="4075" max="4296" width="2.125" style="24"/>
+    <col min="4297" max="4297" width="0.75" style="24" customWidth="1"/>
+    <col min="4298" max="4329" width="2.125" style="24"/>
+    <col min="4330" max="4330" width="0.25" style="24" customWidth="1"/>
+    <col min="4331" max="4552" width="2.125" style="24"/>
+    <col min="4553" max="4553" width="0.75" style="24" customWidth="1"/>
+    <col min="4554" max="4585" width="2.125" style="24"/>
+    <col min="4586" max="4586" width="0.25" style="24" customWidth="1"/>
+    <col min="4587" max="4808" width="2.125" style="24"/>
+    <col min="4809" max="4809" width="0.75" style="24" customWidth="1"/>
+    <col min="4810" max="4841" width="2.125" style="24"/>
+    <col min="4842" max="4842" width="0.25" style="24" customWidth="1"/>
+    <col min="4843" max="5064" width="2.125" style="24"/>
+    <col min="5065" max="5065" width="0.75" style="24" customWidth="1"/>
+    <col min="5066" max="5097" width="2.125" style="24"/>
+    <col min="5098" max="5098" width="0.25" style="24" customWidth="1"/>
+    <col min="5099" max="5320" width="2.125" style="24"/>
+    <col min="5321" max="5321" width="0.75" style="24" customWidth="1"/>
+    <col min="5322" max="5353" width="2.125" style="24"/>
+    <col min="5354" max="5354" width="0.25" style="24" customWidth="1"/>
+    <col min="5355" max="5576" width="2.125" style="24"/>
+    <col min="5577" max="5577" width="0.75" style="24" customWidth="1"/>
+    <col min="5578" max="5609" width="2.125" style="24"/>
+    <col min="5610" max="5610" width="0.25" style="24" customWidth="1"/>
+    <col min="5611" max="5832" width="2.125" style="24"/>
+    <col min="5833" max="5833" width="0.75" style="24" customWidth="1"/>
+    <col min="5834" max="5865" width="2.125" style="24"/>
+    <col min="5866" max="5866" width="0.25" style="24" customWidth="1"/>
+    <col min="5867" max="6088" width="2.125" style="24"/>
+    <col min="6089" max="6089" width="0.75" style="24" customWidth="1"/>
+    <col min="6090" max="6121" width="2.125" style="24"/>
+    <col min="6122" max="6122" width="0.25" style="24" customWidth="1"/>
+    <col min="6123" max="6344" width="2.125" style="24"/>
+    <col min="6345" max="6345" width="0.75" style="24" customWidth="1"/>
+    <col min="6346" max="6377" width="2.125" style="24"/>
+    <col min="6378" max="6378" width="0.25" style="24" customWidth="1"/>
+    <col min="6379" max="6600" width="2.125" style="24"/>
+    <col min="6601" max="6601" width="0.75" style="24" customWidth="1"/>
+    <col min="6602" max="6633" width="2.125" style="24"/>
+    <col min="6634" max="6634" width="0.25" style="24" customWidth="1"/>
+    <col min="6635" max="6856" width="2.125" style="24"/>
+    <col min="6857" max="6857" width="0.75" style="24" customWidth="1"/>
+    <col min="6858" max="6889" width="2.125" style="24"/>
+    <col min="6890" max="6890" width="0.25" style="24" customWidth="1"/>
+    <col min="6891" max="7112" width="2.125" style="24"/>
+    <col min="7113" max="7113" width="0.75" style="24" customWidth="1"/>
+    <col min="7114" max="7145" width="2.125" style="24"/>
+    <col min="7146" max="7146" width="0.25" style="24" customWidth="1"/>
+    <col min="7147" max="7368" width="2.125" style="24"/>
+    <col min="7369" max="7369" width="0.75" style="24" customWidth="1"/>
+    <col min="7370" max="7401" width="2.125" style="24"/>
+    <col min="7402" max="7402" width="0.25" style="24" customWidth="1"/>
+    <col min="7403" max="7624" width="2.125" style="24"/>
+    <col min="7625" max="7625" width="0.75" style="24" customWidth="1"/>
+    <col min="7626" max="7657" width="2.125" style="24"/>
+    <col min="7658" max="7658" width="0.25" style="24" customWidth="1"/>
+    <col min="7659" max="7880" width="2.125" style="24"/>
+    <col min="7881" max="7881" width="0.75" style="24" customWidth="1"/>
+    <col min="7882" max="7913" width="2.125" style="24"/>
+    <col min="7914" max="7914" width="0.25" style="24" customWidth="1"/>
+    <col min="7915" max="8136" width="2.125" style="24"/>
+    <col min="8137" max="8137" width="0.75" style="24" customWidth="1"/>
+    <col min="8138" max="8169" width="2.125" style="24"/>
+    <col min="8170" max="8170" width="0.25" style="24" customWidth="1"/>
+    <col min="8171" max="8392" width="2.125" style="24"/>
+    <col min="8393" max="8393" width="0.75" style="24" customWidth="1"/>
+    <col min="8394" max="8425" width="2.125" style="24"/>
+    <col min="8426" max="8426" width="0.25" style="24" customWidth="1"/>
+    <col min="8427" max="8648" width="2.125" style="24"/>
+    <col min="8649" max="8649" width="0.75" style="24" customWidth="1"/>
+    <col min="8650" max="8681" width="2.125" style="24"/>
+    <col min="8682" max="8682" width="0.25" style="24" customWidth="1"/>
+    <col min="8683" max="8904" width="2.125" style="24"/>
+    <col min="8905" max="8905" width="0.75" style="24" customWidth="1"/>
+    <col min="8906" max="8937" width="2.125" style="24"/>
+    <col min="8938" max="8938" width="0.25" style="24" customWidth="1"/>
+    <col min="8939" max="9160" width="2.125" style="24"/>
+    <col min="9161" max="9161" width="0.75" style="24" customWidth="1"/>
+    <col min="9162" max="9193" width="2.125" style="24"/>
+    <col min="9194" max="9194" width="0.25" style="24" customWidth="1"/>
+    <col min="9195" max="9416" width="2.125" style="24"/>
+    <col min="9417" max="9417" width="0.75" style="24" customWidth="1"/>
+    <col min="9418" max="9449" width="2.125" style="24"/>
+    <col min="9450" max="9450" width="0.25" style="24" customWidth="1"/>
+    <col min="9451" max="9672" width="2.125" style="24"/>
+    <col min="9673" max="9673" width="0.75" style="24" customWidth="1"/>
+    <col min="9674" max="9705" width="2.125" style="24"/>
+    <col min="9706" max="9706" width="0.25" style="24" customWidth="1"/>
+    <col min="9707" max="9928" width="2.125" style="24"/>
+    <col min="9929" max="9929" width="0.75" style="24" customWidth="1"/>
+    <col min="9930" max="9961" width="2.125" style="24"/>
+    <col min="9962" max="9962" width="0.25" style="24" customWidth="1"/>
+    <col min="9963" max="10184" width="2.125" style="24"/>
+    <col min="10185" max="10185" width="0.75" style="24" customWidth="1"/>
+    <col min="10186" max="10217" width="2.125" style="24"/>
+    <col min="10218" max="10218" width="0.25" style="24" customWidth="1"/>
+    <col min="10219" max="10440" width="2.125" style="24"/>
+    <col min="10441" max="10441" width="0.75" style="24" customWidth="1"/>
+    <col min="10442" max="10473" width="2.125" style="24"/>
+    <col min="10474" max="10474" width="0.25" style="24" customWidth="1"/>
+    <col min="10475" max="10696" width="2.125" style="24"/>
+    <col min="10697" max="10697" width="0.75" style="24" customWidth="1"/>
+    <col min="10698" max="10729" width="2.125" style="24"/>
+    <col min="10730" max="10730" width="0.25" style="24" customWidth="1"/>
+    <col min="10731" max="10952" width="2.125" style="24"/>
+    <col min="10953" max="10953" width="0.75" style="24" customWidth="1"/>
+    <col min="10954" max="10985" width="2.125" style="24"/>
+    <col min="10986" max="10986" width="0.25" style="24" customWidth="1"/>
+    <col min="10987" max="11208" width="2.125" style="24"/>
+    <col min="11209" max="11209" width="0.75" style="24" customWidth="1"/>
+    <col min="11210" max="11241" width="2.125" style="24"/>
+    <col min="11242" max="11242" width="0.25" style="24" customWidth="1"/>
+    <col min="11243" max="11464" width="2.125" style="24"/>
+    <col min="11465" max="11465" width="0.75" style="24" customWidth="1"/>
+    <col min="11466" max="11497" width="2.125" style="24"/>
+    <col min="11498" max="11498" width="0.25" style="24" customWidth="1"/>
+    <col min="11499" max="11720" width="2.125" style="24"/>
+    <col min="11721" max="11721" width="0.75" style="24" customWidth="1"/>
+    <col min="11722" max="11753" width="2.125" style="24"/>
+    <col min="11754" max="11754" width="0.25" style="24" customWidth="1"/>
+    <col min="11755" max="11976" width="2.125" style="24"/>
+    <col min="11977" max="11977" width="0.75" style="24" customWidth="1"/>
+    <col min="11978" max="12009" width="2.125" style="24"/>
+    <col min="12010" max="12010" width="0.25" style="24" customWidth="1"/>
+    <col min="12011" max="12232" width="2.125" style="24"/>
+    <col min="12233" max="12233" width="0.75" style="24" customWidth="1"/>
+    <col min="12234" max="12265" width="2.125" style="24"/>
+    <col min="12266" max="12266" width="0.25" style="24" customWidth="1"/>
+    <col min="12267" max="12488" width="2.125" style="24"/>
+    <col min="12489" max="12489" width="0.75" style="24" customWidth="1"/>
+    <col min="12490" max="12521" width="2.125" style="24"/>
+    <col min="12522" max="12522" width="0.25" style="24" customWidth="1"/>
+    <col min="12523" max="12744" width="2.125" style="24"/>
+    <col min="12745" max="12745" width="0.75" style="24" customWidth="1"/>
+    <col min="12746" max="12777" width="2.125" style="24"/>
+    <col min="12778" max="12778" width="0.25" style="24" customWidth="1"/>
+    <col min="12779" max="13000" width="2.125" style="24"/>
+    <col min="13001" max="13001" width="0.75" style="24" customWidth="1"/>
+    <col min="13002" max="13033" width="2.125" style="24"/>
+    <col min="13034" max="13034" width="0.25" style="24" customWidth="1"/>
+    <col min="13035" max="13256" width="2.125" style="24"/>
+    <col min="13257" max="13257" width="0.75" style="24" customWidth="1"/>
+    <col min="13258" max="13289" width="2.125" style="24"/>
+    <col min="13290" max="13290" width="0.25" style="24" customWidth="1"/>
+    <col min="13291" max="13512" width="2.125" style="24"/>
+    <col min="13513" max="13513" width="0.75" style="24" customWidth="1"/>
+    <col min="13514" max="13545" width="2.125" style="24"/>
+    <col min="13546" max="13546" width="0.25" style="24" customWidth="1"/>
+    <col min="13547" max="13768" width="2.125" style="24"/>
+    <col min="13769" max="13769" width="0.75" style="24" customWidth="1"/>
+    <col min="13770" max="13801" width="2.125" style="24"/>
+    <col min="13802" max="13802" width="0.25" style="24" customWidth="1"/>
+    <col min="13803" max="14024" width="2.125" style="24"/>
+    <col min="14025" max="14025" width="0.75" style="24" customWidth="1"/>
+    <col min="14026" max="14057" width="2.125" style="24"/>
+    <col min="14058" max="14058" width="0.25" style="24" customWidth="1"/>
+    <col min="14059" max="14280" width="2.125" style="24"/>
+    <col min="14281" max="14281" width="0.75" style="24" customWidth="1"/>
+    <col min="14282" max="14313" width="2.125" style="24"/>
+    <col min="14314" max="14314" width="0.25" style="24" customWidth="1"/>
+    <col min="14315" max="14536" width="2.125" style="24"/>
+    <col min="14537" max="14537" width="0.75" style="24" customWidth="1"/>
+    <col min="14538" max="14569" width="2.125" style="24"/>
+    <col min="14570" max="14570" width="0.25" style="24" customWidth="1"/>
+    <col min="14571" max="14792" width="2.125" style="24"/>
+    <col min="14793" max="14793" width="0.75" style="24" customWidth="1"/>
+    <col min="14794" max="14825" width="2.125" style="24"/>
+    <col min="14826" max="14826" width="0.25" style="24" customWidth="1"/>
+    <col min="14827" max="15048" width="2.125" style="24"/>
+    <col min="15049" max="15049" width="0.75" style="24" customWidth="1"/>
+    <col min="15050" max="15081" width="2.125" style="24"/>
+    <col min="15082" max="15082" width="0.25" style="24" customWidth="1"/>
+    <col min="15083" max="15304" width="2.125" style="24"/>
+    <col min="15305" max="15305" width="0.75" style="24" customWidth="1"/>
+    <col min="15306" max="15337" width="2.125" style="24"/>
+    <col min="15338" max="15338" width="0.25" style="24" customWidth="1"/>
+    <col min="15339" max="15560" width="2.125" style="24"/>
+    <col min="15561" max="15561" width="0.75" style="24" customWidth="1"/>
+    <col min="15562" max="15593" width="2.125" style="24"/>
+    <col min="15594" max="15594" width="0.25" style="24" customWidth="1"/>
+    <col min="15595" max="15816" width="2.125" style="24"/>
+    <col min="15817" max="15817" width="0.75" style="24" customWidth="1"/>
+    <col min="15818" max="15849" width="2.125" style="24"/>
+    <col min="15850" max="15850" width="0.25" style="24" customWidth="1"/>
+    <col min="15851" max="16072" width="2.125" style="24"/>
+    <col min="16073" max="16073" width="0.75" style="24" customWidth="1"/>
+    <col min="16074" max="16105" width="2.125" style="24"/>
+    <col min="16106" max="16106" width="0.25" style="24" customWidth="1"/>
+    <col min="16107" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="12">
@@ -8548,8 +10162,8 @@
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
       <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="21"/>
       <c r="AA1" s="21"/>
       <c r="AB1" s="21"/>
       <c r="AC1" s="21"/>
@@ -8560,35 +10174,6 @@
       <c r="AH1" s="21"/>
       <c r="AI1" s="21"/>
       <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="31"/>
     </row>
     <row r="2" customHeight="1" ht="12">
       <c r="A2" s="116" t="s">
@@ -8618,30 +10203,13 @@
       <c r="W2" s="117"/>
       <c r="X2" s="117"/>
       <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
-      <c r="AY2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="26"/>
-      <c r="BC2" s="26"/>
-      <c r="BD2" s="26"/>
-      <c r="BE2" s="26"/>
-      <c r="BF2" s="26"/>
-      <c r="BG2" s="26"/>
-      <c r="BH2" s="26"/>
-      <c r="BI2" s="26"/>
-      <c r="BJ2" s="26"/>
-      <c r="BK2" s="26"/>
-      <c r="BL2" s="26"/>
-      <c r="BM2" s="31"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
     </row>
     <row r="3" customHeight="1" ht="15">
       <c r="A3" s="116"/>
@@ -8669,941 +10237,1813 @@
       <c r="W3" s="117"/>
       <c r="X3" s="117"/>
       <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
-      <c r="BE3" s="25"/>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
-      <c r="BM3" s="32"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
     </row>
     <row r="4" customHeight="1" ht="12">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="192" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="193"/>
-      <c r="K4" s="193"/>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="195" t="s">
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="196"/>
-      <c r="S4" s="196"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="198" t="s">
-        <v>122</v>
-      </c>
-      <c r="V4" s="199"/>
-      <c r="W4" s="199"/>
-      <c r="X4" s="199"/>
-      <c r="Y4" s="199"/>
-      <c r="Z4" s="199"/>
-      <c r="AA4" s="199"/>
-      <c r="AB4" s="199"/>
-      <c r="AC4" s="199"/>
-      <c r="AD4" s="199"/>
-      <c r="AE4" s="199"/>
-      <c r="AF4" s="199"/>
-      <c r="AG4" s="199"/>
-      <c r="AH4" s="199"/>
-      <c r="AI4" s="199"/>
-      <c r="AJ4" s="199"/>
-      <c r="AK4" s="199"/>
-      <c r="AL4" s="199"/>
-      <c r="AM4" s="199"/>
-      <c r="AN4" s="199"/>
-      <c r="AO4" s="199"/>
-      <c r="AP4" s="199"/>
-      <c r="AQ4" s="199"/>
-      <c r="AR4" s="199"/>
-      <c r="AS4" s="199"/>
-      <c r="AT4" s="199"/>
-      <c r="AU4" s="199"/>
-      <c r="AV4" s="200"/>
-      <c r="AW4" s="201" t="s">
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="127" t="s">
+        <v>126</v>
+      </c>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="629"/>
+      <c r="AG4" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="AX4" s="202"/>
-      <c r="AY4" s="203"/>
-      <c r="AZ4" s="204">
-        <v>45068</v>
-      </c>
-      <c r="BA4" s="205"/>
-      <c r="BB4" s="205"/>
-      <c r="BC4" s="205"/>
-      <c r="BD4" s="205"/>
-      <c r="BE4" s="205"/>
-      <c r="BF4" s="201" t="s">
+      <c r="AH4" s="634" t="s">
         <v>15</v>
       </c>
-      <c r="BG4" s="202"/>
-      <c r="BH4" s="203"/>
-      <c r="BI4" s="204" t="s">
+      <c r="AI4" s="635"/>
+      <c r="AJ4" s="636" t="s">
         <v>123</v>
       </c>
-      <c r="BJ4" s="205"/>
-      <c r="BK4" s="205"/>
-      <c r="BL4" s="205"/>
-      <c r="BM4" s="33"/>
     </row>
     <row r="5" customHeight="1" ht="12">
-      <c r="A5" s="206" t="s">
+      <c r="A5" s="637" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="209" t="s">
+      <c r="B5" s="547"/>
+      <c r="C5" s="547"/>
+      <c r="D5" s="547"/>
+      <c r="E5" s="626"/>
+      <c r="F5" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="206" t="s">
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="627"/>
+      <c r="N5" s="546" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="207"/>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="208"/>
-      <c r="U5" s="211"/>
-      <c r="V5" s="212"/>
-      <c r="W5" s="212"/>
-      <c r="X5" s="212"/>
-      <c r="Y5" s="212"/>
-      <c r="Z5" s="212"/>
-      <c r="AA5" s="212"/>
-      <c r="AB5" s="212"/>
-      <c r="AC5" s="212"/>
-      <c r="AD5" s="212"/>
-      <c r="AE5" s="212"/>
-      <c r="AF5" s="212"/>
-      <c r="AG5" s="212"/>
-      <c r="AH5" s="212"/>
-      <c r="AI5" s="212"/>
-      <c r="AJ5" s="212"/>
-      <c r="AK5" s="212"/>
-      <c r="AL5" s="212"/>
-      <c r="AM5" s="212"/>
-      <c r="AN5" s="212"/>
-      <c r="AO5" s="212"/>
-      <c r="AP5" s="212"/>
-      <c r="AQ5" s="212"/>
-      <c r="AR5" s="212"/>
-      <c r="AS5" s="212"/>
-      <c r="AT5" s="212"/>
-      <c r="AU5" s="212"/>
-      <c r="AV5" s="213"/>
-      <c r="AW5" s="214" t="s">
+      <c r="O5" s="547"/>
+      <c r="P5" s="547"/>
+      <c r="Q5" s="547"/>
+      <c r="R5" s="547"/>
+      <c r="S5" s="626"/>
+      <c r="T5" s="548"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="134"/>
+      <c r="AD5" s="134"/>
+      <c r="AE5" s="135"/>
+      <c r="AF5" s="632"/>
+      <c r="AG5" s="549" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="215"/>
-      <c r="AY5" s="216"/>
-      <c r="AZ5" s="215"/>
-      <c r="BA5" s="215"/>
-      <c r="BB5" s="215"/>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="215"/>
-      <c r="BE5" s="215"/>
-      <c r="BF5" s="214" t="s">
+      <c r="AH5" s="549" t="s">
         <v>20</v>
       </c>
-      <c r="BG5" s="215"/>
-      <c r="BH5" s="216"/>
-      <c r="BI5" s="215"/>
-      <c r="BJ5" s="212"/>
-      <c r="BK5" s="212"/>
-      <c r="BL5" s="212"/>
-      <c r="BM5" s="34"/>
+      <c r="AI5" s="550"/>
+      <c r="AJ5" s="633"/>
     </row>
     <row r="6" customHeight="1" ht="12">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-      <c r="AJ6" s="36"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="217"/>
-      <c r="AP6" s="218"/>
-      <c r="AQ6" s="218"/>
-      <c r="AR6" s="217"/>
-      <c r="AS6" s="217"/>
-      <c r="AT6" s="217"/>
-      <c r="AU6" s="217"/>
-      <c r="AV6" s="217"/>
-      <c r="AW6" s="217"/>
-      <c r="AX6" s="217"/>
-      <c r="AY6" s="217"/>
-      <c r="AZ6" s="217"/>
-      <c r="BA6" s="217"/>
-      <c r="BB6" s="217"/>
-      <c r="BC6" s="217"/>
-      <c r="BD6" s="217"/>
-      <c r="BE6" s="218"/>
-      <c r="BF6" s="218"/>
-      <c r="BG6" s="218"/>
-      <c r="BH6" s="218"/>
-      <c r="BI6" s="218"/>
-      <c r="BJ6" s="218"/>
-      <c r="BK6" s="218"/>
-      <c r="BL6" s="218"/>
-      <c r="BM6" s="31"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
     </row>
     <row r="7" customHeight="1" ht="12">
       <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="31"/>
+      <c r="B7" s="221" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="222"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="222"/>
+      <c r="U7" s="222"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="222"/>
+      <c r="X7" s="222"/>
+      <c r="Y7" s="222"/>
+      <c r="Z7" s="222"/>
+      <c r="AA7" s="222"/>
+      <c r="AB7" s="222"/>
+      <c r="AC7" s="222"/>
+      <c r="AD7" s="222"/>
+      <c r="AE7" s="222"/>
+      <c r="AF7" s="222"/>
+      <c r="AG7" s="222"/>
+      <c r="AH7" s="222"/>
+      <c r="AI7" s="222"/>
+      <c r="AJ7" s="223"/>
+      <c r="GS7" s="24"/>
+      <c r="HZ7" s="24"/>
+      <c r="QO7" s="24"/>
+      <c r="RV7" s="24"/>
+      <c r="AAK7" s="24"/>
+      <c r="ABR7" s="24"/>
+      <c r="AKG7" s="24"/>
+      <c r="ALN7" s="24"/>
+      <c r="AUC7" s="24"/>
+      <c r="AVJ7" s="24"/>
+      <c r="BDY7" s="24"/>
+      <c r="BFF7" s="24"/>
+      <c r="BNU7" s="24"/>
+      <c r="BPB7" s="24"/>
+      <c r="BXQ7" s="24"/>
+      <c r="BYX7" s="24"/>
+      <c r="CHM7" s="24"/>
+      <c r="CIT7" s="24"/>
+      <c r="CRI7" s="24"/>
+      <c r="CSP7" s="24"/>
+      <c r="DBE7" s="24"/>
+      <c r="DCL7" s="24"/>
+      <c r="DLA7" s="24"/>
+      <c r="DMH7" s="24"/>
+      <c r="DUW7" s="24"/>
+      <c r="DWD7" s="24"/>
+      <c r="EES7" s="24"/>
+      <c r="EFZ7" s="24"/>
+      <c r="EOO7" s="24"/>
+      <c r="EPV7" s="24"/>
+      <c r="EYK7" s="24"/>
+      <c r="EZR7" s="24"/>
+      <c r="FIG7" s="24"/>
+      <c r="FJN7" s="24"/>
+      <c r="FSC7" s="24"/>
+      <c r="FTJ7" s="24"/>
+      <c r="GBY7" s="24"/>
+      <c r="GDF7" s="24"/>
+      <c r="GLU7" s="24"/>
+      <c r="GNB7" s="24"/>
+      <c r="GVQ7" s="24"/>
+      <c r="GWX7" s="24"/>
+      <c r="HFM7" s="24"/>
+      <c r="HGT7" s="24"/>
+      <c r="HPI7" s="24"/>
+      <c r="HQP7" s="24"/>
+      <c r="HZE7" s="24"/>
+      <c r="IAL7" s="24"/>
+      <c r="IJA7" s="24"/>
+      <c r="IKH7" s="24"/>
+      <c r="ISW7" s="24"/>
+      <c r="IUD7" s="24"/>
+      <c r="JCS7" s="24"/>
+      <c r="JDZ7" s="24"/>
+      <c r="JMO7" s="24"/>
+      <c r="JNV7" s="24"/>
+      <c r="JWK7" s="24"/>
+      <c r="JXR7" s="24"/>
+      <c r="KGG7" s="24"/>
+      <c r="KHN7" s="24"/>
+      <c r="KQC7" s="24"/>
+      <c r="KRJ7" s="24"/>
+      <c r="KZY7" s="24"/>
+      <c r="LBF7" s="24"/>
+      <c r="LJU7" s="24"/>
+      <c r="LLB7" s="24"/>
+      <c r="LTQ7" s="24"/>
+      <c r="LUX7" s="24"/>
+      <c r="MDM7" s="24"/>
+      <c r="MET7" s="24"/>
+      <c r="MNI7" s="24"/>
+      <c r="MOP7" s="24"/>
+      <c r="MXE7" s="24"/>
+      <c r="MYL7" s="24"/>
+      <c r="NHA7" s="24"/>
+      <c r="NIH7" s="24"/>
+      <c r="NQW7" s="24"/>
+      <c r="NSD7" s="24"/>
+      <c r="OAS7" s="24"/>
+      <c r="OBZ7" s="24"/>
+      <c r="OKO7" s="24"/>
+      <c r="OLV7" s="24"/>
+      <c r="OUK7" s="24"/>
+      <c r="OVR7" s="24"/>
+      <c r="PEG7" s="24"/>
+      <c r="PFN7" s="24"/>
+      <c r="POC7" s="24"/>
+      <c r="PPJ7" s="24"/>
+      <c r="PXY7" s="24"/>
+      <c r="PZF7" s="24"/>
+      <c r="QHU7" s="24"/>
+      <c r="QJB7" s="24"/>
+      <c r="QRQ7" s="24"/>
+      <c r="QSX7" s="24"/>
+      <c r="RBM7" s="24"/>
+      <c r="RCT7" s="24"/>
+      <c r="RLI7" s="24"/>
+      <c r="RMP7" s="24"/>
+      <c r="RVE7" s="24"/>
+      <c r="RWL7" s="24"/>
+      <c r="SFA7" s="24"/>
+      <c r="SGH7" s="24"/>
+      <c r="SOW7" s="24"/>
+      <c r="SQD7" s="24"/>
+      <c r="SYS7" s="24"/>
+      <c r="SZZ7" s="24"/>
+      <c r="TIO7" s="24"/>
+      <c r="TJV7" s="24"/>
+      <c r="TSK7" s="24"/>
+      <c r="TTR7" s="24"/>
+      <c r="UCG7" s="24"/>
+      <c r="UDN7" s="24"/>
+      <c r="UMC7" s="24"/>
+      <c r="UNJ7" s="24"/>
+      <c r="UVY7" s="24"/>
+      <c r="UXF7" s="24"/>
+      <c r="VFU7" s="24"/>
+      <c r="VHB7" s="24"/>
+      <c r="VPQ7" s="24"/>
+      <c r="VQX7" s="24"/>
+      <c r="VZM7" s="24"/>
+      <c r="WAT7" s="24"/>
+      <c r="WJI7" s="24"/>
+      <c r="WKP7" s="24"/>
+      <c r="WTE7" s="24"/>
+      <c r="WUL7" s="24"/>
     </row>
     <row r="8" customHeight="1" ht="12">
       <c r="A8" s="37"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="220"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="220"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="220"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="220"/>
-      <c r="X8" s="220"/>
-      <c r="Y8" s="220"/>
-      <c r="Z8" s="220"/>
-      <c r="AA8" s="220"/>
-      <c r="AB8" s="220"/>
-      <c r="AC8" s="220"/>
-      <c r="AD8" s="220"/>
-      <c r="AE8" s="220"/>
-      <c r="AF8" s="220"/>
-      <c r="AG8" s="220"/>
-      <c r="AH8" s="220"/>
-      <c r="AI8" s="220"/>
-      <c r="AJ8" s="220"/>
-      <c r="AK8" s="220"/>
-      <c r="AL8" s="220"/>
-      <c r="AM8" s="220"/>
-      <c r="AN8" s="220"/>
-      <c r="AO8" s="220"/>
-      <c r="AP8" s="220"/>
-      <c r="AQ8" s="220"/>
-      <c r="AR8" s="220"/>
-      <c r="AS8" s="220"/>
-      <c r="AT8" s="220"/>
-      <c r="AU8" s="220"/>
-      <c r="AV8" s="220"/>
-      <c r="AW8" s="220"/>
-      <c r="AX8" s="220"/>
-      <c r="AY8" s="220"/>
-      <c r="AZ8" s="220"/>
-      <c r="BA8" s="220"/>
-      <c r="BB8" s="220"/>
-      <c r="BC8" s="220"/>
-      <c r="BD8" s="220"/>
-      <c r="BE8" s="220"/>
-      <c r="BF8" s="220"/>
-      <c r="BG8" s="220"/>
-      <c r="BH8" s="220"/>
-      <c r="BI8" s="220"/>
-      <c r="BJ8" s="220"/>
-      <c r="BK8" s="220"/>
-      <c r="BL8" s="42"/>
-      <c r="BM8" s="31"/>
+      <c r="B8" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="46"/>
+      <c r="GS8" s="24"/>
+      <c r="HZ8" s="24"/>
+      <c r="QO8" s="24"/>
+      <c r="RV8" s="24"/>
+      <c r="AAK8" s="24"/>
+      <c r="ABR8" s="24"/>
+      <c r="AKG8" s="24"/>
+      <c r="ALN8" s="24"/>
+      <c r="AUC8" s="24"/>
+      <c r="AVJ8" s="24"/>
+      <c r="BDY8" s="24"/>
+      <c r="BFF8" s="24"/>
+      <c r="BNU8" s="24"/>
+      <c r="BPB8" s="24"/>
+      <c r="BXQ8" s="24"/>
+      <c r="BYX8" s="24"/>
+      <c r="CHM8" s="24"/>
+      <c r="CIT8" s="24"/>
+      <c r="CRI8" s="24"/>
+      <c r="CSP8" s="24"/>
+      <c r="DBE8" s="24"/>
+      <c r="DCL8" s="24"/>
+      <c r="DLA8" s="24"/>
+      <c r="DMH8" s="24"/>
+      <c r="DUW8" s="24"/>
+      <c r="DWD8" s="24"/>
+      <c r="EES8" s="24"/>
+      <c r="EFZ8" s="24"/>
+      <c r="EOO8" s="24"/>
+      <c r="EPV8" s="24"/>
+      <c r="EYK8" s="24"/>
+      <c r="EZR8" s="24"/>
+      <c r="FIG8" s="24"/>
+      <c r="FJN8" s="24"/>
+      <c r="FSC8" s="24"/>
+      <c r="FTJ8" s="24"/>
+      <c r="GBY8" s="24"/>
+      <c r="GDF8" s="24"/>
+      <c r="GLU8" s="24"/>
+      <c r="GNB8" s="24"/>
+      <c r="GVQ8" s="24"/>
+      <c r="GWX8" s="24"/>
+      <c r="HFM8" s="24"/>
+      <c r="HGT8" s="24"/>
+      <c r="HPI8" s="24"/>
+      <c r="HQP8" s="24"/>
+      <c r="HZE8" s="24"/>
+      <c r="IAL8" s="24"/>
+      <c r="IJA8" s="24"/>
+      <c r="IKH8" s="24"/>
+      <c r="ISW8" s="24"/>
+      <c r="IUD8" s="24"/>
+      <c r="JCS8" s="24"/>
+      <c r="JDZ8" s="24"/>
+      <c r="JMO8" s="24"/>
+      <c r="JNV8" s="24"/>
+      <c r="JWK8" s="24"/>
+      <c r="JXR8" s="24"/>
+      <c r="KGG8" s="24"/>
+      <c r="KHN8" s="24"/>
+      <c r="KQC8" s="24"/>
+      <c r="KRJ8" s="24"/>
+      <c r="KZY8" s="24"/>
+      <c r="LBF8" s="24"/>
+      <c r="LJU8" s="24"/>
+      <c r="LLB8" s="24"/>
+      <c r="LTQ8" s="24"/>
+      <c r="LUX8" s="24"/>
+      <c r="MDM8" s="24"/>
+      <c r="MET8" s="24"/>
+      <c r="MNI8" s="24"/>
+      <c r="MOP8" s="24"/>
+      <c r="MXE8" s="24"/>
+      <c r="MYL8" s="24"/>
+      <c r="NHA8" s="24"/>
+      <c r="NIH8" s="24"/>
+      <c r="NQW8" s="24"/>
+      <c r="NSD8" s="24"/>
+      <c r="OAS8" s="24"/>
+      <c r="OBZ8" s="24"/>
+      <c r="OKO8" s="24"/>
+      <c r="OLV8" s="24"/>
+      <c r="OUK8" s="24"/>
+      <c r="OVR8" s="24"/>
+      <c r="PEG8" s="24"/>
+      <c r="PFN8" s="24"/>
+      <c r="POC8" s="24"/>
+      <c r="PPJ8" s="24"/>
+      <c r="PXY8" s="24"/>
+      <c r="PZF8" s="24"/>
+      <c r="QHU8" s="24"/>
+      <c r="QJB8" s="24"/>
+      <c r="QRQ8" s="24"/>
+      <c r="QSX8" s="24"/>
+      <c r="RBM8" s="24"/>
+      <c r="RCT8" s="24"/>
+      <c r="RLI8" s="24"/>
+      <c r="RMP8" s="24"/>
+      <c r="RVE8" s="24"/>
+      <c r="RWL8" s="24"/>
+      <c r="SFA8" s="24"/>
+      <c r="SGH8" s="24"/>
+      <c r="SOW8" s="24"/>
+      <c r="SQD8" s="24"/>
+      <c r="SYS8" s="24"/>
+      <c r="SZZ8" s="24"/>
+      <c r="TIO8" s="24"/>
+      <c r="TJV8" s="24"/>
+      <c r="TSK8" s="24"/>
+      <c r="TTR8" s="24"/>
+      <c r="UCG8" s="24"/>
+      <c r="UDN8" s="24"/>
+      <c r="UMC8" s="24"/>
+      <c r="UNJ8" s="24"/>
+      <c r="UVY8" s="24"/>
+      <c r="UXF8" s="24"/>
+      <c r="VFU8" s="24"/>
+      <c r="VHB8" s="24"/>
+      <c r="VPQ8" s="24"/>
+      <c r="VQX8" s="24"/>
+      <c r="VZM8" s="24"/>
+      <c r="WAT8" s="24"/>
+      <c r="WJI8" s="24"/>
+      <c r="WKP8" s="24"/>
+      <c r="WTE8" s="24"/>
+      <c r="WUL8" s="24"/>
     </row>
     <row r="9" customHeight="1" ht="12">
       <c r="A9" s="37"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="220"/>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="220"/>
-      <c r="S9" s="220"/>
-      <c r="T9" s="220"/>
-      <c r="U9" s="220"/>
-      <c r="V9" s="220"/>
-      <c r="W9" s="220"/>
-      <c r="X9" s="220"/>
-      <c r="Y9" s="220"/>
-      <c r="Z9" s="220"/>
-      <c r="AA9" s="220"/>
-      <c r="AB9" s="220"/>
-      <c r="AC9" s="220"/>
-      <c r="AD9" s="220"/>
-      <c r="AE9" s="220"/>
-      <c r="AF9" s="220"/>
-      <c r="AG9" s="220"/>
-      <c r="AH9" s="220"/>
-      <c r="AI9" s="220"/>
-      <c r="AJ9" s="220"/>
-      <c r="AK9" s="220"/>
-      <c r="AL9" s="220"/>
-      <c r="AM9" s="220"/>
-      <c r="AN9" s="220"/>
-      <c r="AO9" s="220"/>
-      <c r="AP9" s="220"/>
-      <c r="AQ9" s="220"/>
-      <c r="AR9" s="220"/>
-      <c r="AS9" s="220"/>
-      <c r="AT9" s="220"/>
-      <c r="AU9" s="220"/>
-      <c r="AV9" s="220"/>
-      <c r="AW9" s="220"/>
-      <c r="AX9" s="220"/>
-      <c r="AY9" s="220"/>
-      <c r="AZ9" s="220"/>
-      <c r="BA9" s="220"/>
-      <c r="BB9" s="220"/>
-      <c r="BC9" s="220"/>
-      <c r="BD9" s="220"/>
-      <c r="BE9" s="220"/>
-      <c r="BF9" s="220"/>
-      <c r="BG9" s="220"/>
-      <c r="BH9" s="220"/>
-      <c r="BI9" s="220"/>
-      <c r="BJ9" s="220"/>
-      <c r="BK9" s="220"/>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="31"/>
+      <c r="B9" s="576"/>
+      <c r="C9" s="220" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="577"/>
+      <c r="GS9" s="24"/>
+      <c r="HZ9" s="24"/>
+      <c r="QO9" s="24"/>
+      <c r="RV9" s="24"/>
+      <c r="AAK9" s="24"/>
+      <c r="ABR9" s="24"/>
+      <c r="AKG9" s="24"/>
+      <c r="ALN9" s="24"/>
+      <c r="AUC9" s="24"/>
+      <c r="AVJ9" s="24"/>
+      <c r="BDY9" s="24"/>
+      <c r="BFF9" s="24"/>
+      <c r="BNU9" s="24"/>
+      <c r="BPB9" s="24"/>
+      <c r="BXQ9" s="24"/>
+      <c r="BYX9" s="24"/>
+      <c r="CHM9" s="24"/>
+      <c r="CIT9" s="24"/>
+      <c r="CRI9" s="24"/>
+      <c r="CSP9" s="24"/>
+      <c r="DBE9" s="24"/>
+      <c r="DCL9" s="24"/>
+      <c r="DLA9" s="24"/>
+      <c r="DMH9" s="24"/>
+      <c r="DUW9" s="24"/>
+      <c r="DWD9" s="24"/>
+      <c r="EES9" s="24"/>
+      <c r="EFZ9" s="24"/>
+      <c r="EOO9" s="24"/>
+      <c r="EPV9" s="24"/>
+      <c r="EYK9" s="24"/>
+      <c r="EZR9" s="24"/>
+      <c r="FIG9" s="24"/>
+      <c r="FJN9" s="24"/>
+      <c r="FSC9" s="24"/>
+      <c r="FTJ9" s="24"/>
+      <c r="GBY9" s="24"/>
+      <c r="GDF9" s="24"/>
+      <c r="GLU9" s="24"/>
+      <c r="GNB9" s="24"/>
+      <c r="GVQ9" s="24"/>
+      <c r="GWX9" s="24"/>
+      <c r="HFM9" s="24"/>
+      <c r="HGT9" s="24"/>
+      <c r="HPI9" s="24"/>
+      <c r="HQP9" s="24"/>
+      <c r="HZE9" s="24"/>
+      <c r="IAL9" s="24"/>
+      <c r="IJA9" s="24"/>
+      <c r="IKH9" s="24"/>
+      <c r="ISW9" s="24"/>
+      <c r="IUD9" s="24"/>
+      <c r="JCS9" s="24"/>
+      <c r="JDZ9" s="24"/>
+      <c r="JMO9" s="24"/>
+      <c r="JNV9" s="24"/>
+      <c r="JWK9" s="24"/>
+      <c r="JXR9" s="24"/>
+      <c r="KGG9" s="24"/>
+      <c r="KHN9" s="24"/>
+      <c r="KQC9" s="24"/>
+      <c r="KRJ9" s="24"/>
+      <c r="KZY9" s="24"/>
+      <c r="LBF9" s="24"/>
+      <c r="LJU9" s="24"/>
+      <c r="LLB9" s="24"/>
+      <c r="LTQ9" s="24"/>
+      <c r="LUX9" s="24"/>
+      <c r="MDM9" s="24"/>
+      <c r="MET9" s="24"/>
+      <c r="MNI9" s="24"/>
+      <c r="MOP9" s="24"/>
+      <c r="MXE9" s="24"/>
+      <c r="MYL9" s="24"/>
+      <c r="NHA9" s="24"/>
+      <c r="NIH9" s="24"/>
+      <c r="NQW9" s="24"/>
+      <c r="NSD9" s="24"/>
+      <c r="OAS9" s="24"/>
+      <c r="OBZ9" s="24"/>
+      <c r="OKO9" s="24"/>
+      <c r="OLV9" s="24"/>
+      <c r="OUK9" s="24"/>
+      <c r="OVR9" s="24"/>
+      <c r="PEG9" s="24"/>
+      <c r="PFN9" s="24"/>
+      <c r="POC9" s="24"/>
+      <c r="PPJ9" s="24"/>
+      <c r="PXY9" s="24"/>
+      <c r="PZF9" s="24"/>
+      <c r="QHU9" s="24"/>
+      <c r="QJB9" s="24"/>
+      <c r="QRQ9" s="24"/>
+      <c r="QSX9" s="24"/>
+      <c r="RBM9" s="24"/>
+      <c r="RCT9" s="24"/>
+      <c r="RLI9" s="24"/>
+      <c r="RMP9" s="24"/>
+      <c r="RVE9" s="24"/>
+      <c r="RWL9" s="24"/>
+      <c r="SFA9" s="24"/>
+      <c r="SGH9" s="24"/>
+      <c r="SOW9" s="24"/>
+      <c r="SQD9" s="24"/>
+      <c r="SYS9" s="24"/>
+      <c r="SZZ9" s="24"/>
+      <c r="TIO9" s="24"/>
+      <c r="TJV9" s="24"/>
+      <c r="TSK9" s="24"/>
+      <c r="TTR9" s="24"/>
+      <c r="UCG9" s="24"/>
+      <c r="UDN9" s="24"/>
+      <c r="UMC9" s="24"/>
+      <c r="UNJ9" s="24"/>
+      <c r="UVY9" s="24"/>
+      <c r="UXF9" s="24"/>
+      <c r="VFU9" s="24"/>
+      <c r="VHB9" s="24"/>
+      <c r="VPQ9" s="24"/>
+      <c r="VQX9" s="24"/>
+      <c r="VZM9" s="24"/>
+      <c r="WAT9" s="24"/>
+      <c r="WJI9" s="24"/>
+      <c r="WKP9" s="24"/>
+      <c r="WTE9" s="24"/>
+      <c r="WUL9" s="24"/>
     </row>
     <row r="10" customHeight="1" ht="12">
       <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="43"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
-      <c r="BH10" s="42"/>
-      <c r="BI10" s="42"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="42"/>
-      <c r="BL10" s="42"/>
-      <c r="BM10" s="31"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="220" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="46"/>
+      <c r="GS10" s="24"/>
+      <c r="HZ10" s="24"/>
+      <c r="QO10" s="24"/>
+      <c r="RV10" s="24"/>
+      <c r="AAK10" s="24"/>
+      <c r="ABR10" s="24"/>
+      <c r="AKG10" s="24"/>
+      <c r="ALN10" s="24"/>
+      <c r="AUC10" s="24"/>
+      <c r="AVJ10" s="24"/>
+      <c r="BDY10" s="24"/>
+      <c r="BFF10" s="24"/>
+      <c r="BNU10" s="24"/>
+      <c r="BPB10" s="24"/>
+      <c r="BXQ10" s="24"/>
+      <c r="BYX10" s="24"/>
+      <c r="CHM10" s="24"/>
+      <c r="CIT10" s="24"/>
+      <c r="CRI10" s="24"/>
+      <c r="CSP10" s="24"/>
+      <c r="DBE10" s="24"/>
+      <c r="DCL10" s="24"/>
+      <c r="DLA10" s="24"/>
+      <c r="DMH10" s="24"/>
+      <c r="DUW10" s="24"/>
+      <c r="DWD10" s="24"/>
+      <c r="EES10" s="24"/>
+      <c r="EFZ10" s="24"/>
+      <c r="EOO10" s="24"/>
+      <c r="EPV10" s="24"/>
+      <c r="EYK10" s="24"/>
+      <c r="EZR10" s="24"/>
+      <c r="FIG10" s="24"/>
+      <c r="FJN10" s="24"/>
+      <c r="FSC10" s="24"/>
+      <c r="FTJ10" s="24"/>
+      <c r="GBY10" s="24"/>
+      <c r="GDF10" s="24"/>
+      <c r="GLU10" s="24"/>
+      <c r="GNB10" s="24"/>
+      <c r="GVQ10" s="24"/>
+      <c r="GWX10" s="24"/>
+      <c r="HFM10" s="24"/>
+      <c r="HGT10" s="24"/>
+      <c r="HPI10" s="24"/>
+      <c r="HQP10" s="24"/>
+      <c r="HZE10" s="24"/>
+      <c r="IAL10" s="24"/>
+      <c r="IJA10" s="24"/>
+      <c r="IKH10" s="24"/>
+      <c r="ISW10" s="24"/>
+      <c r="IUD10" s="24"/>
+      <c r="JCS10" s="24"/>
+      <c r="JDZ10" s="24"/>
+      <c r="JMO10" s="24"/>
+      <c r="JNV10" s="24"/>
+      <c r="JWK10" s="24"/>
+      <c r="JXR10" s="24"/>
+      <c r="KGG10" s="24"/>
+      <c r="KHN10" s="24"/>
+      <c r="KQC10" s="24"/>
+      <c r="KRJ10" s="24"/>
+      <c r="KZY10" s="24"/>
+      <c r="LBF10" s="24"/>
+      <c r="LJU10" s="24"/>
+      <c r="LLB10" s="24"/>
+      <c r="LTQ10" s="24"/>
+      <c r="LUX10" s="24"/>
+      <c r="MDM10" s="24"/>
+      <c r="MET10" s="24"/>
+      <c r="MNI10" s="24"/>
+      <c r="MOP10" s="24"/>
+      <c r="MXE10" s="24"/>
+      <c r="MYL10" s="24"/>
+      <c r="NHA10" s="24"/>
+      <c r="NIH10" s="24"/>
+      <c r="NQW10" s="24"/>
+      <c r="NSD10" s="24"/>
+      <c r="OAS10" s="24"/>
+      <c r="OBZ10" s="24"/>
+      <c r="OKO10" s="24"/>
+      <c r="OLV10" s="24"/>
+      <c r="OUK10" s="24"/>
+      <c r="OVR10" s="24"/>
+      <c r="PEG10" s="24"/>
+      <c r="PFN10" s="24"/>
+      <c r="POC10" s="24"/>
+      <c r="PPJ10" s="24"/>
+      <c r="PXY10" s="24"/>
+      <c r="PZF10" s="24"/>
+      <c r="QHU10" s="24"/>
+      <c r="QJB10" s="24"/>
+      <c r="QRQ10" s="24"/>
+      <c r="QSX10" s="24"/>
+      <c r="RBM10" s="24"/>
+      <c r="RCT10" s="24"/>
+      <c r="RLI10" s="24"/>
+      <c r="RMP10" s="24"/>
+      <c r="RVE10" s="24"/>
+      <c r="RWL10" s="24"/>
+      <c r="SFA10" s="24"/>
+      <c r="SGH10" s="24"/>
+      <c r="SOW10" s="24"/>
+      <c r="SQD10" s="24"/>
+      <c r="SYS10" s="24"/>
+      <c r="SZZ10" s="24"/>
+      <c r="TIO10" s="24"/>
+      <c r="TJV10" s="24"/>
+      <c r="TSK10" s="24"/>
+      <c r="TTR10" s="24"/>
+      <c r="UCG10" s="24"/>
+      <c r="UDN10" s="24"/>
+      <c r="UMC10" s="24"/>
+      <c r="UNJ10" s="24"/>
+      <c r="UVY10" s="24"/>
+      <c r="UXF10" s="24"/>
+      <c r="VFU10" s="24"/>
+      <c r="VHB10" s="24"/>
+      <c r="VPQ10" s="24"/>
+      <c r="VQX10" s="24"/>
+      <c r="VZM10" s="24"/>
+      <c r="WAT10" s="24"/>
+      <c r="WJI10" s="24"/>
+      <c r="WKP10" s="24"/>
+      <c r="WTE10" s="24"/>
+      <c r="WUL10" s="24"/>
     </row>
     <row r="11" customHeight="1" ht="12">
       <c r="A11" s="37"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BI11" s="41"/>
-      <c r="BJ11" s="41"/>
-      <c r="BK11" s="41"/>
-      <c r="BL11" s="41"/>
-      <c r="BM11" s="31"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="46"/>
+      <c r="GS11" s="24"/>
+      <c r="HZ11" s="24"/>
+      <c r="QO11" s="24"/>
+      <c r="RV11" s="24"/>
+      <c r="AAK11" s="24"/>
+      <c r="ABR11" s="24"/>
+      <c r="AKG11" s="24"/>
+      <c r="ALN11" s="24"/>
+      <c r="AUC11" s="24"/>
+      <c r="AVJ11" s="24"/>
+      <c r="BDY11" s="24"/>
+      <c r="BFF11" s="24"/>
+      <c r="BNU11" s="24"/>
+      <c r="BPB11" s="24"/>
+      <c r="BXQ11" s="24"/>
+      <c r="BYX11" s="24"/>
+      <c r="CHM11" s="24"/>
+      <c r="CIT11" s="24"/>
+      <c r="CRI11" s="24"/>
+      <c r="CSP11" s="24"/>
+      <c r="DBE11" s="24"/>
+      <c r="DCL11" s="24"/>
+      <c r="DLA11" s="24"/>
+      <c r="DMH11" s="24"/>
+      <c r="DUW11" s="24"/>
+      <c r="DWD11" s="24"/>
+      <c r="EES11" s="24"/>
+      <c r="EFZ11" s="24"/>
+      <c r="EOO11" s="24"/>
+      <c r="EPV11" s="24"/>
+      <c r="EYK11" s="24"/>
+      <c r="EZR11" s="24"/>
+      <c r="FIG11" s="24"/>
+      <c r="FJN11" s="24"/>
+      <c r="FSC11" s="24"/>
+      <c r="FTJ11" s="24"/>
+      <c r="GBY11" s="24"/>
+      <c r="GDF11" s="24"/>
+      <c r="GLU11" s="24"/>
+      <c r="GNB11" s="24"/>
+      <c r="GVQ11" s="24"/>
+      <c r="GWX11" s="24"/>
+      <c r="HFM11" s="24"/>
+      <c r="HGT11" s="24"/>
+      <c r="HPI11" s="24"/>
+      <c r="HQP11" s="24"/>
+      <c r="HZE11" s="24"/>
+      <c r="IAL11" s="24"/>
+      <c r="IJA11" s="24"/>
+      <c r="IKH11" s="24"/>
+      <c r="ISW11" s="24"/>
+      <c r="IUD11" s="24"/>
+      <c r="JCS11" s="24"/>
+      <c r="JDZ11" s="24"/>
+      <c r="JMO11" s="24"/>
+      <c r="JNV11" s="24"/>
+      <c r="JWK11" s="24"/>
+      <c r="JXR11" s="24"/>
+      <c r="KGG11" s="24"/>
+      <c r="KHN11" s="24"/>
+      <c r="KQC11" s="24"/>
+      <c r="KRJ11" s="24"/>
+      <c r="KZY11" s="24"/>
+      <c r="LBF11" s="24"/>
+      <c r="LJU11" s="24"/>
+      <c r="LLB11" s="24"/>
+      <c r="LTQ11" s="24"/>
+      <c r="LUX11" s="24"/>
+      <c r="MDM11" s="24"/>
+      <c r="MET11" s="24"/>
+      <c r="MNI11" s="24"/>
+      <c r="MOP11" s="24"/>
+      <c r="MXE11" s="24"/>
+      <c r="MYL11" s="24"/>
+      <c r="NHA11" s="24"/>
+      <c r="NIH11" s="24"/>
+      <c r="NQW11" s="24"/>
+      <c r="NSD11" s="24"/>
+      <c r="OAS11" s="24"/>
+      <c r="OBZ11" s="24"/>
+      <c r="OKO11" s="24"/>
+      <c r="OLV11" s="24"/>
+      <c r="OUK11" s="24"/>
+      <c r="OVR11" s="24"/>
+      <c r="PEG11" s="24"/>
+      <c r="PFN11" s="24"/>
+      <c r="POC11" s="24"/>
+      <c r="PPJ11" s="24"/>
+      <c r="PXY11" s="24"/>
+      <c r="PZF11" s="24"/>
+      <c r="QHU11" s="24"/>
+      <c r="QJB11" s="24"/>
+      <c r="QRQ11" s="24"/>
+      <c r="QSX11" s="24"/>
+      <c r="RBM11" s="24"/>
+      <c r="RCT11" s="24"/>
+      <c r="RLI11" s="24"/>
+      <c r="RMP11" s="24"/>
+      <c r="RVE11" s="24"/>
+      <c r="RWL11" s="24"/>
+      <c r="SFA11" s="24"/>
+      <c r="SGH11" s="24"/>
+      <c r="SOW11" s="24"/>
+      <c r="SQD11" s="24"/>
+      <c r="SYS11" s="24"/>
+      <c r="SZZ11" s="24"/>
+      <c r="TIO11" s="24"/>
+      <c r="TJV11" s="24"/>
+      <c r="TSK11" s="24"/>
+      <c r="TTR11" s="24"/>
+      <c r="UCG11" s="24"/>
+      <c r="UDN11" s="24"/>
+      <c r="UMC11" s="24"/>
+      <c r="UNJ11" s="24"/>
+      <c r="UVY11" s="24"/>
+      <c r="UXF11" s="24"/>
+      <c r="VFU11" s="24"/>
+      <c r="VHB11" s="24"/>
+      <c r="VPQ11" s="24"/>
+      <c r="VQX11" s="24"/>
+      <c r="VZM11" s="24"/>
+      <c r="WAT11" s="24"/>
+      <c r="WJI11" s="24"/>
+      <c r="WKP11" s="24"/>
+      <c r="WTE11" s="24"/>
+      <c r="WUL11" s="24"/>
     </row>
     <row r="12" customHeight="1" ht="12">
       <c r="A12" s="37"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="221" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="222"/>
-      <c r="N12" s="222"/>
-      <c r="O12" s="222"/>
-      <c r="P12" s="222"/>
-      <c r="Q12" s="222"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="222"/>
-      <c r="T12" s="222"/>
-      <c r="U12" s="222"/>
-      <c r="V12" s="222"/>
-      <c r="W12" s="222"/>
-      <c r="X12" s="222"/>
-      <c r="Y12" s="222"/>
-      <c r="Z12" s="222"/>
-      <c r="AA12" s="222"/>
-      <c r="AB12" s="222"/>
-      <c r="AC12" s="222"/>
-      <c r="AD12" s="222"/>
-      <c r="AE12" s="222"/>
-      <c r="AF12" s="222"/>
-      <c r="AG12" s="222"/>
-      <c r="AH12" s="222"/>
-      <c r="AI12" s="222"/>
-      <c r="AJ12" s="222"/>
-      <c r="AK12" s="222"/>
-      <c r="AL12" s="222"/>
-      <c r="AM12" s="222"/>
-      <c r="AN12" s="222"/>
-      <c r="AO12" s="222"/>
-      <c r="AP12" s="222"/>
-      <c r="AQ12" s="222"/>
-      <c r="AR12" s="222"/>
-      <c r="AS12" s="222"/>
-      <c r="AT12" s="222"/>
-      <c r="AU12" s="222"/>
-      <c r="AV12" s="222"/>
-      <c r="AW12" s="222"/>
-      <c r="AX12" s="222"/>
-      <c r="AY12" s="222"/>
-      <c r="AZ12" s="222"/>
-      <c r="BA12" s="222"/>
-      <c r="BB12" s="222"/>
-      <c r="BC12" s="222"/>
-      <c r="BD12" s="222"/>
-      <c r="BE12" s="222"/>
-      <c r="BF12" s="222"/>
-      <c r="BG12" s="222"/>
-      <c r="BH12" s="222"/>
-      <c r="BI12" s="222"/>
-      <c r="BJ12" s="222"/>
-      <c r="BK12" s="222"/>
-      <c r="BL12" s="223"/>
-      <c r="BM12" s="31"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="220" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="46"/>
+      <c r="GS12" s="24"/>
+      <c r="HZ12" s="24"/>
+      <c r="QO12" s="24"/>
+      <c r="RV12" s="24"/>
+      <c r="AAK12" s="24"/>
+      <c r="ABR12" s="24"/>
+      <c r="AKG12" s="24"/>
+      <c r="ALN12" s="24"/>
+      <c r="AUC12" s="24"/>
+      <c r="AVJ12" s="24"/>
+      <c r="BDY12" s="24"/>
+      <c r="BFF12" s="24"/>
+      <c r="BNU12" s="24"/>
+      <c r="BPB12" s="24"/>
+      <c r="BXQ12" s="24"/>
+      <c r="BYX12" s="24"/>
+      <c r="CHM12" s="24"/>
+      <c r="CIT12" s="24"/>
+      <c r="CRI12" s="24"/>
+      <c r="CSP12" s="24"/>
+      <c r="DBE12" s="24"/>
+      <c r="DCL12" s="24"/>
+      <c r="DLA12" s="24"/>
+      <c r="DMH12" s="24"/>
+      <c r="DUW12" s="24"/>
+      <c r="DWD12" s="24"/>
+      <c r="EES12" s="24"/>
+      <c r="EFZ12" s="24"/>
+      <c r="EOO12" s="24"/>
+      <c r="EPV12" s="24"/>
+      <c r="EYK12" s="24"/>
+      <c r="EZR12" s="24"/>
+      <c r="FIG12" s="24"/>
+      <c r="FJN12" s="24"/>
+      <c r="FSC12" s="24"/>
+      <c r="FTJ12" s="24"/>
+      <c r="GBY12" s="24"/>
+      <c r="GDF12" s="24"/>
+      <c r="GLU12" s="24"/>
+      <c r="GNB12" s="24"/>
+      <c r="GVQ12" s="24"/>
+      <c r="GWX12" s="24"/>
+      <c r="HFM12" s="24"/>
+      <c r="HGT12" s="24"/>
+      <c r="HPI12" s="24"/>
+      <c r="HQP12" s="24"/>
+      <c r="HZE12" s="24"/>
+      <c r="IAL12" s="24"/>
+      <c r="IJA12" s="24"/>
+      <c r="IKH12" s="24"/>
+      <c r="ISW12" s="24"/>
+      <c r="IUD12" s="24"/>
+      <c r="JCS12" s="24"/>
+      <c r="JDZ12" s="24"/>
+      <c r="JMO12" s="24"/>
+      <c r="JNV12" s="24"/>
+      <c r="JWK12" s="24"/>
+      <c r="JXR12" s="24"/>
+      <c r="KGG12" s="24"/>
+      <c r="KHN12" s="24"/>
+      <c r="KQC12" s="24"/>
+      <c r="KRJ12" s="24"/>
+      <c r="KZY12" s="24"/>
+      <c r="LBF12" s="24"/>
+      <c r="LJU12" s="24"/>
+      <c r="LLB12" s="24"/>
+      <c r="LTQ12" s="24"/>
+      <c r="LUX12" s="24"/>
+      <c r="MDM12" s="24"/>
+      <c r="MET12" s="24"/>
+      <c r="MNI12" s="24"/>
+      <c r="MOP12" s="24"/>
+      <c r="MXE12" s="24"/>
+      <c r="MYL12" s="24"/>
+      <c r="NHA12" s="24"/>
+      <c r="NIH12" s="24"/>
+      <c r="NQW12" s="24"/>
+      <c r="NSD12" s="24"/>
+      <c r="OAS12" s="24"/>
+      <c r="OBZ12" s="24"/>
+      <c r="OKO12" s="24"/>
+      <c r="OLV12" s="24"/>
+      <c r="OUK12" s="24"/>
+      <c r="OVR12" s="24"/>
+      <c r="PEG12" s="24"/>
+      <c r="PFN12" s="24"/>
+      <c r="POC12" s="24"/>
+      <c r="PPJ12" s="24"/>
+      <c r="PXY12" s="24"/>
+      <c r="PZF12" s="24"/>
+      <c r="QHU12" s="24"/>
+      <c r="QJB12" s="24"/>
+      <c r="QRQ12" s="24"/>
+      <c r="QSX12" s="24"/>
+      <c r="RBM12" s="24"/>
+      <c r="RCT12" s="24"/>
+      <c r="RLI12" s="24"/>
+      <c r="RMP12" s="24"/>
+      <c r="RVE12" s="24"/>
+      <c r="RWL12" s="24"/>
+      <c r="SFA12" s="24"/>
+      <c r="SGH12" s="24"/>
+      <c r="SOW12" s="24"/>
+      <c r="SQD12" s="24"/>
+      <c r="SYS12" s="24"/>
+      <c r="SZZ12" s="24"/>
+      <c r="TIO12" s="24"/>
+      <c r="TJV12" s="24"/>
+      <c r="TSK12" s="24"/>
+      <c r="TTR12" s="24"/>
+      <c r="UCG12" s="24"/>
+      <c r="UDN12" s="24"/>
+      <c r="UMC12" s="24"/>
+      <c r="UNJ12" s="24"/>
+      <c r="UVY12" s="24"/>
+      <c r="UXF12" s="24"/>
+      <c r="VFU12" s="24"/>
+      <c r="VHB12" s="24"/>
+      <c r="VPQ12" s="24"/>
+      <c r="VQX12" s="24"/>
+      <c r="VZM12" s="24"/>
+      <c r="WAT12" s="24"/>
+      <c r="WJI12" s="24"/>
+      <c r="WKP12" s="24"/>
+      <c r="WTE12" s="24"/>
+      <c r="WUL12" s="24"/>
     </row>
     <row r="13" customHeight="1" ht="12">
       <c r="A13" s="37"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="224"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="219"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="219"/>
-      <c r="P13" s="219"/>
-      <c r="Q13" s="219"/>
-      <c r="R13" s="219"/>
-      <c r="S13" s="219"/>
-      <c r="T13" s="219"/>
-      <c r="U13" s="219"/>
-      <c r="V13" s="219"/>
-      <c r="W13" s="219"/>
-      <c r="X13" s="219"/>
-      <c r="Y13" s="219"/>
-      <c r="Z13" s="219"/>
-      <c r="AA13" s="219"/>
-      <c r="AB13" s="219"/>
-      <c r="AC13" s="219"/>
-      <c r="AD13" s="219"/>
-      <c r="AE13" s="219"/>
-      <c r="AF13" s="219"/>
-      <c r="AG13" s="219"/>
-      <c r="AH13" s="219"/>
-      <c r="AI13" s="219"/>
-      <c r="AJ13" s="219"/>
-      <c r="AK13" s="219"/>
-      <c r="AL13" s="219"/>
-      <c r="AM13" s="219"/>
-      <c r="AN13" s="219"/>
-      <c r="AO13" s="219"/>
-      <c r="AP13" s="219"/>
-      <c r="AQ13" s="219"/>
-      <c r="AR13" s="219"/>
-      <c r="AS13" s="219"/>
-      <c r="AT13" s="219"/>
-      <c r="AU13" s="219"/>
-      <c r="AV13" s="219"/>
-      <c r="AW13" s="219"/>
-      <c r="AX13" s="219"/>
-      <c r="AY13" s="219"/>
-      <c r="AZ13" s="219"/>
-      <c r="BA13" s="219"/>
-      <c r="BB13" s="219"/>
-      <c r="BC13" s="219"/>
-      <c r="BD13" s="219"/>
-      <c r="BE13" s="219"/>
-      <c r="BF13" s="219"/>
-      <c r="BG13" s="219"/>
-      <c r="BH13" s="219"/>
-      <c r="BI13" s="219"/>
-      <c r="BJ13" s="219"/>
-      <c r="BK13" s="219"/>
-      <c r="BL13" s="225"/>
-      <c r="BM13" s="31"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="220" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="46"/>
+      <c r="GS13" s="24"/>
+      <c r="HZ13" s="24"/>
+      <c r="QO13" s="24"/>
+      <c r="RV13" s="24"/>
+      <c r="AAK13" s="24"/>
+      <c r="ABR13" s="24"/>
+      <c r="AKG13" s="24"/>
+      <c r="ALN13" s="24"/>
+      <c r="AUC13" s="24"/>
+      <c r="AVJ13" s="24"/>
+      <c r="BDY13" s="24"/>
+      <c r="BFF13" s="24"/>
+      <c r="BNU13" s="24"/>
+      <c r="BPB13" s="24"/>
+      <c r="BXQ13" s="24"/>
+      <c r="BYX13" s="24"/>
+      <c r="CHM13" s="24"/>
+      <c r="CIT13" s="24"/>
+      <c r="CRI13" s="24"/>
+      <c r="CSP13" s="24"/>
+      <c r="DBE13" s="24"/>
+      <c r="DCL13" s="24"/>
+      <c r="DLA13" s="24"/>
+      <c r="DMH13" s="24"/>
+      <c r="DUW13" s="24"/>
+      <c r="DWD13" s="24"/>
+      <c r="EES13" s="24"/>
+      <c r="EFZ13" s="24"/>
+      <c r="EOO13" s="24"/>
+      <c r="EPV13" s="24"/>
+      <c r="EYK13" s="24"/>
+      <c r="EZR13" s="24"/>
+      <c r="FIG13" s="24"/>
+      <c r="FJN13" s="24"/>
+      <c r="FSC13" s="24"/>
+      <c r="FTJ13" s="24"/>
+      <c r="GBY13" s="24"/>
+      <c r="GDF13" s="24"/>
+      <c r="GLU13" s="24"/>
+      <c r="GNB13" s="24"/>
+      <c r="GVQ13" s="24"/>
+      <c r="GWX13" s="24"/>
+      <c r="HFM13" s="24"/>
+      <c r="HGT13" s="24"/>
+      <c r="HPI13" s="24"/>
+      <c r="HQP13" s="24"/>
+      <c r="HZE13" s="24"/>
+      <c r="IAL13" s="24"/>
+      <c r="IJA13" s="24"/>
+      <c r="IKH13" s="24"/>
+      <c r="ISW13" s="24"/>
+      <c r="IUD13" s="24"/>
+      <c r="JCS13" s="24"/>
+      <c r="JDZ13" s="24"/>
+      <c r="JMO13" s="24"/>
+      <c r="JNV13" s="24"/>
+      <c r="JWK13" s="24"/>
+      <c r="JXR13" s="24"/>
+      <c r="KGG13" s="24"/>
+      <c r="KHN13" s="24"/>
+      <c r="KQC13" s="24"/>
+      <c r="KRJ13" s="24"/>
+      <c r="KZY13" s="24"/>
+      <c r="LBF13" s="24"/>
+      <c r="LJU13" s="24"/>
+      <c r="LLB13" s="24"/>
+      <c r="LTQ13" s="24"/>
+      <c r="LUX13" s="24"/>
+      <c r="MDM13" s="24"/>
+      <c r="MET13" s="24"/>
+      <c r="MNI13" s="24"/>
+      <c r="MOP13" s="24"/>
+      <c r="MXE13" s="24"/>
+      <c r="MYL13" s="24"/>
+      <c r="NHA13" s="24"/>
+      <c r="NIH13" s="24"/>
+      <c r="NQW13" s="24"/>
+      <c r="NSD13" s="24"/>
+      <c r="OAS13" s="24"/>
+      <c r="OBZ13" s="24"/>
+      <c r="OKO13" s="24"/>
+      <c r="OLV13" s="24"/>
+      <c r="OUK13" s="24"/>
+      <c r="OVR13" s="24"/>
+      <c r="PEG13" s="24"/>
+      <c r="PFN13" s="24"/>
+      <c r="POC13" s="24"/>
+      <c r="PPJ13" s="24"/>
+      <c r="PXY13" s="24"/>
+      <c r="PZF13" s="24"/>
+      <c r="QHU13" s="24"/>
+      <c r="QJB13" s="24"/>
+      <c r="QRQ13" s="24"/>
+      <c r="QSX13" s="24"/>
+      <c r="RBM13" s="24"/>
+      <c r="RCT13" s="24"/>
+      <c r="RLI13" s="24"/>
+      <c r="RMP13" s="24"/>
+      <c r="RVE13" s="24"/>
+      <c r="RWL13" s="24"/>
+      <c r="SFA13" s="24"/>
+      <c r="SGH13" s="24"/>
+      <c r="SOW13" s="24"/>
+      <c r="SQD13" s="24"/>
+      <c r="SYS13" s="24"/>
+      <c r="SZZ13" s="24"/>
+      <c r="TIO13" s="24"/>
+      <c r="TJV13" s="24"/>
+      <c r="TSK13" s="24"/>
+      <c r="TTR13" s="24"/>
+      <c r="UCG13" s="24"/>
+      <c r="UDN13" s="24"/>
+      <c r="UMC13" s="24"/>
+      <c r="UNJ13" s="24"/>
+      <c r="UVY13" s="24"/>
+      <c r="UXF13" s="24"/>
+      <c r="VFU13" s="24"/>
+      <c r="VHB13" s="24"/>
+      <c r="VPQ13" s="24"/>
+      <c r="VQX13" s="24"/>
+      <c r="VZM13" s="24"/>
+      <c r="WAT13" s="24"/>
+      <c r="WJI13" s="24"/>
+      <c r="WKP13" s="24"/>
+      <c r="WTE13" s="24"/>
+      <c r="WUL13" s="24"/>
     </row>
     <row r="14" customHeight="1" ht="12">
       <c r="A14" s="37"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="224" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="219"/>
-      <c r="F14" s="219"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="219"/>
-      <c r="P14" s="219"/>
-      <c r="Q14" s="219"/>
-      <c r="R14" s="219"/>
-      <c r="S14" s="219"/>
-      <c r="T14" s="219"/>
-      <c r="U14" s="219"/>
-      <c r="V14" s="219"/>
-      <c r="W14" s="219"/>
-      <c r="X14" s="219"/>
-      <c r="Y14" s="219"/>
-      <c r="Z14" s="219"/>
-      <c r="AA14" s="219"/>
-      <c r="AB14" s="219"/>
-      <c r="AC14" s="219"/>
-      <c r="AD14" s="219"/>
-      <c r="AE14" s="219"/>
-      <c r="AF14" s="219"/>
-      <c r="AG14" s="219"/>
-      <c r="AH14" s="219"/>
-      <c r="AI14" s="219"/>
-      <c r="AJ14" s="219"/>
-      <c r="AK14" s="219"/>
-      <c r="AL14" s="219"/>
-      <c r="AM14" s="219"/>
-      <c r="AN14" s="219"/>
-      <c r="AO14" s="219"/>
-      <c r="AP14" s="219"/>
-      <c r="AQ14" s="219"/>
-      <c r="AR14" s="219"/>
-      <c r="AS14" s="219"/>
-      <c r="AT14" s="219"/>
-      <c r="AU14" s="219"/>
-      <c r="AV14" s="219"/>
-      <c r="AW14" s="219"/>
-      <c r="AX14" s="219"/>
-      <c r="AY14" s="219"/>
-      <c r="AZ14" s="219"/>
-      <c r="BA14" s="219"/>
-      <c r="BB14" s="219"/>
-      <c r="BC14" s="219"/>
-      <c r="BD14" s="219"/>
-      <c r="BE14" s="219"/>
-      <c r="BF14" s="219"/>
-      <c r="BG14" s="219"/>
-      <c r="BH14" s="219"/>
-      <c r="BI14" s="219"/>
-      <c r="BJ14" s="219"/>
-      <c r="BK14" s="219"/>
-      <c r="BL14" s="225"/>
-      <c r="BM14" s="31"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="46"/>
+      <c r="GS14" s="24"/>
+      <c r="HZ14" s="24"/>
+      <c r="QO14" s="24"/>
+      <c r="RV14" s="24"/>
+      <c r="AAK14" s="24"/>
+      <c r="ABR14" s="24"/>
+      <c r="AKG14" s="24"/>
+      <c r="ALN14" s="24"/>
+      <c r="AUC14" s="24"/>
+      <c r="AVJ14" s="24"/>
+      <c r="BDY14" s="24"/>
+      <c r="BFF14" s="24"/>
+      <c r="BNU14" s="24"/>
+      <c r="BPB14" s="24"/>
+      <c r="BXQ14" s="24"/>
+      <c r="BYX14" s="24"/>
+      <c r="CHM14" s="24"/>
+      <c r="CIT14" s="24"/>
+      <c r="CRI14" s="24"/>
+      <c r="CSP14" s="24"/>
+      <c r="DBE14" s="24"/>
+      <c r="DCL14" s="24"/>
+      <c r="DLA14" s="24"/>
+      <c r="DMH14" s="24"/>
+      <c r="DUW14" s="24"/>
+      <c r="DWD14" s="24"/>
+      <c r="EES14" s="24"/>
+      <c r="EFZ14" s="24"/>
+      <c r="EOO14" s="24"/>
+      <c r="EPV14" s="24"/>
+      <c r="EYK14" s="24"/>
+      <c r="EZR14" s="24"/>
+      <c r="FIG14" s="24"/>
+      <c r="FJN14" s="24"/>
+      <c r="FSC14" s="24"/>
+      <c r="FTJ14" s="24"/>
+      <c r="GBY14" s="24"/>
+      <c r="GDF14" s="24"/>
+      <c r="GLU14" s="24"/>
+      <c r="GNB14" s="24"/>
+      <c r="GVQ14" s="24"/>
+      <c r="GWX14" s="24"/>
+      <c r="HFM14" s="24"/>
+      <c r="HGT14" s="24"/>
+      <c r="HPI14" s="24"/>
+      <c r="HQP14" s="24"/>
+      <c r="HZE14" s="24"/>
+      <c r="IAL14" s="24"/>
+      <c r="IJA14" s="24"/>
+      <c r="IKH14" s="24"/>
+      <c r="ISW14" s="24"/>
+      <c r="IUD14" s="24"/>
+      <c r="JCS14" s="24"/>
+      <c r="JDZ14" s="24"/>
+      <c r="JMO14" s="24"/>
+      <c r="JNV14" s="24"/>
+      <c r="JWK14" s="24"/>
+      <c r="JXR14" s="24"/>
+      <c r="KGG14" s="24"/>
+      <c r="KHN14" s="24"/>
+      <c r="KQC14" s="24"/>
+      <c r="KRJ14" s="24"/>
+      <c r="KZY14" s="24"/>
+      <c r="LBF14" s="24"/>
+      <c r="LJU14" s="24"/>
+      <c r="LLB14" s="24"/>
+      <c r="LTQ14" s="24"/>
+      <c r="LUX14" s="24"/>
+      <c r="MDM14" s="24"/>
+      <c r="MET14" s="24"/>
+      <c r="MNI14" s="24"/>
+      <c r="MOP14" s="24"/>
+      <c r="MXE14" s="24"/>
+      <c r="MYL14" s="24"/>
+      <c r="NHA14" s="24"/>
+      <c r="NIH14" s="24"/>
+      <c r="NQW14" s="24"/>
+      <c r="NSD14" s="24"/>
+      <c r="OAS14" s="24"/>
+      <c r="OBZ14" s="24"/>
+      <c r="OKO14" s="24"/>
+      <c r="OLV14" s="24"/>
+      <c r="OUK14" s="24"/>
+      <c r="OVR14" s="24"/>
+      <c r="PEG14" s="24"/>
+      <c r="PFN14" s="24"/>
+      <c r="POC14" s="24"/>
+      <c r="PPJ14" s="24"/>
+      <c r="PXY14" s="24"/>
+      <c r="PZF14" s="24"/>
+      <c r="QHU14" s="24"/>
+      <c r="QJB14" s="24"/>
+      <c r="QRQ14" s="24"/>
+      <c r="QSX14" s="24"/>
+      <c r="RBM14" s="24"/>
+      <c r="RCT14" s="24"/>
+      <c r="RLI14" s="24"/>
+      <c r="RMP14" s="24"/>
+      <c r="RVE14" s="24"/>
+      <c r="RWL14" s="24"/>
+      <c r="SFA14" s="24"/>
+      <c r="SGH14" s="24"/>
+      <c r="SOW14" s="24"/>
+      <c r="SQD14" s="24"/>
+      <c r="SYS14" s="24"/>
+      <c r="SZZ14" s="24"/>
+      <c r="TIO14" s="24"/>
+      <c r="TJV14" s="24"/>
+      <c r="TSK14" s="24"/>
+      <c r="TTR14" s="24"/>
+      <c r="UCG14" s="24"/>
+      <c r="UDN14" s="24"/>
+      <c r="UMC14" s="24"/>
+      <c r="UNJ14" s="24"/>
+      <c r="UVY14" s="24"/>
+      <c r="UXF14" s="24"/>
+      <c r="VFU14" s="24"/>
+      <c r="VHB14" s="24"/>
+      <c r="VPQ14" s="24"/>
+      <c r="VQX14" s="24"/>
+      <c r="VZM14" s="24"/>
+      <c r="WAT14" s="24"/>
+      <c r="WJI14" s="24"/>
+      <c r="WKP14" s="24"/>
+      <c r="WTE14" s="24"/>
+      <c r="WUL14" s="24"/>
     </row>
     <row r="15" customHeight="1" ht="12">
       <c r="A15" s="37"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="219"/>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="219"/>
-      <c r="N15" s="219"/>
-      <c r="O15" s="219"/>
-      <c r="P15" s="219"/>
-      <c r="Q15" s="219"/>
-      <c r="R15" s="219"/>
-      <c r="S15" s="219"/>
-      <c r="T15" s="219"/>
-      <c r="U15" s="219"/>
-      <c r="V15" s="219"/>
-      <c r="W15" s="219"/>
-      <c r="X15" s="219"/>
-      <c r="Y15" s="219"/>
-      <c r="Z15" s="219"/>
-      <c r="AA15" s="219"/>
-      <c r="AB15" s="219"/>
-      <c r="AC15" s="219"/>
-      <c r="AD15" s="219"/>
-      <c r="AE15" s="219"/>
-      <c r="AF15" s="219"/>
-      <c r="AG15" s="219"/>
-      <c r="AH15" s="219"/>
-      <c r="AI15" s="219"/>
-      <c r="AJ15" s="219"/>
-      <c r="AK15" s="219"/>
-      <c r="AL15" s="219"/>
-      <c r="AM15" s="219"/>
-      <c r="AN15" s="219"/>
-      <c r="AO15" s="219"/>
-      <c r="AP15" s="219"/>
-      <c r="AQ15" s="219"/>
-      <c r="AR15" s="219"/>
-      <c r="AS15" s="219"/>
-      <c r="AT15" s="219"/>
-      <c r="AU15" s="219"/>
-      <c r="AV15" s="219"/>
-      <c r="AW15" s="219"/>
-      <c r="AX15" s="219"/>
-      <c r="AY15" s="219"/>
-      <c r="AZ15" s="219"/>
-      <c r="BA15" s="219"/>
-      <c r="BB15" s="219"/>
-      <c r="BC15" s="219"/>
-      <c r="BD15" s="219"/>
-      <c r="BE15" s="219"/>
-      <c r="BF15" s="219"/>
-      <c r="BG15" s="219"/>
-      <c r="BH15" s="219"/>
-      <c r="BI15" s="219"/>
-      <c r="BJ15" s="219"/>
-      <c r="BK15" s="219"/>
-      <c r="BL15" s="225"/>
-      <c r="BM15" s="31"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="220" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="46"/>
+      <c r="GS15" s="24"/>
+      <c r="HZ15" s="24"/>
+      <c r="QO15" s="24"/>
+      <c r="RV15" s="24"/>
+      <c r="AAK15" s="24"/>
+      <c r="ABR15" s="24"/>
+      <c r="AKG15" s="24"/>
+      <c r="ALN15" s="24"/>
+      <c r="AUC15" s="24"/>
+      <c r="AVJ15" s="24"/>
+      <c r="BDY15" s="24"/>
+      <c r="BFF15" s="24"/>
+      <c r="BNU15" s="24"/>
+      <c r="BPB15" s="24"/>
+      <c r="BXQ15" s="24"/>
+      <c r="BYX15" s="24"/>
+      <c r="CHM15" s="24"/>
+      <c r="CIT15" s="24"/>
+      <c r="CRI15" s="24"/>
+      <c r="CSP15" s="24"/>
+      <c r="DBE15" s="24"/>
+      <c r="DCL15" s="24"/>
+      <c r="DLA15" s="24"/>
+      <c r="DMH15" s="24"/>
+      <c r="DUW15" s="24"/>
+      <c r="DWD15" s="24"/>
+      <c r="EES15" s="24"/>
+      <c r="EFZ15" s="24"/>
+      <c r="EOO15" s="24"/>
+      <c r="EPV15" s="24"/>
+      <c r="EYK15" s="24"/>
+      <c r="EZR15" s="24"/>
+      <c r="FIG15" s="24"/>
+      <c r="FJN15" s="24"/>
+      <c r="FSC15" s="24"/>
+      <c r="FTJ15" s="24"/>
+      <c r="GBY15" s="24"/>
+      <c r="GDF15" s="24"/>
+      <c r="GLU15" s="24"/>
+      <c r="GNB15" s="24"/>
+      <c r="GVQ15" s="24"/>
+      <c r="GWX15" s="24"/>
+      <c r="HFM15" s="24"/>
+      <c r="HGT15" s="24"/>
+      <c r="HPI15" s="24"/>
+      <c r="HQP15" s="24"/>
+      <c r="HZE15" s="24"/>
+      <c r="IAL15" s="24"/>
+      <c r="IJA15" s="24"/>
+      <c r="IKH15" s="24"/>
+      <c r="ISW15" s="24"/>
+      <c r="IUD15" s="24"/>
+      <c r="JCS15" s="24"/>
+      <c r="JDZ15" s="24"/>
+      <c r="JMO15" s="24"/>
+      <c r="JNV15" s="24"/>
+      <c r="JWK15" s="24"/>
+      <c r="JXR15" s="24"/>
+      <c r="KGG15" s="24"/>
+      <c r="KHN15" s="24"/>
+      <c r="KQC15" s="24"/>
+      <c r="KRJ15" s="24"/>
+      <c r="KZY15" s="24"/>
+      <c r="LBF15" s="24"/>
+      <c r="LJU15" s="24"/>
+      <c r="LLB15" s="24"/>
+      <c r="LTQ15" s="24"/>
+      <c r="LUX15" s="24"/>
+      <c r="MDM15" s="24"/>
+      <c r="MET15" s="24"/>
+      <c r="MNI15" s="24"/>
+      <c r="MOP15" s="24"/>
+      <c r="MXE15" s="24"/>
+      <c r="MYL15" s="24"/>
+      <c r="NHA15" s="24"/>
+      <c r="NIH15" s="24"/>
+      <c r="NQW15" s="24"/>
+      <c r="NSD15" s="24"/>
+      <c r="OAS15" s="24"/>
+      <c r="OBZ15" s="24"/>
+      <c r="OKO15" s="24"/>
+      <c r="OLV15" s="24"/>
+      <c r="OUK15" s="24"/>
+      <c r="OVR15" s="24"/>
+      <c r="PEG15" s="24"/>
+      <c r="PFN15" s="24"/>
+      <c r="POC15" s="24"/>
+      <c r="PPJ15" s="24"/>
+      <c r="PXY15" s="24"/>
+      <c r="PZF15" s="24"/>
+      <c r="QHU15" s="24"/>
+      <c r="QJB15" s="24"/>
+      <c r="QRQ15" s="24"/>
+      <c r="QSX15" s="24"/>
+      <c r="RBM15" s="24"/>
+      <c r="RCT15" s="24"/>
+      <c r="RLI15" s="24"/>
+      <c r="RMP15" s="24"/>
+      <c r="RVE15" s="24"/>
+      <c r="RWL15" s="24"/>
+      <c r="SFA15" s="24"/>
+      <c r="SGH15" s="24"/>
+      <c r="SOW15" s="24"/>
+      <c r="SQD15" s="24"/>
+      <c r="SYS15" s="24"/>
+      <c r="SZZ15" s="24"/>
+      <c r="TIO15" s="24"/>
+      <c r="TJV15" s="24"/>
+      <c r="TSK15" s="24"/>
+      <c r="TTR15" s="24"/>
+      <c r="UCG15" s="24"/>
+      <c r="UDN15" s="24"/>
+      <c r="UMC15" s="24"/>
+      <c r="UNJ15" s="24"/>
+      <c r="UVY15" s="24"/>
+      <c r="UXF15" s="24"/>
+      <c r="VFU15" s="24"/>
+      <c r="VHB15" s="24"/>
+      <c r="VPQ15" s="24"/>
+      <c r="VQX15" s="24"/>
+      <c r="VZM15" s="24"/>
+      <c r="WAT15" s="24"/>
+      <c r="WJI15" s="24"/>
+      <c r="WKP15" s="24"/>
+      <c r="WTE15" s="24"/>
+      <c r="WUL15" s="24"/>
     </row>
     <row r="16" customHeight="1" ht="12">
       <c r="A16" s="37"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
-      <c r="M16" s="219"/>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
-      <c r="P16" s="219"/>
-      <c r="Q16" s="219"/>
-      <c r="R16" s="219"/>
-      <c r="S16" s="219"/>
-      <c r="T16" s="219"/>
-      <c r="U16" s="219"/>
-      <c r="V16" s="219"/>
-      <c r="W16" s="219"/>
-      <c r="X16" s="219"/>
-      <c r="Y16" s="219"/>
-      <c r="Z16" s="219"/>
-      <c r="AA16" s="219"/>
-      <c r="AB16" s="219"/>
-      <c r="AC16" s="219"/>
-      <c r="AD16" s="219"/>
-      <c r="AE16" s="219"/>
-      <c r="AF16" s="219"/>
-      <c r="AG16" s="219"/>
-      <c r="AH16" s="219"/>
-      <c r="AI16" s="219"/>
-      <c r="AJ16" s="219"/>
-      <c r="AK16" s="219"/>
-      <c r="AL16" s="219"/>
-      <c r="AM16" s="219"/>
-      <c r="AN16" s="219"/>
-      <c r="AO16" s="219"/>
-      <c r="AP16" s="219"/>
-      <c r="AQ16" s="219"/>
-      <c r="AR16" s="219"/>
-      <c r="AS16" s="219"/>
-      <c r="AT16" s="219"/>
-      <c r="AU16" s="219"/>
-      <c r="AV16" s="219"/>
-      <c r="AW16" s="219"/>
-      <c r="AX16" s="219"/>
-      <c r="AY16" s="219"/>
-      <c r="AZ16" s="219"/>
-      <c r="BA16" s="219"/>
-      <c r="BB16" s="219"/>
-      <c r="BC16" s="219"/>
-      <c r="BD16" s="219"/>
-      <c r="BE16" s="219"/>
-      <c r="BF16" s="219"/>
-      <c r="BG16" s="219"/>
-      <c r="BH16" s="219"/>
-      <c r="BI16" s="219"/>
-      <c r="BJ16" s="219"/>
-      <c r="BK16" s="219"/>
-      <c r="BL16" s="225"/>
-      <c r="BM16" s="31"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="46"/>
+      <c r="GS16" s="24"/>
+      <c r="HZ16" s="24"/>
+      <c r="QO16" s="24"/>
+      <c r="RV16" s="24"/>
+      <c r="AAK16" s="24"/>
+      <c r="ABR16" s="24"/>
+      <c r="AKG16" s="24"/>
+      <c r="ALN16" s="24"/>
+      <c r="AUC16" s="24"/>
+      <c r="AVJ16" s="24"/>
+      <c r="BDY16" s="24"/>
+      <c r="BFF16" s="24"/>
+      <c r="BNU16" s="24"/>
+      <c r="BPB16" s="24"/>
+      <c r="BXQ16" s="24"/>
+      <c r="BYX16" s="24"/>
+      <c r="CHM16" s="24"/>
+      <c r="CIT16" s="24"/>
+      <c r="CRI16" s="24"/>
+      <c r="CSP16" s="24"/>
+      <c r="DBE16" s="24"/>
+      <c r="DCL16" s="24"/>
+      <c r="DLA16" s="24"/>
+      <c r="DMH16" s="24"/>
+      <c r="DUW16" s="24"/>
+      <c r="DWD16" s="24"/>
+      <c r="EES16" s="24"/>
+      <c r="EFZ16" s="24"/>
+      <c r="EOO16" s="24"/>
+      <c r="EPV16" s="24"/>
+      <c r="EYK16" s="24"/>
+      <c r="EZR16" s="24"/>
+      <c r="FIG16" s="24"/>
+      <c r="FJN16" s="24"/>
+      <c r="FSC16" s="24"/>
+      <c r="FTJ16" s="24"/>
+      <c r="GBY16" s="24"/>
+      <c r="GDF16" s="24"/>
+      <c r="GLU16" s="24"/>
+      <c r="GNB16" s="24"/>
+      <c r="GVQ16" s="24"/>
+      <c r="GWX16" s="24"/>
+      <c r="HFM16" s="24"/>
+      <c r="HGT16" s="24"/>
+      <c r="HPI16" s="24"/>
+      <c r="HQP16" s="24"/>
+      <c r="HZE16" s="24"/>
+      <c r="IAL16" s="24"/>
+      <c r="IJA16" s="24"/>
+      <c r="IKH16" s="24"/>
+      <c r="ISW16" s="24"/>
+      <c r="IUD16" s="24"/>
+      <c r="JCS16" s="24"/>
+      <c r="JDZ16" s="24"/>
+      <c r="JMO16" s="24"/>
+      <c r="JNV16" s="24"/>
+      <c r="JWK16" s="24"/>
+      <c r="JXR16" s="24"/>
+      <c r="KGG16" s="24"/>
+      <c r="KHN16" s="24"/>
+      <c r="KQC16" s="24"/>
+      <c r="KRJ16" s="24"/>
+      <c r="KZY16" s="24"/>
+      <c r="LBF16" s="24"/>
+      <c r="LJU16" s="24"/>
+      <c r="LLB16" s="24"/>
+      <c r="LTQ16" s="24"/>
+      <c r="LUX16" s="24"/>
+      <c r="MDM16" s="24"/>
+      <c r="MET16" s="24"/>
+      <c r="MNI16" s="24"/>
+      <c r="MOP16" s="24"/>
+      <c r="MXE16" s="24"/>
+      <c r="MYL16" s="24"/>
+      <c r="NHA16" s="24"/>
+      <c r="NIH16" s="24"/>
+      <c r="NQW16" s="24"/>
+      <c r="NSD16" s="24"/>
+      <c r="OAS16" s="24"/>
+      <c r="OBZ16" s="24"/>
+      <c r="OKO16" s="24"/>
+      <c r="OLV16" s="24"/>
+      <c r="OUK16" s="24"/>
+      <c r="OVR16" s="24"/>
+      <c r="PEG16" s="24"/>
+      <c r="PFN16" s="24"/>
+      <c r="POC16" s="24"/>
+      <c r="PPJ16" s="24"/>
+      <c r="PXY16" s="24"/>
+      <c r="PZF16" s="24"/>
+      <c r="QHU16" s="24"/>
+      <c r="QJB16" s="24"/>
+      <c r="QRQ16" s="24"/>
+      <c r="QSX16" s="24"/>
+      <c r="RBM16" s="24"/>
+      <c r="RCT16" s="24"/>
+      <c r="RLI16" s="24"/>
+      <c r="RMP16" s="24"/>
+      <c r="RVE16" s="24"/>
+      <c r="RWL16" s="24"/>
+      <c r="SFA16" s="24"/>
+      <c r="SGH16" s="24"/>
+      <c r="SOW16" s="24"/>
+      <c r="SQD16" s="24"/>
+      <c r="SYS16" s="24"/>
+      <c r="SZZ16" s="24"/>
+      <c r="TIO16" s="24"/>
+      <c r="TJV16" s="24"/>
+      <c r="TSK16" s="24"/>
+      <c r="TTR16" s="24"/>
+      <c r="UCG16" s="24"/>
+      <c r="UDN16" s="24"/>
+      <c r="UMC16" s="24"/>
+      <c r="UNJ16" s="24"/>
+      <c r="UVY16" s="24"/>
+      <c r="UXF16" s="24"/>
+      <c r="VFU16" s="24"/>
+      <c r="VHB16" s="24"/>
+      <c r="VPQ16" s="24"/>
+      <c r="VQX16" s="24"/>
+      <c r="VZM16" s="24"/>
+      <c r="WAT16" s="24"/>
+      <c r="WJI16" s="24"/>
+      <c r="WKP16" s="24"/>
+      <c r="WTE16" s="24"/>
+      <c r="WUL16" s="24"/>
     </row>
     <row r="17" customHeight="1" ht="12">
       <c r="A17" s="37"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
@@ -9635,1158 +12075,1813 @@
       <c r="AG17" s="45"/>
       <c r="AH17" s="45"/>
       <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="AZ17" s="45"/>
-      <c r="BA17" s="45"/>
-      <c r="BB17" s="45"/>
-      <c r="BC17" s="45"/>
-      <c r="BD17" s="45"/>
-      <c r="BE17" s="45"/>
-      <c r="BF17" s="45"/>
-      <c r="BG17" s="45"/>
-      <c r="BH17" s="45"/>
-      <c r="BI17" s="45"/>
-      <c r="BJ17" s="45"/>
-      <c r="BK17" s="45"/>
-      <c r="BL17" s="46"/>
-      <c r="BM17" s="31"/>
+      <c r="AJ17" s="46"/>
+      <c r="GS17" s="24"/>
+      <c r="HZ17" s="24"/>
+      <c r="QO17" s="24"/>
+      <c r="RV17" s="24"/>
+      <c r="AAK17" s="24"/>
+      <c r="ABR17" s="24"/>
+      <c r="AKG17" s="24"/>
+      <c r="ALN17" s="24"/>
+      <c r="AUC17" s="24"/>
+      <c r="AVJ17" s="24"/>
+      <c r="BDY17" s="24"/>
+      <c r="BFF17" s="24"/>
+      <c r="BNU17" s="24"/>
+      <c r="BPB17" s="24"/>
+      <c r="BXQ17" s="24"/>
+      <c r="BYX17" s="24"/>
+      <c r="CHM17" s="24"/>
+      <c r="CIT17" s="24"/>
+      <c r="CRI17" s="24"/>
+      <c r="CSP17" s="24"/>
+      <c r="DBE17" s="24"/>
+      <c r="DCL17" s="24"/>
+      <c r="DLA17" s="24"/>
+      <c r="DMH17" s="24"/>
+      <c r="DUW17" s="24"/>
+      <c r="DWD17" s="24"/>
+      <c r="EES17" s="24"/>
+      <c r="EFZ17" s="24"/>
+      <c r="EOO17" s="24"/>
+      <c r="EPV17" s="24"/>
+      <c r="EYK17" s="24"/>
+      <c r="EZR17" s="24"/>
+      <c r="FIG17" s="24"/>
+      <c r="FJN17" s="24"/>
+      <c r="FSC17" s="24"/>
+      <c r="FTJ17" s="24"/>
+      <c r="GBY17" s="24"/>
+      <c r="GDF17" s="24"/>
+      <c r="GLU17" s="24"/>
+      <c r="GNB17" s="24"/>
+      <c r="GVQ17" s="24"/>
+      <c r="GWX17" s="24"/>
+      <c r="HFM17" s="24"/>
+      <c r="HGT17" s="24"/>
+      <c r="HPI17" s="24"/>
+      <c r="HQP17" s="24"/>
+      <c r="HZE17" s="24"/>
+      <c r="IAL17" s="24"/>
+      <c r="IJA17" s="24"/>
+      <c r="IKH17" s="24"/>
+      <c r="ISW17" s="24"/>
+      <c r="IUD17" s="24"/>
+      <c r="JCS17" s="24"/>
+      <c r="JDZ17" s="24"/>
+      <c r="JMO17" s="24"/>
+      <c r="JNV17" s="24"/>
+      <c r="JWK17" s="24"/>
+      <c r="JXR17" s="24"/>
+      <c r="KGG17" s="24"/>
+      <c r="KHN17" s="24"/>
+      <c r="KQC17" s="24"/>
+      <c r="KRJ17" s="24"/>
+      <c r="KZY17" s="24"/>
+      <c r="LBF17" s="24"/>
+      <c r="LJU17" s="24"/>
+      <c r="LLB17" s="24"/>
+      <c r="LTQ17" s="24"/>
+      <c r="LUX17" s="24"/>
+      <c r="MDM17" s="24"/>
+      <c r="MET17" s="24"/>
+      <c r="MNI17" s="24"/>
+      <c r="MOP17" s="24"/>
+      <c r="MXE17" s="24"/>
+      <c r="MYL17" s="24"/>
+      <c r="NHA17" s="24"/>
+      <c r="NIH17" s="24"/>
+      <c r="NQW17" s="24"/>
+      <c r="NSD17" s="24"/>
+      <c r="OAS17" s="24"/>
+      <c r="OBZ17" s="24"/>
+      <c r="OKO17" s="24"/>
+      <c r="OLV17" s="24"/>
+      <c r="OUK17" s="24"/>
+      <c r="OVR17" s="24"/>
+      <c r="PEG17" s="24"/>
+      <c r="PFN17" s="24"/>
+      <c r="POC17" s="24"/>
+      <c r="PPJ17" s="24"/>
+      <c r="PXY17" s="24"/>
+      <c r="PZF17" s="24"/>
+      <c r="QHU17" s="24"/>
+      <c r="QJB17" s="24"/>
+      <c r="QRQ17" s="24"/>
+      <c r="QSX17" s="24"/>
+      <c r="RBM17" s="24"/>
+      <c r="RCT17" s="24"/>
+      <c r="RLI17" s="24"/>
+      <c r="RMP17" s="24"/>
+      <c r="RVE17" s="24"/>
+      <c r="RWL17" s="24"/>
+      <c r="SFA17" s="24"/>
+      <c r="SGH17" s="24"/>
+      <c r="SOW17" s="24"/>
+      <c r="SQD17" s="24"/>
+      <c r="SYS17" s="24"/>
+      <c r="SZZ17" s="24"/>
+      <c r="TIO17" s="24"/>
+      <c r="TJV17" s="24"/>
+      <c r="TSK17" s="24"/>
+      <c r="TTR17" s="24"/>
+      <c r="UCG17" s="24"/>
+      <c r="UDN17" s="24"/>
+      <c r="UMC17" s="24"/>
+      <c r="UNJ17" s="24"/>
+      <c r="UVY17" s="24"/>
+      <c r="UXF17" s="24"/>
+      <c r="VFU17" s="24"/>
+      <c r="VHB17" s="24"/>
+      <c r="VPQ17" s="24"/>
+      <c r="VQX17" s="24"/>
+      <c r="VZM17" s="24"/>
+      <c r="WAT17" s="24"/>
+      <c r="WJI17" s="24"/>
+      <c r="WKP17" s="24"/>
+      <c r="WTE17" s="24"/>
+      <c r="WUL17" s="24"/>
     </row>
     <row r="18" customHeight="1" ht="12">
       <c r="A18" s="37"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="221" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="222"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="222"/>
-      <c r="L18" s="222"/>
-      <c r="M18" s="222"/>
-      <c r="N18" s="222"/>
-      <c r="O18" s="222"/>
-      <c r="P18" s="222"/>
-      <c r="Q18" s="222"/>
-      <c r="R18" s="222"/>
-      <c r="S18" s="222"/>
-      <c r="T18" s="222"/>
-      <c r="U18" s="222"/>
-      <c r="V18" s="222"/>
-      <c r="W18" s="222"/>
-      <c r="X18" s="222"/>
-      <c r="Y18" s="222"/>
-      <c r="Z18" s="222"/>
-      <c r="AA18" s="222"/>
-      <c r="AB18" s="222"/>
-      <c r="AC18" s="222"/>
-      <c r="AD18" s="222"/>
-      <c r="AE18" s="222"/>
-      <c r="AF18" s="222"/>
-      <c r="AG18" s="222"/>
-      <c r="AH18" s="222"/>
-      <c r="AI18" s="222"/>
-      <c r="AJ18" s="222"/>
-      <c r="AK18" s="222"/>
-      <c r="AL18" s="222"/>
-      <c r="AM18" s="222"/>
-      <c r="AN18" s="222"/>
-      <c r="AO18" s="222"/>
-      <c r="AP18" s="222"/>
-      <c r="AQ18" s="222"/>
-      <c r="AR18" s="222"/>
-      <c r="AS18" s="222"/>
-      <c r="AT18" s="222"/>
-      <c r="AU18" s="222"/>
-      <c r="AV18" s="222"/>
-      <c r="AW18" s="222"/>
-      <c r="AX18" s="222"/>
-      <c r="AY18" s="222"/>
-      <c r="AZ18" s="222"/>
-      <c r="BA18" s="222"/>
-      <c r="BB18" s="222"/>
-      <c r="BC18" s="222"/>
-      <c r="BD18" s="222"/>
-      <c r="BE18" s="222"/>
-      <c r="BF18" s="222"/>
-      <c r="BG18" s="222"/>
-      <c r="BH18" s="222"/>
-      <c r="BI18" s="222"/>
-      <c r="BJ18" s="222"/>
-      <c r="BK18" s="222"/>
-      <c r="BL18" s="223"/>
-      <c r="BM18" s="31"/>
+      <c r="B18" s="578" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="579"/>
+      <c r="D18" s="579"/>
+      <c r="E18" s="579"/>
+      <c r="F18" s="579"/>
+      <c r="G18" s="579"/>
+      <c r="H18" s="579"/>
+      <c r="I18" s="579"/>
+      <c r="J18" s="579"/>
+      <c r="K18" s="579"/>
+      <c r="L18" s="579"/>
+      <c r="M18" s="579"/>
+      <c r="N18" s="579"/>
+      <c r="O18" s="579"/>
+      <c r="P18" s="579"/>
+      <c r="Q18" s="579"/>
+      <c r="R18" s="579"/>
+      <c r="S18" s="579"/>
+      <c r="T18" s="579"/>
+      <c r="U18" s="579"/>
+      <c r="V18" s="579"/>
+      <c r="W18" s="579"/>
+      <c r="X18" s="579"/>
+      <c r="Y18" s="579"/>
+      <c r="Z18" s="579"/>
+      <c r="AA18" s="579"/>
+      <c r="AB18" s="579"/>
+      <c r="AC18" s="579"/>
+      <c r="AD18" s="579"/>
+      <c r="AE18" s="579"/>
+      <c r="AF18" s="579"/>
+      <c r="AG18" s="579"/>
+      <c r="AH18" s="579"/>
+      <c r="AI18" s="579"/>
+      <c r="AJ18" s="580"/>
+      <c r="GS18" s="24"/>
+      <c r="HZ18" s="24"/>
+      <c r="QO18" s="24"/>
+      <c r="RV18" s="24"/>
+      <c r="AAK18" s="24"/>
+      <c r="ABR18" s="24"/>
+      <c r="AKG18" s="24"/>
+      <c r="ALN18" s="24"/>
+      <c r="AUC18" s="24"/>
+      <c r="AVJ18" s="24"/>
+      <c r="BDY18" s="24"/>
+      <c r="BFF18" s="24"/>
+      <c r="BNU18" s="24"/>
+      <c r="BPB18" s="24"/>
+      <c r="BXQ18" s="24"/>
+      <c r="BYX18" s="24"/>
+      <c r="CHM18" s="24"/>
+      <c r="CIT18" s="24"/>
+      <c r="CRI18" s="24"/>
+      <c r="CSP18" s="24"/>
+      <c r="DBE18" s="24"/>
+      <c r="DCL18" s="24"/>
+      <c r="DLA18" s="24"/>
+      <c r="DMH18" s="24"/>
+      <c r="DUW18" s="24"/>
+      <c r="DWD18" s="24"/>
+      <c r="EES18" s="24"/>
+      <c r="EFZ18" s="24"/>
+      <c r="EOO18" s="24"/>
+      <c r="EPV18" s="24"/>
+      <c r="EYK18" s="24"/>
+      <c r="EZR18" s="24"/>
+      <c r="FIG18" s="24"/>
+      <c r="FJN18" s="24"/>
+      <c r="FSC18" s="24"/>
+      <c r="FTJ18" s="24"/>
+      <c r="GBY18" s="24"/>
+      <c r="GDF18" s="24"/>
+      <c r="GLU18" s="24"/>
+      <c r="GNB18" s="24"/>
+      <c r="GVQ18" s="24"/>
+      <c r="GWX18" s="24"/>
+      <c r="HFM18" s="24"/>
+      <c r="HGT18" s="24"/>
+      <c r="HPI18" s="24"/>
+      <c r="HQP18" s="24"/>
+      <c r="HZE18" s="24"/>
+      <c r="IAL18" s="24"/>
+      <c r="IJA18" s="24"/>
+      <c r="IKH18" s="24"/>
+      <c r="ISW18" s="24"/>
+      <c r="IUD18" s="24"/>
+      <c r="JCS18" s="24"/>
+      <c r="JDZ18" s="24"/>
+      <c r="JMO18" s="24"/>
+      <c r="JNV18" s="24"/>
+      <c r="JWK18" s="24"/>
+      <c r="JXR18" s="24"/>
+      <c r="KGG18" s="24"/>
+      <c r="KHN18" s="24"/>
+      <c r="KQC18" s="24"/>
+      <c r="KRJ18" s="24"/>
+      <c r="KZY18" s="24"/>
+      <c r="LBF18" s="24"/>
+      <c r="LJU18" s="24"/>
+      <c r="LLB18" s="24"/>
+      <c r="LTQ18" s="24"/>
+      <c r="LUX18" s="24"/>
+      <c r="MDM18" s="24"/>
+      <c r="MET18" s="24"/>
+      <c r="MNI18" s="24"/>
+      <c r="MOP18" s="24"/>
+      <c r="MXE18" s="24"/>
+      <c r="MYL18" s="24"/>
+      <c r="NHA18" s="24"/>
+      <c r="NIH18" s="24"/>
+      <c r="NQW18" s="24"/>
+      <c r="NSD18" s="24"/>
+      <c r="OAS18" s="24"/>
+      <c r="OBZ18" s="24"/>
+      <c r="OKO18" s="24"/>
+      <c r="OLV18" s="24"/>
+      <c r="OUK18" s="24"/>
+      <c r="OVR18" s="24"/>
+      <c r="PEG18" s="24"/>
+      <c r="PFN18" s="24"/>
+      <c r="POC18" s="24"/>
+      <c r="PPJ18" s="24"/>
+      <c r="PXY18" s="24"/>
+      <c r="PZF18" s="24"/>
+      <c r="QHU18" s="24"/>
+      <c r="QJB18" s="24"/>
+      <c r="QRQ18" s="24"/>
+      <c r="QSX18" s="24"/>
+      <c r="RBM18" s="24"/>
+      <c r="RCT18" s="24"/>
+      <c r="RLI18" s="24"/>
+      <c r="RMP18" s="24"/>
+      <c r="RVE18" s="24"/>
+      <c r="RWL18" s="24"/>
+      <c r="SFA18" s="24"/>
+      <c r="SGH18" s="24"/>
+      <c r="SOW18" s="24"/>
+      <c r="SQD18" s="24"/>
+      <c r="SYS18" s="24"/>
+      <c r="SZZ18" s="24"/>
+      <c r="TIO18" s="24"/>
+      <c r="TJV18" s="24"/>
+      <c r="TSK18" s="24"/>
+      <c r="TTR18" s="24"/>
+      <c r="UCG18" s="24"/>
+      <c r="UDN18" s="24"/>
+      <c r="UMC18" s="24"/>
+      <c r="UNJ18" s="24"/>
+      <c r="UVY18" s="24"/>
+      <c r="UXF18" s="24"/>
+      <c r="VFU18" s="24"/>
+      <c r="VHB18" s="24"/>
+      <c r="VPQ18" s="24"/>
+      <c r="VQX18" s="24"/>
+      <c r="VZM18" s="24"/>
+      <c r="WAT18" s="24"/>
+      <c r="WJI18" s="24"/>
+      <c r="WKP18" s="24"/>
+      <c r="WTE18" s="24"/>
+      <c r="WUL18" s="24"/>
     </row>
-    <row r="19" customHeight="1" ht="12">
-      <c r="A19" s="37"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="48"/>
-      <c r="BC19" s="48"/>
-      <c r="BD19" s="48"/>
-      <c r="BE19" s="48"/>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="48"/>
-      <c r="BH19" s="48"/>
-      <c r="BI19" s="48"/>
-      <c r="BJ19" s="48"/>
-      <c r="BK19" s="48"/>
-      <c r="BL19" s="49"/>
-      <c r="BM19" s="31"/>
+    <row r="19" customFormat="1" s="639">
+      <c r="A19" s="640"/>
+      <c r="B19" s="581"/>
+      <c r="C19" s="582"/>
+      <c r="D19" s="582"/>
+      <c r="E19" s="582"/>
+      <c r="F19" s="582"/>
+      <c r="G19" s="582"/>
+      <c r="H19" s="582"/>
+      <c r="I19" s="582"/>
+      <c r="J19" s="582"/>
+      <c r="K19" s="582"/>
+      <c r="L19" s="582"/>
+      <c r="M19" s="582"/>
+      <c r="N19" s="582"/>
+      <c r="O19" s="582"/>
+      <c r="P19" s="582"/>
+      <c r="Q19" s="582"/>
+      <c r="R19" s="582"/>
+      <c r="S19" s="582"/>
+      <c r="T19" s="582"/>
+      <c r="U19" s="582"/>
+      <c r="V19" s="582"/>
+      <c r="W19" s="582"/>
+      <c r="X19" s="582"/>
+      <c r="Y19" s="582"/>
+      <c r="Z19" s="582"/>
+      <c r="AA19" s="582"/>
+      <c r="AB19" s="582"/>
+      <c r="AC19" s="582"/>
+      <c r="AD19" s="582"/>
+      <c r="AE19" s="582"/>
+      <c r="AF19" s="582"/>
+      <c r="AG19" s="582"/>
+      <c r="AH19" s="582"/>
+      <c r="AI19" s="582"/>
+      <c r="AJ19" s="583"/>
+      <c r="GS19" s="639"/>
+      <c r="HZ19" s="639"/>
+      <c r="QO19" s="639"/>
+      <c r="RV19" s="639"/>
+      <c r="AAK19" s="639"/>
+      <c r="ABR19" s="639"/>
+      <c r="AKG19" s="639"/>
+      <c r="ALN19" s="639"/>
+      <c r="AUC19" s="639"/>
+      <c r="AVJ19" s="639"/>
+      <c r="BDY19" s="639"/>
+      <c r="BFF19" s="639"/>
+      <c r="BNU19" s="639"/>
+      <c r="BPB19" s="639"/>
+      <c r="BXQ19" s="639"/>
+      <c r="BYX19" s="639"/>
+      <c r="CHM19" s="639"/>
+      <c r="CIT19" s="639"/>
+      <c r="CRI19" s="639"/>
+      <c r="CSP19" s="639"/>
+      <c r="DBE19" s="639"/>
+      <c r="DCL19" s="639"/>
+      <c r="DLA19" s="639"/>
+      <c r="DMH19" s="639"/>
+      <c r="DUW19" s="639"/>
+      <c r="DWD19" s="639"/>
+      <c r="EES19" s="639"/>
+      <c r="EFZ19" s="639"/>
+      <c r="EOO19" s="639"/>
+      <c r="EPV19" s="639"/>
+      <c r="EYK19" s="639"/>
+      <c r="EZR19" s="639"/>
+      <c r="FIG19" s="639"/>
+      <c r="FJN19" s="639"/>
+      <c r="FSC19" s="639"/>
+      <c r="FTJ19" s="639"/>
+      <c r="GBY19" s="639"/>
+      <c r="GDF19" s="639"/>
+      <c r="GLU19" s="639"/>
+      <c r="GNB19" s="639"/>
+      <c r="GVQ19" s="639"/>
+      <c r="GWX19" s="639"/>
+      <c r="HFM19" s="639"/>
+      <c r="HGT19" s="639"/>
+      <c r="HPI19" s="639"/>
+      <c r="HQP19" s="639"/>
+      <c r="HZE19" s="639"/>
+      <c r="IAL19" s="639"/>
+      <c r="IJA19" s="639"/>
+      <c r="IKH19" s="639"/>
+      <c r="ISW19" s="639"/>
+      <c r="IUD19" s="639"/>
+      <c r="JCS19" s="639"/>
+      <c r="JDZ19" s="639"/>
+      <c r="JMO19" s="639"/>
+      <c r="JNV19" s="639"/>
+      <c r="JWK19" s="639"/>
+      <c r="JXR19" s="639"/>
+      <c r="KGG19" s="639"/>
+      <c r="KHN19" s="639"/>
+      <c r="KQC19" s="639"/>
+      <c r="KRJ19" s="639"/>
+      <c r="KZY19" s="639"/>
+      <c r="LBF19" s="639"/>
+      <c r="LJU19" s="639"/>
+      <c r="LLB19" s="639"/>
+      <c r="LTQ19" s="639"/>
+      <c r="LUX19" s="639"/>
+      <c r="MDM19" s="639"/>
+      <c r="MET19" s="639"/>
+      <c r="MNI19" s="639"/>
+      <c r="MOP19" s="639"/>
+      <c r="MXE19" s="639"/>
+      <c r="MYL19" s="639"/>
+      <c r="NHA19" s="639"/>
+      <c r="NIH19" s="639"/>
+      <c r="NQW19" s="639"/>
+      <c r="NSD19" s="639"/>
+      <c r="OAS19" s="639"/>
+      <c r="OBZ19" s="639"/>
+      <c r="OKO19" s="639"/>
+      <c r="OLV19" s="639"/>
+      <c r="OUK19" s="639"/>
+      <c r="OVR19" s="639"/>
+      <c r="PEG19" s="639"/>
+      <c r="PFN19" s="639"/>
+      <c r="POC19" s="639"/>
+      <c r="PPJ19" s="639"/>
+      <c r="PXY19" s="639"/>
+      <c r="PZF19" s="639"/>
+      <c r="QHU19" s="639"/>
+      <c r="QJB19" s="639"/>
+      <c r="QRQ19" s="639"/>
+      <c r="QSX19" s="639"/>
+      <c r="RBM19" s="639"/>
+      <c r="RCT19" s="639"/>
+      <c r="RLI19" s="639"/>
+      <c r="RMP19" s="639"/>
+      <c r="RVE19" s="639"/>
+      <c r="RWL19" s="639"/>
+      <c r="SFA19" s="639"/>
+      <c r="SGH19" s="639"/>
+      <c r="SOW19" s="639"/>
+      <c r="SQD19" s="639"/>
+      <c r="SYS19" s="639"/>
+      <c r="SZZ19" s="639"/>
+      <c r="TIO19" s="639"/>
+      <c r="TJV19" s="639"/>
+      <c r="TSK19" s="639"/>
+      <c r="TTR19" s="639"/>
+      <c r="UCG19" s="639"/>
+      <c r="UDN19" s="639"/>
+      <c r="UMC19" s="639"/>
+      <c r="UNJ19" s="639"/>
+      <c r="UVY19" s="639"/>
+      <c r="UXF19" s="639"/>
+      <c r="VFU19" s="639"/>
+      <c r="VHB19" s="639"/>
+      <c r="VPQ19" s="639"/>
+      <c r="VQX19" s="639"/>
+      <c r="VZM19" s="639"/>
+      <c r="WAT19" s="639"/>
+      <c r="WJI19" s="639"/>
+      <c r="WKP19" s="639"/>
+      <c r="WTE19" s="639"/>
+      <c r="WUL19" s="639"/>
     </row>
     <row r="20" customHeight="1" ht="12">
       <c r="A20" s="37"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="352" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="353"/>
-      <c r="G20" s="352" t="s">
+      <c r="D20" s="84"/>
+      <c r="E20" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="353"/>
-      <c r="I20" s="353"/>
-      <c r="J20" s="353"/>
-      <c r="K20" s="353"/>
-      <c r="L20" s="353"/>
-      <c r="M20" s="353"/>
-      <c r="N20" s="353"/>
-      <c r="O20" s="353"/>
-      <c r="P20" s="353"/>
-      <c r="Q20" s="353"/>
-      <c r="R20" s="353"/>
-      <c r="S20" s="353"/>
-      <c r="T20" s="352"/>
-      <c r="U20" s="352"/>
-      <c r="V20" s="352"/>
-      <c r="W20" s="352"/>
-      <c r="X20" s="352"/>
-      <c r="Y20" s="352"/>
-      <c r="Z20" s="352"/>
-      <c r="AA20" s="352"/>
-      <c r="AB20" s="352"/>
-      <c r="AC20" s="352"/>
-      <c r="AD20" s="352"/>
-      <c r="AE20" s="352"/>
-      <c r="AF20" s="352"/>
-      <c r="AG20" s="352"/>
-      <c r="AH20" s="352"/>
-      <c r="AI20" s="352"/>
-      <c r="AJ20" s="352"/>
-      <c r="AK20" s="43"/>
-      <c r="AL20" s="43"/>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="43"/>
-      <c r="AP20" s="43"/>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="43"/>
-      <c r="AS20" s="43"/>
-      <c r="AT20" s="43"/>
-      <c r="AU20" s="43"/>
-      <c r="AV20" s="43"/>
-      <c r="AW20" s="43"/>
-      <c r="AX20" s="43"/>
-      <c r="AY20" s="43"/>
-      <c r="AZ20" s="43"/>
-      <c r="BA20" s="43"/>
-      <c r="BB20" s="43"/>
-      <c r="BC20" s="43"/>
-      <c r="BD20" s="43"/>
-      <c r="BE20" s="43"/>
-      <c r="BF20" s="43"/>
-      <c r="BG20" s="43"/>
-      <c r="BH20" s="43"/>
-      <c r="BI20" s="43"/>
-      <c r="BJ20" s="43"/>
-      <c r="BK20" s="43"/>
-      <c r="BL20" s="51"/>
-      <c r="BM20" s="31"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="43"/>
+      <c r="AJ20" s="51"/>
+      <c r="GS20" s="24"/>
+      <c r="HZ20" s="24"/>
+      <c r="QO20" s="24"/>
+      <c r="RV20" s="24"/>
+      <c r="AAK20" s="24"/>
+      <c r="ABR20" s="24"/>
+      <c r="AKG20" s="24"/>
+      <c r="ALN20" s="24"/>
+      <c r="AUC20" s="24"/>
+      <c r="AVJ20" s="24"/>
+      <c r="BDY20" s="24"/>
+      <c r="BFF20" s="24"/>
+      <c r="BNU20" s="24"/>
+      <c r="BPB20" s="24"/>
+      <c r="BXQ20" s="24"/>
+      <c r="BYX20" s="24"/>
+      <c r="CHM20" s="24"/>
+      <c r="CIT20" s="24"/>
+      <c r="CRI20" s="24"/>
+      <c r="CSP20" s="24"/>
+      <c r="DBE20" s="24"/>
+      <c r="DCL20" s="24"/>
+      <c r="DLA20" s="24"/>
+      <c r="DMH20" s="24"/>
+      <c r="DUW20" s="24"/>
+      <c r="DWD20" s="24"/>
+      <c r="EES20" s="24"/>
+      <c r="EFZ20" s="24"/>
+      <c r="EOO20" s="24"/>
+      <c r="EPV20" s="24"/>
+      <c r="EYK20" s="24"/>
+      <c r="EZR20" s="24"/>
+      <c r="FIG20" s="24"/>
+      <c r="FJN20" s="24"/>
+      <c r="FSC20" s="24"/>
+      <c r="FTJ20" s="24"/>
+      <c r="GBY20" s="24"/>
+      <c r="GDF20" s="24"/>
+      <c r="GLU20" s="24"/>
+      <c r="GNB20" s="24"/>
+      <c r="GVQ20" s="24"/>
+      <c r="GWX20" s="24"/>
+      <c r="HFM20" s="24"/>
+      <c r="HGT20" s="24"/>
+      <c r="HPI20" s="24"/>
+      <c r="HQP20" s="24"/>
+      <c r="HZE20" s="24"/>
+      <c r="IAL20" s="24"/>
+      <c r="IJA20" s="24"/>
+      <c r="IKH20" s="24"/>
+      <c r="ISW20" s="24"/>
+      <c r="IUD20" s="24"/>
+      <c r="JCS20" s="24"/>
+      <c r="JDZ20" s="24"/>
+      <c r="JMO20" s="24"/>
+      <c r="JNV20" s="24"/>
+      <c r="JWK20" s="24"/>
+      <c r="JXR20" s="24"/>
+      <c r="KGG20" s="24"/>
+      <c r="KHN20" s="24"/>
+      <c r="KQC20" s="24"/>
+      <c r="KRJ20" s="24"/>
+      <c r="KZY20" s="24"/>
+      <c r="LBF20" s="24"/>
+      <c r="LJU20" s="24"/>
+      <c r="LLB20" s="24"/>
+      <c r="LTQ20" s="24"/>
+      <c r="LUX20" s="24"/>
+      <c r="MDM20" s="24"/>
+      <c r="MET20" s="24"/>
+      <c r="MNI20" s="24"/>
+      <c r="MOP20" s="24"/>
+      <c r="MXE20" s="24"/>
+      <c r="MYL20" s="24"/>
+      <c r="NHA20" s="24"/>
+      <c r="NIH20" s="24"/>
+      <c r="NQW20" s="24"/>
+      <c r="NSD20" s="24"/>
+      <c r="OAS20" s="24"/>
+      <c r="OBZ20" s="24"/>
+      <c r="OKO20" s="24"/>
+      <c r="OLV20" s="24"/>
+      <c r="OUK20" s="24"/>
+      <c r="OVR20" s="24"/>
+      <c r="PEG20" s="24"/>
+      <c r="PFN20" s="24"/>
+      <c r="POC20" s="24"/>
+      <c r="PPJ20" s="24"/>
+      <c r="PXY20" s="24"/>
+      <c r="PZF20" s="24"/>
+      <c r="QHU20" s="24"/>
+      <c r="QJB20" s="24"/>
+      <c r="QRQ20" s="24"/>
+      <c r="QSX20" s="24"/>
+      <c r="RBM20" s="24"/>
+      <c r="RCT20" s="24"/>
+      <c r="RLI20" s="24"/>
+      <c r="RMP20" s="24"/>
+      <c r="RVE20" s="24"/>
+      <c r="RWL20" s="24"/>
+      <c r="SFA20" s="24"/>
+      <c r="SGH20" s="24"/>
+      <c r="SOW20" s="24"/>
+      <c r="SQD20" s="24"/>
+      <c r="SYS20" s="24"/>
+      <c r="SZZ20" s="24"/>
+      <c r="TIO20" s="24"/>
+      <c r="TJV20" s="24"/>
+      <c r="TSK20" s="24"/>
+      <c r="TTR20" s="24"/>
+      <c r="UCG20" s="24"/>
+      <c r="UDN20" s="24"/>
+      <c r="UMC20" s="24"/>
+      <c r="UNJ20" s="24"/>
+      <c r="UVY20" s="24"/>
+      <c r="UXF20" s="24"/>
+      <c r="VFU20" s="24"/>
+      <c r="VHB20" s="24"/>
+      <c r="VPQ20" s="24"/>
+      <c r="VQX20" s="24"/>
+      <c r="VZM20" s="24"/>
+      <c r="WAT20" s="24"/>
+      <c r="WJI20" s="24"/>
+      <c r="WKP20" s="24"/>
+      <c r="WTE20" s="24"/>
+      <c r="WUL20" s="24"/>
     </row>
-    <row r="21" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A21" s="80"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="353"/>
-      <c r="F21" s="352" t="s">
+    <row r="21" customHeight="1" ht="12">
+      <c r="A21" s="37"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="352" t="s">
+      <c r="E21" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="353"/>
-      <c r="I21" s="353"/>
-      <c r="J21" s="353"/>
-      <c r="K21" s="353"/>
-      <c r="L21" s="353"/>
-      <c r="M21" s="353"/>
-      <c r="N21" s="353"/>
-      <c r="O21" s="353"/>
-      <c r="P21" s="353"/>
-      <c r="Q21" s="353"/>
-      <c r="R21" s="353"/>
-      <c r="S21" s="353"/>
-      <c r="T21" s="352"/>
-      <c r="U21" s="352"/>
-      <c r="V21" s="352"/>
-      <c r="W21" s="352"/>
-      <c r="X21" s="352"/>
-      <c r="Y21" s="352"/>
-      <c r="Z21" s="352"/>
-      <c r="AA21" s="352"/>
-      <c r="AB21" s="352"/>
-      <c r="AC21" s="352"/>
-      <c r="AD21" s="352"/>
-      <c r="AE21" s="352"/>
-      <c r="AF21" s="352"/>
-      <c r="AG21" s="352"/>
-      <c r="AH21" s="352"/>
-      <c r="AI21" s="352"/>
-      <c r="AJ21" s="352"/>
-      <c r="AK21" s="43"/>
-      <c r="AL21" s="43"/>
-      <c r="AM21" s="43"/>
-      <c r="AN21" s="43"/>
-      <c r="AO21" s="43"/>
-      <c r="AP21" s="43"/>
-      <c r="AQ21" s="43"/>
-      <c r="AR21" s="43"/>
-      <c r="AS21" s="43"/>
-      <c r="AT21" s="43"/>
-      <c r="AU21" s="43"/>
-      <c r="AV21" s="43"/>
-      <c r="AW21" s="43"/>
-      <c r="AX21" s="43"/>
-      <c r="AY21" s="43"/>
-      <c r="AZ21" s="43"/>
-      <c r="BA21" s="43"/>
-      <c r="BB21" s="43"/>
-      <c r="BC21" s="43"/>
-      <c r="BD21" s="43"/>
-      <c r="BE21" s="43"/>
-      <c r="BF21" s="43"/>
-      <c r="BG21" s="43"/>
-      <c r="BH21" s="43"/>
-      <c r="BI21" s="43"/>
-      <c r="BJ21" s="43"/>
-      <c r="BK21" s="43"/>
-      <c r="BL21" s="82"/>
-      <c r="BM21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="43"/>
+      <c r="AI21" s="43"/>
+      <c r="AJ21" s="51"/>
+      <c r="GS21" s="24"/>
+      <c r="HZ21" s="24"/>
+      <c r="QO21" s="24"/>
+      <c r="RV21" s="24"/>
+      <c r="AAK21" s="24"/>
+      <c r="ABR21" s="24"/>
+      <c r="AKG21" s="24"/>
+      <c r="ALN21" s="24"/>
+      <c r="AUC21" s="24"/>
+      <c r="AVJ21" s="24"/>
+      <c r="BDY21" s="24"/>
+      <c r="BFF21" s="24"/>
+      <c r="BNU21" s="24"/>
+      <c r="BPB21" s="24"/>
+      <c r="BXQ21" s="24"/>
+      <c r="BYX21" s="24"/>
+      <c r="CHM21" s="24"/>
+      <c r="CIT21" s="24"/>
+      <c r="CRI21" s="24"/>
+      <c r="CSP21" s="24"/>
+      <c r="DBE21" s="24"/>
+      <c r="DCL21" s="24"/>
+      <c r="DLA21" s="24"/>
+      <c r="DMH21" s="24"/>
+      <c r="DUW21" s="24"/>
+      <c r="DWD21" s="24"/>
+      <c r="EES21" s="24"/>
+      <c r="EFZ21" s="24"/>
+      <c r="EOO21" s="24"/>
+      <c r="EPV21" s="24"/>
+      <c r="EYK21" s="24"/>
+      <c r="EZR21" s="24"/>
+      <c r="FIG21" s="24"/>
+      <c r="FJN21" s="24"/>
+      <c r="FSC21" s="24"/>
+      <c r="FTJ21" s="24"/>
+      <c r="GBY21" s="24"/>
+      <c r="GDF21" s="24"/>
+      <c r="GLU21" s="24"/>
+      <c r="GNB21" s="24"/>
+      <c r="GVQ21" s="24"/>
+      <c r="GWX21" s="24"/>
+      <c r="HFM21" s="24"/>
+      <c r="HGT21" s="24"/>
+      <c r="HPI21" s="24"/>
+      <c r="HQP21" s="24"/>
+      <c r="HZE21" s="24"/>
+      <c r="IAL21" s="24"/>
+      <c r="IJA21" s="24"/>
+      <c r="IKH21" s="24"/>
+      <c r="ISW21" s="24"/>
+      <c r="IUD21" s="24"/>
+      <c r="JCS21" s="24"/>
+      <c r="JDZ21" s="24"/>
+      <c r="JMO21" s="24"/>
+      <c r="JNV21" s="24"/>
+      <c r="JWK21" s="24"/>
+      <c r="JXR21" s="24"/>
+      <c r="KGG21" s="24"/>
+      <c r="KHN21" s="24"/>
+      <c r="KQC21" s="24"/>
+      <c r="KRJ21" s="24"/>
+      <c r="KZY21" s="24"/>
+      <c r="LBF21" s="24"/>
+      <c r="LJU21" s="24"/>
+      <c r="LLB21" s="24"/>
+      <c r="LTQ21" s="24"/>
+      <c r="LUX21" s="24"/>
+      <c r="MDM21" s="24"/>
+      <c r="MET21" s="24"/>
+      <c r="MNI21" s="24"/>
+      <c r="MOP21" s="24"/>
+      <c r="MXE21" s="24"/>
+      <c r="MYL21" s="24"/>
+      <c r="NHA21" s="24"/>
+      <c r="NIH21" s="24"/>
+      <c r="NQW21" s="24"/>
+      <c r="NSD21" s="24"/>
+      <c r="OAS21" s="24"/>
+      <c r="OBZ21" s="24"/>
+      <c r="OKO21" s="24"/>
+      <c r="OLV21" s="24"/>
+      <c r="OUK21" s="24"/>
+      <c r="OVR21" s="24"/>
+      <c r="PEG21" s="24"/>
+      <c r="PFN21" s="24"/>
+      <c r="POC21" s="24"/>
+      <c r="PPJ21" s="24"/>
+      <c r="PXY21" s="24"/>
+      <c r="PZF21" s="24"/>
+      <c r="QHU21" s="24"/>
+      <c r="QJB21" s="24"/>
+      <c r="QRQ21" s="24"/>
+      <c r="QSX21" s="24"/>
+      <c r="RBM21" s="24"/>
+      <c r="RCT21" s="24"/>
+      <c r="RLI21" s="24"/>
+      <c r="RMP21" s="24"/>
+      <c r="RVE21" s="24"/>
+      <c r="RWL21" s="24"/>
+      <c r="SFA21" s="24"/>
+      <c r="SGH21" s="24"/>
+      <c r="SOW21" s="24"/>
+      <c r="SQD21" s="24"/>
+      <c r="SYS21" s="24"/>
+      <c r="SZZ21" s="24"/>
+      <c r="TIO21" s="24"/>
+      <c r="TJV21" s="24"/>
+      <c r="TSK21" s="24"/>
+      <c r="TTR21" s="24"/>
+      <c r="UCG21" s="24"/>
+      <c r="UDN21" s="24"/>
+      <c r="UMC21" s="24"/>
+      <c r="UNJ21" s="24"/>
+      <c r="UVY21" s="24"/>
+      <c r="UXF21" s="24"/>
+      <c r="VFU21" s="24"/>
+      <c r="VHB21" s="24"/>
+      <c r="VPQ21" s="24"/>
+      <c r="VQX21" s="24"/>
+      <c r="VZM21" s="24"/>
+      <c r="WAT21" s="24"/>
+      <c r="WJI21" s="24"/>
+      <c r="WKP21" s="24"/>
+      <c r="WTE21" s="24"/>
+      <c r="WUL21" s="24"/>
     </row>
-    <row r="22" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A22" s="80"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="353"/>
-      <c r="F22" s="353"/>
-      <c r="G22" s="352" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="353"/>
-      <c r="I22" s="353"/>
-      <c r="J22" s="353"/>
-      <c r="K22" s="353"/>
-      <c r="L22" s="353"/>
-      <c r="M22" s="353"/>
-      <c r="N22" s="353"/>
-      <c r="O22" s="353"/>
-      <c r="P22" s="353"/>
-      <c r="Q22" s="353"/>
-      <c r="R22" s="353"/>
-      <c r="S22" s="353"/>
-      <c r="T22" s="352"/>
-      <c r="U22" s="352"/>
-      <c r="V22" s="352"/>
-      <c r="W22" s="352"/>
-      <c r="X22" s="352"/>
-      <c r="Y22" s="352"/>
-      <c r="Z22" s="352"/>
-      <c r="AA22" s="352"/>
-      <c r="AB22" s="352"/>
-      <c r="AC22" s="352"/>
-      <c r="AD22" s="352"/>
-      <c r="AE22" s="352"/>
-      <c r="AF22" s="352"/>
-      <c r="AG22" s="352"/>
-      <c r="AH22" s="352"/>
-      <c r="AI22" s="352"/>
-      <c r="AJ22" s="352"/>
-      <c r="AK22" s="43"/>
-      <c r="AL22" s="43"/>
-      <c r="AM22" s="43"/>
-      <c r="AN22" s="43"/>
-      <c r="AO22" s="43"/>
-      <c r="AP22" s="43"/>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="43"/>
-      <c r="AT22" s="43"/>
-      <c r="AU22" s="43"/>
-      <c r="AV22" s="43"/>
-      <c r="AW22" s="43"/>
-      <c r="AX22" s="43"/>
-      <c r="AY22" s="43"/>
-      <c r="AZ22" s="43"/>
-      <c r="BA22" s="43"/>
-      <c r="BB22" s="43"/>
-      <c r="BC22" s="43"/>
-      <c r="BD22" s="43"/>
-      <c r="BE22" s="43"/>
-      <c r="BF22" s="43"/>
-      <c r="BG22" s="43"/>
-      <c r="BH22" s="43"/>
-      <c r="BI22" s="43"/>
-      <c r="BJ22" s="43"/>
-      <c r="BK22" s="43"/>
-      <c r="BL22" s="82"/>
-      <c r="BM22" s="83"/>
+    <row r="22" customHeight="1" ht="12">
+      <c r="A22" s="37"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="43"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="51"/>
+      <c r="GS22" s="24"/>
+      <c r="HZ22" s="24"/>
+      <c r="QO22" s="24"/>
+      <c r="RV22" s="24"/>
+      <c r="AAK22" s="24"/>
+      <c r="ABR22" s="24"/>
+      <c r="AKG22" s="24"/>
+      <c r="ALN22" s="24"/>
+      <c r="AUC22" s="24"/>
+      <c r="AVJ22" s="24"/>
+      <c r="BDY22" s="24"/>
+      <c r="BFF22" s="24"/>
+      <c r="BNU22" s="24"/>
+      <c r="BPB22" s="24"/>
+      <c r="BXQ22" s="24"/>
+      <c r="BYX22" s="24"/>
+      <c r="CHM22" s="24"/>
+      <c r="CIT22" s="24"/>
+      <c r="CRI22" s="24"/>
+      <c r="CSP22" s="24"/>
+      <c r="DBE22" s="24"/>
+      <c r="DCL22" s="24"/>
+      <c r="DLA22" s="24"/>
+      <c r="DMH22" s="24"/>
+      <c r="DUW22" s="24"/>
+      <c r="DWD22" s="24"/>
+      <c r="EES22" s="24"/>
+      <c r="EFZ22" s="24"/>
+      <c r="EOO22" s="24"/>
+      <c r="EPV22" s="24"/>
+      <c r="EYK22" s="24"/>
+      <c r="EZR22" s="24"/>
+      <c r="FIG22" s="24"/>
+      <c r="FJN22" s="24"/>
+      <c r="FSC22" s="24"/>
+      <c r="FTJ22" s="24"/>
+      <c r="GBY22" s="24"/>
+      <c r="GDF22" s="24"/>
+      <c r="GLU22" s="24"/>
+      <c r="GNB22" s="24"/>
+      <c r="GVQ22" s="24"/>
+      <c r="GWX22" s="24"/>
+      <c r="HFM22" s="24"/>
+      <c r="HGT22" s="24"/>
+      <c r="HPI22" s="24"/>
+      <c r="HQP22" s="24"/>
+      <c r="HZE22" s="24"/>
+      <c r="IAL22" s="24"/>
+      <c r="IJA22" s="24"/>
+      <c r="IKH22" s="24"/>
+      <c r="ISW22" s="24"/>
+      <c r="IUD22" s="24"/>
+      <c r="JCS22" s="24"/>
+      <c r="JDZ22" s="24"/>
+      <c r="JMO22" s="24"/>
+      <c r="JNV22" s="24"/>
+      <c r="JWK22" s="24"/>
+      <c r="JXR22" s="24"/>
+      <c r="KGG22" s="24"/>
+      <c r="KHN22" s="24"/>
+      <c r="KQC22" s="24"/>
+      <c r="KRJ22" s="24"/>
+      <c r="KZY22" s="24"/>
+      <c r="LBF22" s="24"/>
+      <c r="LJU22" s="24"/>
+      <c r="LLB22" s="24"/>
+      <c r="LTQ22" s="24"/>
+      <c r="LUX22" s="24"/>
+      <c r="MDM22" s="24"/>
+      <c r="MET22" s="24"/>
+      <c r="MNI22" s="24"/>
+      <c r="MOP22" s="24"/>
+      <c r="MXE22" s="24"/>
+      <c r="MYL22" s="24"/>
+      <c r="NHA22" s="24"/>
+      <c r="NIH22" s="24"/>
+      <c r="NQW22" s="24"/>
+      <c r="NSD22" s="24"/>
+      <c r="OAS22" s="24"/>
+      <c r="OBZ22" s="24"/>
+      <c r="OKO22" s="24"/>
+      <c r="OLV22" s="24"/>
+      <c r="OUK22" s="24"/>
+      <c r="OVR22" s="24"/>
+      <c r="PEG22" s="24"/>
+      <c r="PFN22" s="24"/>
+      <c r="POC22" s="24"/>
+      <c r="PPJ22" s="24"/>
+      <c r="PXY22" s="24"/>
+      <c r="PZF22" s="24"/>
+      <c r="QHU22" s="24"/>
+      <c r="QJB22" s="24"/>
+      <c r="QRQ22" s="24"/>
+      <c r="QSX22" s="24"/>
+      <c r="RBM22" s="24"/>
+      <c r="RCT22" s="24"/>
+      <c r="RLI22" s="24"/>
+      <c r="RMP22" s="24"/>
+      <c r="RVE22" s="24"/>
+      <c r="RWL22" s="24"/>
+      <c r="SFA22" s="24"/>
+      <c r="SGH22" s="24"/>
+      <c r="SOW22" s="24"/>
+      <c r="SQD22" s="24"/>
+      <c r="SYS22" s="24"/>
+      <c r="SZZ22" s="24"/>
+      <c r="TIO22" s="24"/>
+      <c r="TJV22" s="24"/>
+      <c r="TSK22" s="24"/>
+      <c r="TTR22" s="24"/>
+      <c r="UCG22" s="24"/>
+      <c r="UDN22" s="24"/>
+      <c r="UMC22" s="24"/>
+      <c r="UNJ22" s="24"/>
+      <c r="UVY22" s="24"/>
+      <c r="UXF22" s="24"/>
+      <c r="VFU22" s="24"/>
+      <c r="VHB22" s="24"/>
+      <c r="VPQ22" s="24"/>
+      <c r="VQX22" s="24"/>
+      <c r="VZM22" s="24"/>
+      <c r="WAT22" s="24"/>
+      <c r="WJI22" s="24"/>
+      <c r="WKP22" s="24"/>
+      <c r="WTE22" s="24"/>
+      <c r="WUL22" s="24"/>
     </row>
-    <row r="23" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A23" s="80"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="353"/>
-      <c r="F23" s="353"/>
-      <c r="G23" s="352" t="s">
+    <row r="23" customHeight="1" ht="12">
+      <c r="A23" s="37"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="353"/>
-      <c r="I23" s="353"/>
-      <c r="J23" s="353"/>
-      <c r="K23" s="353"/>
-      <c r="L23" s="353"/>
-      <c r="M23" s="353"/>
-      <c r="N23" s="353"/>
-      <c r="O23" s="353"/>
-      <c r="P23" s="353"/>
-      <c r="Q23" s="353"/>
-      <c r="R23" s="353"/>
-      <c r="S23" s="353"/>
-      <c r="T23" s="352"/>
-      <c r="U23" s="352"/>
-      <c r="V23" s="352"/>
-      <c r="W23" s="352"/>
-      <c r="X23" s="352"/>
-      <c r="Y23" s="352"/>
-      <c r="Z23" s="352"/>
-      <c r="AA23" s="352"/>
-      <c r="AB23" s="352"/>
-      <c r="AC23" s="352"/>
-      <c r="AD23" s="352"/>
-      <c r="AE23" s="352"/>
-      <c r="AF23" s="352"/>
-      <c r="AG23" s="352"/>
-      <c r="AH23" s="352"/>
-      <c r="AI23" s="352"/>
-      <c r="AJ23" s="352"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="43"/>
-      <c r="AN23" s="43"/>
-      <c r="AO23" s="43"/>
-      <c r="AP23" s="43"/>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="43"/>
-      <c r="AS23" s="43"/>
-      <c r="AT23" s="43"/>
-      <c r="AU23" s="43"/>
-      <c r="AV23" s="43"/>
-      <c r="AW23" s="43"/>
-      <c r="AX23" s="43"/>
-      <c r="AY23" s="43"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="43"/>
-      <c r="BB23" s="43"/>
-      <c r="BC23" s="43"/>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="43"/>
-      <c r="BF23" s="43"/>
-      <c r="BG23" s="43"/>
-      <c r="BH23" s="43"/>
-      <c r="BI23" s="43"/>
-      <c r="BJ23" s="43"/>
-      <c r="BK23" s="43"/>
-      <c r="BL23" s="82"/>
-      <c r="BM23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="51"/>
+      <c r="GS23" s="24"/>
+      <c r="HZ23" s="24"/>
+      <c r="QO23" s="24"/>
+      <c r="RV23" s="24"/>
+      <c r="AAK23" s="24"/>
+      <c r="ABR23" s="24"/>
+      <c r="AKG23" s="24"/>
+      <c r="ALN23" s="24"/>
+      <c r="AUC23" s="24"/>
+      <c r="AVJ23" s="24"/>
+      <c r="BDY23" s="24"/>
+      <c r="BFF23" s="24"/>
+      <c r="BNU23" s="24"/>
+      <c r="BPB23" s="24"/>
+      <c r="BXQ23" s="24"/>
+      <c r="BYX23" s="24"/>
+      <c r="CHM23" s="24"/>
+      <c r="CIT23" s="24"/>
+      <c r="CRI23" s="24"/>
+      <c r="CSP23" s="24"/>
+      <c r="DBE23" s="24"/>
+      <c r="DCL23" s="24"/>
+      <c r="DLA23" s="24"/>
+      <c r="DMH23" s="24"/>
+      <c r="DUW23" s="24"/>
+      <c r="DWD23" s="24"/>
+      <c r="EES23" s="24"/>
+      <c r="EFZ23" s="24"/>
+      <c r="EOO23" s="24"/>
+      <c r="EPV23" s="24"/>
+      <c r="EYK23" s="24"/>
+      <c r="EZR23" s="24"/>
+      <c r="FIG23" s="24"/>
+      <c r="FJN23" s="24"/>
+      <c r="FSC23" s="24"/>
+      <c r="FTJ23" s="24"/>
+      <c r="GBY23" s="24"/>
+      <c r="GDF23" s="24"/>
+      <c r="GLU23" s="24"/>
+      <c r="GNB23" s="24"/>
+      <c r="GVQ23" s="24"/>
+      <c r="GWX23" s="24"/>
+      <c r="HFM23" s="24"/>
+      <c r="HGT23" s="24"/>
+      <c r="HPI23" s="24"/>
+      <c r="HQP23" s="24"/>
+      <c r="HZE23" s="24"/>
+      <c r="IAL23" s="24"/>
+      <c r="IJA23" s="24"/>
+      <c r="IKH23" s="24"/>
+      <c r="ISW23" s="24"/>
+      <c r="IUD23" s="24"/>
+      <c r="JCS23" s="24"/>
+      <c r="JDZ23" s="24"/>
+      <c r="JMO23" s="24"/>
+      <c r="JNV23" s="24"/>
+      <c r="JWK23" s="24"/>
+      <c r="JXR23" s="24"/>
+      <c r="KGG23" s="24"/>
+      <c r="KHN23" s="24"/>
+      <c r="KQC23" s="24"/>
+      <c r="KRJ23" s="24"/>
+      <c r="KZY23" s="24"/>
+      <c r="LBF23" s="24"/>
+      <c r="LJU23" s="24"/>
+      <c r="LLB23" s="24"/>
+      <c r="LTQ23" s="24"/>
+      <c r="LUX23" s="24"/>
+      <c r="MDM23" s="24"/>
+      <c r="MET23" s="24"/>
+      <c r="MNI23" s="24"/>
+      <c r="MOP23" s="24"/>
+      <c r="MXE23" s="24"/>
+      <c r="MYL23" s="24"/>
+      <c r="NHA23" s="24"/>
+      <c r="NIH23" s="24"/>
+      <c r="NQW23" s="24"/>
+      <c r="NSD23" s="24"/>
+      <c r="OAS23" s="24"/>
+      <c r="OBZ23" s="24"/>
+      <c r="OKO23" s="24"/>
+      <c r="OLV23" s="24"/>
+      <c r="OUK23" s="24"/>
+      <c r="OVR23" s="24"/>
+      <c r="PEG23" s="24"/>
+      <c r="PFN23" s="24"/>
+      <c r="POC23" s="24"/>
+      <c r="PPJ23" s="24"/>
+      <c r="PXY23" s="24"/>
+      <c r="PZF23" s="24"/>
+      <c r="QHU23" s="24"/>
+      <c r="QJB23" s="24"/>
+      <c r="QRQ23" s="24"/>
+      <c r="QSX23" s="24"/>
+      <c r="RBM23" s="24"/>
+      <c r="RCT23" s="24"/>
+      <c r="RLI23" s="24"/>
+      <c r="RMP23" s="24"/>
+      <c r="RVE23" s="24"/>
+      <c r="RWL23" s="24"/>
+      <c r="SFA23" s="24"/>
+      <c r="SGH23" s="24"/>
+      <c r="SOW23" s="24"/>
+      <c r="SQD23" s="24"/>
+      <c r="SYS23" s="24"/>
+      <c r="SZZ23" s="24"/>
+      <c r="TIO23" s="24"/>
+      <c r="TJV23" s="24"/>
+      <c r="TSK23" s="24"/>
+      <c r="TTR23" s="24"/>
+      <c r="UCG23" s="24"/>
+      <c r="UDN23" s="24"/>
+      <c r="UMC23" s="24"/>
+      <c r="UNJ23" s="24"/>
+      <c r="UVY23" s="24"/>
+      <c r="UXF23" s="24"/>
+      <c r="VFU23" s="24"/>
+      <c r="VHB23" s="24"/>
+      <c r="VPQ23" s="24"/>
+      <c r="VQX23" s="24"/>
+      <c r="VZM23" s="24"/>
+      <c r="WAT23" s="24"/>
+      <c r="WJI23" s="24"/>
+      <c r="WKP23" s="24"/>
+      <c r="WTE23" s="24"/>
+      <c r="WUL23" s="24"/>
     </row>
-    <row r="24" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A24" s="80"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="353"/>
-      <c r="F24" s="353"/>
-      <c r="G24" s="353"/>
-      <c r="H24" s="353"/>
-      <c r="I24" s="353"/>
-      <c r="J24" s="353"/>
-      <c r="K24" s="353"/>
-      <c r="L24" s="353"/>
-      <c r="M24" s="353"/>
-      <c r="N24" s="353"/>
-      <c r="O24" s="353"/>
-      <c r="P24" s="353"/>
-      <c r="Q24" s="353"/>
-      <c r="R24" s="353"/>
-      <c r="S24" s="353"/>
-      <c r="T24" s="352"/>
-      <c r="U24" s="352"/>
-      <c r="V24" s="352"/>
-      <c r="W24" s="352"/>
-      <c r="X24" s="352"/>
-      <c r="Y24" s="352"/>
-      <c r="Z24" s="352"/>
-      <c r="AA24" s="352"/>
-      <c r="AB24" s="352"/>
-      <c r="AC24" s="352"/>
-      <c r="AD24" s="352"/>
-      <c r="AE24" s="352"/>
-      <c r="AF24" s="352"/>
-      <c r="AG24" s="352"/>
-      <c r="AH24" s="352"/>
-      <c r="AI24" s="352"/>
-      <c r="AJ24" s="352"/>
-      <c r="AK24" s="43"/>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43"/>
-      <c r="AN24" s="43"/>
-      <c r="AO24" s="43"/>
-      <c r="AP24" s="43"/>
-      <c r="AQ24" s="43"/>
-      <c r="AR24" s="43"/>
-      <c r="AS24" s="43"/>
-      <c r="AT24" s="43"/>
-      <c r="AU24" s="43"/>
-      <c r="AV24" s="43"/>
-      <c r="AW24" s="43"/>
-      <c r="AX24" s="43"/>
-      <c r="AY24" s="43"/>
-      <c r="AZ24" s="43"/>
-      <c r="BA24" s="43"/>
-      <c r="BB24" s="43"/>
-      <c r="BC24" s="43"/>
-      <c r="BD24" s="43"/>
-      <c r="BE24" s="43"/>
-      <c r="BF24" s="43"/>
-      <c r="BG24" s="43"/>
-      <c r="BH24" s="43"/>
-      <c r="BI24" s="43"/>
-      <c r="BJ24" s="43"/>
-      <c r="BK24" s="43"/>
-      <c r="BL24" s="82"/>
-      <c r="BM24" s="83"/>
+    <row r="24" customHeight="1" ht="12">
+      <c r="A24" s="37"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="51"/>
+      <c r="GS24" s="24"/>
+      <c r="HZ24" s="24"/>
+      <c r="QO24" s="24"/>
+      <c r="RV24" s="24"/>
+      <c r="AAK24" s="24"/>
+      <c r="ABR24" s="24"/>
+      <c r="AKG24" s="24"/>
+      <c r="ALN24" s="24"/>
+      <c r="AUC24" s="24"/>
+      <c r="AVJ24" s="24"/>
+      <c r="BDY24" s="24"/>
+      <c r="BFF24" s="24"/>
+      <c r="BNU24" s="24"/>
+      <c r="BPB24" s="24"/>
+      <c r="BXQ24" s="24"/>
+      <c r="BYX24" s="24"/>
+      <c r="CHM24" s="24"/>
+      <c r="CIT24" s="24"/>
+      <c r="CRI24" s="24"/>
+      <c r="CSP24" s="24"/>
+      <c r="DBE24" s="24"/>
+      <c r="DCL24" s="24"/>
+      <c r="DLA24" s="24"/>
+      <c r="DMH24" s="24"/>
+      <c r="DUW24" s="24"/>
+      <c r="DWD24" s="24"/>
+      <c r="EES24" s="24"/>
+      <c r="EFZ24" s="24"/>
+      <c r="EOO24" s="24"/>
+      <c r="EPV24" s="24"/>
+      <c r="EYK24" s="24"/>
+      <c r="EZR24" s="24"/>
+      <c r="FIG24" s="24"/>
+      <c r="FJN24" s="24"/>
+      <c r="FSC24" s="24"/>
+      <c r="FTJ24" s="24"/>
+      <c r="GBY24" s="24"/>
+      <c r="GDF24" s="24"/>
+      <c r="GLU24" s="24"/>
+      <c r="GNB24" s="24"/>
+      <c r="GVQ24" s="24"/>
+      <c r="GWX24" s="24"/>
+      <c r="HFM24" s="24"/>
+      <c r="HGT24" s="24"/>
+      <c r="HPI24" s="24"/>
+      <c r="HQP24" s="24"/>
+      <c r="HZE24" s="24"/>
+      <c r="IAL24" s="24"/>
+      <c r="IJA24" s="24"/>
+      <c r="IKH24" s="24"/>
+      <c r="ISW24" s="24"/>
+      <c r="IUD24" s="24"/>
+      <c r="JCS24" s="24"/>
+      <c r="JDZ24" s="24"/>
+      <c r="JMO24" s="24"/>
+      <c r="JNV24" s="24"/>
+      <c r="JWK24" s="24"/>
+      <c r="JXR24" s="24"/>
+      <c r="KGG24" s="24"/>
+      <c r="KHN24" s="24"/>
+      <c r="KQC24" s="24"/>
+      <c r="KRJ24" s="24"/>
+      <c r="KZY24" s="24"/>
+      <c r="LBF24" s="24"/>
+      <c r="LJU24" s="24"/>
+      <c r="LLB24" s="24"/>
+      <c r="LTQ24" s="24"/>
+      <c r="LUX24" s="24"/>
+      <c r="MDM24" s="24"/>
+      <c r="MET24" s="24"/>
+      <c r="MNI24" s="24"/>
+      <c r="MOP24" s="24"/>
+      <c r="MXE24" s="24"/>
+      <c r="MYL24" s="24"/>
+      <c r="NHA24" s="24"/>
+      <c r="NIH24" s="24"/>
+      <c r="NQW24" s="24"/>
+      <c r="NSD24" s="24"/>
+      <c r="OAS24" s="24"/>
+      <c r="OBZ24" s="24"/>
+      <c r="OKO24" s="24"/>
+      <c r="OLV24" s="24"/>
+      <c r="OUK24" s="24"/>
+      <c r="OVR24" s="24"/>
+      <c r="PEG24" s="24"/>
+      <c r="PFN24" s="24"/>
+      <c r="POC24" s="24"/>
+      <c r="PPJ24" s="24"/>
+      <c r="PXY24" s="24"/>
+      <c r="PZF24" s="24"/>
+      <c r="QHU24" s="24"/>
+      <c r="QJB24" s="24"/>
+      <c r="QRQ24" s="24"/>
+      <c r="QSX24" s="24"/>
+      <c r="RBM24" s="24"/>
+      <c r="RCT24" s="24"/>
+      <c r="RLI24" s="24"/>
+      <c r="RMP24" s="24"/>
+      <c r="RVE24" s="24"/>
+      <c r="RWL24" s="24"/>
+      <c r="SFA24" s="24"/>
+      <c r="SGH24" s="24"/>
+      <c r="SOW24" s="24"/>
+      <c r="SQD24" s="24"/>
+      <c r="SYS24" s="24"/>
+      <c r="SZZ24" s="24"/>
+      <c r="TIO24" s="24"/>
+      <c r="TJV24" s="24"/>
+      <c r="TSK24" s="24"/>
+      <c r="TTR24" s="24"/>
+      <c r="UCG24" s="24"/>
+      <c r="UDN24" s="24"/>
+      <c r="UMC24" s="24"/>
+      <c r="UNJ24" s="24"/>
+      <c r="UVY24" s="24"/>
+      <c r="UXF24" s="24"/>
+      <c r="VFU24" s="24"/>
+      <c r="VHB24" s="24"/>
+      <c r="VPQ24" s="24"/>
+      <c r="VQX24" s="24"/>
+      <c r="VZM24" s="24"/>
+      <c r="WAT24" s="24"/>
+      <c r="WJI24" s="24"/>
+      <c r="WKP24" s="24"/>
+      <c r="WTE24" s="24"/>
+      <c r="WUL24" s="24"/>
     </row>
-    <row r="25" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A25" s="80"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="353"/>
-      <c r="F25" s="352" t="s">
+    <row r="25" customHeight="1" ht="12">
+      <c r="A25" s="37"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="352" t="s">
+      <c r="E25" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="353"/>
-      <c r="I25" s="353"/>
-      <c r="J25" s="353"/>
-      <c r="K25" s="353"/>
-      <c r="L25" s="353"/>
-      <c r="M25" s="353"/>
-      <c r="N25" s="353"/>
-      <c r="O25" s="353"/>
-      <c r="P25" s="353"/>
-      <c r="Q25" s="353"/>
-      <c r="R25" s="353"/>
-      <c r="S25" s="353"/>
-      <c r="T25" s="352"/>
-      <c r="U25" s="352"/>
-      <c r="V25" s="352"/>
-      <c r="W25" s="352"/>
-      <c r="X25" s="352"/>
-      <c r="Y25" s="352"/>
-      <c r="Z25" s="352"/>
-      <c r="AA25" s="352"/>
-      <c r="AB25" s="352"/>
-      <c r="AC25" s="352"/>
-      <c r="AD25" s="352"/>
-      <c r="AE25" s="352"/>
-      <c r="AF25" s="352"/>
-      <c r="AG25" s="352"/>
-      <c r="AH25" s="352"/>
-      <c r="AI25" s="352"/>
-      <c r="AJ25" s="352"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="43"/>
-      <c r="AS25" s="43"/>
-      <c r="AT25" s="43"/>
-      <c r="AU25" s="43"/>
-      <c r="AV25" s="43"/>
-      <c r="AW25" s="43"/>
-      <c r="AX25" s="43"/>
-      <c r="AY25" s="43"/>
-      <c r="AZ25" s="43"/>
-      <c r="BA25" s="43"/>
-      <c r="BB25" s="43"/>
-      <c r="BC25" s="43"/>
-      <c r="BD25" s="43"/>
-      <c r="BE25" s="43"/>
-      <c r="BF25" s="43"/>
-      <c r="BG25" s="43"/>
-      <c r="BH25" s="43"/>
-      <c r="BI25" s="43"/>
-      <c r="BJ25" s="43"/>
-      <c r="BK25" s="43"/>
-      <c r="BL25" s="82"/>
-      <c r="BM25" s="83"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="51"/>
+      <c r="GS25" s="24"/>
+      <c r="HZ25" s="24"/>
+      <c r="QO25" s="24"/>
+      <c r="RV25" s="24"/>
+      <c r="AAK25" s="24"/>
+      <c r="ABR25" s="24"/>
+      <c r="AKG25" s="24"/>
+      <c r="ALN25" s="24"/>
+      <c r="AUC25" s="24"/>
+      <c r="AVJ25" s="24"/>
+      <c r="BDY25" s="24"/>
+      <c r="BFF25" s="24"/>
+      <c r="BNU25" s="24"/>
+      <c r="BPB25" s="24"/>
+      <c r="BXQ25" s="24"/>
+      <c r="BYX25" s="24"/>
+      <c r="CHM25" s="24"/>
+      <c r="CIT25" s="24"/>
+      <c r="CRI25" s="24"/>
+      <c r="CSP25" s="24"/>
+      <c r="DBE25" s="24"/>
+      <c r="DCL25" s="24"/>
+      <c r="DLA25" s="24"/>
+      <c r="DMH25" s="24"/>
+      <c r="DUW25" s="24"/>
+      <c r="DWD25" s="24"/>
+      <c r="EES25" s="24"/>
+      <c r="EFZ25" s="24"/>
+      <c r="EOO25" s="24"/>
+      <c r="EPV25" s="24"/>
+      <c r="EYK25" s="24"/>
+      <c r="EZR25" s="24"/>
+      <c r="FIG25" s="24"/>
+      <c r="FJN25" s="24"/>
+      <c r="FSC25" s="24"/>
+      <c r="FTJ25" s="24"/>
+      <c r="GBY25" s="24"/>
+      <c r="GDF25" s="24"/>
+      <c r="GLU25" s="24"/>
+      <c r="GNB25" s="24"/>
+      <c r="GVQ25" s="24"/>
+      <c r="GWX25" s="24"/>
+      <c r="HFM25" s="24"/>
+      <c r="HGT25" s="24"/>
+      <c r="HPI25" s="24"/>
+      <c r="HQP25" s="24"/>
+      <c r="HZE25" s="24"/>
+      <c r="IAL25" s="24"/>
+      <c r="IJA25" s="24"/>
+      <c r="IKH25" s="24"/>
+      <c r="ISW25" s="24"/>
+      <c r="IUD25" s="24"/>
+      <c r="JCS25" s="24"/>
+      <c r="JDZ25" s="24"/>
+      <c r="JMO25" s="24"/>
+      <c r="JNV25" s="24"/>
+      <c r="JWK25" s="24"/>
+      <c r="JXR25" s="24"/>
+      <c r="KGG25" s="24"/>
+      <c r="KHN25" s="24"/>
+      <c r="KQC25" s="24"/>
+      <c r="KRJ25" s="24"/>
+      <c r="KZY25" s="24"/>
+      <c r="LBF25" s="24"/>
+      <c r="LJU25" s="24"/>
+      <c r="LLB25" s="24"/>
+      <c r="LTQ25" s="24"/>
+      <c r="LUX25" s="24"/>
+      <c r="MDM25" s="24"/>
+      <c r="MET25" s="24"/>
+      <c r="MNI25" s="24"/>
+      <c r="MOP25" s="24"/>
+      <c r="MXE25" s="24"/>
+      <c r="MYL25" s="24"/>
+      <c r="NHA25" s="24"/>
+      <c r="NIH25" s="24"/>
+      <c r="NQW25" s="24"/>
+      <c r="NSD25" s="24"/>
+      <c r="OAS25" s="24"/>
+      <c r="OBZ25" s="24"/>
+      <c r="OKO25" s="24"/>
+      <c r="OLV25" s="24"/>
+      <c r="OUK25" s="24"/>
+      <c r="OVR25" s="24"/>
+      <c r="PEG25" s="24"/>
+      <c r="PFN25" s="24"/>
+      <c r="POC25" s="24"/>
+      <c r="PPJ25" s="24"/>
+      <c r="PXY25" s="24"/>
+      <c r="PZF25" s="24"/>
+      <c r="QHU25" s="24"/>
+      <c r="QJB25" s="24"/>
+      <c r="QRQ25" s="24"/>
+      <c r="QSX25" s="24"/>
+      <c r="RBM25" s="24"/>
+      <c r="RCT25" s="24"/>
+      <c r="RLI25" s="24"/>
+      <c r="RMP25" s="24"/>
+      <c r="RVE25" s="24"/>
+      <c r="RWL25" s="24"/>
+      <c r="SFA25" s="24"/>
+      <c r="SGH25" s="24"/>
+      <c r="SOW25" s="24"/>
+      <c r="SQD25" s="24"/>
+      <c r="SYS25" s="24"/>
+      <c r="SZZ25" s="24"/>
+      <c r="TIO25" s="24"/>
+      <c r="TJV25" s="24"/>
+      <c r="TSK25" s="24"/>
+      <c r="TTR25" s="24"/>
+      <c r="UCG25" s="24"/>
+      <c r="UDN25" s="24"/>
+      <c r="UMC25" s="24"/>
+      <c r="UNJ25" s="24"/>
+      <c r="UVY25" s="24"/>
+      <c r="UXF25" s="24"/>
+      <c r="VFU25" s="24"/>
+      <c r="VHB25" s="24"/>
+      <c r="VPQ25" s="24"/>
+      <c r="VQX25" s="24"/>
+      <c r="VZM25" s="24"/>
+      <c r="WAT25" s="24"/>
+      <c r="WJI25" s="24"/>
+      <c r="WKP25" s="24"/>
+      <c r="WTE25" s="24"/>
+      <c r="WUL25" s="24"/>
     </row>
-    <row r="26" customHeight="1" ht="12" customFormat="1" s="78">
-      <c r="A26" s="80"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="353"/>
-      <c r="F26" s="353"/>
-      <c r="G26" s="352" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="353"/>
-      <c r="I26" s="353"/>
-      <c r="J26" s="353"/>
-      <c r="K26" s="353"/>
-      <c r="L26" s="353"/>
-      <c r="M26" s="353"/>
-      <c r="N26" s="353"/>
-      <c r="O26" s="353"/>
-      <c r="P26" s="353"/>
-      <c r="Q26" s="353"/>
-      <c r="R26" s="353"/>
-      <c r="S26" s="353"/>
-      <c r="T26" s="352"/>
-      <c r="U26" s="352"/>
-      <c r="V26" s="352"/>
-      <c r="W26" s="352"/>
-      <c r="X26" s="352"/>
-      <c r="Y26" s="352"/>
-      <c r="Z26" s="352"/>
-      <c r="AA26" s="352"/>
-      <c r="AB26" s="352"/>
-      <c r="AC26" s="352"/>
-      <c r="AD26" s="352"/>
-      <c r="AE26" s="352"/>
-      <c r="AF26" s="352"/>
-      <c r="AG26" s="352"/>
-      <c r="AH26" s="352"/>
-      <c r="AI26" s="352"/>
-      <c r="AJ26" s="352"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="43"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="43"/>
-      <c r="AO26" s="43"/>
-      <c r="AP26" s="43"/>
-      <c r="AQ26" s="43"/>
-      <c r="AR26" s="43"/>
-      <c r="AS26" s="43"/>
-      <c r="AT26" s="43"/>
-      <c r="AU26" s="43"/>
-      <c r="AV26" s="43"/>
-      <c r="AW26" s="43"/>
-      <c r="AX26" s="43"/>
-      <c r="AY26" s="43"/>
-      <c r="AZ26" s="43"/>
-      <c r="BA26" s="43"/>
-      <c r="BB26" s="43"/>
-      <c r="BC26" s="43"/>
-      <c r="BD26" s="43"/>
-      <c r="BE26" s="43"/>
-      <c r="BF26" s="43"/>
-      <c r="BG26" s="43"/>
-      <c r="BH26" s="43"/>
-      <c r="BI26" s="43"/>
-      <c r="BJ26" s="43"/>
-      <c r="BK26" s="43"/>
-      <c r="BL26" s="82"/>
-      <c r="BM26" s="83"/>
+    <row r="26" customHeight="1" ht="12">
+      <c r="A26" s="37"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="51"/>
+      <c r="GS26" s="24"/>
+      <c r="HZ26" s="24"/>
+      <c r="QO26" s="24"/>
+      <c r="RV26" s="24"/>
+      <c r="AAK26" s="24"/>
+      <c r="ABR26" s="24"/>
+      <c r="AKG26" s="24"/>
+      <c r="ALN26" s="24"/>
+      <c r="AUC26" s="24"/>
+      <c r="AVJ26" s="24"/>
+      <c r="BDY26" s="24"/>
+      <c r="BFF26" s="24"/>
+      <c r="BNU26" s="24"/>
+      <c r="BPB26" s="24"/>
+      <c r="BXQ26" s="24"/>
+      <c r="BYX26" s="24"/>
+      <c r="CHM26" s="24"/>
+      <c r="CIT26" s="24"/>
+      <c r="CRI26" s="24"/>
+      <c r="CSP26" s="24"/>
+      <c r="DBE26" s="24"/>
+      <c r="DCL26" s="24"/>
+      <c r="DLA26" s="24"/>
+      <c r="DMH26" s="24"/>
+      <c r="DUW26" s="24"/>
+      <c r="DWD26" s="24"/>
+      <c r="EES26" s="24"/>
+      <c r="EFZ26" s="24"/>
+      <c r="EOO26" s="24"/>
+      <c r="EPV26" s="24"/>
+      <c r="EYK26" s="24"/>
+      <c r="EZR26" s="24"/>
+      <c r="FIG26" s="24"/>
+      <c r="FJN26" s="24"/>
+      <c r="FSC26" s="24"/>
+      <c r="FTJ26" s="24"/>
+      <c r="GBY26" s="24"/>
+      <c r="GDF26" s="24"/>
+      <c r="GLU26" s="24"/>
+      <c r="GNB26" s="24"/>
+      <c r="GVQ26" s="24"/>
+      <c r="GWX26" s="24"/>
+      <c r="HFM26" s="24"/>
+      <c r="HGT26" s="24"/>
+      <c r="HPI26" s="24"/>
+      <c r="HQP26" s="24"/>
+      <c r="HZE26" s="24"/>
+      <c r="IAL26" s="24"/>
+      <c r="IJA26" s="24"/>
+      <c r="IKH26" s="24"/>
+      <c r="ISW26" s="24"/>
+      <c r="IUD26" s="24"/>
+      <c r="JCS26" s="24"/>
+      <c r="JDZ26" s="24"/>
+      <c r="JMO26" s="24"/>
+      <c r="JNV26" s="24"/>
+      <c r="JWK26" s="24"/>
+      <c r="JXR26" s="24"/>
+      <c r="KGG26" s="24"/>
+      <c r="KHN26" s="24"/>
+      <c r="KQC26" s="24"/>
+      <c r="KRJ26" s="24"/>
+      <c r="KZY26" s="24"/>
+      <c r="LBF26" s="24"/>
+      <c r="LJU26" s="24"/>
+      <c r="LLB26" s="24"/>
+      <c r="LTQ26" s="24"/>
+      <c r="LUX26" s="24"/>
+      <c r="MDM26" s="24"/>
+      <c r="MET26" s="24"/>
+      <c r="MNI26" s="24"/>
+      <c r="MOP26" s="24"/>
+      <c r="MXE26" s="24"/>
+      <c r="MYL26" s="24"/>
+      <c r="NHA26" s="24"/>
+      <c r="NIH26" s="24"/>
+      <c r="NQW26" s="24"/>
+      <c r="NSD26" s="24"/>
+      <c r="OAS26" s="24"/>
+      <c r="OBZ26" s="24"/>
+      <c r="OKO26" s="24"/>
+      <c r="OLV26" s="24"/>
+      <c r="OUK26" s="24"/>
+      <c r="OVR26" s="24"/>
+      <c r="PEG26" s="24"/>
+      <c r="PFN26" s="24"/>
+      <c r="POC26" s="24"/>
+      <c r="PPJ26" s="24"/>
+      <c r="PXY26" s="24"/>
+      <c r="PZF26" s="24"/>
+      <c r="QHU26" s="24"/>
+      <c r="QJB26" s="24"/>
+      <c r="QRQ26" s="24"/>
+      <c r="QSX26" s="24"/>
+      <c r="RBM26" s="24"/>
+      <c r="RCT26" s="24"/>
+      <c r="RLI26" s="24"/>
+      <c r="RMP26" s="24"/>
+      <c r="RVE26" s="24"/>
+      <c r="RWL26" s="24"/>
+      <c r="SFA26" s="24"/>
+      <c r="SGH26" s="24"/>
+      <c r="SOW26" s="24"/>
+      <c r="SQD26" s="24"/>
+      <c r="SYS26" s="24"/>
+      <c r="SZZ26" s="24"/>
+      <c r="TIO26" s="24"/>
+      <c r="TJV26" s="24"/>
+      <c r="TSK26" s="24"/>
+      <c r="TTR26" s="24"/>
+      <c r="UCG26" s="24"/>
+      <c r="UDN26" s="24"/>
+      <c r="UMC26" s="24"/>
+      <c r="UNJ26" s="24"/>
+      <c r="UVY26" s="24"/>
+      <c r="UXF26" s="24"/>
+      <c r="VFU26" s="24"/>
+      <c r="VHB26" s="24"/>
+      <c r="VPQ26" s="24"/>
+      <c r="VQX26" s="24"/>
+      <c r="VZM26" s="24"/>
+      <c r="WAT26" s="24"/>
+      <c r="WJI26" s="24"/>
+      <c r="WKP26" s="24"/>
+      <c r="WTE26" s="24"/>
+      <c r="WUL26" s="24"/>
     </row>
     <row r="27" customHeight="1" ht="12">
       <c r="A27" s="37"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="43"/>
-      <c r="AJ27" s="43"/>
-      <c r="AK27" s="43"/>
-      <c r="AL27" s="43"/>
-      <c r="AM27" s="43"/>
-      <c r="AN27" s="43"/>
-      <c r="AO27" s="43"/>
-      <c r="AP27" s="43"/>
-      <c r="AQ27" s="43"/>
-      <c r="AR27" s="43"/>
-      <c r="AS27" s="43"/>
-      <c r="AT27" s="43"/>
-      <c r="AU27" s="43"/>
-      <c r="AV27" s="43"/>
-      <c r="AW27" s="43"/>
-      <c r="AX27" s="43"/>
-      <c r="AY27" s="43"/>
-      <c r="AZ27" s="43"/>
-      <c r="BA27" s="43"/>
-      <c r="BB27" s="43"/>
-      <c r="BC27" s="43"/>
-      <c r="BD27" s="43"/>
-      <c r="BE27" s="43"/>
-      <c r="BF27" s="43"/>
-      <c r="BG27" s="43"/>
-      <c r="BH27" s="43"/>
-      <c r="BI27" s="43"/>
-      <c r="BJ27" s="43"/>
-      <c r="BK27" s="43"/>
-      <c r="BL27" s="51"/>
-      <c r="BM27" s="31"/>
-    </row>
-    <row r="28" customHeight="1" ht="12">
-      <c r="A28" s="37"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="53"/>
-      <c r="AC28" s="53"/>
-      <c r="AD28" s="53"/>
-      <c r="AE28" s="53"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="53"/>
-      <c r="AK28" s="53"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="53"/>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="53"/>
-      <c r="AQ28" s="53"/>
-      <c r="AR28" s="53"/>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="53"/>
-      <c r="AZ28" s="53"/>
-      <c r="BA28" s="53"/>
-      <c r="BB28" s="53"/>
-      <c r="BC28" s="53"/>
-      <c r="BD28" s="53"/>
-      <c r="BE28" s="53"/>
-      <c r="BF28" s="53"/>
-      <c r="BG28" s="53"/>
-      <c r="BH28" s="53"/>
-      <c r="BI28" s="53"/>
-      <c r="BJ28" s="53"/>
-      <c r="BK28" s="53"/>
-      <c r="BL28" s="54"/>
-      <c r="BM28" s="31"/>
-    </row>
-    <row r="29" customHeight="1" ht="12">
-      <c r="A29" s="37"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="43"/>
-      <c r="AC29" s="43"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
-      <c r="AG29" s="43"/>
-      <c r="AH29" s="43"/>
-      <c r="AI29" s="43"/>
-      <c r="AJ29" s="43"/>
-      <c r="AK29" s="43"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="43"/>
-      <c r="AO29" s="43"/>
-      <c r="AP29" s="43"/>
-      <c r="AQ29" s="43"/>
-      <c r="AR29" s="43"/>
-      <c r="AS29" s="43"/>
-      <c r="AT29" s="43"/>
-      <c r="AU29" s="43"/>
-      <c r="AV29" s="43"/>
-      <c r="AW29" s="43"/>
-      <c r="AX29" s="43"/>
-      <c r="AY29" s="43"/>
-      <c r="AZ29" s="43"/>
-      <c r="BA29" s="43"/>
-      <c r="BB29" s="43"/>
-      <c r="BC29" s="43"/>
-      <c r="BD29" s="43"/>
-      <c r="BE29" s="43"/>
-      <c r="BF29" s="43"/>
-      <c r="BG29" s="43"/>
-      <c r="BH29" s="43"/>
-      <c r="BI29" s="43"/>
-      <c r="BJ29" s="43"/>
-      <c r="BK29" s="43"/>
-      <c r="BL29" s="43"/>
-      <c r="BM29" s="31"/>
-    </row>
-    <row r="30" customHeight="1" ht="12">
-      <c r="A30" s="37"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="43"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="43"/>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="43"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="43"/>
-      <c r="AM30" s="43"/>
-      <c r="AN30" s="43"/>
-      <c r="AO30" s="43"/>
-      <c r="AP30" s="43"/>
-      <c r="AQ30" s="43"/>
-      <c r="AR30" s="43"/>
-      <c r="AS30" s="43"/>
-      <c r="AT30" s="43"/>
-      <c r="AU30" s="43"/>
-      <c r="AV30" s="43"/>
-      <c r="AW30" s="43"/>
-      <c r="AX30" s="43"/>
-      <c r="AY30" s="43"/>
-      <c r="AZ30" s="43"/>
-      <c r="BA30" s="43"/>
-      <c r="BB30" s="43"/>
-      <c r="BC30" s="43"/>
-      <c r="BD30" s="43"/>
-      <c r="BE30" s="43"/>
-      <c r="BF30" s="43"/>
-      <c r="BG30" s="43"/>
-      <c r="BH30" s="43"/>
-      <c r="BI30" s="43"/>
-      <c r="BJ30" s="43"/>
-      <c r="BK30" s="43"/>
-      <c r="BL30" s="43"/>
-      <c r="BM30" s="31"/>
-    </row>
-    <row r="31" customHeight="1" ht="12">
-      <c r="A31" s="37"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="43"/>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43"/>
-      <c r="AG31" s="43"/>
-      <c r="AH31" s="43"/>
-      <c r="AI31" s="43"/>
-      <c r="AJ31" s="43"/>
-      <c r="AK31" s="43"/>
-      <c r="AL31" s="43"/>
-      <c r="AM31" s="43"/>
-      <c r="AN31" s="43"/>
-      <c r="AO31" s="43"/>
-      <c r="AP31" s="43"/>
-      <c r="AQ31" s="43"/>
-      <c r="AR31" s="43"/>
-      <c r="AS31" s="43"/>
-      <c r="AT31" s="43"/>
-      <c r="AU31" s="43"/>
-      <c r="AV31" s="43"/>
-      <c r="AW31" s="43"/>
-      <c r="AX31" s="43"/>
-      <c r="AY31" s="43"/>
-      <c r="AZ31" s="43"/>
-      <c r="BA31" s="43"/>
-      <c r="BB31" s="43"/>
-      <c r="BC31" s="43"/>
-      <c r="BD31" s="43"/>
-      <c r="BE31" s="43"/>
-      <c r="BF31" s="43"/>
-      <c r="BG31" s="43"/>
-      <c r="BH31" s="43"/>
-      <c r="BI31" s="43"/>
-      <c r="BJ31" s="43"/>
-      <c r="BK31" s="43"/>
-      <c r="BL31" s="43"/>
-      <c r="BM31" s="31"/>
-    </row>
-    <row r="32" customHeight="1" ht="12">
-      <c r="A32" s="37"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="43"/>
-      <c r="AE32" s="43"/>
-      <c r="AF32" s="43"/>
-      <c r="AG32" s="43"/>
-      <c r="AH32" s="43"/>
-      <c r="AI32" s="43"/>
-      <c r="AJ32" s="43"/>
-      <c r="AK32" s="43"/>
-      <c r="AL32" s="43"/>
-      <c r="AM32" s="43"/>
-      <c r="AN32" s="43"/>
-      <c r="AO32" s="43"/>
-      <c r="AP32" s="43"/>
-      <c r="AQ32" s="43"/>
-      <c r="AR32" s="43"/>
-      <c r="AS32" s="43"/>
-      <c r="AT32" s="43"/>
-      <c r="AU32" s="43"/>
-      <c r="AV32" s="43"/>
-      <c r="AW32" s="43"/>
-      <c r="AX32" s="43"/>
-      <c r="AY32" s="43"/>
-      <c r="AZ32" s="43"/>
-      <c r="BA32" s="43"/>
-      <c r="BB32" s="43"/>
-      <c r="BC32" s="43"/>
-      <c r="BD32" s="43"/>
-      <c r="BE32" s="43"/>
-      <c r="BF32" s="43"/>
-      <c r="BG32" s="43"/>
-      <c r="BH32" s="43"/>
-      <c r="BI32" s="43"/>
-      <c r="BJ32" s="43"/>
-      <c r="BK32" s="43"/>
-      <c r="BL32" s="43"/>
-      <c r="BM32" s="31"/>
-    </row>
-    <row r="33" customHeight="1" ht="12">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="56"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="56"/>
-      <c r="BD33" s="56"/>
-      <c r="BE33" s="56"/>
-      <c r="BF33" s="56"/>
-      <c r="BG33" s="56"/>
-      <c r="BH33" s="56"/>
-      <c r="BI33" s="56"/>
-      <c r="BJ33" s="56"/>
-      <c r="BK33" s="56"/>
-      <c r="BL33" s="56"/>
-      <c r="BM33" s="32"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="53"/>
+      <c r="AJ27" s="54"/>
+      <c r="GS27" s="24"/>
+      <c r="HZ27" s="24"/>
+      <c r="QO27" s="24"/>
+      <c r="RV27" s="24"/>
+      <c r="AAK27" s="24"/>
+      <c r="ABR27" s="24"/>
+      <c r="AKG27" s="24"/>
+      <c r="ALN27" s="24"/>
+      <c r="AUC27" s="24"/>
+      <c r="AVJ27" s="24"/>
+      <c r="BDY27" s="24"/>
+      <c r="BFF27" s="24"/>
+      <c r="BNU27" s="24"/>
+      <c r="BPB27" s="24"/>
+      <c r="BXQ27" s="24"/>
+      <c r="BYX27" s="24"/>
+      <c r="CHM27" s="24"/>
+      <c r="CIT27" s="24"/>
+      <c r="CRI27" s="24"/>
+      <c r="CSP27" s="24"/>
+      <c r="DBE27" s="24"/>
+      <c r="DCL27" s="24"/>
+      <c r="DLA27" s="24"/>
+      <c r="DMH27" s="24"/>
+      <c r="DUW27" s="24"/>
+      <c r="DWD27" s="24"/>
+      <c r="EES27" s="24"/>
+      <c r="EFZ27" s="24"/>
+      <c r="EOO27" s="24"/>
+      <c r="EPV27" s="24"/>
+      <c r="EYK27" s="24"/>
+      <c r="EZR27" s="24"/>
+      <c r="FIG27" s="24"/>
+      <c r="FJN27" s="24"/>
+      <c r="FSC27" s="24"/>
+      <c r="FTJ27" s="24"/>
+      <c r="GBY27" s="24"/>
+      <c r="GDF27" s="24"/>
+      <c r="GLU27" s="24"/>
+      <c r="GNB27" s="24"/>
+      <c r="GVQ27" s="24"/>
+      <c r="GWX27" s="24"/>
+      <c r="HFM27" s="24"/>
+      <c r="HGT27" s="24"/>
+      <c r="HPI27" s="24"/>
+      <c r="HQP27" s="24"/>
+      <c r="HZE27" s="24"/>
+      <c r="IAL27" s="24"/>
+      <c r="IJA27" s="24"/>
+      <c r="IKH27" s="24"/>
+      <c r="ISW27" s="24"/>
+      <c r="IUD27" s="24"/>
+      <c r="JCS27" s="24"/>
+      <c r="JDZ27" s="24"/>
+      <c r="JMO27" s="24"/>
+      <c r="JNV27" s="24"/>
+      <c r="JWK27" s="24"/>
+      <c r="JXR27" s="24"/>
+      <c r="KGG27" s="24"/>
+      <c r="KHN27" s="24"/>
+      <c r="KQC27" s="24"/>
+      <c r="KRJ27" s="24"/>
+      <c r="KZY27" s="24"/>
+      <c r="LBF27" s="24"/>
+      <c r="LJU27" s="24"/>
+      <c r="LLB27" s="24"/>
+      <c r="LTQ27" s="24"/>
+      <c r="LUX27" s="24"/>
+      <c r="MDM27" s="24"/>
+      <c r="MET27" s="24"/>
+      <c r="MNI27" s="24"/>
+      <c r="MOP27" s="24"/>
+      <c r="MXE27" s="24"/>
+      <c r="MYL27" s="24"/>
+      <c r="NHA27" s="24"/>
+      <c r="NIH27" s="24"/>
+      <c r="NQW27" s="24"/>
+      <c r="NSD27" s="24"/>
+      <c r="OAS27" s="24"/>
+      <c r="OBZ27" s="24"/>
+      <c r="OKO27" s="24"/>
+      <c r="OLV27" s="24"/>
+      <c r="OUK27" s="24"/>
+      <c r="OVR27" s="24"/>
+      <c r="PEG27" s="24"/>
+      <c r="PFN27" s="24"/>
+      <c r="POC27" s="24"/>
+      <c r="PPJ27" s="24"/>
+      <c r="PXY27" s="24"/>
+      <c r="PZF27" s="24"/>
+      <c r="QHU27" s="24"/>
+      <c r="QJB27" s="24"/>
+      <c r="QRQ27" s="24"/>
+      <c r="QSX27" s="24"/>
+      <c r="RBM27" s="24"/>
+      <c r="RCT27" s="24"/>
+      <c r="RLI27" s="24"/>
+      <c r="RMP27" s="24"/>
+      <c r="RVE27" s="24"/>
+      <c r="RWL27" s="24"/>
+      <c r="SFA27" s="24"/>
+      <c r="SGH27" s="24"/>
+      <c r="SOW27" s="24"/>
+      <c r="SQD27" s="24"/>
+      <c r="SYS27" s="24"/>
+      <c r="SZZ27" s="24"/>
+      <c r="TIO27" s="24"/>
+      <c r="TJV27" s="24"/>
+      <c r="TSK27" s="24"/>
+      <c r="TTR27" s="24"/>
+      <c r="UCG27" s="24"/>
+      <c r="UDN27" s="24"/>
+      <c r="UMC27" s="24"/>
+      <c r="UNJ27" s="24"/>
+      <c r="UVY27" s="24"/>
+      <c r="UXF27" s="24"/>
+      <c r="VFU27" s="24"/>
+      <c r="VHB27" s="24"/>
+      <c r="VPQ27" s="24"/>
+      <c r="VQX27" s="24"/>
+      <c r="VZM27" s="24"/>
+      <c r="WAT27" s="24"/>
+      <c r="WJI27" s="24"/>
+      <c r="WKP27" s="24"/>
+      <c r="WTE27" s="24"/>
+      <c r="WUL27" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:BC6"/>
-    <mergeCell ref="BD6:BL6"/>
-    <mergeCell ref="C8:BK9"/>
-    <mergeCell ref="D12:BL12"/>
-    <mergeCell ref="D13:BL13"/>
-    <mergeCell ref="D14:BL14"/>
-    <mergeCell ref="D15:BL15"/>
-    <mergeCell ref="D16:BL16"/>
-    <mergeCell ref="D18:BL18"/>
+  <mergeCells count="17">
+    <mergeCell ref="A2:Y3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="T4:AE4"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:AE5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="B7:AJ7"/>
+    <mergeCell ref="B8:AJ8"/>
+    <mergeCell ref="B18:AJ18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10797,8 +13892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN36"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="150" zoomScaleNormal="150" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AF24" sqref="AF24" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="V4" sqref="V4:AV4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11157,7 +14252,7 @@
       <c r="T4" s="235"/>
       <c r="U4" s="236"/>
       <c r="V4" s="237" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="W4" s="238"/>
       <c r="X4" s="238"/>
@@ -11518,7 +14613,7 @@
       <c r="BM8" s="256"/>
       <c r="BN8" s="257"/>
     </row>
-    <row r="9" customHeight="1" ht="12">
+    <row r="9" customHeight="1" ht="13">
       <c r="A9" s="61">
         <v>1</v>
       </c>
@@ -11546,7 +14641,7 @@
       </c>
       <c r="R9" s="86"/>
       <c r="S9" s="271" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T9" s="273"/>
       <c r="U9" s="276" t="s">
@@ -11606,7 +14701,7 @@
       <c r="BM9" s="76"/>
       <c r="BN9" s="77"/>
     </row>
-    <row r="10" customHeight="1" ht="12">
+    <row r="10" customHeight="1" ht="15">
       <c r="A10" s="61">
         <v>2</v>
       </c>
@@ -11634,7 +14729,7 @@
       </c>
       <c r="R10" s="86"/>
       <c r="S10" s="531" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T10" s="532"/>
       <c r="U10" s="276" t="s">
@@ -11722,7 +14817,7 @@
       </c>
       <c r="R11" s="86"/>
       <c r="S11" s="290" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T11" s="291"/>
       <c r="U11" s="276" t="s">
@@ -11810,7 +14905,7 @@
       </c>
       <c r="R12" s="86"/>
       <c r="S12" s="290" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T12" s="291"/>
       <c r="U12" s="276" t="s">
@@ -11898,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="290" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T13" s="291"/>
       <c r="U13" s="276" t="s">
@@ -11986,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="290" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T14" s="291"/>
       <c r="U14" s="276" t="s">
@@ -12074,7 +15169,7 @@
         <v>141</v>
       </c>
       <c r="S15" s="290" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T15" s="291"/>
       <c r="U15" s="276" t="s">
@@ -12162,7 +15257,7 @@
         <v>141</v>
       </c>
       <c r="S16" s="399" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T16" s="291"/>
       <c r="U16" s="276" t="s">
@@ -12222,7 +15317,7 @@
       <c r="BM16" s="76"/>
       <c r="BN16" s="77"/>
     </row>
-    <row r="17" customHeight="1" ht="12">
+    <row r="17" customHeight="1" ht="19">
       <c r="A17" s="61">
         <v>9</v>
       </c>
@@ -12250,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="290" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T17" s="291"/>
       <c r="U17" s="276" t="s">
@@ -12328,7 +15423,7 @@
       <c r="K18" s="157"/>
       <c r="L18" s="288"/>
       <c r="M18" s="271" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N18" s="272"/>
       <c r="O18" s="272"/>
@@ -12338,7 +15433,7 @@
         <v>8</v>
       </c>
       <c r="S18" s="290" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T18" s="298"/>
       <c r="U18" s="276" t="s">
@@ -12349,19 +15444,19 @@
         <v>64</v>
       </c>
       <c r="X18" s="273"/>
-      <c r="Y18" s="271" t="s">
+      <c r="Y18" s="594" t="s">
         <v>65</v>
       </c>
-      <c r="Z18" s="272"/>
-      <c r="AA18" s="272"/>
-      <c r="AB18" s="273"/>
-      <c r="AC18" s="278" t="s">
+      <c r="Z18" s="595"/>
+      <c r="AA18" s="595"/>
+      <c r="AB18" s="596"/>
+      <c r="AC18" s="600" t="s">
         <v>142</v>
       </c>
-      <c r="AD18" s="279"/>
-      <c r="AE18" s="279"/>
-      <c r="AF18" s="279"/>
-      <c r="AG18" s="280"/>
+      <c r="AD18" s="601"/>
+      <c r="AE18" s="601"/>
+      <c r="AF18" s="601"/>
+      <c r="AG18" s="602"/>
       <c r="AH18" s="292" t="s">
         <v>151</v>
       </c>
@@ -12418,7 +15513,7 @@
       <c r="K19" s="157"/>
       <c r="L19" s="288"/>
       <c r="M19" s="390" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N19" s="391"/>
       <c r="O19" s="391"/>
@@ -12428,7 +15523,7 @@
         <v>8</v>
       </c>
       <c r="S19" s="290" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="T19" s="298"/>
       <c r="U19" s="276" t="s">
@@ -12438,19 +15533,21 @@
       <c r="W19" s="272" t="s">
         <v>64</v>
       </c>
-      <c r="X19" s="273"/>
-      <c r="Y19" s="271"/>
-      <c r="Z19" s="272"/>
-      <c r="AA19" s="272"/>
-      <c r="AB19" s="273"/>
-      <c r="AC19" s="427" t="s">
+      <c r="X19" s="592"/>
+      <c r="Y19" s="597" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="598"/>
+      <c r="AC19" s="603" t="s">
         <v>142</v>
       </c>
-      <c r="AD19" s="428"/>
-      <c r="AE19" s="428"/>
-      <c r="AF19" s="428"/>
-      <c r="AG19" s="429"/>
-      <c r="AH19" s="364"/>
+      <c r="AD19" s="604"/>
+      <c r="AE19" s="604"/>
+      <c r="AF19" s="604"/>
+      <c r="AG19" s="605"/>
+      <c r="AH19" s="599"/>
       <c r="AI19" s="362"/>
       <c r="AJ19" s="430" t="s">
         <v>152</v>
@@ -12708,8 +15805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150" tabSelected="1">
-      <selection activeCell="P9" sqref="P9:AF9" activeCellId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150">
+      <selection activeCell="BI11" sqref="BI11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13339,7 +16436,7 @@
       <c r="N8" s="309"/>
       <c r="O8" s="311"/>
       <c r="P8" s="490" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="491"/>
       <c r="R8" s="491"/>
@@ -13404,7 +16501,7 @@
       <c r="N9" s="450"/>
       <c r="O9" s="450"/>
       <c r="P9" s="533" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="Q9" s="533"/>
       <c r="R9" s="533"/>
@@ -13469,7 +16566,7 @@
       <c r="N10" s="443"/>
       <c r="O10" s="453"/>
       <c r="P10" s="454" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="320"/>
       <c r="R10" s="320"/>
@@ -13534,7 +16631,7 @@
       <c r="N11" s="309"/>
       <c r="O11" s="309"/>
       <c r="P11" s="457" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="457"/>
       <c r="R11" s="457"/>
@@ -13582,24 +16679,24 @@
       <c r="A12" s="476">
         <v>6</v>
       </c>
-      <c r="B12" s="317" t="s">
+      <c r="B12" s="620" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="309"/>
-      <c r="D12" s="309"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="309"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="309"/>
-      <c r="L12" s="309"/>
-      <c r="M12" s="309"/>
-      <c r="N12" s="309"/>
-      <c r="O12" s="514"/>
+      <c r="C12" s="621"/>
+      <c r="D12" s="621"/>
+      <c r="E12" s="621"/>
+      <c r="F12" s="621"/>
+      <c r="G12" s="621"/>
+      <c r="H12" s="621"/>
+      <c r="I12" s="621"/>
+      <c r="J12" s="621"/>
+      <c r="K12" s="621"/>
+      <c r="L12" s="621"/>
+      <c r="M12" s="621"/>
+      <c r="N12" s="621"/>
+      <c r="O12" s="622"/>
       <c r="P12" s="458" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="Q12" s="460"/>
       <c r="R12" s="93"/>
@@ -13645,36 +16742,39 @@
       <c r="BC12" s="328"/>
     </row>
     <row r="13">
-      <c r="A13" s="477">
+      <c r="A13" s="619">
         <v>7</v>
       </c>
-      <c r="B13" s="449" t="s">
+      <c r="B13" s="452" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="450"/>
-      <c r="D13" s="450"/>
-      <c r="E13" s="450"/>
-      <c r="F13" s="450"/>
-      <c r="G13" s="450"/>
-      <c r="H13" s="450"/>
-      <c r="I13" s="450"/>
-      <c r="J13" s="450"/>
-      <c r="K13" s="450"/>
-      <c r="L13" s="450"/>
-      <c r="M13" s="450"/>
-      <c r="N13" s="450"/>
-      <c r="O13" s="450"/>
+      <c r="C13" s="443"/>
+      <c r="D13" s="443"/>
+      <c r="E13" s="443"/>
+      <c r="F13" s="443"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="443"/>
+      <c r="I13" s="443"/>
+      <c r="J13" s="443"/>
+      <c r="K13" s="443"/>
+      <c r="L13" s="443"/>
+      <c r="M13" s="443"/>
+      <c r="N13" s="443"/>
+      <c r="O13" s="453"/>
       <c r="P13" s="359" t="s">
-        <v>187</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="Q13" s="24"/>
       <c r="R13" s="359"/>
       <c r="S13" s="359"/>
       <c r="T13" s="359"/>
-      <c r="V13" s="359" t="s">
-        <v>201</v>
-      </c>
+      <c r="U13" s="24"/>
+      <c r="V13" s="359"/>
+      <c r="W13" s="24"/>
       <c r="X13" s="359"/>
       <c r="Y13" s="359"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
       <c r="AB13" s="359"/>
       <c r="AC13" s="359"/>
       <c r="AD13" s="359"/>
@@ -13710,24 +16810,24 @@
       <c r="A14" s="478">
         <v>8</v>
       </c>
-      <c r="B14" s="452" t="s">
+      <c r="B14" s="623" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="443"/>
-      <c r="D14" s="443"/>
-      <c r="E14" s="443"/>
-      <c r="F14" s="443"/>
-      <c r="G14" s="443"/>
-      <c r="H14" s="443"/>
-      <c r="I14" s="443"/>
-      <c r="J14" s="443"/>
-      <c r="K14" s="443"/>
-      <c r="L14" s="443"/>
-      <c r="M14" s="443"/>
-      <c r="N14" s="443"/>
-      <c r="O14" s="453"/>
+      <c r="C14" s="624"/>
+      <c r="D14" s="624"/>
+      <c r="E14" s="624"/>
+      <c r="F14" s="624"/>
+      <c r="G14" s="624"/>
+      <c r="H14" s="624"/>
+      <c r="I14" s="624"/>
+      <c r="J14" s="624"/>
+      <c r="K14" s="624"/>
+      <c r="L14" s="624"/>
+      <c r="M14" s="624"/>
+      <c r="N14" s="624"/>
+      <c r="O14" s="625"/>
       <c r="P14" s="454" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="320"/>
       <c r="R14" s="320"/>
@@ -13819,4 +16919,88 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" activeCellId="0" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customHeight="1" ht="32">
+      <c r="A1" s="569" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" customHeight="1" ht="17">
+      <c r="A2" s="552" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="553"/>
+      <c r="C2" s="553"/>
+      <c r="D2" s="554" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="555"/>
+      <c r="F2" s="556" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="557"/>
+      <c r="H2" s="558" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="559">
+        <v>45069</v>
+      </c>
+      <c r="J2" s="558" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="560" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" ht="18">
+      <c r="A3" s="561" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="562"/>
+      <c r="C3" s="562"/>
+      <c r="D3" s="563" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="563"/>
+      <c r="F3" s="564"/>
+      <c r="G3" s="565"/>
+      <c r="H3" s="566" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="567"/>
+      <c r="J3" s="566" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="568"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
@@ -764,12 +764,33 @@
   <si>
     <t>稼働時間Toは数字ではない場合</t>
   </si>
+  <si>
+    <t xml:space="preserve">       １）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ①</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  入力値チェック</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ② </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DB登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ①</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ② </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="99" x14ac:knownFonts="1">
+  <fonts count="122" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,8 +1441,161 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <u val="single"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <u val="single"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <u val="single"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF9C5700"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color rgb="FF9C0006"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1468,8 +1642,29 @@
         <fgColor rgb="FFFDEADA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="233">
+  <borders count="340">
     <border>
       <left/>
       <right/>
@@ -4378,13 +4573,1678 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF3F3F3F"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="none">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="none">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF3F3F3F"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="none">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="none">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="12" applyFill="1" borderId="247" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="642">
+  <cellXfs count="931">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6275,9 +8135,955 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="99" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="100" applyFont="1" fillId="0" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="102" applyFont="1" fillId="0" applyFill="1" borderId="164" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="103" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="239" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="104" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="242" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="104" applyFont="1" fillId="0" applyFill="1" borderId="245" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="246" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="245" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="245" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="242" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="11" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="12" applyFill="1" borderId="247" applyBorder="1" applyAlignment="1" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="13" applyFill="1" borderId="248" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="249" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="250" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="251" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="252" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="253" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="254" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="255" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="256" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="246" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="104" applyFont="1" fillId="0" applyFill="1" borderId="257" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="258" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="242" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="104" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="169" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="105" applyFont="1" fillId="0" applyFill="1" borderId="152" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="172" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="227" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="259" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="260" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="245" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="257" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="10" applyFill="1" borderId="261" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="262" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="0" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="0" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="0" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="0" applyFill="1" borderId="242" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="0" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="0" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="3" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="3" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="3" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="3" applyFill="1" borderId="242" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="3" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="3" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="188" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="263" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="263" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="264" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="264" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="265" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="266" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="267" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="268" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="269" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="270" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="271" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="272" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="220" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="221" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="273" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="274" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="275" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="276" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="112" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="245" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="277" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="278" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="245" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="279" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="280" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="281" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="282" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="283" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="284" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="281" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="115" applyFont="1" fillId="0" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="285" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="286" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="287" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="116" applyFont="1" fillId="5" applyFill="1" borderId="288" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="8" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="116" applyFont="1" fillId="5" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="289" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="290" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="291" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="5" applyFill="1" borderId="289" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="5" applyFill="1" borderId="290" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="5" applyFill="1" borderId="292" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="149" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="215" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="282" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="293" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="150" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="139" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="294" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="295" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="117" applyFont="1" fillId="5" applyFill="1" borderId="296" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="297" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="298" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="299" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="300" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="301" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="220" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" borderId="283" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="171" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="220" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="221" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="189" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="302" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="302" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="303" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="171" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="260" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="304" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="119" applyFont="1" fillId="0" applyFill="1" borderId="242" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="305" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="288" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="306" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="115" applyFont="1" fillId="0" applyFill="1" borderId="307" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="308" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="119" applyFont="1" fillId="0" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="117" applyFont="1" fillId="5" applyFill="1" borderId="309" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="251" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="310" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="311" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="115" applyFont="1" fillId="0" applyFill="1" borderId="307" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="119" applyFont="1" fillId="0" applyFill="1" borderId="163" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="115" applyFont="1" fillId="0" applyFill="1" borderId="260" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="312" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="260" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="115" applyFont="1" fillId="0" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="119" applyFont="1" fillId="0" applyFill="1" borderId="313" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="119" applyFont="1" fillId="0" applyFill="1" borderId="314" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="115" applyFont="1" fillId="0" applyFill="1" borderId="314" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="314" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="315" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="100" applyFont="1" fillId="0" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="316" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="112" applyFont="1" fillId="0" applyFill="1" borderId="317" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="112" applyFont="1" fillId="0" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="318" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="305" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="319" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="119" applyFont="1" fillId="0" applyFill="1" borderId="320" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="119" applyFont="1" fillId="0" applyFill="1" borderId="321" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="115" applyFont="1" fillId="0" applyFill="1" borderId="321" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="321" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="322" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="116" applyFont="1" fillId="5" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="119" applyFont="1" fillId="0" applyFill="1" borderId="323" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="324" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="325" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="326" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="327" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="328" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="329" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="330" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="331" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="332" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="144" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="139" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="333" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="310" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="311" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="117" applyFont="1" fillId="5" applyFill="1" borderId="296" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="334" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="8" applyFill="1" borderId="335" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="116" applyFont="1" fillId="5" applyFill="1" borderId="334" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="117" applyFont="1" fillId="5" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="5" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="8" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="116" applyFont="1" fillId="5" applyFill="1" borderId="192" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="8" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="8" applyFill="1" borderId="171" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="115" applyFont="1" fillId="0" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="5" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="5" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="3" applyFill="1" borderId="336" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="3" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="242" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="113" applyFont="1" fillId="3" applyFill="1" borderId="170" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="3" applyFill="1" borderId="337" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="3" applyFill="1" borderId="338" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="339" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="120" applyFont="1" fillId="0" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="110" applyFont="1" fillId="0" applyFill="1" borderId="257" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="113" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="121" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle xfId="1" builtinId="28" name="どちらでもない"/>
+    <cellStyle xfId="2" builtinId="27" name="悪い"/>
+    <cellStyle xfId="3" builtinId="23" name="セルのチェック"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6358,7 +9164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="1181100"/>
+          <a:off x="361950" y="1143000"/>
           <a:ext cx="1600200" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6460,7 +9266,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="1457325"/>
+          <a:off x="390525" y="1419225"/>
           <a:ext cx="485775" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6519,7 +9325,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400050" y="1800225"/>
+          <a:off x="400050" y="1762125"/>
           <a:ext cx="523875" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6548,16 +9354,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6566,8 +9372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314575" y="3333750"/>
-          <a:ext cx="1562100" cy="447675"/>
+          <a:off x="352425" y="3352800"/>
+          <a:ext cx="1562100" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6619,16 +9425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6637,8 +9443,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="3324225"/>
-          <a:ext cx="1562100" cy="447675"/>
+          <a:off x="3381375" y="3276600"/>
+          <a:ext cx="1733550" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6690,16 +9496,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6708,7 +9514,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4733925" y="1676400"/>
+          <a:off x="2457450" y="1647825"/>
           <a:ext cx="9525" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -6739,16 +9545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6757,7 +9563,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4810125" y="2181225"/>
+          <a:off x="2343150" y="2105025"/>
           <a:ext cx="9525" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -6788,16 +9594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6806,8 +9612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324350" y="2714625"/>
-          <a:ext cx="942975" cy="266700"/>
+          <a:off x="1914525" y="2752725"/>
+          <a:ext cx="1066800" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6853,16 +9659,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6871,8 +9677,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="4057650"/>
-          <a:ext cx="942975" cy="266700"/>
+          <a:off x="1733550" y="3943350"/>
+          <a:ext cx="1162050" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6909,7 +9715,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>更新ボタン</a:t>
+            <a:t>新規追加ボタン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8181,8 +10987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="Y1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8987,7 +11793,7 @@
       </c>
       <c r="AQ9" s="151"/>
       <c r="AR9" s="152"/>
-      <c r="AS9" s="349" t="s">
+      <c r="AS9" s="927" t="s">
         <v>128</v>
       </c>
       <c r="AT9" s="157"/>
@@ -9014,7 +11820,7 @@
       <c r="BM9" s="346"/>
       <c r="BN9" s="67"/>
     </row>
-    <row r="10" ht="12">
+    <row r="10" ht="15">
       <c r="A10" s="65"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
@@ -9057,11 +11863,11 @@
       <c r="AN10" s="66"/>
       <c r="AO10" s="66"/>
       <c r="AP10" s="150"/>
-      <c r="AQ10" s="151">
+      <c r="AQ10" s="930">
         <v>4</v>
       </c>
       <c r="AR10" s="152"/>
-      <c r="AS10" s="349" t="s">
+      <c r="AS10" s="927" t="s">
         <v>169</v>
       </c>
       <c r="AT10" s="157"/>
@@ -9594,7 +12400,7 @@
       <c r="BC17" s="157"/>
       <c r="BD17" s="158"/>
       <c r="BE17" s="156" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BF17" s="157"/>
       <c r="BG17" s="157"/>
@@ -9668,7 +12474,7 @@
       <c r="BC18" s="166"/>
       <c r="BD18" s="167"/>
       <c r="BE18" s="165" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="BF18" s="166"/>
       <c r="BG18" s="166"/>
@@ -9865,8 +12671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" tabSelected="1">
-      <selection activeCell="AU15" sqref="AU15" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" tabSelected="1">
+      <selection activeCell="Z16" sqref="Z16" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12537,7 +15343,7 @@
       <c r="A20" s="37"/>
       <c r="B20" s="50"/>
       <c r="C20" s="43" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="43" t="s">
@@ -12706,10 +15512,10 @@
       <c r="B21" s="50"/>
       <c r="C21" s="84"/>
       <c r="D21" s="43" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="F21" s="84"/>
       <c r="G21" s="84"/>
@@ -13370,10 +16176,10 @@
       <c r="B25" s="50"/>
       <c r="C25" s="84"/>
       <c r="D25" s="43" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="F25" s="84"/>
       <c r="G25" s="84"/>
@@ -13864,17 +16670,15 @@
       <c r="WUL27" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
     <mergeCell ref="A2:Y3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="D4:K4"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="T4:AE4"/>
     <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="F5:M5"/>
     <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="N5:S5"/>
     <mergeCell ref="T5:AE5"/>
     <mergeCell ref="AH5:AI5"/>
     <mergeCell ref="AD6:AG6"/>
@@ -13893,7 +16697,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="V4" sqref="V4:AV4" activeCellId="0"/>
+      <selection activeCell="AE30" sqref="AE30" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13902,133 +16706,135 @@
     <col min="12" max="12" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="27" width="2.125" style="24"/>
     <col min="28" max="28" width="5.375" style="24" customWidth="1"/>
-    <col min="29" max="283" width="2.125" style="24"/>
-    <col min="284" max="284" width="5.375" style="24" customWidth="1"/>
-    <col min="285" max="539" width="2.125" style="24"/>
-    <col min="540" max="540" width="5.375" style="24" customWidth="1"/>
-    <col min="541" max="795" width="2.125" style="24"/>
-    <col min="796" max="796" width="5.375" style="24" customWidth="1"/>
-    <col min="797" max="1051" width="2.125" style="24"/>
-    <col min="1052" max="1052" width="5.375" style="24" customWidth="1"/>
-    <col min="1053" max="1307" width="2.125" style="24"/>
-    <col min="1308" max="1308" width="5.375" style="24" customWidth="1"/>
-    <col min="1309" max="1563" width="2.125" style="24"/>
-    <col min="1564" max="1564" width="5.375" style="24" customWidth="1"/>
-    <col min="1565" max="1819" width="2.125" style="24"/>
-    <col min="1820" max="1820" width="5.375" style="24" customWidth="1"/>
-    <col min="1821" max="2075" width="2.125" style="24"/>
-    <col min="2076" max="2076" width="5.375" style="24" customWidth="1"/>
-    <col min="2077" max="2331" width="2.125" style="24"/>
-    <col min="2332" max="2332" width="5.375" style="24" customWidth="1"/>
-    <col min="2333" max="2587" width="2.125" style="24"/>
-    <col min="2588" max="2588" width="5.375" style="24" customWidth="1"/>
-    <col min="2589" max="2843" width="2.125" style="24"/>
-    <col min="2844" max="2844" width="5.375" style="24" customWidth="1"/>
-    <col min="2845" max="3099" width="2.125" style="24"/>
-    <col min="3100" max="3100" width="5.375" style="24" customWidth="1"/>
-    <col min="3101" max="3355" width="2.125" style="24"/>
-    <col min="3356" max="3356" width="5.375" style="24" customWidth="1"/>
-    <col min="3357" max="3611" width="2.125" style="24"/>
-    <col min="3612" max="3612" width="5.375" style="24" customWidth="1"/>
-    <col min="3613" max="3867" width="2.125" style="24"/>
-    <col min="3868" max="3868" width="5.375" style="24" customWidth="1"/>
-    <col min="3869" max="4123" width="2.125" style="24"/>
-    <col min="4124" max="4124" width="5.375" style="24" customWidth="1"/>
-    <col min="4125" max="4379" width="2.125" style="24"/>
-    <col min="4380" max="4380" width="5.375" style="24" customWidth="1"/>
-    <col min="4381" max="4635" width="2.125" style="24"/>
-    <col min="4636" max="4636" width="5.375" style="24" customWidth="1"/>
-    <col min="4637" max="4891" width="2.125" style="24"/>
-    <col min="4892" max="4892" width="5.375" style="24" customWidth="1"/>
-    <col min="4893" max="5147" width="2.125" style="24"/>
-    <col min="5148" max="5148" width="5.375" style="24" customWidth="1"/>
-    <col min="5149" max="5403" width="2.125" style="24"/>
-    <col min="5404" max="5404" width="5.375" style="24" customWidth="1"/>
-    <col min="5405" max="5659" width="2.125" style="24"/>
-    <col min="5660" max="5660" width="5.375" style="24" customWidth="1"/>
-    <col min="5661" max="5915" width="2.125" style="24"/>
-    <col min="5916" max="5916" width="5.375" style="24" customWidth="1"/>
-    <col min="5917" max="6171" width="2.125" style="24"/>
-    <col min="6172" max="6172" width="5.375" style="24" customWidth="1"/>
-    <col min="6173" max="6427" width="2.125" style="24"/>
-    <col min="6428" max="6428" width="5.375" style="24" customWidth="1"/>
-    <col min="6429" max="6683" width="2.125" style="24"/>
-    <col min="6684" max="6684" width="5.375" style="24" customWidth="1"/>
-    <col min="6685" max="6939" width="2.125" style="24"/>
-    <col min="6940" max="6940" width="5.375" style="24" customWidth="1"/>
-    <col min="6941" max="7195" width="2.125" style="24"/>
-    <col min="7196" max="7196" width="5.375" style="24" customWidth="1"/>
-    <col min="7197" max="7451" width="2.125" style="24"/>
-    <col min="7452" max="7452" width="5.375" style="24" customWidth="1"/>
-    <col min="7453" max="7707" width="2.125" style="24"/>
-    <col min="7708" max="7708" width="5.375" style="24" customWidth="1"/>
-    <col min="7709" max="7963" width="2.125" style="24"/>
-    <col min="7964" max="7964" width="5.375" style="24" customWidth="1"/>
-    <col min="7965" max="8219" width="2.125" style="24"/>
-    <col min="8220" max="8220" width="5.375" style="24" customWidth="1"/>
-    <col min="8221" max="8475" width="2.125" style="24"/>
-    <col min="8476" max="8476" width="5.375" style="24" customWidth="1"/>
-    <col min="8477" max="8731" width="2.125" style="24"/>
-    <col min="8732" max="8732" width="5.375" style="24" customWidth="1"/>
-    <col min="8733" max="8987" width="2.125" style="24"/>
-    <col min="8988" max="8988" width="5.375" style="24" customWidth="1"/>
-    <col min="8989" max="9243" width="2.125" style="24"/>
-    <col min="9244" max="9244" width="5.375" style="24" customWidth="1"/>
-    <col min="9245" max="9499" width="2.125" style="24"/>
-    <col min="9500" max="9500" width="5.375" style="24" customWidth="1"/>
-    <col min="9501" max="9755" width="2.125" style="24"/>
-    <col min="9756" max="9756" width="5.375" style="24" customWidth="1"/>
-    <col min="9757" max="10011" width="2.125" style="24"/>
-    <col min="10012" max="10012" width="5.375" style="24" customWidth="1"/>
-    <col min="10013" max="10267" width="2.125" style="24"/>
-    <col min="10268" max="10268" width="5.375" style="24" customWidth="1"/>
-    <col min="10269" max="10523" width="2.125" style="24"/>
-    <col min="10524" max="10524" width="5.375" style="24" customWidth="1"/>
-    <col min="10525" max="10779" width="2.125" style="24"/>
-    <col min="10780" max="10780" width="5.375" style="24" customWidth="1"/>
-    <col min="10781" max="11035" width="2.125" style="24"/>
-    <col min="11036" max="11036" width="5.375" style="24" customWidth="1"/>
-    <col min="11037" max="11291" width="2.125" style="24"/>
-    <col min="11292" max="11292" width="5.375" style="24" customWidth="1"/>
-    <col min="11293" max="11547" width="2.125" style="24"/>
-    <col min="11548" max="11548" width="5.375" style="24" customWidth="1"/>
-    <col min="11549" max="11803" width="2.125" style="24"/>
-    <col min="11804" max="11804" width="5.375" style="24" customWidth="1"/>
-    <col min="11805" max="12059" width="2.125" style="24"/>
-    <col min="12060" max="12060" width="5.375" style="24" customWidth="1"/>
-    <col min="12061" max="12315" width="2.125" style="24"/>
-    <col min="12316" max="12316" width="5.375" style="24" customWidth="1"/>
-    <col min="12317" max="12571" width="2.125" style="24"/>
-    <col min="12572" max="12572" width="5.375" style="24" customWidth="1"/>
-    <col min="12573" max="12827" width="2.125" style="24"/>
-    <col min="12828" max="12828" width="5.375" style="24" customWidth="1"/>
-    <col min="12829" max="13083" width="2.125" style="24"/>
-    <col min="13084" max="13084" width="5.375" style="24" customWidth="1"/>
-    <col min="13085" max="13339" width="2.125" style="24"/>
-    <col min="13340" max="13340" width="5.375" style="24" customWidth="1"/>
-    <col min="13341" max="13595" width="2.125" style="24"/>
-    <col min="13596" max="13596" width="5.375" style="24" customWidth="1"/>
-    <col min="13597" max="13851" width="2.125" style="24"/>
-    <col min="13852" max="13852" width="5.375" style="24" customWidth="1"/>
-    <col min="13853" max="14107" width="2.125" style="24"/>
-    <col min="14108" max="14108" width="5.375" style="24" customWidth="1"/>
-    <col min="14109" max="14363" width="2.125" style="24"/>
-    <col min="14364" max="14364" width="5.375" style="24" customWidth="1"/>
-    <col min="14365" max="14619" width="2.125" style="24"/>
-    <col min="14620" max="14620" width="5.375" style="24" customWidth="1"/>
-    <col min="14621" max="14875" width="2.125" style="24"/>
-    <col min="14876" max="14876" width="5.375" style="24" customWidth="1"/>
-    <col min="14877" max="15131" width="2.125" style="24"/>
-    <col min="15132" max="15132" width="5.375" style="24" customWidth="1"/>
-    <col min="15133" max="15387" width="2.125" style="24"/>
-    <col min="15388" max="15388" width="5.375" style="24" customWidth="1"/>
-    <col min="15389" max="15643" width="2.125" style="24"/>
-    <col min="15644" max="15644" width="5.375" style="24" customWidth="1"/>
-    <col min="15645" max="15899" width="2.125" style="24"/>
-    <col min="15900" max="15900" width="5.375" style="24" customWidth="1"/>
-    <col min="15901" max="16155" width="2.125" style="24"/>
-    <col min="16156" max="16156" width="5.375" style="24" customWidth="1"/>
-    <col min="16157" max="16384" width="2.125" style="24"/>
+    <col min="29" max="63" width="2.125" style="24"/>
+    <col min="64" max="64" width="2.125" style="24"/>
+    <col min="65" max="281" width="2.125" style="24"/>
+    <col min="282" max="282" width="5.375" style="24" customWidth="1"/>
+    <col min="283" max="537" width="2.125" style="24"/>
+    <col min="538" max="538" width="5.375" style="24" customWidth="1"/>
+    <col min="539" max="793" width="2.125" style="24"/>
+    <col min="794" max="794" width="5.375" style="24" customWidth="1"/>
+    <col min="795" max="1049" width="2.125" style="24"/>
+    <col min="1050" max="1050" width="5.375" style="24" customWidth="1"/>
+    <col min="1051" max="1305" width="2.125" style="24"/>
+    <col min="1306" max="1306" width="5.375" style="24" customWidth="1"/>
+    <col min="1307" max="1561" width="2.125" style="24"/>
+    <col min="1562" max="1562" width="5.375" style="24" customWidth="1"/>
+    <col min="1563" max="1817" width="2.125" style="24"/>
+    <col min="1818" max="1818" width="5.375" style="24" customWidth="1"/>
+    <col min="1819" max="2073" width="2.125" style="24"/>
+    <col min="2074" max="2074" width="5.375" style="24" customWidth="1"/>
+    <col min="2075" max="2329" width="2.125" style="24"/>
+    <col min="2330" max="2330" width="5.375" style="24" customWidth="1"/>
+    <col min="2331" max="2585" width="2.125" style="24"/>
+    <col min="2586" max="2586" width="5.375" style="24" customWidth="1"/>
+    <col min="2587" max="2841" width="2.125" style="24"/>
+    <col min="2842" max="2842" width="5.375" style="24" customWidth="1"/>
+    <col min="2843" max="3097" width="2.125" style="24"/>
+    <col min="3098" max="3098" width="5.375" style="24" customWidth="1"/>
+    <col min="3099" max="3353" width="2.125" style="24"/>
+    <col min="3354" max="3354" width="5.375" style="24" customWidth="1"/>
+    <col min="3355" max="3609" width="2.125" style="24"/>
+    <col min="3610" max="3610" width="5.375" style="24" customWidth="1"/>
+    <col min="3611" max="3865" width="2.125" style="24"/>
+    <col min="3866" max="3866" width="5.375" style="24" customWidth="1"/>
+    <col min="3867" max="4121" width="2.125" style="24"/>
+    <col min="4122" max="4122" width="5.375" style="24" customWidth="1"/>
+    <col min="4123" max="4377" width="2.125" style="24"/>
+    <col min="4378" max="4378" width="5.375" style="24" customWidth="1"/>
+    <col min="4379" max="4633" width="2.125" style="24"/>
+    <col min="4634" max="4634" width="5.375" style="24" customWidth="1"/>
+    <col min="4635" max="4889" width="2.125" style="24"/>
+    <col min="4890" max="4890" width="5.375" style="24" customWidth="1"/>
+    <col min="4891" max="5145" width="2.125" style="24"/>
+    <col min="5146" max="5146" width="5.375" style="24" customWidth="1"/>
+    <col min="5147" max="5401" width="2.125" style="24"/>
+    <col min="5402" max="5402" width="5.375" style="24" customWidth="1"/>
+    <col min="5403" max="5657" width="2.125" style="24"/>
+    <col min="5658" max="5658" width="5.375" style="24" customWidth="1"/>
+    <col min="5659" max="5913" width="2.125" style="24"/>
+    <col min="5914" max="5914" width="5.375" style="24" customWidth="1"/>
+    <col min="5915" max="6169" width="2.125" style="24"/>
+    <col min="6170" max="6170" width="5.375" style="24" customWidth="1"/>
+    <col min="6171" max="6425" width="2.125" style="24"/>
+    <col min="6426" max="6426" width="5.375" style="24" customWidth="1"/>
+    <col min="6427" max="6681" width="2.125" style="24"/>
+    <col min="6682" max="6682" width="5.375" style="24" customWidth="1"/>
+    <col min="6683" max="6937" width="2.125" style="24"/>
+    <col min="6938" max="6938" width="5.375" style="24" customWidth="1"/>
+    <col min="6939" max="7193" width="2.125" style="24"/>
+    <col min="7194" max="7194" width="5.375" style="24" customWidth="1"/>
+    <col min="7195" max="7449" width="2.125" style="24"/>
+    <col min="7450" max="7450" width="5.375" style="24" customWidth="1"/>
+    <col min="7451" max="7705" width="2.125" style="24"/>
+    <col min="7706" max="7706" width="5.375" style="24" customWidth="1"/>
+    <col min="7707" max="7961" width="2.125" style="24"/>
+    <col min="7962" max="7962" width="5.375" style="24" customWidth="1"/>
+    <col min="7963" max="8217" width="2.125" style="24"/>
+    <col min="8218" max="8218" width="5.375" style="24" customWidth="1"/>
+    <col min="8219" max="8473" width="2.125" style="24"/>
+    <col min="8474" max="8474" width="5.375" style="24" customWidth="1"/>
+    <col min="8475" max="8729" width="2.125" style="24"/>
+    <col min="8730" max="8730" width="5.375" style="24" customWidth="1"/>
+    <col min="8731" max="8985" width="2.125" style="24"/>
+    <col min="8986" max="8986" width="5.375" style="24" customWidth="1"/>
+    <col min="8987" max="9241" width="2.125" style="24"/>
+    <col min="9242" max="9242" width="5.375" style="24" customWidth="1"/>
+    <col min="9243" max="9497" width="2.125" style="24"/>
+    <col min="9498" max="9498" width="5.375" style="24" customWidth="1"/>
+    <col min="9499" max="9753" width="2.125" style="24"/>
+    <col min="9754" max="9754" width="5.375" style="24" customWidth="1"/>
+    <col min="9755" max="10009" width="2.125" style="24"/>
+    <col min="10010" max="10010" width="5.375" style="24" customWidth="1"/>
+    <col min="10011" max="10265" width="2.125" style="24"/>
+    <col min="10266" max="10266" width="5.375" style="24" customWidth="1"/>
+    <col min="10267" max="10521" width="2.125" style="24"/>
+    <col min="10522" max="10522" width="5.375" style="24" customWidth="1"/>
+    <col min="10523" max="10777" width="2.125" style="24"/>
+    <col min="10778" max="10778" width="5.375" style="24" customWidth="1"/>
+    <col min="10779" max="11033" width="2.125" style="24"/>
+    <col min="11034" max="11034" width="5.375" style="24" customWidth="1"/>
+    <col min="11035" max="11289" width="2.125" style="24"/>
+    <col min="11290" max="11290" width="5.375" style="24" customWidth="1"/>
+    <col min="11291" max="11545" width="2.125" style="24"/>
+    <col min="11546" max="11546" width="5.375" style="24" customWidth="1"/>
+    <col min="11547" max="11801" width="2.125" style="24"/>
+    <col min="11802" max="11802" width="5.375" style="24" customWidth="1"/>
+    <col min="11803" max="12057" width="2.125" style="24"/>
+    <col min="12058" max="12058" width="5.375" style="24" customWidth="1"/>
+    <col min="12059" max="12313" width="2.125" style="24"/>
+    <col min="12314" max="12314" width="5.375" style="24" customWidth="1"/>
+    <col min="12315" max="12569" width="2.125" style="24"/>
+    <col min="12570" max="12570" width="5.375" style="24" customWidth="1"/>
+    <col min="12571" max="12825" width="2.125" style="24"/>
+    <col min="12826" max="12826" width="5.375" style="24" customWidth="1"/>
+    <col min="12827" max="13081" width="2.125" style="24"/>
+    <col min="13082" max="13082" width="5.375" style="24" customWidth="1"/>
+    <col min="13083" max="13337" width="2.125" style="24"/>
+    <col min="13338" max="13338" width="5.375" style="24" customWidth="1"/>
+    <col min="13339" max="13593" width="2.125" style="24"/>
+    <col min="13594" max="13594" width="5.375" style="24" customWidth="1"/>
+    <col min="13595" max="13849" width="2.125" style="24"/>
+    <col min="13850" max="13850" width="5.375" style="24" customWidth="1"/>
+    <col min="13851" max="14105" width="2.125" style="24"/>
+    <col min="14106" max="14106" width="5.375" style="24" customWidth="1"/>
+    <col min="14107" max="14361" width="2.125" style="24"/>
+    <col min="14362" max="14362" width="5.375" style="24" customWidth="1"/>
+    <col min="14363" max="14617" width="2.125" style="24"/>
+    <col min="14618" max="14618" width="5.375" style="24" customWidth="1"/>
+    <col min="14619" max="14873" width="2.125" style="24"/>
+    <col min="14874" max="14874" width="5.375" style="24" customWidth="1"/>
+    <col min="14875" max="15129" width="2.125" style="24"/>
+    <col min="15130" max="15130" width="5.375" style="24" customWidth="1"/>
+    <col min="15131" max="15385" width="2.125" style="24"/>
+    <col min="15386" max="15386" width="5.375" style="24" customWidth="1"/>
+    <col min="15387" max="15641" width="2.125" style="24"/>
+    <col min="15642" max="15642" width="5.375" style="24" customWidth="1"/>
+    <col min="15643" max="15897" width="2.125" style="24"/>
+    <col min="15898" max="15898" width="5.375" style="24" customWidth="1"/>
+    <col min="15899" max="16153" width="2.125" style="24"/>
+    <col min="16154" max="16154" width="5.375" style="24" customWidth="1"/>
+    <col min="16155" max="16384" width="2.125" style="24"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="12">
@@ -14096,8 +16902,6 @@
       <c r="BJ1" s="21"/>
       <c r="BK1" s="21"/>
       <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="23"/>
     </row>
     <row r="2" customHeight="1" ht="12">
       <c r="A2" s="116" t="s">
@@ -14152,76 +16956,72 @@
       <c r="BJ2" s="26"/>
       <c r="BK2" s="26"/>
       <c r="BL2" s="26"/>
-      <c r="BM2" s="26"/>
-      <c r="BN2" s="27"/>
     </row>
     <row r="3" customHeight="1" ht="12">
-      <c r="A3" s="226"/>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="227"/>
-      <c r="V3" s="227"/>
-      <c r="W3" s="227"/>
-      <c r="X3" s="227"/>
-      <c r="Y3" s="227"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="227"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="57"/>
-      <c r="BD3" s="57"/>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="57"/>
-      <c r="BK3" s="57"/>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="58"/>
+      <c r="A3" s="860"/>
+      <c r="B3" s="643"/>
+      <c r="C3" s="643"/>
+      <c r="D3" s="643"/>
+      <c r="E3" s="643"/>
+      <c r="F3" s="643"/>
+      <c r="G3" s="643"/>
+      <c r="H3" s="643"/>
+      <c r="I3" s="643"/>
+      <c r="J3" s="643"/>
+      <c r="K3" s="643"/>
+      <c r="L3" s="643"/>
+      <c r="M3" s="643"/>
+      <c r="N3" s="643"/>
+      <c r="O3" s="643"/>
+      <c r="P3" s="643"/>
+      <c r="Q3" s="643"/>
+      <c r="R3" s="643"/>
+      <c r="S3" s="643"/>
+      <c r="T3" s="643"/>
+      <c r="U3" s="643"/>
+      <c r="V3" s="643"/>
+      <c r="W3" s="643"/>
+      <c r="X3" s="643"/>
+      <c r="Y3" s="643"/>
+      <c r="Z3" s="643"/>
+      <c r="AA3" s="643"/>
+      <c r="AB3" s="761"/>
+      <c r="AC3" s="761"/>
+      <c r="AD3" s="761"/>
+      <c r="AE3" s="761"/>
+      <c r="AF3" s="761"/>
+      <c r="AG3" s="761"/>
+      <c r="AH3" s="761"/>
+      <c r="AI3" s="761"/>
+      <c r="AJ3" s="761"/>
+      <c r="AK3" s="761"/>
+      <c r="AL3" s="761"/>
+      <c r="AM3" s="761"/>
+      <c r="AN3" s="761"/>
+      <c r="AO3" s="761"/>
+      <c r="AP3" s="762"/>
+      <c r="AQ3" s="762"/>
+      <c r="AR3" s="762"/>
+      <c r="AS3" s="762"/>
+      <c r="AT3" s="762"/>
+      <c r="AU3" s="762"/>
+      <c r="AV3" s="762"/>
+      <c r="AW3" s="762"/>
+      <c r="AX3" s="762"/>
+      <c r="AY3" s="762"/>
+      <c r="AZ3" s="762"/>
+      <c r="BA3" s="762"/>
+      <c r="BB3" s="762"/>
+      <c r="BC3" s="762"/>
+      <c r="BD3" s="762"/>
+      <c r="BE3" s="762"/>
+      <c r="BF3" s="762"/>
+      <c r="BG3" s="762"/>
+      <c r="BH3" s="762"/>
+      <c r="BI3" s="762"/>
+      <c r="BJ3" s="762"/>
+      <c r="BK3" s="762"/>
+      <c r="BL3" s="762"/>
     </row>
     <row r="4" customHeight="1" ht="12">
       <c r="A4" s="228" t="s">
@@ -14232,418 +17032,428 @@
       <c r="D4" s="229"/>
       <c r="E4" s="229"/>
       <c r="F4" s="230"/>
-      <c r="G4" s="231" t="s">
+      <c r="G4" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="232"/>
-      <c r="L4" s="232"/>
-      <c r="M4" s="232"/>
-      <c r="N4" s="232"/>
-      <c r="O4" s="233"/>
-      <c r="P4" s="234" t="s">
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="235"/>
-      <c r="R4" s="235"/>
-      <c r="S4" s="235"/>
-      <c r="T4" s="235"/>
-      <c r="U4" s="236"/>
-      <c r="V4" s="237" t="s">
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="W4" s="238"/>
-      <c r="X4" s="238"/>
-      <c r="Y4" s="238"/>
-      <c r="Z4" s="238"/>
-      <c r="AA4" s="238"/>
-      <c r="AB4" s="238"/>
-      <c r="AC4" s="238"/>
-      <c r="AD4" s="238"/>
-      <c r="AE4" s="238"/>
-      <c r="AF4" s="238"/>
-      <c r="AG4" s="238"/>
-      <c r="AH4" s="238"/>
-      <c r="AI4" s="238"/>
-      <c r="AJ4" s="238"/>
-      <c r="AK4" s="238"/>
-      <c r="AL4" s="238"/>
-      <c r="AM4" s="238"/>
-      <c r="AN4" s="238"/>
-      <c r="AO4" s="238"/>
-      <c r="AP4" s="238"/>
-      <c r="AQ4" s="238"/>
-      <c r="AR4" s="238"/>
-      <c r="AS4" s="238"/>
-      <c r="AT4" s="238"/>
-      <c r="AU4" s="238"/>
-      <c r="AV4" s="239"/>
-      <c r="AW4" s="240" t="s">
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="128"/>
+      <c r="AK4" s="128"/>
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="128"/>
+      <c r="AR4" s="128"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="128"/>
+      <c r="AU4" s="128"/>
+      <c r="AV4" s="129"/>
+      <c r="AW4" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="AX4" s="241"/>
-      <c r="AY4" s="242"/>
+      <c r="AX4" s="131"/>
+      <c r="AY4" s="132"/>
       <c r="AZ4" s="367">
         <v>45068</v>
       </c>
-      <c r="BA4" s="205"/>
-      <c r="BB4" s="205"/>
-      <c r="BC4" s="205"/>
-      <c r="BD4" s="205"/>
-      <c r="BE4" s="205"/>
-      <c r="BF4" s="240" t="s">
+      <c r="BA4" s="134"/>
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="BG4" s="241"/>
-      <c r="BH4" s="242"/>
+      <c r="BG4" s="131"/>
+      <c r="BH4" s="132"/>
       <c r="BI4" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="BJ4" s="205"/>
-      <c r="BK4" s="205"/>
-      <c r="BL4" s="205"/>
-      <c r="BM4" s="205"/>
-      <c r="BN4" s="244"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="135"/>
     </row>
     <row r="5" customHeight="1" ht="12">
-      <c r="A5" s="206" t="s">
+      <c r="A5" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="207"/>
-      <c r="C5" s="207"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="207"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="209"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="206" t="s">
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="207"/>
-      <c r="R5" s="207"/>
-      <c r="S5" s="207"/>
-      <c r="T5" s="207"/>
-      <c r="U5" s="208"/>
-      <c r="V5" s="211"/>
-      <c r="W5" s="212"/>
-      <c r="X5" s="212"/>
-      <c r="Y5" s="212"/>
-      <c r="Z5" s="212"/>
-      <c r="AA5" s="212"/>
-      <c r="AB5" s="212"/>
-      <c r="AC5" s="212"/>
-      <c r="AD5" s="212"/>
-      <c r="AE5" s="212"/>
-      <c r="AF5" s="212"/>
-      <c r="AG5" s="212"/>
-      <c r="AH5" s="212"/>
-      <c r="AI5" s="212"/>
-      <c r="AJ5" s="212"/>
-      <c r="AK5" s="212"/>
-      <c r="AL5" s="212"/>
-      <c r="AM5" s="212"/>
-      <c r="AN5" s="212"/>
-      <c r="AO5" s="212"/>
-      <c r="AP5" s="212"/>
-      <c r="AQ5" s="212"/>
-      <c r="AR5" s="212"/>
-      <c r="AS5" s="212"/>
-      <c r="AT5" s="212"/>
-      <c r="AU5" s="212"/>
-      <c r="AV5" s="213"/>
-      <c r="AW5" s="214" t="s">
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="142"/>
+      <c r="Y5" s="142"/>
+      <c r="Z5" s="142"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
+      <c r="AC5" s="769"/>
+      <c r="AD5" s="769"/>
+      <c r="AE5" s="769"/>
+      <c r="AF5" s="769"/>
+      <c r="AG5" s="769"/>
+      <c r="AH5" s="769"/>
+      <c r="AI5" s="769"/>
+      <c r="AJ5" s="769"/>
+      <c r="AK5" s="769"/>
+      <c r="AL5" s="769"/>
+      <c r="AM5" s="769"/>
+      <c r="AN5" s="769"/>
+      <c r="AO5" s="142"/>
+      <c r="AP5" s="142"/>
+      <c r="AQ5" s="142"/>
+      <c r="AR5" s="142"/>
+      <c r="AS5" s="142"/>
+      <c r="AT5" s="142"/>
+      <c r="AU5" s="142"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="215"/>
-      <c r="AY5" s="216"/>
-      <c r="AZ5" s="215"/>
-      <c r="BA5" s="215"/>
-      <c r="BB5" s="215"/>
-      <c r="BC5" s="215"/>
-      <c r="BD5" s="215"/>
-      <c r="BE5" s="215"/>
-      <c r="BF5" s="214" t="s">
+      <c r="AX5" s="145"/>
+      <c r="AY5" s="146"/>
+      <c r="AZ5" s="145"/>
+      <c r="BA5" s="145"/>
+      <c r="BB5" s="145"/>
+      <c r="BC5" s="145"/>
+      <c r="BD5" s="145"/>
+      <c r="BE5" s="145"/>
+      <c r="BF5" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="BG5" s="215"/>
-      <c r="BH5" s="216"/>
-      <c r="BI5" s="211"/>
-      <c r="BJ5" s="212"/>
-      <c r="BK5" s="212"/>
-      <c r="BL5" s="212"/>
-      <c r="BM5" s="212"/>
-      <c r="BN5" s="213"/>
+      <c r="BG5" s="145"/>
+      <c r="BH5" s="146"/>
+      <c r="BI5" s="141"/>
+      <c r="BJ5" s="142"/>
+      <c r="BK5" s="142"/>
+      <c r="BL5" s="143"/>
     </row>
-    <row r="6" customHeight="1" ht="3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="75"/>
-      <c r="AQ6" s="75"/>
-      <c r="AR6" s="75"/>
-      <c r="AS6" s="75"/>
-      <c r="AT6" s="75"/>
-      <c r="AU6" s="75"/>
-      <c r="AV6" s="75"/>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="75"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="75"/>
-      <c r="BB6" s="75"/>
-      <c r="BC6" s="75"/>
-      <c r="BD6" s="75"/>
-      <c r="BE6" s="75"/>
-      <c r="BF6" s="75"/>
-      <c r="BG6" s="75"/>
-      <c r="BH6" s="75"/>
-      <c r="BI6" s="75"/>
-      <c r="BJ6" s="75"/>
-      <c r="BK6" s="75"/>
-      <c r="BL6" s="75"/>
-      <c r="BM6" s="75"/>
-      <c r="BN6" s="75"/>
+    <row r="6" customHeight="1" ht="12">
+      <c r="A6" s="245" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="246"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="246"/>
+      <c r="J6" s="246"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="246"/>
+      <c r="M6" s="246"/>
+      <c r="N6" s="246"/>
+      <c r="O6" s="246"/>
+      <c r="P6" s="246"/>
+      <c r="Q6" s="246"/>
+      <c r="R6" s="246"/>
+      <c r="S6" s="246"/>
+      <c r="T6" s="246"/>
+      <c r="U6" s="246"/>
+      <c r="V6" s="246"/>
+      <c r="W6" s="246"/>
+      <c r="X6" s="246"/>
+      <c r="Y6" s="246"/>
+      <c r="Z6" s="246"/>
+      <c r="AA6" s="246"/>
+      <c r="AB6" s="791"/>
+      <c r="AC6" s="897" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD6" s="897"/>
+      <c r="AE6" s="897"/>
+      <c r="AF6" s="897"/>
+      <c r="AG6" s="897"/>
+      <c r="AH6" s="897"/>
+      <c r="AI6" s="897"/>
+      <c r="AJ6" s="897"/>
+      <c r="AK6" s="897"/>
+      <c r="AL6" s="897"/>
+      <c r="AM6" s="897"/>
+      <c r="AN6" s="898"/>
+      <c r="AO6" s="249" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP6" s="250"/>
+      <c r="AQ6" s="250"/>
+      <c r="AR6" s="250"/>
+      <c r="AS6" s="250"/>
+      <c r="AT6" s="250"/>
+      <c r="AU6" s="250"/>
+      <c r="AV6" s="250"/>
+      <c r="AW6" s="250"/>
+      <c r="AX6" s="250"/>
+      <c r="AY6" s="250"/>
+      <c r="AZ6" s="250"/>
+      <c r="BA6" s="250"/>
+      <c r="BB6" s="250"/>
+      <c r="BC6" s="250"/>
+      <c r="BD6" s="250"/>
+      <c r="BE6" s="250"/>
+      <c r="BF6" s="250"/>
+      <c r="BG6" s="250"/>
+      <c r="BH6" s="250"/>
+      <c r="BI6" s="250"/>
+      <c r="BJ6" s="250"/>
+      <c r="BK6" s="250"/>
+      <c r="BL6" s="255"/>
     </row>
-    <row r="7" customHeight="1" ht="12">
-      <c r="A7" s="245" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="246"/>
-      <c r="M7" s="246"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="246"/>
-      <c r="Q7" s="246"/>
-      <c r="R7" s="246"/>
-      <c r="S7" s="246"/>
-      <c r="T7" s="246"/>
-      <c r="U7" s="246"/>
-      <c r="V7" s="246"/>
-      <c r="W7" s="246"/>
-      <c r="X7" s="246"/>
-      <c r="Y7" s="246"/>
-      <c r="Z7" s="246"/>
-      <c r="AA7" s="246"/>
-      <c r="AB7" s="247"/>
-      <c r="AC7" s="245" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD7" s="246"/>
-      <c r="AE7" s="246"/>
-      <c r="AF7" s="246"/>
-      <c r="AG7" s="246"/>
-      <c r="AH7" s="246"/>
-      <c r="AI7" s="246"/>
-      <c r="AJ7" s="246"/>
-      <c r="AK7" s="246"/>
-      <c r="AL7" s="246"/>
-      <c r="AM7" s="246"/>
-      <c r="AN7" s="248"/>
-      <c r="AO7" s="249" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP7" s="250"/>
-      <c r="AQ7" s="250"/>
-      <c r="AR7" s="250"/>
-      <c r="AS7" s="250"/>
-      <c r="AT7" s="250"/>
-      <c r="AU7" s="250"/>
-      <c r="AV7" s="250"/>
-      <c r="AW7" s="250"/>
-      <c r="AX7" s="250"/>
-      <c r="AY7" s="250"/>
-      <c r="AZ7" s="250"/>
-      <c r="BA7" s="250"/>
-      <c r="BB7" s="250"/>
-      <c r="BC7" s="250"/>
-      <c r="BD7" s="250"/>
-      <c r="BE7" s="250"/>
-      <c r="BF7" s="250"/>
-      <c r="BG7" s="250"/>
-      <c r="BH7" s="250"/>
-      <c r="BI7" s="250"/>
-      <c r="BJ7" s="250"/>
-      <c r="BK7" s="250"/>
-      <c r="BL7" s="251"/>
-      <c r="BM7" s="249"/>
-      <c r="BN7" s="255"/>
+    <row r="7" customHeight="1" ht="24">
+      <c r="A7" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="258" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="260"/>
+      <c r="M7" s="258" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="261"/>
+      <c r="Q7" s="258" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="261"/>
+      <c r="S7" s="258" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="261"/>
+      <c r="U7" s="258" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" s="261"/>
+      <c r="W7" s="258" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="262" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z7" s="263"/>
+      <c r="AA7" s="263"/>
+      <c r="AB7" s="783"/>
+      <c r="AC7" s="897" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD7" s="897"/>
+      <c r="AE7" s="897"/>
+      <c r="AF7" s="897"/>
+      <c r="AG7" s="897"/>
+      <c r="AH7" s="897" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="897"/>
+      <c r="AJ7" s="897"/>
+      <c r="AK7" s="897"/>
+      <c r="AL7" s="897"/>
+      <c r="AM7" s="897"/>
+      <c r="AN7" s="898"/>
+      <c r="AO7" s="252"/>
+      <c r="AP7" s="253"/>
+      <c r="AQ7" s="253"/>
+      <c r="AR7" s="253"/>
+      <c r="AS7" s="253"/>
+      <c r="AT7" s="253"/>
+      <c r="AU7" s="253"/>
+      <c r="AV7" s="253"/>
+      <c r="AW7" s="253"/>
+      <c r="AX7" s="253"/>
+      <c r="AY7" s="253"/>
+      <c r="AZ7" s="253"/>
+      <c r="BA7" s="253"/>
+      <c r="BB7" s="253"/>
+      <c r="BC7" s="253"/>
+      <c r="BD7" s="253"/>
+      <c r="BE7" s="253"/>
+      <c r="BF7" s="253"/>
+      <c r="BG7" s="253"/>
+      <c r="BH7" s="253"/>
+      <c r="BI7" s="253"/>
+      <c r="BJ7" s="253"/>
+      <c r="BK7" s="253"/>
+      <c r="BL7" s="778"/>
     </row>
-    <row r="8" customHeight="1" ht="24">
-      <c r="A8" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="258" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259"/>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="259"/>
-      <c r="J8" s="259"/>
-      <c r="K8" s="259"/>
-      <c r="L8" s="260"/>
-      <c r="M8" s="258" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="259"/>
-      <c r="O8" s="259"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="258" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="261"/>
-      <c r="S8" s="258" t="s">
+    <row r="8" customHeight="1" ht="12">
+      <c r="A8" s="61">
+        <v>1</v>
+      </c>
+      <c r="B8" s="156" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="270"/>
+      <c r="M8" s="271" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="273"/>
+      <c r="Q8" s="85">
+        <v>8</v>
+      </c>
+      <c r="R8" s="86"/>
+      <c r="S8" s="271" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="261"/>
-      <c r="U8" s="258" t="s">
-        <v>59</v>
-      </c>
-      <c r="V8" s="261"/>
-      <c r="W8" s="258" t="s">
-        <v>60</v>
-      </c>
-      <c r="X8" s="261"/>
-      <c r="Y8" s="262" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="264"/>
-      <c r="AC8" s="265" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="266"/>
-      <c r="AH8" s="259" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI8" s="259"/>
-      <c r="AJ8" s="259"/>
-      <c r="AK8" s="259"/>
-      <c r="AL8" s="259"/>
-      <c r="AM8" s="259"/>
-      <c r="AN8" s="267"/>
-      <c r="AO8" s="252"/>
-      <c r="AP8" s="253"/>
-      <c r="AQ8" s="253"/>
-      <c r="AR8" s="253"/>
-      <c r="AS8" s="253"/>
-      <c r="AT8" s="253"/>
-      <c r="AU8" s="253"/>
-      <c r="AV8" s="253"/>
-      <c r="AW8" s="253"/>
-      <c r="AX8" s="253"/>
-      <c r="AY8" s="253"/>
-      <c r="AZ8" s="253"/>
-      <c r="BA8" s="253"/>
-      <c r="BB8" s="253"/>
-      <c r="BC8" s="253"/>
-      <c r="BD8" s="253"/>
-      <c r="BE8" s="253"/>
-      <c r="BF8" s="253"/>
-      <c r="BG8" s="253"/>
-      <c r="BH8" s="253"/>
-      <c r="BI8" s="253"/>
-      <c r="BJ8" s="253"/>
-      <c r="BK8" s="253"/>
-      <c r="BL8" s="254"/>
-      <c r="BM8" s="256"/>
-      <c r="BN8" s="257"/>
+      <c r="T8" s="273"/>
+      <c r="U8" s="276" t="s">
+        <v>104</v>
+      </c>
+      <c r="V8" s="277"/>
+      <c r="W8" s="271" t="s">
+        <v>64</v>
+      </c>
+      <c r="X8" s="273"/>
+      <c r="Y8" s="271" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="272"/>
+      <c r="AA8" s="272"/>
+      <c r="AB8" s="784"/>
+      <c r="AC8" s="897" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD8" s="897"/>
+      <c r="AE8" s="897"/>
+      <c r="AF8" s="897"/>
+      <c r="AG8" s="897"/>
+      <c r="AH8" s="899" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI8" s="899"/>
+      <c r="AJ8" s="899"/>
+      <c r="AK8" s="899"/>
+      <c r="AL8" s="899"/>
+      <c r="AM8" s="899"/>
+      <c r="AN8" s="900"/>
+      <c r="AO8" s="284"/>
+      <c r="AP8" s="285"/>
+      <c r="AQ8" s="285"/>
+      <c r="AR8" s="285"/>
+      <c r="AS8" s="285"/>
+      <c r="AT8" s="285"/>
+      <c r="AU8" s="285"/>
+      <c r="AV8" s="285"/>
+      <c r="AW8" s="285"/>
+      <c r="AX8" s="285"/>
+      <c r="AY8" s="285"/>
+      <c r="AZ8" s="285"/>
+      <c r="BA8" s="285"/>
+      <c r="BB8" s="285"/>
+      <c r="BC8" s="285"/>
+      <c r="BD8" s="285"/>
+      <c r="BE8" s="285"/>
+      <c r="BF8" s="285"/>
+      <c r="BG8" s="285"/>
+      <c r="BH8" s="285"/>
+      <c r="BI8" s="285"/>
+      <c r="BJ8" s="285"/>
+      <c r="BK8" s="285"/>
+      <c r="BL8" s="779"/>
     </row>
-    <row r="9" customHeight="1" ht="13">
+    <row r="9" customHeight="1" ht="15">
       <c r="A9" s="61">
-        <v>1</v>
-      </c>
-      <c r="B9" s="268" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="269"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
+        <v>2</v>
+      </c>
+      <c r="B9" s="156" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
       <c r="L9" s="270"/>
-      <c r="M9" s="271" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="272"/>
-      <c r="O9" s="272"/>
-      <c r="P9" s="273"/>
+      <c r="M9" s="518" t="s">
+        <v>82</v>
+      </c>
+      <c r="N9" s="519"/>
+      <c r="O9" s="519"/>
+      <c r="P9" s="520"/>
       <c r="Q9" s="85">
         <v>8</v>
       </c>
       <c r="R9" s="86"/>
-      <c r="S9" s="271" t="s">
+      <c r="S9" s="531" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="273"/>
+      <c r="T9" s="532"/>
       <c r="U9" s="276" t="s">
         <v>104</v>
       </c>
@@ -14657,23 +17467,23 @@
       </c>
       <c r="Z9" s="272"/>
       <c r="AA9" s="272"/>
-      <c r="AB9" s="273"/>
-      <c r="AC9" s="278" t="s">
+      <c r="AB9" s="784"/>
+      <c r="AC9" s="897" t="s">
         <v>142</v>
       </c>
-      <c r="AD9" s="279"/>
-      <c r="AE9" s="279"/>
-      <c r="AF9" s="279"/>
-      <c r="AG9" s="280"/>
-      <c r="AH9" s="281" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI9" s="282"/>
-      <c r="AJ9" s="282"/>
-      <c r="AK9" s="282"/>
-      <c r="AL9" s="282"/>
-      <c r="AM9" s="282"/>
-      <c r="AN9" s="283"/>
+      <c r="AD9" s="897"/>
+      <c r="AE9" s="897"/>
+      <c r="AF9" s="897"/>
+      <c r="AG9" s="897"/>
+      <c r="AH9" s="901" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI9" s="901"/>
+      <c r="AJ9" s="901"/>
+      <c r="AK9" s="901"/>
+      <c r="AL9" s="901"/>
+      <c r="AM9" s="901"/>
+      <c r="AN9" s="902"/>
       <c r="AO9" s="284"/>
       <c r="AP9" s="285"/>
       <c r="AQ9" s="285"/>
@@ -14697,41 +17507,39 @@
       <c r="BI9" s="285"/>
       <c r="BJ9" s="285"/>
       <c r="BK9" s="285"/>
-      <c r="BL9" s="285"/>
-      <c r="BM9" s="76"/>
-      <c r="BN9" s="77"/>
+      <c r="BL9" s="779"/>
     </row>
-    <row r="10" customHeight="1" ht="15">
+    <row r="10" customHeight="1" ht="12">
       <c r="A10" s="61">
-        <v>2</v>
-      </c>
-      <c r="B10" s="286" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="287"/>
-      <c r="K10" s="287"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="518" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="519"/>
-      <c r="O10" s="519"/>
-      <c r="P10" s="520"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="156" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="270"/>
+      <c r="M10" s="271" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="272"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="273"/>
       <c r="Q10" s="85">
         <v>8</v>
       </c>
       <c r="R10" s="86"/>
-      <c r="S10" s="531" t="s">
+      <c r="S10" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="532"/>
+      <c r="T10" s="291"/>
       <c r="U10" s="276" t="s">
         <v>104</v>
       </c>
@@ -14745,24 +17553,24 @@
       </c>
       <c r="Z10" s="272"/>
       <c r="AA10" s="272"/>
-      <c r="AB10" s="273"/>
-      <c r="AC10" s="278" t="s">
+      <c r="AB10" s="784"/>
+      <c r="AC10" s="897" t="s">
         <v>142</v>
       </c>
-      <c r="AD10" s="279"/>
-      <c r="AE10" s="279"/>
-      <c r="AF10" s="279"/>
-      <c r="AG10" s="280"/>
-      <c r="AH10" s="292" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI10" s="293"/>
-      <c r="AJ10" s="293"/>
-      <c r="AK10" s="293"/>
-      <c r="AL10" s="293"/>
-      <c r="AM10" s="293"/>
-      <c r="AN10" s="294"/>
-      <c r="AO10" s="295"/>
+      <c r="AD10" s="897"/>
+      <c r="AE10" s="897"/>
+      <c r="AF10" s="897"/>
+      <c r="AG10" s="897"/>
+      <c r="AH10" s="901" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI10" s="901"/>
+      <c r="AJ10" s="901"/>
+      <c r="AK10" s="901"/>
+      <c r="AL10" s="901"/>
+      <c r="AM10" s="901"/>
+      <c r="AN10" s="902"/>
+      <c r="AO10" s="284"/>
       <c r="AP10" s="285"/>
       <c r="AQ10" s="285"/>
       <c r="AR10" s="285"/>
@@ -14785,27 +17593,25 @@
       <c r="BI10" s="285"/>
       <c r="BJ10" s="285"/>
       <c r="BK10" s="285"/>
-      <c r="BL10" s="285"/>
-      <c r="BM10" s="76"/>
-      <c r="BN10" s="77"/>
+      <c r="BL10" s="779"/>
     </row>
     <row r="11" customHeight="1" ht="12">
       <c r="A11" s="61">
-        <v>3</v>
-      </c>
-      <c r="B11" s="286" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="287"/>
-      <c r="D11" s="287"/>
-      <c r="E11" s="287"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="287"/>
-      <c r="H11" s="287"/>
-      <c r="I11" s="287"/>
-      <c r="J11" s="287"/>
-      <c r="K11" s="287"/>
-      <c r="L11" s="288"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="156" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="270"/>
       <c r="M11" s="271" t="s">
         <v>31</v>
       </c>
@@ -14813,7 +17619,7 @@
       <c r="O11" s="272"/>
       <c r="P11" s="273"/>
       <c r="Q11" s="85">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R11" s="86"/>
       <c r="S11" s="290" t="s">
@@ -14833,24 +17639,24 @@
       </c>
       <c r="Z11" s="272"/>
       <c r="AA11" s="272"/>
-      <c r="AB11" s="273"/>
-      <c r="AC11" s="278" t="s">
+      <c r="AB11" s="784"/>
+      <c r="AC11" s="897" t="s">
         <v>142</v>
       </c>
-      <c r="AD11" s="279"/>
-      <c r="AE11" s="279"/>
-      <c r="AF11" s="279"/>
-      <c r="AG11" s="280"/>
-      <c r="AH11" s="292" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI11" s="293"/>
-      <c r="AJ11" s="293"/>
-      <c r="AK11" s="293"/>
-      <c r="AL11" s="293"/>
-      <c r="AM11" s="293"/>
-      <c r="AN11" s="294"/>
-      <c r="AO11" s="295"/>
+      <c r="AD11" s="897"/>
+      <c r="AE11" s="897"/>
+      <c r="AF11" s="897"/>
+      <c r="AG11" s="897"/>
+      <c r="AH11" s="901" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI11" s="901"/>
+      <c r="AJ11" s="901"/>
+      <c r="AK11" s="901"/>
+      <c r="AL11" s="901"/>
+      <c r="AM11" s="901"/>
+      <c r="AN11" s="902"/>
+      <c r="AO11" s="284"/>
       <c r="AP11" s="285"/>
       <c r="AQ11" s="285"/>
       <c r="AR11" s="285"/>
@@ -14873,37 +17679,35 @@
       <c r="BI11" s="285"/>
       <c r="BJ11" s="285"/>
       <c r="BK11" s="285"/>
-      <c r="BL11" s="285"/>
-      <c r="BM11" s="76"/>
-      <c r="BN11" s="77"/>
+      <c r="BL11" s="779"/>
     </row>
     <row r="12" customHeight="1" ht="12">
       <c r="A12" s="61">
-        <v>4</v>
-      </c>
-      <c r="B12" s="286" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="287"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="287"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="288"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="270"/>
       <c r="M12" s="271" t="s">
         <v>31</v>
       </c>
       <c r="N12" s="272"/>
       <c r="O12" s="272"/>
       <c r="P12" s="273"/>
-      <c r="Q12" s="85">
-        <v>4</v>
-      </c>
-      <c r="R12" s="86"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="86">
+        <v>0</v>
+      </c>
       <c r="S12" s="290" t="s">
         <v>58</v>
       </c>
@@ -14921,24 +17725,24 @@
       </c>
       <c r="Z12" s="272"/>
       <c r="AA12" s="272"/>
-      <c r="AB12" s="273"/>
-      <c r="AC12" s="278" t="s">
+      <c r="AB12" s="784"/>
+      <c r="AC12" s="897" t="s">
         <v>142</v>
       </c>
-      <c r="AD12" s="279"/>
-      <c r="AE12" s="279"/>
-      <c r="AF12" s="279"/>
-      <c r="AG12" s="280"/>
-      <c r="AH12" s="292" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI12" s="293"/>
-      <c r="AJ12" s="293"/>
-      <c r="AK12" s="293"/>
-      <c r="AL12" s="293"/>
-      <c r="AM12" s="293"/>
-      <c r="AN12" s="293"/>
-      <c r="AO12" s="295"/>
+      <c r="AD12" s="897"/>
+      <c r="AE12" s="897"/>
+      <c r="AF12" s="897"/>
+      <c r="AG12" s="897"/>
+      <c r="AH12" s="901" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI12" s="901"/>
+      <c r="AJ12" s="901"/>
+      <c r="AK12" s="901"/>
+      <c r="AL12" s="901"/>
+      <c r="AM12" s="901"/>
+      <c r="AN12" s="902"/>
+      <c r="AO12" s="284"/>
       <c r="AP12" s="285"/>
       <c r="AQ12" s="285"/>
       <c r="AR12" s="285"/>
@@ -14961,27 +17765,25 @@
       <c r="BI12" s="285"/>
       <c r="BJ12" s="285"/>
       <c r="BK12" s="285"/>
-      <c r="BL12" s="285"/>
-      <c r="BM12" s="76"/>
-      <c r="BN12" s="77"/>
+      <c r="BL12" s="779"/>
     </row>
     <row r="13" customHeight="1" ht="12">
       <c r="A13" s="61">
-        <v>5</v>
-      </c>
-      <c r="B13" s="286" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="287"/>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="287"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="288"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="156" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="270"/>
       <c r="M13" s="271" t="s">
         <v>31</v>
       </c>
@@ -15009,24 +17811,24 @@
       </c>
       <c r="Z13" s="272"/>
       <c r="AA13" s="272"/>
-      <c r="AB13" s="273"/>
-      <c r="AC13" s="278" t="s">
+      <c r="AB13" s="784"/>
+      <c r="AC13" s="897" t="s">
         <v>142</v>
       </c>
-      <c r="AD13" s="279"/>
-      <c r="AE13" s="279"/>
-      <c r="AF13" s="279"/>
-      <c r="AG13" s="280"/>
-      <c r="AH13" s="292" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI13" s="293"/>
-      <c r="AJ13" s="293"/>
-      <c r="AK13" s="293"/>
-      <c r="AL13" s="293"/>
-      <c r="AM13" s="293"/>
-      <c r="AN13" s="294"/>
-      <c r="AO13" s="295"/>
+      <c r="AD13" s="897"/>
+      <c r="AE13" s="897"/>
+      <c r="AF13" s="897"/>
+      <c r="AG13" s="897"/>
+      <c r="AH13" s="901" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI13" s="901"/>
+      <c r="AJ13" s="901"/>
+      <c r="AK13" s="901"/>
+      <c r="AL13" s="901"/>
+      <c r="AM13" s="901"/>
+      <c r="AN13" s="902"/>
+      <c r="AO13" s="284"/>
       <c r="AP13" s="285"/>
       <c r="AQ13" s="285"/>
       <c r="AR13" s="285"/>
@@ -15049,16 +17851,14 @@
       <c r="BI13" s="285"/>
       <c r="BJ13" s="285"/>
       <c r="BK13" s="285"/>
-      <c r="BL13" s="285"/>
-      <c r="BM13" s="76"/>
-      <c r="BN13" s="77"/>
+      <c r="BL13" s="779"/>
     </row>
     <row r="14" customHeight="1" ht="12">
       <c r="A14" s="61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="156" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" s="157"/>
       <c r="D14" s="157"/>
@@ -15069,16 +17869,16 @@
       <c r="I14" s="157"/>
       <c r="J14" s="157"/>
       <c r="K14" s="157"/>
-      <c r="L14" s="288"/>
+      <c r="L14" s="270"/>
       <c r="M14" s="271" t="s">
         <v>31</v>
       </c>
       <c r="N14" s="272"/>
       <c r="O14" s="272"/>
       <c r="P14" s="273"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="86">
-        <v>0</v>
+      <c r="Q14" s="400"/>
+      <c r="R14" s="435" t="s">
+        <v>141</v>
       </c>
       <c r="S14" s="290" t="s">
         <v>58</v>
@@ -15097,24 +17897,24 @@
       </c>
       <c r="Z14" s="272"/>
       <c r="AA14" s="272"/>
-      <c r="AB14" s="273"/>
-      <c r="AC14" s="278" t="s">
+      <c r="AB14" s="784"/>
+      <c r="AC14" s="897" t="s">
         <v>142</v>
       </c>
-      <c r="AD14" s="279"/>
-      <c r="AE14" s="279"/>
-      <c r="AF14" s="279"/>
-      <c r="AG14" s="280"/>
-      <c r="AH14" s="292" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI14" s="293"/>
-      <c r="AJ14" s="293"/>
-      <c r="AK14" s="293"/>
-      <c r="AL14" s="293"/>
-      <c r="AM14" s="293"/>
-      <c r="AN14" s="294"/>
-      <c r="AO14" s="295"/>
+      <c r="AD14" s="897"/>
+      <c r="AE14" s="897"/>
+      <c r="AF14" s="897"/>
+      <c r="AG14" s="897"/>
+      <c r="AH14" s="901" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI14" s="901"/>
+      <c r="AJ14" s="901"/>
+      <c r="AK14" s="901"/>
+      <c r="AL14" s="901"/>
+      <c r="AM14" s="901"/>
+      <c r="AN14" s="902"/>
+      <c r="AO14" s="284"/>
       <c r="AP14" s="285"/>
       <c r="AQ14" s="285"/>
       <c r="AR14" s="285"/>
@@ -15137,38 +17937,36 @@
       <c r="BI14" s="285"/>
       <c r="BJ14" s="285"/>
       <c r="BK14" s="285"/>
-      <c r="BL14" s="285"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="77"/>
+      <c r="BL14" s="779"/>
     </row>
     <row r="15" customHeight="1" ht="12">
       <c r="A15" s="61">
-        <v>7</v>
-      </c>
-      <c r="B15" s="286" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="287"/>
-      <c r="D15" s="287"/>
-      <c r="E15" s="287"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="287"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="287"/>
-      <c r="K15" s="287"/>
-      <c r="L15" s="288"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="156" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="270"/>
       <c r="M15" s="271" t="s">
         <v>31</v>
       </c>
       <c r="N15" s="272"/>
       <c r="O15" s="272"/>
-      <c r="P15" s="273"/>
-      <c r="Q15" s="400"/>
-      <c r="R15" s="435" t="s">
+      <c r="P15" s="398"/>
+      <c r="Q15" s="436"/>
+      <c r="R15" s="437" t="s">
         <v>141</v>
       </c>
-      <c r="S15" s="290" t="s">
+      <c r="S15" s="399" t="s">
         <v>58</v>
       </c>
       <c r="T15" s="291"/>
@@ -15185,24 +17983,24 @@
       </c>
       <c r="Z15" s="272"/>
       <c r="AA15" s="272"/>
-      <c r="AB15" s="273"/>
-      <c r="AC15" s="278" t="s">
+      <c r="AB15" s="784"/>
+      <c r="AC15" s="897" t="s">
         <v>142</v>
       </c>
-      <c r="AD15" s="279"/>
-      <c r="AE15" s="279"/>
-      <c r="AF15" s="279"/>
-      <c r="AG15" s="280"/>
-      <c r="AH15" s="292" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI15" s="293"/>
-      <c r="AJ15" s="293"/>
-      <c r="AK15" s="293"/>
-      <c r="AL15" s="293"/>
-      <c r="AM15" s="293"/>
-      <c r="AN15" s="294"/>
-      <c r="AO15" s="295"/>
+      <c r="AD15" s="897"/>
+      <c r="AE15" s="897"/>
+      <c r="AF15" s="897"/>
+      <c r="AG15" s="897"/>
+      <c r="AH15" s="901" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI15" s="901"/>
+      <c r="AJ15" s="901"/>
+      <c r="AK15" s="901"/>
+      <c r="AL15" s="901"/>
+      <c r="AM15" s="901"/>
+      <c r="AN15" s="902"/>
+      <c r="AO15" s="284"/>
       <c r="AP15" s="285"/>
       <c r="AQ15" s="285"/>
       <c r="AR15" s="285"/>
@@ -15225,38 +18023,36 @@
       <c r="BI15" s="285"/>
       <c r="BJ15" s="285"/>
       <c r="BK15" s="285"/>
-      <c r="BL15" s="285"/>
-      <c r="BM15" s="76"/>
-      <c r="BN15" s="77"/>
+      <c r="BL15" s="779"/>
     </row>
-    <row r="16" customHeight="1" ht="12">
+    <row r="16" customHeight="1" ht="18">
       <c r="A16" s="61">
-        <v>8</v>
-      </c>
-      <c r="B16" s="286" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="287"/>
-      <c r="F16" s="287"/>
-      <c r="G16" s="287"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="287"/>
-      <c r="K16" s="287"/>
-      <c r="L16" s="288"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="270"/>
       <c r="M16" s="271" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N16" s="272"/>
       <c r="O16" s="272"/>
-      <c r="P16" s="398"/>
-      <c r="Q16" s="436"/>
-      <c r="R16" s="437" t="s">
-        <v>141</v>
-      </c>
-      <c r="S16" s="399" t="s">
+      <c r="P16" s="273"/>
+      <c r="Q16" s="395"/>
+      <c r="R16" s="396">
+        <v>0</v>
+      </c>
+      <c r="S16" s="290" t="s">
         <v>58</v>
       </c>
       <c r="T16" s="291"/>
@@ -15268,29 +18064,29 @@
         <v>64</v>
       </c>
       <c r="X16" s="273"/>
-      <c r="Y16" s="271" t="s">
+      <c r="Y16" s="799" t="s">
         <v>65</v>
       </c>
-      <c r="Z16" s="272"/>
-      <c r="AA16" s="272"/>
-      <c r="AB16" s="273"/>
-      <c r="AC16" s="278" t="s">
+      <c r="Z16" s="800"/>
+      <c r="AA16" s="800"/>
+      <c r="AB16" s="800"/>
+      <c r="AC16" s="897" t="s">
         <v>142</v>
       </c>
-      <c r="AD16" s="279"/>
-      <c r="AE16" s="279"/>
-      <c r="AF16" s="279"/>
-      <c r="AG16" s="280"/>
-      <c r="AH16" s="292" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI16" s="293"/>
-      <c r="AJ16" s="293"/>
-      <c r="AK16" s="293"/>
-      <c r="AL16" s="293"/>
-      <c r="AM16" s="293"/>
-      <c r="AN16" s="294"/>
-      <c r="AO16" s="295"/>
+      <c r="AD16" s="897"/>
+      <c r="AE16" s="897"/>
+      <c r="AF16" s="897"/>
+      <c r="AG16" s="897"/>
+      <c r="AH16" s="901" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI16" s="901"/>
+      <c r="AJ16" s="901"/>
+      <c r="AK16" s="901"/>
+      <c r="AL16" s="901"/>
+      <c r="AM16" s="901"/>
+      <c r="AN16" s="902"/>
+      <c r="AO16" s="284"/>
       <c r="AP16" s="285"/>
       <c r="AQ16" s="285"/>
       <c r="AR16" s="285"/>
@@ -15313,72 +18109,72 @@
       <c r="BI16" s="285"/>
       <c r="BJ16" s="285"/>
       <c r="BK16" s="285"/>
-      <c r="BL16" s="285"/>
-      <c r="BM16" s="76"/>
-      <c r="BN16" s="77"/>
+      <c r="BL16" s="779"/>
     </row>
-    <row r="17" customHeight="1" ht="19">
+    <row r="17" customHeight="1" ht="12">
       <c r="A17" s="61">
         <v>9</v>
       </c>
-      <c r="B17" s="286" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="287"/>
-      <c r="D17" s="287"/>
-      <c r="E17" s="287"/>
-      <c r="F17" s="287"/>
-      <c r="G17" s="287"/>
-      <c r="H17" s="287"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="287"/>
-      <c r="K17" s="287"/>
-      <c r="L17" s="288"/>
+      <c r="B17" s="156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="270"/>
       <c r="M17" s="271" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="N17" s="272"/>
       <c r="O17" s="272"/>
       <c r="P17" s="273"/>
-      <c r="Q17" s="395"/>
-      <c r="R17" s="396">
-        <v>0</v>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86">
+        <v>8</v>
       </c>
       <c r="S17" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="291"/>
+      <c r="T17" s="298"/>
       <c r="U17" s="276" t="s">
         <v>104</v>
       </c>
       <c r="V17" s="277"/>
-      <c r="W17" s="271" t="s">
+      <c r="W17" s="272" t="s">
         <v>64</v>
       </c>
-      <c r="X17" s="273"/>
-      <c r="Y17" s="271" t="s">
+      <c r="X17" s="784"/>
+      <c r="Y17" s="815" t="s">
         <v>65</v>
       </c>
-      <c r="Z17" s="272"/>
-      <c r="AA17" s="272"/>
-      <c r="AB17" s="273"/>
-      <c r="AC17" s="278" t="s">
+      <c r="Z17" s="816"/>
+      <c r="AA17" s="816"/>
+      <c r="AB17" s="817"/>
+      <c r="AC17" s="903" t="s">
         <v>142</v>
       </c>
-      <c r="AD17" s="279"/>
-      <c r="AE17" s="279"/>
-      <c r="AF17" s="279"/>
-      <c r="AG17" s="280"/>
-      <c r="AH17" s="292" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI17" s="293"/>
-      <c r="AJ17" s="293"/>
-      <c r="AK17" s="293"/>
-      <c r="AL17" s="293"/>
-      <c r="AM17" s="293"/>
-      <c r="AN17" s="294"/>
-      <c r="AO17" s="284"/>
+      <c r="AD17" s="903"/>
+      <c r="AE17" s="903"/>
+      <c r="AF17" s="903"/>
+      <c r="AG17" s="903"/>
+      <c r="AH17" s="911" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI17" s="911"/>
+      <c r="AJ17" s="911"/>
+      <c r="AK17" s="911"/>
+      <c r="AL17" s="911"/>
+      <c r="AM17" s="911"/>
+      <c r="AN17" s="912"/>
+      <c r="AO17" s="284" t="s">
+        <v>100</v>
+      </c>
       <c r="AP17" s="285"/>
       <c r="AQ17" s="285"/>
       <c r="AR17" s="285"/>
@@ -15401,189 +18197,99 @@
       <c r="BI17" s="285"/>
       <c r="BJ17" s="285"/>
       <c r="BK17" s="285"/>
-      <c r="BL17" s="285"/>
-      <c r="BM17" s="76"/>
-      <c r="BN17" s="77"/>
+      <c r="BL17" s="779"/>
     </row>
     <row r="18" customHeight="1" ht="12">
-      <c r="A18" s="61">
-        <v>9</v>
-      </c>
-      <c r="B18" s="156" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="288"/>
-      <c r="M18" s="271" t="s">
+      <c r="A18" s="861">
+        <v>10</v>
+      </c>
+      <c r="B18" s="862" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="863"/>
+      <c r="M18" s="864" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="272"/>
-      <c r="O18" s="272"/>
-      <c r="P18" s="273"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="438">
+      <c r="N18" s="864"/>
+      <c r="O18" s="864"/>
+      <c r="P18" s="865"/>
+      <c r="Q18" s="866"/>
+      <c r="R18" s="867">
         <v>8</v>
       </c>
-      <c r="S18" s="290" t="s">
+      <c r="S18" s="868" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="298"/>
-      <c r="U18" s="276" t="s">
+      <c r="T18" s="869"/>
+      <c r="U18" s="299" t="s">
         <v>104</v>
       </c>
-      <c r="V18" s="277"/>
-      <c r="W18" s="301" t="s">
+      <c r="V18" s="300"/>
+      <c r="W18" s="354" t="s">
         <v>64</v>
       </c>
-      <c r="X18" s="273"/>
-      <c r="Y18" s="594" t="s">
+      <c r="X18" s="870"/>
+      <c r="Y18" s="871" t="s">
         <v>65</v>
       </c>
-      <c r="Z18" s="595"/>
-      <c r="AA18" s="595"/>
-      <c r="AB18" s="596"/>
-      <c r="AC18" s="600" t="s">
+      <c r="Z18" s="872"/>
+      <c r="AA18" s="872"/>
+      <c r="AB18" s="878"/>
+      <c r="AC18" s="853" t="s">
         <v>142</v>
       </c>
-      <c r="AD18" s="601"/>
-      <c r="AE18" s="601"/>
-      <c r="AF18" s="601"/>
-      <c r="AG18" s="602"/>
-      <c r="AH18" s="292" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI18" s="293"/>
-      <c r="AJ18" s="293"/>
-      <c r="AK18" s="293"/>
-      <c r="AL18" s="293"/>
-      <c r="AM18" s="293"/>
-      <c r="AN18" s="293"/>
-      <c r="AO18" s="284" t="s">
+      <c r="AD18" s="854"/>
+      <c r="AE18" s="854"/>
+      <c r="AF18" s="854"/>
+      <c r="AG18" s="910"/>
+      <c r="AH18" s="908" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI18" s="906"/>
+      <c r="AJ18" s="906"/>
+      <c r="AK18" s="906"/>
+      <c r="AL18" s="906"/>
+      <c r="AM18" s="906"/>
+      <c r="AN18" s="906"/>
+      <c r="AO18" s="877" t="s">
         <v>100</v>
       </c>
-      <c r="AP18" s="285"/>
-      <c r="AQ18" s="285"/>
-      <c r="AR18" s="285"/>
-      <c r="AS18" s="285"/>
-      <c r="AT18" s="285"/>
-      <c r="AU18" s="285"/>
-      <c r="AV18" s="285"/>
-      <c r="AW18" s="285"/>
-      <c r="AX18" s="285"/>
-      <c r="AY18" s="285"/>
-      <c r="AZ18" s="285"/>
-      <c r="BA18" s="285"/>
-      <c r="BB18" s="285"/>
-      <c r="BC18" s="285"/>
-      <c r="BD18" s="285"/>
-      <c r="BE18" s="285"/>
-      <c r="BF18" s="285"/>
-      <c r="BG18" s="285"/>
-      <c r="BH18" s="285"/>
-      <c r="BI18" s="285"/>
-      <c r="BJ18" s="285"/>
-      <c r="BK18" s="285"/>
-      <c r="BL18" s="285"/>
-      <c r="BM18" s="76"/>
-      <c r="BN18" s="77"/>
+      <c r="AP18" s="781"/>
+      <c r="AQ18" s="781"/>
+      <c r="AR18" s="781"/>
+      <c r="AS18" s="781"/>
+      <c r="AT18" s="781"/>
+      <c r="AU18" s="781"/>
+      <c r="AV18" s="781"/>
+      <c r="AW18" s="781"/>
+      <c r="AX18" s="781"/>
+      <c r="AY18" s="781"/>
+      <c r="AZ18" s="781"/>
+      <c r="BA18" s="781"/>
+      <c r="BB18" s="781"/>
+      <c r="BC18" s="781"/>
+      <c r="BD18" s="781"/>
+      <c r="BE18" s="781"/>
+      <c r="BF18" s="781"/>
+      <c r="BG18" s="781"/>
+      <c r="BH18" s="781"/>
+      <c r="BI18" s="781"/>
+      <c r="BJ18" s="781"/>
+      <c r="BK18" s="781"/>
+      <c r="BL18" s="782"/>
     </row>
     <row r="19" customHeight="1" ht="12">
-      <c r="A19" s="61">
-        <v>10</v>
-      </c>
-      <c r="B19" s="156" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="288"/>
-      <c r="M19" s="390" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="391"/>
-      <c r="O19" s="391"/>
-      <c r="P19" s="392"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="86">
-        <v>8</v>
-      </c>
-      <c r="S19" s="290" t="s">
-        <v>58</v>
-      </c>
-      <c r="T19" s="298"/>
-      <c r="U19" s="276" t="s">
-        <v>104</v>
-      </c>
-      <c r="V19" s="277"/>
-      <c r="W19" s="272" t="s">
-        <v>64</v>
-      </c>
-      <c r="X19" s="592"/>
-      <c r="Y19" s="597" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="598"/>
-      <c r="AC19" s="603" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD19" s="604"/>
-      <c r="AE19" s="604"/>
-      <c r="AF19" s="604"/>
-      <c r="AG19" s="605"/>
-      <c r="AH19" s="599"/>
-      <c r="AI19" s="362"/>
-      <c r="AJ19" s="430" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK19" s="362"/>
-      <c r="AL19" s="362"/>
-      <c r="AM19" s="362"/>
-      <c r="AN19" s="365"/>
-      <c r="AO19" s="433" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP19" s="285"/>
-      <c r="AQ19" s="285"/>
-      <c r="AR19" s="285"/>
-      <c r="AS19" s="285"/>
-      <c r="AT19" s="285"/>
-      <c r="AU19" s="285"/>
-      <c r="AV19" s="285"/>
-      <c r="AW19" s="285"/>
-      <c r="AX19" s="285"/>
-      <c r="AY19" s="285"/>
-      <c r="AZ19" s="285"/>
-      <c r="BA19" s="285"/>
-      <c r="BB19" s="285"/>
-      <c r="BC19" s="285"/>
-      <c r="BD19" s="285"/>
-      <c r="BE19" s="285"/>
-      <c r="BF19" s="285"/>
-      <c r="BG19" s="285"/>
-      <c r="BH19" s="285"/>
-      <c r="BI19" s="285"/>
-      <c r="BJ19" s="285"/>
-      <c r="BK19" s="285"/>
-      <c r="BL19" s="285"/>
-      <c r="BM19" s="76"/>
-      <c r="BN19" s="77"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
     </row>
     <row r="20" customHeight="1" ht="12">
       <c r="A20" s="62"/>
@@ -15593,11 +18299,11 @@
       <c r="A21" s="62"/>
       <c r="B21" s="62"/>
     </row>
-    <row r="22" customHeight="1" ht="12">
+    <row r="22" customHeight="1" ht="15">
       <c r="A22" s="62"/>
       <c r="B22" s="62"/>
     </row>
-    <row r="23" customHeight="1" ht="15">
+    <row r="23" customHeight="1" ht="12">
       <c r="A23" s="62"/>
       <c r="B23" s="62"/>
     </row>
@@ -15605,7 +18311,7 @@
       <c r="A24" s="62"/>
       <c r="B24" s="62"/>
     </row>
-    <row r="25" customHeight="1" ht="12">
+    <row r="25" customHeight="1" ht="15">
       <c r="A25" s="62"/>
       <c r="B25" s="62"/>
     </row>
@@ -15613,7 +18319,7 @@
       <c r="A26" s="62"/>
       <c r="B26" s="62"/>
     </row>
-    <row r="27" customHeight="1" ht="15">
+    <row r="27" customHeight="1" ht="12">
       <c r="A27" s="62"/>
       <c r="B27" s="62"/>
     </row>
@@ -15626,8 +18332,8 @@
       <c r="B29" s="62"/>
     </row>
     <row r="30" customHeight="1" ht="12">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
+      <c r="A30" s="302"/>
+      <c r="B30" s="302"/>
     </row>
     <row r="31" customHeight="1" ht="12">
       <c r="A31" s="302"/>
@@ -15649,16 +18355,12 @@
       <c r="A35" s="302"/>
       <c r="B35" s="302"/>
     </row>
-    <row r="36" customHeight="1" ht="12">
+    <row r="36" customHeight="1" ht="30">
       <c r="A36" s="302"/>
       <c r="B36" s="302"/>
     </row>
-    <row r="37" customHeight="1" ht="30">
-      <c r="A37" s="302"/>
-      <c r="B37" s="302"/>
-    </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="137">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -15667,7 +18369,7 @@
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="BI4:BL4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="P5:U5"/>
@@ -15675,11 +18377,19 @@
     <mergeCell ref="AW5:AY5"/>
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="AC7:AN7"/>
-    <mergeCell ref="AO7:BL8"/>
-    <mergeCell ref="BM7:BN8"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="AC6:AN6"/>
+    <mergeCell ref="AO6:BL7"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="AH7:AN7"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="Q8:R8"/>
@@ -15689,6 +18399,7 @@
     <mergeCell ref="Y8:AB8"/>
     <mergeCell ref="AC8:AG8"/>
     <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="AO8:BL8"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="M9:P9"/>
     <mergeCell ref="Q9:R9"/>
@@ -15721,7 +18432,6 @@
     <mergeCell ref="AO11:BL11"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
@@ -15774,7 +18484,6 @@
     <mergeCell ref="AC17:AG17"/>
     <mergeCell ref="AH17:AN17"/>
     <mergeCell ref="AO17:BL17"/>
-    <mergeCell ref="B18:L18"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:V18"/>
@@ -15782,19 +18491,13 @@
     <mergeCell ref="Y18:AB18"/>
     <mergeCell ref="AC18:AG18"/>
     <mergeCell ref="AH18:AN18"/>
-    <mergeCell ref="AO18:BL18"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="AC19:AG19"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15806,7 +18509,7 @@
   <dimension ref="A1:BN14"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150">
-      <selection activeCell="BI11" sqref="BI11" activeCellId="0"/>
+      <selection activeCell="X19" sqref="X19:Y19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16565,26 +19268,26 @@
       <c r="M10" s="443"/>
       <c r="N10" s="443"/>
       <c r="O10" s="453"/>
-      <c r="P10" s="454" t="s">
+      <c r="P10" s="913" t="s">
         <v>234</v>
       </c>
-      <c r="Q10" s="320"/>
-      <c r="R10" s="320"/>
-      <c r="S10" s="320"/>
-      <c r="T10" s="320"/>
-      <c r="U10" s="320"/>
-      <c r="V10" s="320"/>
-      <c r="W10" s="320"/>
-      <c r="X10" s="320"/>
-      <c r="Y10" s="320"/>
-      <c r="Z10" s="320"/>
-      <c r="AA10" s="320"/>
-      <c r="AB10" s="320"/>
-      <c r="AC10" s="320"/>
-      <c r="AD10" s="320"/>
-      <c r="AE10" s="320"/>
-      <c r="AF10" s="320"/>
-      <c r="AG10" s="320"/>
+      <c r="Q10" s="914"/>
+      <c r="R10" s="914"/>
+      <c r="S10" s="914"/>
+      <c r="T10" s="914"/>
+      <c r="U10" s="914"/>
+      <c r="V10" s="914"/>
+      <c r="W10" s="914"/>
+      <c r="X10" s="914"/>
+      <c r="Y10" s="914"/>
+      <c r="Z10" s="914"/>
+      <c r="AA10" s="914"/>
+      <c r="AB10" s="914"/>
+      <c r="AC10" s="914"/>
+      <c r="AD10" s="914"/>
+      <c r="AE10" s="914"/>
+      <c r="AF10" s="914"/>
+      <c r="AG10" s="914"/>
       <c r="AH10" s="455" t="s">
         <v>176</v>
       </c>
@@ -16630,26 +19333,26 @@
       <c r="M11" s="309"/>
       <c r="N11" s="309"/>
       <c r="O11" s="309"/>
-      <c r="P11" s="457" t="s">
+      <c r="P11" s="914" t="s">
         <v>235</v>
       </c>
-      <c r="Q11" s="457"/>
-      <c r="R11" s="457"/>
-      <c r="S11" s="457"/>
-      <c r="T11" s="457"/>
-      <c r="U11" s="513"/>
-      <c r="V11" s="457"/>
-      <c r="W11" s="457"/>
-      <c r="X11" s="457"/>
-      <c r="Y11" s="457"/>
-      <c r="Z11" s="457"/>
-      <c r="AA11" s="457"/>
-      <c r="AB11" s="457"/>
-      <c r="AC11" s="457"/>
-      <c r="AD11" s="457"/>
-      <c r="AE11" s="457"/>
-      <c r="AF11" s="457"/>
-      <c r="AG11" s="457"/>
+      <c r="Q11" s="914"/>
+      <c r="R11" s="914"/>
+      <c r="S11" s="914"/>
+      <c r="T11" s="914"/>
+      <c r="U11" s="914"/>
+      <c r="V11" s="914"/>
+      <c r="W11" s="914"/>
+      <c r="X11" s="914"/>
+      <c r="Y11" s="914"/>
+      <c r="Z11" s="914"/>
+      <c r="AA11" s="914"/>
+      <c r="AB11" s="914"/>
+      <c r="AC11" s="914"/>
+      <c r="AD11" s="914"/>
+      <c r="AE11" s="914"/>
+      <c r="AF11" s="914"/>
+      <c r="AG11" s="914"/>
       <c r="AH11" s="322" t="s">
         <v>163</v>
       </c>
@@ -16694,29 +19397,30 @@
       <c r="L12" s="621"/>
       <c r="M12" s="621"/>
       <c r="N12" s="621"/>
-      <c r="O12" s="622"/>
-      <c r="P12" s="458" t="s">
+      <c r="O12" s="920"/>
+      <c r="P12" s="923" t="s">
         <v>236</v>
       </c>
-      <c r="Q12" s="460"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="460"/>
-      <c r="W12" s="460"/>
-      <c r="X12" s="460"/>
-      <c r="Y12" s="460"/>
-      <c r="Z12" s="460"/>
-      <c r="AA12" s="460"/>
-      <c r="AB12" s="460"/>
-      <c r="AC12" s="460"/>
-      <c r="AD12" s="460"/>
-      <c r="AE12" s="460"/>
-      <c r="AF12" s="460"/>
-      <c r="AG12" s="33" t="s">
+      <c r="Q12" s="924"/>
+      <c r="R12" s="925"/>
+      <c r="S12" s="460"/>
+      <c r="T12" s="925"/>
+      <c r="U12" s="924"/>
+      <c r="V12" s="460"/>
+      <c r="W12" s="924"/>
+      <c r="X12" s="924"/>
+      <c r="Y12" s="924"/>
+      <c r="Z12" s="924"/>
+      <c r="AA12" s="924"/>
+      <c r="AB12" s="924"/>
+      <c r="AC12" s="924"/>
+      <c r="AD12" s="924"/>
+      <c r="AE12" s="924"/>
+      <c r="AF12" s="924"/>
+      <c r="AG12" s="926" t="s">
         <v>185</v>
       </c>
-      <c r="AH12" s="461" t="s">
+      <c r="AH12" s="921" t="s">
         <v>186</v>
       </c>
       <c r="AI12" s="327"/>
@@ -16778,9 +19482,9 @@
       <c r="AB13" s="359"/>
       <c r="AC13" s="359"/>
       <c r="AD13" s="359"/>
-      <c r="AE13" s="442"/>
-      <c r="AF13" s="442"/>
-      <c r="AG13" s="442"/>
+      <c r="AE13" s="922"/>
+      <c r="AF13" s="922"/>
+      <c r="AG13" s="922"/>
       <c r="AH13" s="462" t="s">
         <v>189</v>
       </c>
@@ -16924,49 +19628,61 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView workbookViewId="0" topLeftCell="A1" showRowColHeaders="true" showGridLines="true">
+      <selection activeCell="G20" sqref="G20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="6" max="6" width="9"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="9"/>
+    <col min="21" max="21" width="9"/>
+    <col min="22" max="22" width="9"/>
+  </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="32">
-      <c r="A1" s="569" t="s">
+    <row r="1" customHeight="1" ht="31">
+      <c r="A1" s="642" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
       <c r="D1" s="117"/>
       <c r="E1" s="117"/>
-      <c r="F1" s="26"/>
+      <c r="F1" s="643"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
-    <row r="2" customHeight="1" ht="17">
-      <c r="A2" s="552" t="s">
+    <row r="2" customHeight="1" ht="16">
+      <c r="A2" s="655" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="553"/>
-      <c r="C2" s="553"/>
+      <c r="B2" s="656"/>
+      <c r="C2" s="656"/>
       <c r="D2" s="554" t="s">
         <v>136</v>
       </c>
       <c r="E2" s="555"/>
-      <c r="F2" s="556" t="s">
+      <c r="F2" s="650" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="657" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="557"/>
-      <c r="H2" s="558" t="s">
+      <c r="H2" s="658"/>
+      <c r="I2" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="559">
+      <c r="J2" s="700">
         <v>45069</v>
       </c>
-      <c r="J2" s="558" t="s">
+      <c r="K2" s="699" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="560" t="s">
+      <c r="L2" s="701" t="s">
         <v>123</v>
       </c>
     </row>
@@ -16980,25 +19696,463 @@
         <v>17</v>
       </c>
       <c r="E3" s="563"/>
-      <c r="F3" s="564"/>
-      <c r="G3" s="565"/>
-      <c r="H3" s="566" t="s">
+      <c r="F3" s="652" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="648"/>
+      <c r="H3" s="703"/>
+      <c r="I3" s="670" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="567"/>
-      <c r="J3" s="566" t="s">
+      <c r="J3" s="670"/>
+      <c r="K3" s="672" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="568"/>
+      <c r="L3" s="673"/>
+    </row>
+    <row r="4" customHeight="1" ht="13">
+      <c r="A4" s="731"/>
+      <c r="B4" s="732"/>
+      <c r="C4" s="732"/>
+      <c r="D4" s="732"/>
+      <c r="E4" s="732"/>
+      <c r="F4" s="732"/>
+      <c r="G4" s="732"/>
+      <c r="H4" s="733"/>
+      <c r="I4" s="757" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="754"/>
+      <c r="K4" s="754"/>
+      <c r="L4" s="756"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="731"/>
+      <c r="B5" s="732"/>
+      <c r="C5" s="732"/>
+      <c r="D5" s="732"/>
+      <c r="E5" s="732"/>
+      <c r="F5" s="732"/>
+      <c r="G5" s="732"/>
+      <c r="H5" s="733"/>
+      <c r="I5" s="758"/>
+      <c r="J5" s="754"/>
+      <c r="K5" s="754"/>
+      <c r="L5" s="756"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="731"/>
+      <c r="B6" s="732"/>
+      <c r="C6" s="732"/>
+      <c r="D6" s="732"/>
+      <c r="E6" s="732"/>
+      <c r="F6" s="732"/>
+      <c r="G6" s="732"/>
+      <c r="H6" s="733"/>
+      <c r="I6" s="732"/>
+      <c r="J6" s="732"/>
+      <c r="K6" s="732"/>
+      <c r="L6" s="733"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="731"/>
+      <c r="B7" s="732"/>
+      <c r="C7" s="732"/>
+      <c r="D7" s="732"/>
+      <c r="E7" s="732"/>
+      <c r="F7" s="732"/>
+      <c r="G7" s="732"/>
+      <c r="H7" s="733"/>
+      <c r="I7" s="732"/>
+      <c r="J7" s="732"/>
+      <c r="K7" s="732"/>
+      <c r="L7" s="733"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="731"/>
+      <c r="B8" s="732"/>
+      <c r="C8" s="732"/>
+      <c r="D8" s="732"/>
+      <c r="E8" s="732"/>
+      <c r="F8" s="732"/>
+      <c r="G8" s="732"/>
+      <c r="H8" s="733"/>
+      <c r="I8" s="732"/>
+      <c r="J8" s="732"/>
+      <c r="K8" s="732"/>
+      <c r="L8" s="733"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="731"/>
+      <c r="B9" s="732"/>
+      <c r="C9" s="732"/>
+      <c r="D9" s="732"/>
+      <c r="E9" s="732"/>
+      <c r="F9" s="732"/>
+      <c r="G9" s="732"/>
+      <c r="H9" s="733"/>
+      <c r="I9" s="732"/>
+      <c r="J9" s="732"/>
+      <c r="K9" s="732"/>
+      <c r="L9" s="733"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="731"/>
+      <c r="B10" s="732"/>
+      <c r="C10" s="732"/>
+      <c r="D10" s="732"/>
+      <c r="E10" s="732"/>
+      <c r="F10" s="732"/>
+      <c r="G10" s="732"/>
+      <c r="H10" s="733"/>
+      <c r="I10" s="732"/>
+      <c r="J10" s="732"/>
+      <c r="K10" s="732"/>
+      <c r="L10" s="733"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="731"/>
+      <c r="B11" s="732"/>
+      <c r="C11" s="732"/>
+      <c r="D11" s="732"/>
+      <c r="E11" s="732"/>
+      <c r="F11" s="732"/>
+      <c r="G11" s="732"/>
+      <c r="H11" s="733"/>
+      <c r="I11" s="732"/>
+      <c r="J11" s="732"/>
+      <c r="K11" s="732"/>
+      <c r="L11" s="733"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="731"/>
+      <c r="B12" s="732"/>
+      <c r="C12" s="732"/>
+      <c r="D12" s="732"/>
+      <c r="E12" s="732"/>
+      <c r="F12" s="732"/>
+      <c r="G12" s="732"/>
+      <c r="H12" s="733"/>
+      <c r="I12" s="732"/>
+      <c r="J12" s="732"/>
+      <c r="K12" s="732"/>
+      <c r="L12" s="733"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="731"/>
+      <c r="B13" s="732"/>
+      <c r="C13" s="732"/>
+      <c r="D13" s="732"/>
+      <c r="E13" s="732"/>
+      <c r="F13" s="732"/>
+      <c r="G13" s="732"/>
+      <c r="H13" s="733"/>
+      <c r="I13" s="732"/>
+      <c r="J13" s="732"/>
+      <c r="K13" s="732"/>
+      <c r="L13" s="733"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="731"/>
+      <c r="B14" s="732"/>
+      <c r="C14" s="732"/>
+      <c r="D14" s="732"/>
+      <c r="E14" s="732"/>
+      <c r="F14" s="732"/>
+      <c r="G14" s="732"/>
+      <c r="H14" s="733"/>
+      <c r="I14" s="732"/>
+      <c r="J14" s="732"/>
+      <c r="K14" s="732"/>
+      <c r="L14" s="733"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="731"/>
+      <c r="B15" s="732"/>
+      <c r="C15" s="732"/>
+      <c r="D15" s="732"/>
+      <c r="E15" s="732"/>
+      <c r="F15" s="732"/>
+      <c r="G15" s="732"/>
+      <c r="H15" s="733"/>
+      <c r="I15" s="732"/>
+      <c r="J15" s="732"/>
+      <c r="K15" s="732"/>
+      <c r="L15" s="733"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="731"/>
+      <c r="B16" s="732"/>
+      <c r="C16" s="732"/>
+      <c r="D16" s="732"/>
+      <c r="E16" s="732"/>
+      <c r="F16" s="732"/>
+      <c r="G16" s="732"/>
+      <c r="H16" s="733"/>
+      <c r="I16" s="732"/>
+      <c r="J16" s="732"/>
+      <c r="K16" s="732"/>
+      <c r="L16" s="733"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="731"/>
+      <c r="B17" s="732"/>
+      <c r="C17" s="732"/>
+      <c r="D17" s="732"/>
+      <c r="E17" s="732"/>
+      <c r="F17" s="732"/>
+      <c r="G17" s="732"/>
+      <c r="H17" s="733"/>
+      <c r="I17" s="732"/>
+      <c r="J17" s="732"/>
+      <c r="K17" s="732"/>
+      <c r="L17" s="733"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="731"/>
+      <c r="B18" s="732"/>
+      <c r="C18" s="732"/>
+      <c r="D18" s="732"/>
+      <c r="E18" s="732"/>
+      <c r="F18" s="732"/>
+      <c r="G18" s="732"/>
+      <c r="H18" s="733"/>
+      <c r="I18" s="732"/>
+      <c r="J18" s="732"/>
+      <c r="K18" s="732"/>
+      <c r="L18" s="733"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="731"/>
+      <c r="B19" s="732"/>
+      <c r="C19" s="732"/>
+      <c r="D19" s="732"/>
+      <c r="E19" s="732"/>
+      <c r="F19" s="732"/>
+      <c r="G19" s="732"/>
+      <c r="H19" s="733"/>
+      <c r="I19" s="732"/>
+      <c r="J19" s="732"/>
+      <c r="K19" s="732"/>
+      <c r="L19" s="733"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="731"/>
+      <c r="B20" s="732"/>
+      <c r="C20" s="732"/>
+      <c r="D20" s="732"/>
+      <c r="E20" s="732"/>
+      <c r="F20" s="732"/>
+      <c r="G20" s="732"/>
+      <c r="H20" s="733"/>
+      <c r="I20" s="732"/>
+      <c r="J20" s="732"/>
+      <c r="K20" s="732"/>
+      <c r="L20" s="733"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="731"/>
+      <c r="B21" s="732"/>
+      <c r="C21" s="732"/>
+      <c r="D21" s="732"/>
+      <c r="E21" s="732"/>
+      <c r="F21" s="732"/>
+      <c r="G21" s="732"/>
+      <c r="H21" s="733"/>
+      <c r="I21" s="732"/>
+      <c r="J21" s="732"/>
+      <c r="K21" s="732"/>
+      <c r="L21" s="733"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="731"/>
+      <c r="B22" s="732"/>
+      <c r="C22" s="732"/>
+      <c r="D22" s="732"/>
+      <c r="E22" s="732"/>
+      <c r="F22" s="732"/>
+      <c r="G22" s="732"/>
+      <c r="H22" s="733"/>
+      <c r="I22" s="732"/>
+      <c r="J22" s="732"/>
+      <c r="K22" s="732"/>
+      <c r="L22" s="733"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="731"/>
+      <c r="B23" s="732"/>
+      <c r="C23" s="732"/>
+      <c r="D23" s="732"/>
+      <c r="E23" s="732"/>
+      <c r="F23" s="732"/>
+      <c r="G23" s="732"/>
+      <c r="H23" s="733"/>
+      <c r="I23" s="732"/>
+      <c r="J23" s="732"/>
+      <c r="K23" s="732"/>
+      <c r="L23" s="733"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="731"/>
+      <c r="B24" s="732"/>
+      <c r="C24" s="732"/>
+      <c r="D24" s="732"/>
+      <c r="E24" s="732"/>
+      <c r="F24" s="732"/>
+      <c r="G24" s="732"/>
+      <c r="H24" s="733"/>
+      <c r="I24" s="732"/>
+      <c r="J24" s="732"/>
+      <c r="K24" s="732"/>
+      <c r="L24" s="733"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="731"/>
+      <c r="B25" s="732"/>
+      <c r="C25" s="732"/>
+      <c r="D25" s="732"/>
+      <c r="E25" s="732"/>
+      <c r="F25" s="732"/>
+      <c r="G25" s="732"/>
+      <c r="H25" s="733"/>
+      <c r="I25" s="732"/>
+      <c r="J25" s="732"/>
+      <c r="K25" s="732"/>
+      <c r="L25" s="733"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="731"/>
+      <c r="B26" s="732"/>
+      <c r="C26" s="732"/>
+      <c r="D26" s="732"/>
+      <c r="E26" s="732"/>
+      <c r="F26" s="732"/>
+      <c r="G26" s="732"/>
+      <c r="H26" s="733"/>
+      <c r="I26" s="732"/>
+      <c r="J26" s="732"/>
+      <c r="K26" s="732"/>
+      <c r="L26" s="733"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="731"/>
+      <c r="B27" s="732"/>
+      <c r="C27" s="732"/>
+      <c r="D27" s="732"/>
+      <c r="E27" s="732"/>
+      <c r="F27" s="732"/>
+      <c r="G27" s="732"/>
+      <c r="H27" s="733"/>
+      <c r="I27" s="732"/>
+      <c r="J27" s="732"/>
+      <c r="K27" s="732"/>
+      <c r="L27" s="733"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="731"/>
+      <c r="B28" s="732"/>
+      <c r="C28" s="732"/>
+      <c r="D28" s="732"/>
+      <c r="E28" s="732"/>
+      <c r="F28" s="732"/>
+      <c r="G28" s="732"/>
+      <c r="H28" s="733"/>
+      <c r="I28" s="732"/>
+      <c r="J28" s="732"/>
+      <c r="K28" s="732"/>
+      <c r="L28" s="733"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="731"/>
+      <c r="B29" s="732"/>
+      <c r="C29" s="732"/>
+      <c r="D29" s="732"/>
+      <c r="E29" s="732"/>
+      <c r="F29" s="732"/>
+      <c r="G29" s="732"/>
+      <c r="H29" s="733"/>
+      <c r="I29" s="732"/>
+      <c r="J29" s="732"/>
+      <c r="K29" s="732"/>
+      <c r="L29" s="733"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="731"/>
+      <c r="B30" s="732"/>
+      <c r="C30" s="732"/>
+      <c r="D30" s="732"/>
+      <c r="E30" s="732"/>
+      <c r="F30" s="732"/>
+      <c r="G30" s="732"/>
+      <c r="H30" s="733"/>
+      <c r="I30" s="732"/>
+      <c r="J30" s="732"/>
+      <c r="K30" s="732"/>
+      <c r="L30" s="733"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="731"/>
+      <c r="B31" s="732"/>
+      <c r="C31" s="732"/>
+      <c r="D31" s="732"/>
+      <c r="E31" s="732"/>
+      <c r="F31" s="732"/>
+      <c r="G31" s="732"/>
+      <c r="H31" s="733"/>
+      <c r="I31" s="732"/>
+      <c r="J31" s="732"/>
+      <c r="K31" s="732"/>
+      <c r="L31" s="733"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="731"/>
+      <c r="B32" s="732"/>
+      <c r="C32" s="732"/>
+      <c r="D32" s="732"/>
+      <c r="E32" s="732"/>
+      <c r="F32" s="732"/>
+      <c r="G32" s="732"/>
+      <c r="H32" s="733"/>
+      <c r="I32" s="732"/>
+      <c r="J32" s="732"/>
+      <c r="K32" s="732"/>
+      <c r="L32" s="733"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="731"/>
+      <c r="B33" s="732"/>
+      <c r="C33" s="732"/>
+      <c r="D33" s="732"/>
+      <c r="E33" s="732"/>
+      <c r="F33" s="732"/>
+      <c r="G33" s="732"/>
+      <c r="H33" s="733"/>
+      <c r="I33" s="732"/>
+      <c r="J33" s="732"/>
+      <c r="K33" s="732"/>
+      <c r="L33" s="733"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="734"/>
+      <c r="B34" s="735"/>
+      <c r="C34" s="735"/>
+      <c r="D34" s="735"/>
+      <c r="E34" s="735"/>
+      <c r="F34" s="735"/>
+      <c r="G34" s="735"/>
+      <c r="H34" s="736"/>
+      <c r="I34" s="735"/>
+      <c r="J34" s="735"/>
+      <c r="K34" s="735"/>
+      <c r="L34" s="736"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -784,6 +784,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ② </t>
+  </si>
+  <si>
+    <t>YYYY</t>
   </si>
 </sst>
 </file>
@@ -9164,7 +9167,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="1143000"/>
+          <a:off x="361950" y="1114425"/>
           <a:ext cx="1600200" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9266,7 +9269,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="1419225"/>
+          <a:off x="390525" y="1390650"/>
           <a:ext cx="485775" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9325,7 +9328,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400050" y="1762125"/>
+          <a:off x="400050" y="1733550"/>
           <a:ext cx="523875" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -9372,7 +9375,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="3352800"/>
+          <a:off x="352425" y="3324225"/>
           <a:ext cx="1562100" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9443,7 +9446,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3381375" y="3276600"/>
+          <a:off x="3381375" y="3248025"/>
           <a:ext cx="1733550" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9514,7 +9517,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2457450" y="1647825"/>
+          <a:off x="2457450" y="1619250"/>
           <a:ext cx="9525" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -9563,7 +9566,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2343150" y="2105025"/>
+          <a:off x="2343150" y="2076450"/>
           <a:ext cx="9525" cy="3276600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -9612,7 +9615,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1914525" y="2752725"/>
+          <a:off x="1914525" y="2724150"/>
           <a:ext cx="1066800" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9677,7 +9680,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733550" y="3943350"/>
+          <a:off x="1733550" y="3914775"/>
           <a:ext cx="1162050" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10026,7 +10029,7 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5" activeCellId="0"/>
+      <selection activeCell="U10" sqref="U10" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.75" defaultRowHeight="12" x14ac:dyDescent="0.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12671,8 +12674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" tabSelected="1">
-      <selection activeCell="Z16" sqref="Z16" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AM17" sqref="AM17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16670,7 +16673,7 @@
       <c r="WUL27" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A2:Y3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:M4"/>
@@ -16678,7 +16681,6 @@
     <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="F5:M5"/>
-    <mergeCell ref="L5:Q5"/>
     <mergeCell ref="T5:AE5"/>
     <mergeCell ref="AH5:AI5"/>
     <mergeCell ref="AD6:AG6"/>
@@ -16697,7 +16699,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AE30" sqref="AE30" activeCellId="0"/>
+      <selection activeCell="AO11" sqref="AO11:BL11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17656,7 +17658,9 @@
       <c r="AL11" s="901"/>
       <c r="AM11" s="901"/>
       <c r="AN11" s="902"/>
-      <c r="AO11" s="284"/>
+      <c r="AO11" s="284" t="s">
+        <v>247</v>
+      </c>
       <c r="AP11" s="285"/>
       <c r="AQ11" s="285"/>
       <c r="AR11" s="285"/>
@@ -18508,7 +18512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150">
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150" tabSelected="1">
       <selection activeCell="X19" sqref="X19:Y19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -19642,7 +19646,7 @@
     <col min="22" max="22" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="31">
+    <row r="1" customHeight="1" ht="30">
       <c r="A1" s="642" t="s">
         <v>10</v>
       </c>
@@ -19656,7 +19660,7 @@
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" customHeight="1" ht="16">
+    <row r="2" customHeight="1" ht="15">
       <c r="A2" s="655" t="s">
         <v>11</v>
       </c>
@@ -19710,7 +19714,7 @@
       </c>
       <c r="L3" s="673"/>
     </row>
-    <row r="4" customHeight="1" ht="13">
+    <row r="4" customHeight="1" ht="12">
       <c r="A4" s="731"/>
       <c r="B4" s="732"/>
       <c r="C4" s="732"/>

--- a/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="6"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -793,7 +793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="122" x14ac:knownFonts="1">
+  <fonts count="127" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1597,6 +1597,40 @@
       <color theme="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1667,7 +1701,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="340">
+  <borders count="347">
     <border>
       <left/>
       <right/>
@@ -6232,6 +6266,125 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6247,7 +6400,7 @@
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="931">
+  <cellXfs count="941">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9080,6 +9233,36 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="122" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="340" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="124" applyFont="1" fillId="0" applyFill="1" borderId="341" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="124" applyFont="1" fillId="0" applyFill="1" borderId="342" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="125" applyFont="1" fillId="0" applyFill="1" borderId="342" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="343" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="344" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="345" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="123" applyFont="1" fillId="0" applyFill="1" borderId="346" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="126" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12674,8 +12857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AM17" sqref="AM17" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" tabSelected="1">
+      <selection activeCell="AB16" sqref="AB16" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13080,29 +13263,29 @@
       <c r="Q4" s="125"/>
       <c r="R4" s="125"/>
       <c r="S4" s="126"/>
-      <c r="T4" s="127" t="s">
+      <c r="T4" s="932" t="s">
         <v>126</v>
       </c>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="629"/>
-      <c r="AG4" s="130" t="s">
+      <c r="U4" s="933"/>
+      <c r="V4" s="933"/>
+      <c r="W4" s="933"/>
+      <c r="X4" s="933"/>
+      <c r="Y4" s="933"/>
+      <c r="Z4" s="933"/>
+      <c r="AA4" s="933"/>
+      <c r="AB4" s="933"/>
+      <c r="AC4" s="933"/>
+      <c r="AD4" s="933"/>
+      <c r="AE4" s="934"/>
+      <c r="AF4" s="935"/>
+      <c r="AG4" s="936" t="s">
         <v>13</v>
       </c>
-      <c r="AH4" s="634" t="s">
+      <c r="AH4" s="937" t="s">
         <v>15</v>
       </c>
-      <c r="AI4" s="635"/>
-      <c r="AJ4" s="636" t="s">
+      <c r="AI4" s="938"/>
+      <c r="AJ4" s="939" t="s">
         <v>123</v>
       </c>
     </row>
@@ -13192,7 +13375,7 @@
       <c r="AG6" s="41"/>
       <c r="AH6" s="41"/>
       <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
+      <c r="AJ6" s="577"/>
     </row>
     <row r="7" customHeight="1" ht="12">
       <c r="A7" s="37"/>
@@ -16509,7 +16692,7 @@
       <c r="WUL26" s="24"/>
     </row>
     <row r="27" customHeight="1" ht="12">
-      <c r="A27" s="37"/>
+      <c r="A27" s="940"/>
       <c r="B27" s="52"/>
       <c r="C27" s="53"/>
       <c r="D27" s="53"/>
@@ -16699,7 +16882,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AO11" sqref="AO11:BL11" activeCellId="0"/>
+      <selection activeCell="BV7" sqref="BV7" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17087,7 +17270,7 @@
       </c>
       <c r="AX4" s="131"/>
       <c r="AY4" s="132"/>
-      <c r="AZ4" s="367">
+      <c r="AZ4" s="931">
         <v>45068</v>
       </c>
       <c r="BA4" s="134"/>
@@ -18512,8 +18695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150" tabSelected="1">
-      <selection activeCell="X19" sqref="X19:Y19" activeCellId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150">
+      <selection activeCell="Q28" sqref="Q28" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19633,7 +19816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1" showRowColHeaders="true" showGridLines="true">
-      <selection activeCell="G20" sqref="G20" activeCellId="0"/>
+      <selection activeCell="G28" sqref="G28" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -788,12 +788,39 @@
   <si>
     <t>YYYY</t>
   </si>
+  <si>
+    <t>該当行の「基本給ID」を持ち、DBからデータを取得して、画面に表示する</t>
+  </si>
+  <si>
+    <t>基本給IDを採番して、画面に表示する</t>
+  </si>
+  <si>
+    <t>３）「基本給ID」を変更不可にする</t>
+  </si>
+  <si>
+    <t>対象年度月合</t>
+  </si>
+  <si>
+    <t>対象年度は年月ではない場合</t>
+  </si>
+  <si>
+    <t>”基本給に数値のみを入力してください。”メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t>"年月のみを入力してください。"メッセージを画面に表示する</t>
+  </si>
+  <si>
+    <t>対象年度はではな場合</t>
+  </si>
+  <si>
+    <t>対象年度は対象年ではない場合</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="127" x14ac:knownFonts="1">
+  <fonts count="134" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1631,6 +1658,57 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <color theme="1"/>
+      <u val="single"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <color theme="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1701,7 +1779,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="347">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -6385,6 +6463,133 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6400,7 +6605,7 @@
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="941">
+  <cellXfs count="1010">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9263,6 +9468,213 @@
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="126" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="127" applyFont="1" fillId="0" applyFill="1" borderId="347" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="0" applyFill="1" borderId="348" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="129" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="130" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="130" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="348" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="127" applyFont="1" fillId="3" applyFill="1" borderId="347" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="128" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="127" applyFont="1" fillId="3" applyFill="1" borderId="349" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="127" applyFont="1" fillId="3" applyFill="1" borderId="350" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="127" applyFont="1" fillId="3" applyFill="1" borderId="351" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="127" applyFont="1" fillId="3" applyFill="1" borderId="351" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="127" applyFont="1" fillId="3" applyFill="1" borderId="352" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="131" applyFont="1" fillId="3" applyFill="1" borderId="353" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="131" applyFont="1" fillId="3" applyFill="1" borderId="354" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="132" applyFont="1" fillId="5" applyFill="1" borderId="150" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="5" applyFill="1" borderId="152" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9332,16 +9744,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9350,8 +9762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="361950" y="1114425"/>
-          <a:ext cx="1600200" cy="990600"/>
+          <a:off x="476250" y="1123950"/>
+          <a:ext cx="2333625" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9434,16 +9846,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9452,8 +9864,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="390525" y="1390650"/>
-          <a:ext cx="485775" cy="171450"/>
+          <a:off x="619125" y="1371600"/>
+          <a:ext cx="457200" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9493,16 +9905,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -9511,8 +9923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400050" y="1733550"/>
-          <a:ext cx="523875" cy="9525"/>
+          <a:off x="619125" y="1743075"/>
+          <a:ext cx="466725" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9540,16 +9952,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9558,8 +9970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="352425" y="3324225"/>
-          <a:ext cx="1562100" cy="314325"/>
+          <a:off x="352425" y="2895600"/>
+          <a:ext cx="1343025" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9611,16 +10023,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9629,8 +10041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3381375" y="3248025"/>
-          <a:ext cx="1733550" cy="447675"/>
+          <a:off x="3448050" y="2905125"/>
+          <a:ext cx="1314450" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9667,7 +10079,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>基本給管理リスト更新</a:t>
+            <a:t>基本給情報更新</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
@@ -9682,114 +10094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="コネクタ: カギ線 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2457450" y="1619250"/>
-          <a:ext cx="9525" cy="3276600"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2399748"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="コネクタ: カギ線 14"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2343150" y="2076450"/>
-          <a:ext cx="9525" cy="3276600"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -1200063"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9798,8 +10112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1914525" y="2724150"/>
-          <a:ext cx="1066800" cy="266700"/>
+          <a:off x="1962150" y="2343150"/>
+          <a:ext cx="1304925" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9845,16 +10159,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9863,8 +10177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733550" y="3914775"/>
-          <a:ext cx="1162050" cy="266700"/>
+          <a:off x="1752600" y="3419475"/>
+          <a:ext cx="1552575" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9906,6 +10220,104 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="コネクタ: カギ線 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2514600" y="1238250"/>
+          <a:ext cx="9525" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2399748"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="コネクタ: カギ線 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2524125" y="1533525"/>
+          <a:ext cx="9525" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1200063"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12857,8 +13269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0" tabSelected="1">
-      <selection activeCell="AB16" sqref="AB16" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25:P26" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13880,7 +14292,7 @@
       <c r="B10" s="44"/>
       <c r="C10" s="45"/>
       <c r="D10" s="220" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="45"/>
@@ -14376,7 +14788,7 @@
       <c r="B13" s="44"/>
       <c r="C13" s="45"/>
       <c r="D13" s="220" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
@@ -14705,7 +15117,7 @@
       <c r="A15" s="37"/>
       <c r="B15" s="44"/>
       <c r="C15" s="220" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
@@ -16882,7 +17294,7 @@
   <dimension ref="A1:BN36"/>
   <sheetViews>
     <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="BV7" sqref="BV7" activeCellId="0"/>
+      <selection activeCell="Y18" sqref="Y18:AB18" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17893,7 +18305,7 @@
       <c r="P12" s="273"/>
       <c r="Q12" s="85"/>
       <c r="R12" s="86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12" s="290" t="s">
         <v>58</v>
@@ -17979,7 +18391,7 @@
       <c r="P13" s="273"/>
       <c r="Q13" s="85"/>
       <c r="R13" s="86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S13" s="290" t="s">
         <v>58</v>
@@ -18064,8 +18476,8 @@
       <c r="O14" s="272"/>
       <c r="P14" s="273"/>
       <c r="Q14" s="400"/>
-      <c r="R14" s="435" t="s">
-        <v>141</v>
+      <c r="R14" s="1008">
+        <v>4</v>
       </c>
       <c r="S14" s="290" t="s">
         <v>58</v>
@@ -18150,8 +18562,8 @@
       <c r="O15" s="272"/>
       <c r="P15" s="398"/>
       <c r="Q15" s="436"/>
-      <c r="R15" s="437" t="s">
-        <v>141</v>
+      <c r="R15" s="1009">
+        <v>4</v>
       </c>
       <c r="S15" s="399" t="s">
         <v>58</v>
@@ -18696,7 +19108,7 @@
   <dimension ref="A1:BN14"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" zoomScale="150" zoomScaleNormal="150">
-      <selection activeCell="Q28" sqref="Q28" activeCellId="0"/>
+      <selection activeCell="AA12" sqref="AA12" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18722,12 +19134,12 @@
     <col min="47" max="47" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="2" style="24" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.625" style="24" customWidth="1"/>
+    <col min="51" max="51" width="2.625" style="24" customWidth="1"/>
+    <col min="52" max="52" width="2.625" style="24" customWidth="1"/>
+    <col min="53" max="53" width="2.625" style="24" customWidth="1"/>
+    <col min="54" max="54" width="2.625" style="24" customWidth="1"/>
+    <col min="55" max="55" width="2.625" style="24" customWidth="1"/>
     <col min="56" max="56" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="2" style="24" bestFit="1" customWidth="1"/>
@@ -19500,7 +19912,7 @@
       <c r="BB10" s="455"/>
       <c r="BC10" s="456"/>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" ht="11">
       <c r="A11" s="475">
         <v>5</v>
       </c>
@@ -19541,7 +19953,7 @@
       <c r="AF11" s="914"/>
       <c r="AG11" s="914"/>
       <c r="AH11" s="322" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="AI11" s="322"/>
       <c r="AJ11" s="322"/>
@@ -19586,7 +19998,7 @@
       <c r="N12" s="621"/>
       <c r="O12" s="920"/>
       <c r="P12" s="923" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="924"/>
       <c r="R12" s="925"/>
@@ -19607,7 +20019,7 @@
       <c r="AG12" s="926" t="s">
         <v>185</v>
       </c>
-      <c r="AH12" s="921" t="s">
+      <c r="AH12" s="461" t="s">
         <v>186</v>
       </c>
       <c r="AI12" s="327"/>
@@ -19815,531 +20227,3269 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1" showRowColHeaders="true" showGridLines="true">
-      <selection activeCell="G28" sqref="G28" activeCellId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1" showRowColHeaders="true" showGridLines="true" tabSelected="1">
+      <selection activeCell="AK21" sqref="AK21" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" customHeight="true" defaultColWidth="2.125"/>
   <cols>
-    <col min="6" max="6" width="9"/>
-    <col min="7" max="7" width="22.875" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="9"/>
-    <col min="21" max="21" width="9"/>
-    <col min="22" max="22" width="9"/>
+    <col min="1" max="64" width="2.125" style="941"/>
+    <col min="65" max="65" width="3.625" style="941" customWidth="1"/>
+    <col min="66" max="66" width="0.125" style="941" customWidth="1"/>
+    <col min="67" max="320" width="2.125" style="941"/>
+    <col min="321" max="321" width="3.625" style="941" customWidth="1"/>
+    <col min="322" max="322" width="0.125" style="941" customWidth="1"/>
+    <col min="323" max="576" width="2.125" style="941"/>
+    <col min="577" max="577" width="3.625" style="941" customWidth="1"/>
+    <col min="578" max="578" width="0.125" style="941" customWidth="1"/>
+    <col min="579" max="832" width="2.125" style="941"/>
+    <col min="833" max="833" width="3.625" style="941" customWidth="1"/>
+    <col min="834" max="834" width="0.125" style="941" customWidth="1"/>
+    <col min="835" max="1088" width="2.125" style="941"/>
+    <col min="1089" max="1089" width="3.625" style="941" customWidth="1"/>
+    <col min="1090" max="1090" width="0.125" style="941" customWidth="1"/>
+    <col min="1091" max="1344" width="2.125" style="941"/>
+    <col min="1345" max="1345" width="3.625" style="941" customWidth="1"/>
+    <col min="1346" max="1346" width="0.125" style="941" customWidth="1"/>
+    <col min="1347" max="1600" width="2.125" style="941"/>
+    <col min="1601" max="1601" width="3.625" style="941" customWidth="1"/>
+    <col min="1602" max="1602" width="0.125" style="941" customWidth="1"/>
+    <col min="1603" max="1856" width="2.125" style="941"/>
+    <col min="1857" max="1857" width="3.625" style="941" customWidth="1"/>
+    <col min="1858" max="1858" width="0.125" style="941" customWidth="1"/>
+    <col min="1859" max="2112" width="2.125" style="941"/>
+    <col min="2113" max="2113" width="3.625" style="941" customWidth="1"/>
+    <col min="2114" max="2114" width="0.125" style="941" customWidth="1"/>
+    <col min="2115" max="2368" width="2.125" style="941"/>
+    <col min="2369" max="2369" width="3.625" style="941" customWidth="1"/>
+    <col min="2370" max="2370" width="0.125" style="941" customWidth="1"/>
+    <col min="2371" max="2624" width="2.125" style="941"/>
+    <col min="2625" max="2625" width="3.625" style="941" customWidth="1"/>
+    <col min="2626" max="2626" width="0.125" style="941" customWidth="1"/>
+    <col min="2627" max="2880" width="2.125" style="941"/>
+    <col min="2881" max="2881" width="3.625" style="941" customWidth="1"/>
+    <col min="2882" max="2882" width="0.125" style="941" customWidth="1"/>
+    <col min="2883" max="3136" width="2.125" style="941"/>
+    <col min="3137" max="3137" width="3.625" style="941" customWidth="1"/>
+    <col min="3138" max="3138" width="0.125" style="941" customWidth="1"/>
+    <col min="3139" max="3392" width="2.125" style="941"/>
+    <col min="3393" max="3393" width="3.625" style="941" customWidth="1"/>
+    <col min="3394" max="3394" width="0.125" style="941" customWidth="1"/>
+    <col min="3395" max="3648" width="2.125" style="941"/>
+    <col min="3649" max="3649" width="3.625" style="941" customWidth="1"/>
+    <col min="3650" max="3650" width="0.125" style="941" customWidth="1"/>
+    <col min="3651" max="3904" width="2.125" style="941"/>
+    <col min="3905" max="3905" width="3.625" style="941" customWidth="1"/>
+    <col min="3906" max="3906" width="0.125" style="941" customWidth="1"/>
+    <col min="3907" max="4160" width="2.125" style="941"/>
+    <col min="4161" max="4161" width="3.625" style="941" customWidth="1"/>
+    <col min="4162" max="4162" width="0.125" style="941" customWidth="1"/>
+    <col min="4163" max="4416" width="2.125" style="941"/>
+    <col min="4417" max="4417" width="3.625" style="941" customWidth="1"/>
+    <col min="4418" max="4418" width="0.125" style="941" customWidth="1"/>
+    <col min="4419" max="4672" width="2.125" style="941"/>
+    <col min="4673" max="4673" width="3.625" style="941" customWidth="1"/>
+    <col min="4674" max="4674" width="0.125" style="941" customWidth="1"/>
+    <col min="4675" max="4928" width="2.125" style="941"/>
+    <col min="4929" max="4929" width="3.625" style="941" customWidth="1"/>
+    <col min="4930" max="4930" width="0.125" style="941" customWidth="1"/>
+    <col min="4931" max="5184" width="2.125" style="941"/>
+    <col min="5185" max="5185" width="3.625" style="941" customWidth="1"/>
+    <col min="5186" max="5186" width="0.125" style="941" customWidth="1"/>
+    <col min="5187" max="5440" width="2.125" style="941"/>
+    <col min="5441" max="5441" width="3.625" style="941" customWidth="1"/>
+    <col min="5442" max="5442" width="0.125" style="941" customWidth="1"/>
+    <col min="5443" max="5696" width="2.125" style="941"/>
+    <col min="5697" max="5697" width="3.625" style="941" customWidth="1"/>
+    <col min="5698" max="5698" width="0.125" style="941" customWidth="1"/>
+    <col min="5699" max="5952" width="2.125" style="941"/>
+    <col min="5953" max="5953" width="3.625" style="941" customWidth="1"/>
+    <col min="5954" max="5954" width="0.125" style="941" customWidth="1"/>
+    <col min="5955" max="6208" width="2.125" style="941"/>
+    <col min="6209" max="6209" width="3.625" style="941" customWidth="1"/>
+    <col min="6210" max="6210" width="0.125" style="941" customWidth="1"/>
+    <col min="6211" max="6464" width="2.125" style="941"/>
+    <col min="6465" max="6465" width="3.625" style="941" customWidth="1"/>
+    <col min="6466" max="6466" width="0.125" style="941" customWidth="1"/>
+    <col min="6467" max="6720" width="2.125" style="941"/>
+    <col min="6721" max="6721" width="3.625" style="941" customWidth="1"/>
+    <col min="6722" max="6722" width="0.125" style="941" customWidth="1"/>
+    <col min="6723" max="6976" width="2.125" style="941"/>
+    <col min="6977" max="6977" width="3.625" style="941" customWidth="1"/>
+    <col min="6978" max="6978" width="0.125" style="941" customWidth="1"/>
+    <col min="6979" max="7232" width="2.125" style="941"/>
+    <col min="7233" max="7233" width="3.625" style="941" customWidth="1"/>
+    <col min="7234" max="7234" width="0.125" style="941" customWidth="1"/>
+    <col min="7235" max="7488" width="2.125" style="941"/>
+    <col min="7489" max="7489" width="3.625" style="941" customWidth="1"/>
+    <col min="7490" max="7490" width="0.125" style="941" customWidth="1"/>
+    <col min="7491" max="7744" width="2.125" style="941"/>
+    <col min="7745" max="7745" width="3.625" style="941" customWidth="1"/>
+    <col min="7746" max="7746" width="0.125" style="941" customWidth="1"/>
+    <col min="7747" max="8000" width="2.125" style="941"/>
+    <col min="8001" max="8001" width="3.625" style="941" customWidth="1"/>
+    <col min="8002" max="8002" width="0.125" style="941" customWidth="1"/>
+    <col min="8003" max="8256" width="2.125" style="941"/>
+    <col min="8257" max="8257" width="3.625" style="941" customWidth="1"/>
+    <col min="8258" max="8258" width="0.125" style="941" customWidth="1"/>
+    <col min="8259" max="8512" width="2.125" style="941"/>
+    <col min="8513" max="8513" width="3.625" style="941" customWidth="1"/>
+    <col min="8514" max="8514" width="0.125" style="941" customWidth="1"/>
+    <col min="8515" max="8768" width="2.125" style="941"/>
+    <col min="8769" max="8769" width="3.625" style="941" customWidth="1"/>
+    <col min="8770" max="8770" width="0.125" style="941" customWidth="1"/>
+    <col min="8771" max="9024" width="2.125" style="941"/>
+    <col min="9025" max="9025" width="3.625" style="941" customWidth="1"/>
+    <col min="9026" max="9026" width="0.125" style="941" customWidth="1"/>
+    <col min="9027" max="9280" width="2.125" style="941"/>
+    <col min="9281" max="9281" width="3.625" style="941" customWidth="1"/>
+    <col min="9282" max="9282" width="0.125" style="941" customWidth="1"/>
+    <col min="9283" max="9536" width="2.125" style="941"/>
+    <col min="9537" max="9537" width="3.625" style="941" customWidth="1"/>
+    <col min="9538" max="9538" width="0.125" style="941" customWidth="1"/>
+    <col min="9539" max="9792" width="2.125" style="941"/>
+    <col min="9793" max="9793" width="3.625" style="941" customWidth="1"/>
+    <col min="9794" max="9794" width="0.125" style="941" customWidth="1"/>
+    <col min="9795" max="10048" width="2.125" style="941"/>
+    <col min="10049" max="10049" width="3.625" style="941" customWidth="1"/>
+    <col min="10050" max="10050" width="0.125" style="941" customWidth="1"/>
+    <col min="10051" max="10304" width="2.125" style="941"/>
+    <col min="10305" max="10305" width="3.625" style="941" customWidth="1"/>
+    <col min="10306" max="10306" width="0.125" style="941" customWidth="1"/>
+    <col min="10307" max="10560" width="2.125" style="941"/>
+    <col min="10561" max="10561" width="3.625" style="941" customWidth="1"/>
+    <col min="10562" max="10562" width="0.125" style="941" customWidth="1"/>
+    <col min="10563" max="10816" width="2.125" style="941"/>
+    <col min="10817" max="10817" width="3.625" style="941" customWidth="1"/>
+    <col min="10818" max="10818" width="0.125" style="941" customWidth="1"/>
+    <col min="10819" max="11072" width="2.125" style="941"/>
+    <col min="11073" max="11073" width="3.625" style="941" customWidth="1"/>
+    <col min="11074" max="11074" width="0.125" style="941" customWidth="1"/>
+    <col min="11075" max="11328" width="2.125" style="941"/>
+    <col min="11329" max="11329" width="3.625" style="941" customWidth="1"/>
+    <col min="11330" max="11330" width="0.125" style="941" customWidth="1"/>
+    <col min="11331" max="11584" width="2.125" style="941"/>
+    <col min="11585" max="11585" width="3.625" style="941" customWidth="1"/>
+    <col min="11586" max="11586" width="0.125" style="941" customWidth="1"/>
+    <col min="11587" max="11840" width="2.125" style="941"/>
+    <col min="11841" max="11841" width="3.625" style="941" customWidth="1"/>
+    <col min="11842" max="11842" width="0.125" style="941" customWidth="1"/>
+    <col min="11843" max="12096" width="2.125" style="941"/>
+    <col min="12097" max="12097" width="3.625" style="941" customWidth="1"/>
+    <col min="12098" max="12098" width="0.125" style="941" customWidth="1"/>
+    <col min="12099" max="12352" width="2.125" style="941"/>
+    <col min="12353" max="12353" width="3.625" style="941" customWidth="1"/>
+    <col min="12354" max="12354" width="0.125" style="941" customWidth="1"/>
+    <col min="12355" max="12608" width="2.125" style="941"/>
+    <col min="12609" max="12609" width="3.625" style="941" customWidth="1"/>
+    <col min="12610" max="12610" width="0.125" style="941" customWidth="1"/>
+    <col min="12611" max="12864" width="2.125" style="941"/>
+    <col min="12865" max="12865" width="3.625" style="941" customWidth="1"/>
+    <col min="12866" max="12866" width="0.125" style="941" customWidth="1"/>
+    <col min="12867" max="13120" width="2.125" style="941"/>
+    <col min="13121" max="13121" width="3.625" style="941" customWidth="1"/>
+    <col min="13122" max="13122" width="0.125" style="941" customWidth="1"/>
+    <col min="13123" max="13376" width="2.125" style="941"/>
+    <col min="13377" max="13377" width="3.625" style="941" customWidth="1"/>
+    <col min="13378" max="13378" width="0.125" style="941" customWidth="1"/>
+    <col min="13379" max="13632" width="2.125" style="941"/>
+    <col min="13633" max="13633" width="3.625" style="941" customWidth="1"/>
+    <col min="13634" max="13634" width="0.125" style="941" customWidth="1"/>
+    <col min="13635" max="13888" width="2.125" style="941"/>
+    <col min="13889" max="13889" width="3.625" style="941" customWidth="1"/>
+    <col min="13890" max="13890" width="0.125" style="941" customWidth="1"/>
+    <col min="13891" max="14144" width="2.125" style="941"/>
+    <col min="14145" max="14145" width="3.625" style="941" customWidth="1"/>
+    <col min="14146" max="14146" width="0.125" style="941" customWidth="1"/>
+    <col min="14147" max="14400" width="2.125" style="941"/>
+    <col min="14401" max="14401" width="3.625" style="941" customWidth="1"/>
+    <col min="14402" max="14402" width="0.125" style="941" customWidth="1"/>
+    <col min="14403" max="14656" width="2.125" style="941"/>
+    <col min="14657" max="14657" width="3.625" style="941" customWidth="1"/>
+    <col min="14658" max="14658" width="0.125" style="941" customWidth="1"/>
+    <col min="14659" max="14912" width="2.125" style="941"/>
+    <col min="14913" max="14913" width="3.625" style="941" customWidth="1"/>
+    <col min="14914" max="14914" width="0.125" style="941" customWidth="1"/>
+    <col min="14915" max="15168" width="2.125" style="941"/>
+    <col min="15169" max="15169" width="3.625" style="941" customWidth="1"/>
+    <col min="15170" max="15170" width="0.125" style="941" customWidth="1"/>
+    <col min="15171" max="15424" width="2.125" style="941"/>
+    <col min="15425" max="15425" width="3.625" style="941" customWidth="1"/>
+    <col min="15426" max="15426" width="0.125" style="941" customWidth="1"/>
+    <col min="15427" max="15680" width="2.125" style="941"/>
+    <col min="15681" max="15681" width="3.625" style="941" customWidth="1"/>
+    <col min="15682" max="15682" width="0.125" style="941" customWidth="1"/>
+    <col min="15683" max="15936" width="2.125" style="941"/>
+    <col min="15937" max="15937" width="3.625" style="941" customWidth="1"/>
+    <col min="15938" max="15938" width="0.125" style="941" customWidth="1"/>
+    <col min="15939" max="16192" width="2.125" style="941"/>
+    <col min="16193" max="16193" width="3.625" style="941" customWidth="1"/>
+    <col min="16194" max="16194" width="0.125" style="941" customWidth="1"/>
+    <col min="16195" max="16384" width="2.125" style="941"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="30">
-      <c r="A1" s="642" t="s">
+    <row r="1" customHeight="1" ht="12">
+      <c r="A1" s="947"/>
+      <c r="B1" s="948"/>
+      <c r="C1" s="948"/>
+      <c r="D1" s="948"/>
+      <c r="E1" s="948"/>
+      <c r="F1" s="948"/>
+      <c r="G1" s="948"/>
+      <c r="H1" s="948"/>
+      <c r="I1" s="948"/>
+      <c r="J1" s="948"/>
+      <c r="K1" s="948"/>
+      <c r="L1" s="948"/>
+      <c r="M1" s="948"/>
+      <c r="N1" s="948"/>
+      <c r="O1" s="948"/>
+      <c r="P1" s="948"/>
+      <c r="Q1" s="948"/>
+      <c r="R1" s="948"/>
+      <c r="S1" s="948"/>
+      <c r="T1" s="948"/>
+      <c r="U1" s="948"/>
+      <c r="V1" s="948"/>
+      <c r="W1" s="948"/>
+      <c r="X1" s="948"/>
+      <c r="Y1" s="948"/>
+      <c r="Z1" s="949"/>
+      <c r="AA1" s="948"/>
+      <c r="AB1" s="948"/>
+      <c r="AC1" s="948"/>
+      <c r="AD1" s="948"/>
+      <c r="AE1" s="948"/>
+      <c r="AF1" s="948"/>
+      <c r="AG1" s="948"/>
+      <c r="AH1" s="948"/>
+      <c r="AI1" s="948"/>
+      <c r="AJ1" s="948"/>
+      <c r="AK1" s="948"/>
+      <c r="AL1" s="948"/>
+      <c r="AM1" s="948"/>
+      <c r="AN1" s="948"/>
+      <c r="AO1" s="948"/>
+      <c r="AP1" s="948"/>
+      <c r="AQ1" s="948"/>
+      <c r="AR1" s="948"/>
+      <c r="AS1" s="948"/>
+      <c r="AT1" s="948"/>
+      <c r="AU1" s="948"/>
+      <c r="AV1" s="948"/>
+      <c r="AW1" s="948"/>
+      <c r="AX1" s="948"/>
+      <c r="AY1" s="948"/>
+      <c r="AZ1" s="948"/>
+      <c r="BA1" s="948"/>
+      <c r="BB1" s="948"/>
+      <c r="BC1" s="948"/>
+      <c r="BD1" s="948"/>
+      <c r="BE1" s="948"/>
+      <c r="BF1" s="948"/>
+      <c r="BG1" s="948"/>
+      <c r="BH1" s="948"/>
+      <c r="BI1" s="948"/>
+      <c r="BJ1" s="948"/>
+      <c r="BK1" s="948"/>
+      <c r="BL1" s="948"/>
+      <c r="BM1" s="948"/>
+      <c r="BN1" s="950"/>
+    </row>
+    <row r="2" customHeight="1" ht="12">
+      <c r="A2" s="951" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="643"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B2" s="952"/>
+      <c r="C2" s="952"/>
+      <c r="D2" s="952"/>
+      <c r="E2" s="952"/>
+      <c r="F2" s="952"/>
+      <c r="G2" s="952"/>
+      <c r="H2" s="952"/>
+      <c r="I2" s="952"/>
+      <c r="J2" s="952"/>
+      <c r="K2" s="952"/>
+      <c r="L2" s="952"/>
+      <c r="M2" s="952"/>
+      <c r="N2" s="952"/>
+      <c r="O2" s="952"/>
+      <c r="P2" s="952"/>
+      <c r="Q2" s="952"/>
+      <c r="R2" s="952"/>
+      <c r="S2" s="952"/>
+      <c r="T2" s="952"/>
+      <c r="U2" s="952"/>
+      <c r="V2" s="952"/>
+      <c r="W2" s="952"/>
+      <c r="X2" s="952"/>
+      <c r="Y2" s="952"/>
+      <c r="Z2" s="952"/>
+      <c r="AA2" s="639"/>
+      <c r="AB2" s="639"/>
+      <c r="AC2" s="639"/>
+      <c r="AD2" s="639"/>
+      <c r="AE2" s="639"/>
+      <c r="AF2" s="639"/>
+      <c r="AG2" s="639"/>
+      <c r="AH2" s="639"/>
+      <c r="AI2" s="639"/>
+      <c r="AJ2" s="639"/>
+      <c r="AK2" s="639"/>
+      <c r="AL2" s="639"/>
+      <c r="AM2" s="639"/>
+      <c r="AN2" s="639"/>
+      <c r="AO2" s="639"/>
+      <c r="AP2" s="639"/>
+      <c r="AQ2" s="953"/>
+      <c r="AR2" s="953"/>
+      <c r="AS2" s="953"/>
+      <c r="AT2" s="953"/>
+      <c r="AU2" s="953"/>
+      <c r="AV2" s="953"/>
+      <c r="AW2" s="954"/>
+      <c r="AX2" s="954"/>
+      <c r="AY2" s="954"/>
+      <c r="AZ2" s="954"/>
+      <c r="BA2" s="954"/>
+      <c r="BB2" s="954"/>
+      <c r="BC2" s="954"/>
+      <c r="BD2" s="954"/>
+      <c r="BE2" s="954"/>
+      <c r="BF2" s="954"/>
+      <c r="BG2" s="954"/>
+      <c r="BH2" s="954"/>
+      <c r="BI2" s="954"/>
+      <c r="BJ2" s="954"/>
+      <c r="BK2" s="954"/>
+      <c r="BL2" s="954"/>
+      <c r="BM2" s="954"/>
+      <c r="BN2" s="955"/>
     </row>
-    <row r="2" customHeight="1" ht="15">
-      <c r="A2" s="655" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="656"/>
-      <c r="C2" s="656"/>
-      <c r="D2" s="554" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="555"/>
-      <c r="F2" s="650" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="657" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="658"/>
-      <c r="I2" s="699" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="700">
-        <v>45069</v>
-      </c>
-      <c r="K2" s="699" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="701" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" ht="18">
-      <c r="A3" s="561" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="562"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="563" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="563"/>
-      <c r="F3" s="652" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="648"/>
-      <c r="H3" s="703"/>
-      <c r="I3" s="670" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="670"/>
-      <c r="K3" s="672" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="673"/>
+    <row r="3" customHeight="1" ht="12">
+      <c r="A3" s="951"/>
+      <c r="B3" s="952"/>
+      <c r="C3" s="952"/>
+      <c r="D3" s="952"/>
+      <c r="E3" s="952"/>
+      <c r="F3" s="952"/>
+      <c r="G3" s="952"/>
+      <c r="H3" s="952"/>
+      <c r="I3" s="952"/>
+      <c r="J3" s="952"/>
+      <c r="K3" s="952"/>
+      <c r="L3" s="952"/>
+      <c r="M3" s="952"/>
+      <c r="N3" s="952"/>
+      <c r="O3" s="952"/>
+      <c r="P3" s="952"/>
+      <c r="Q3" s="952"/>
+      <c r="R3" s="952"/>
+      <c r="S3" s="952"/>
+      <c r="T3" s="952"/>
+      <c r="U3" s="952"/>
+      <c r="V3" s="952"/>
+      <c r="W3" s="952"/>
+      <c r="X3" s="952"/>
+      <c r="Y3" s="952"/>
+      <c r="Z3" s="952"/>
+      <c r="AA3" s="639"/>
+      <c r="AB3" s="639"/>
+      <c r="AC3" s="639"/>
+      <c r="AD3" s="639"/>
+      <c r="AE3" s="639"/>
+      <c r="AF3" s="639"/>
+      <c r="AG3" s="639"/>
+      <c r="AH3" s="639"/>
+      <c r="AI3" s="639"/>
+      <c r="AJ3" s="639"/>
+      <c r="AK3" s="639"/>
+      <c r="AL3" s="639"/>
+      <c r="AM3" s="639"/>
+      <c r="AN3" s="639"/>
+      <c r="AO3" s="639"/>
+      <c r="AP3" s="639"/>
+      <c r="AQ3" s="953"/>
+      <c r="AR3" s="953"/>
+      <c r="AS3" s="953"/>
+      <c r="AT3" s="953"/>
+      <c r="AU3" s="953"/>
+      <c r="AV3" s="953"/>
+      <c r="AW3" s="953"/>
+      <c r="AX3" s="953"/>
+      <c r="AY3" s="953"/>
+      <c r="AZ3" s="953"/>
+      <c r="BA3" s="953"/>
+      <c r="BB3" s="953"/>
+      <c r="BC3" s="953"/>
+      <c r="BD3" s="953"/>
+      <c r="BE3" s="953"/>
+      <c r="BF3" s="953"/>
+      <c r="BG3" s="953"/>
+      <c r="BH3" s="953"/>
+      <c r="BI3" s="953"/>
+      <c r="BJ3" s="953"/>
+      <c r="BK3" s="953"/>
+      <c r="BL3" s="953"/>
+      <c r="BM3" s="953"/>
+      <c r="BN3" s="956"/>
     </row>
     <row r="4" customHeight="1" ht="12">
-      <c r="A4" s="731"/>
-      <c r="B4" s="732"/>
-      <c r="C4" s="732"/>
-      <c r="D4" s="732"/>
-      <c r="E4" s="732"/>
-      <c r="F4" s="732"/>
-      <c r="G4" s="732"/>
-      <c r="H4" s="733"/>
-      <c r="I4" s="757" t="s">
+      <c r="A4" s="957" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="958"/>
+      <c r="C4" s="958"/>
+      <c r="D4" s="958"/>
+      <c r="E4" s="958"/>
+      <c r="F4" s="959"/>
+      <c r="G4" s="960" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="961"/>
+      <c r="I4" s="961"/>
+      <c r="J4" s="961"/>
+      <c r="K4" s="961"/>
+      <c r="L4" s="961"/>
+      <c r="M4" s="961"/>
+      <c r="N4" s="962"/>
+      <c r="O4" s="963" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="964"/>
+      <c r="Q4" s="964"/>
+      <c r="R4" s="964"/>
+      <c r="S4" s="964"/>
+      <c r="T4" s="965"/>
+      <c r="U4" s="1005" t="s">
+        <v>122</v>
+      </c>
+      <c r="V4" s="1006"/>
+      <c r="W4" s="1006"/>
+      <c r="X4" s="1006"/>
+      <c r="Y4" s="1006"/>
+      <c r="Z4" s="1006"/>
+      <c r="AA4" s="1006"/>
+      <c r="AB4" s="1006"/>
+      <c r="AC4" s="1006"/>
+      <c r="AD4" s="1006"/>
+      <c r="AE4" s="1006"/>
+      <c r="AF4" s="1006"/>
+      <c r="AG4" s="1006"/>
+      <c r="AH4" s="1006"/>
+      <c r="AI4" s="1006"/>
+      <c r="AJ4" s="1006"/>
+      <c r="AK4" s="1006"/>
+      <c r="AL4" s="1006"/>
+      <c r="AM4" s="1006"/>
+      <c r="AN4" s="1006"/>
+      <c r="AO4" s="1006"/>
+      <c r="AP4" s="1006"/>
+      <c r="AQ4" s="1006"/>
+      <c r="AR4" s="1006"/>
+      <c r="AS4" s="1006"/>
+      <c r="AT4" s="1006"/>
+      <c r="AU4" s="1006"/>
+      <c r="AV4" s="1007"/>
+      <c r="AW4" s="969" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX4" s="970"/>
+      <c r="AY4" s="971"/>
+      <c r="AZ4" s="972">
+        <v>45068</v>
+      </c>
+      <c r="BA4" s="973"/>
+      <c r="BB4" s="973"/>
+      <c r="BC4" s="973"/>
+      <c r="BD4" s="973"/>
+      <c r="BE4" s="973"/>
+      <c r="BF4" s="969" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG4" s="970"/>
+      <c r="BH4" s="971"/>
+      <c r="BI4" s="972" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ4" s="973"/>
+      <c r="BK4" s="973"/>
+      <c r="BL4" s="973"/>
+      <c r="BM4" s="973"/>
+      <c r="BN4" s="974"/>
+    </row>
+    <row r="5" customHeight="1" ht="12">
+      <c r="A5" s="975" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="976"/>
+      <c r="C5" s="976"/>
+      <c r="D5" s="976"/>
+      <c r="E5" s="976"/>
+      <c r="F5" s="977"/>
+      <c r="G5" s="978" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="978"/>
+      <c r="I5" s="978"/>
+      <c r="J5" s="978"/>
+      <c r="K5" s="978"/>
+      <c r="L5" s="978"/>
+      <c r="M5" s="978"/>
+      <c r="N5" s="979"/>
+      <c r="O5" s="975" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="754"/>
-      <c r="K4" s="754"/>
-      <c r="L4" s="756"/>
+      <c r="P5" s="976"/>
+      <c r="Q5" s="976"/>
+      <c r="R5" s="976"/>
+      <c r="S5" s="976"/>
+      <c r="T5" s="977"/>
+      <c r="U5" s="980"/>
+      <c r="V5" s="981"/>
+      <c r="W5" s="981"/>
+      <c r="X5" s="981"/>
+      <c r="Y5" s="981"/>
+      <c r="Z5" s="981"/>
+      <c r="AA5" s="981"/>
+      <c r="AB5" s="981"/>
+      <c r="AC5" s="981"/>
+      <c r="AD5" s="981"/>
+      <c r="AE5" s="981"/>
+      <c r="AF5" s="981"/>
+      <c r="AG5" s="981"/>
+      <c r="AH5" s="981"/>
+      <c r="AI5" s="981"/>
+      <c r="AJ5" s="981"/>
+      <c r="AK5" s="981"/>
+      <c r="AL5" s="981"/>
+      <c r="AM5" s="981"/>
+      <c r="AN5" s="981"/>
+      <c r="AO5" s="981"/>
+      <c r="AP5" s="981"/>
+      <c r="AQ5" s="981"/>
+      <c r="AR5" s="981"/>
+      <c r="AS5" s="981"/>
+      <c r="AT5" s="981"/>
+      <c r="AU5" s="981"/>
+      <c r="AV5" s="982"/>
+      <c r="AW5" s="1001" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX5" s="984"/>
+      <c r="AY5" s="985"/>
+      <c r="AZ5" s="984"/>
+      <c r="BA5" s="984"/>
+      <c r="BB5" s="984"/>
+      <c r="BC5" s="984"/>
+      <c r="BD5" s="984"/>
+      <c r="BE5" s="984"/>
+      <c r="BF5" s="983" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG5" s="984"/>
+      <c r="BH5" s="985"/>
+      <c r="BI5" s="984"/>
+      <c r="BJ5" s="981"/>
+      <c r="BK5" s="981"/>
+      <c r="BL5" s="981"/>
+      <c r="BM5" s="981"/>
+      <c r="BN5" s="982"/>
     </row>
-    <row r="5">
-      <c r="A5" s="731"/>
-      <c r="B5" s="732"/>
-      <c r="C5" s="732"/>
-      <c r="D5" s="732"/>
-      <c r="E5" s="732"/>
-      <c r="F5" s="732"/>
-      <c r="G5" s="732"/>
-      <c r="H5" s="733"/>
-      <c r="I5" s="758"/>
-      <c r="J5" s="754"/>
-      <c r="K5" s="754"/>
-      <c r="L5" s="756"/>
+    <row r="6" customHeight="1" ht="12">
+      <c r="A6" s="986"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="177"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="177"/>
+      <c r="W6" s="177"/>
+      <c r="X6" s="177"/>
+      <c r="Y6" s="177"/>
+      <c r="Z6" s="177"/>
+      <c r="AA6" s="177"/>
+      <c r="AB6" s="177"/>
+      <c r="AC6" s="177"/>
+      <c r="AD6" s="177"/>
+      <c r="AE6" s="177"/>
+      <c r="AF6" s="177"/>
+      <c r="AG6" s="177"/>
+      <c r="AH6" s="177"/>
+      <c r="AI6" s="177"/>
+      <c r="AJ6" s="177"/>
+      <c r="AK6" s="177"/>
+      <c r="AL6" s="177"/>
+      <c r="AM6" s="177"/>
+      <c r="AN6" s="177"/>
+      <c r="AO6" s="177"/>
+      <c r="AP6" s="639"/>
+      <c r="AQ6" s="639"/>
+      <c r="AR6" s="639"/>
+      <c r="AS6" s="639"/>
+      <c r="AT6" s="639"/>
+      <c r="AU6" s="639"/>
+      <c r="AV6" s="641"/>
+      <c r="AW6" s="1002" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX6" s="988"/>
+      <c r="AY6" s="988"/>
+      <c r="AZ6" s="988"/>
+      <c r="BA6" s="988"/>
+      <c r="BB6" s="988"/>
+      <c r="BC6" s="988"/>
+      <c r="BD6" s="988"/>
+      <c r="BE6" s="988"/>
+      <c r="BF6" s="988"/>
+      <c r="BG6" s="988"/>
+      <c r="BH6" s="988"/>
+      <c r="BI6" s="988"/>
+      <c r="BJ6" s="988"/>
+      <c r="BK6" s="988"/>
+      <c r="BL6" s="988"/>
+      <c r="BM6" s="989"/>
+      <c r="BN6" s="641"/>
     </row>
-    <row r="6">
-      <c r="A6" s="731"/>
-      <c r="B6" s="732"/>
-      <c r="C6" s="732"/>
-      <c r="D6" s="732"/>
-      <c r="E6" s="732"/>
-      <c r="F6" s="732"/>
-      <c r="G6" s="732"/>
-      <c r="H6" s="733"/>
-      <c r="I6" s="732"/>
-      <c r="J6" s="732"/>
-      <c r="K6" s="732"/>
-      <c r="L6" s="733"/>
+    <row r="7" customHeight="1" ht="12">
+      <c r="A7" s="986"/>
+      <c r="B7" s="990"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177"/>
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177"/>
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177"/>
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="639"/>
+      <c r="AQ7" s="639"/>
+      <c r="AR7" s="639"/>
+      <c r="AS7" s="639"/>
+      <c r="AT7" s="639"/>
+      <c r="AU7" s="639"/>
+      <c r="AV7" s="641"/>
+      <c r="AW7" s="1003"/>
+      <c r="AX7" s="992"/>
+      <c r="AY7" s="992"/>
+      <c r="AZ7" s="992"/>
+      <c r="BA7" s="992"/>
+      <c r="BB7" s="992"/>
+      <c r="BC7" s="992"/>
+      <c r="BD7" s="992"/>
+      <c r="BE7" s="992"/>
+      <c r="BF7" s="992"/>
+      <c r="BG7" s="992"/>
+      <c r="BH7" s="992"/>
+      <c r="BI7" s="992"/>
+      <c r="BJ7" s="992"/>
+      <c r="BK7" s="992"/>
+      <c r="BL7" s="992"/>
+      <c r="BM7" s="993"/>
+      <c r="BN7" s="641"/>
     </row>
-    <row r="7">
-      <c r="A7" s="731"/>
-      <c r="B7" s="732"/>
-      <c r="C7" s="732"/>
-      <c r="D7" s="732"/>
-      <c r="E7" s="732"/>
-      <c r="F7" s="732"/>
-      <c r="G7" s="732"/>
-      <c r="H7" s="733"/>
-      <c r="I7" s="732"/>
-      <c r="J7" s="732"/>
-      <c r="K7" s="732"/>
-      <c r="L7" s="733"/>
+    <row r="8" customHeight="1" ht="12">
+      <c r="A8" s="986"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="177"/>
+      <c r="AF8" s="177"/>
+      <c r="AG8" s="177"/>
+      <c r="AH8" s="177"/>
+      <c r="AI8" s="177"/>
+      <c r="AJ8" s="177"/>
+      <c r="AK8" s="177"/>
+      <c r="AL8" s="177"/>
+      <c r="AM8" s="177"/>
+      <c r="AN8" s="177"/>
+      <c r="AO8" s="177"/>
+      <c r="AP8" s="639"/>
+      <c r="AQ8" s="639"/>
+      <c r="AR8" s="639"/>
+      <c r="AS8" s="639"/>
+      <c r="AT8" s="639"/>
+      <c r="AU8" s="639"/>
+      <c r="AV8" s="641"/>
+      <c r="AW8" s="990"/>
+      <c r="AX8" s="639"/>
+      <c r="AY8" s="639"/>
+      <c r="AZ8" s="639"/>
+      <c r="BA8" s="639"/>
+      <c r="BB8" s="639"/>
+      <c r="BC8" s="639"/>
+      <c r="BD8" s="639"/>
+      <c r="BE8" s="639"/>
+      <c r="BF8" s="177"/>
+      <c r="BG8" s="177"/>
+      <c r="BH8" s="177"/>
+      <c r="BI8" s="177"/>
+      <c r="BJ8" s="177"/>
+      <c r="BK8" s="177"/>
+      <c r="BL8" s="177"/>
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="641"/>
     </row>
-    <row r="8">
-      <c r="A8" s="731"/>
-      <c r="B8" s="732"/>
-      <c r="C8" s="732"/>
-      <c r="D8" s="732"/>
-      <c r="E8" s="732"/>
-      <c r="F8" s="732"/>
-      <c r="G8" s="732"/>
-      <c r="H8" s="733"/>
-      <c r="I8" s="732"/>
-      <c r="J8" s="732"/>
-      <c r="K8" s="732"/>
-      <c r="L8" s="733"/>
+    <row r="9" customHeight="1" ht="12">
+      <c r="A9" s="986"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="177"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="177"/>
+      <c r="AC9" s="177"/>
+      <c r="AD9" s="177"/>
+      <c r="AE9" s="177"/>
+      <c r="AF9" s="177"/>
+      <c r="AG9" s="177"/>
+      <c r="AH9" s="177"/>
+      <c r="AI9" s="177"/>
+      <c r="AJ9" s="177"/>
+      <c r="AK9" s="177"/>
+      <c r="AL9" s="177"/>
+      <c r="AM9" s="177"/>
+      <c r="AN9" s="177"/>
+      <c r="AO9" s="177"/>
+      <c r="AP9" s="639"/>
+      <c r="AQ9" s="639"/>
+      <c r="AR9" s="639"/>
+      <c r="AS9" s="639"/>
+      <c r="AT9" s="639"/>
+      <c r="AU9" s="639"/>
+      <c r="AV9" s="641"/>
+      <c r="AW9" s="990"/>
+      <c r="AX9" s="639"/>
+      <c r="AY9" s="639"/>
+      <c r="AZ9" s="639"/>
+      <c r="BA9" s="639"/>
+      <c r="BB9" s="639"/>
+      <c r="BC9" s="639"/>
+      <c r="BD9" s="639"/>
+      <c r="BE9" s="639"/>
+      <c r="BF9" s="177"/>
+      <c r="BG9" s="177"/>
+      <c r="BH9" s="177"/>
+      <c r="BI9" s="177"/>
+      <c r="BJ9" s="177"/>
+      <c r="BK9" s="177"/>
+      <c r="BL9" s="177"/>
+      <c r="BM9" s="179"/>
+      <c r="BN9" s="641"/>
     </row>
-    <row r="9">
-      <c r="A9" s="731"/>
-      <c r="B9" s="732"/>
-      <c r="C9" s="732"/>
-      <c r="D9" s="732"/>
-      <c r="E9" s="732"/>
-      <c r="F9" s="732"/>
-      <c r="G9" s="732"/>
-      <c r="H9" s="733"/>
-      <c r="I9" s="732"/>
-      <c r="J9" s="732"/>
-      <c r="K9" s="732"/>
-      <c r="L9" s="733"/>
+    <row r="10" customHeight="1" ht="12">
+      <c r="A10" s="986"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="177"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="177"/>
+      <c r="AE10" s="177"/>
+      <c r="AF10" s="177"/>
+      <c r="AG10" s="177"/>
+      <c r="AH10" s="177"/>
+      <c r="AI10" s="177"/>
+      <c r="AJ10" s="177"/>
+      <c r="AK10" s="177"/>
+      <c r="AL10" s="177"/>
+      <c r="AM10" s="177"/>
+      <c r="AN10" s="177"/>
+      <c r="AO10" s="177"/>
+      <c r="AP10" s="639"/>
+      <c r="AQ10" s="639"/>
+      <c r="AR10" s="639"/>
+      <c r="AS10" s="639"/>
+      <c r="AT10" s="639"/>
+      <c r="AU10" s="639"/>
+      <c r="AV10" s="641"/>
+      <c r="AW10" s="990"/>
+      <c r="AX10" s="639"/>
+      <c r="AY10" s="639"/>
+      <c r="AZ10" s="639"/>
+      <c r="BA10" s="639"/>
+      <c r="BB10" s="639"/>
+      <c r="BC10" s="639"/>
+      <c r="BD10" s="639"/>
+      <c r="BE10" s="639"/>
+      <c r="BF10" s="177"/>
+      <c r="BG10" s="177"/>
+      <c r="BH10" s="177"/>
+      <c r="BI10" s="177"/>
+      <c r="BJ10" s="177"/>
+      <c r="BK10" s="177"/>
+      <c r="BL10" s="177"/>
+      <c r="BM10" s="179"/>
+      <c r="BN10" s="641"/>
     </row>
-    <row r="10">
-      <c r="A10" s="731"/>
-      <c r="B10" s="732"/>
-      <c r="C10" s="732"/>
-      <c r="D10" s="732"/>
-      <c r="E10" s="732"/>
-      <c r="F10" s="732"/>
-      <c r="G10" s="732"/>
-      <c r="H10" s="733"/>
-      <c r="I10" s="732"/>
-      <c r="J10" s="732"/>
-      <c r="K10" s="732"/>
-      <c r="L10" s="733"/>
+    <row r="11" customHeight="1" ht="12">
+      <c r="A11" s="986"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="177"/>
+      <c r="U11" s="177"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="177"/>
+      <c r="Z11" s="177"/>
+      <c r="AA11" s="177"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="177"/>
+      <c r="AE11" s="177"/>
+      <c r="AF11" s="177"/>
+      <c r="AG11" s="177"/>
+      <c r="AH11" s="177"/>
+      <c r="AI11" s="177"/>
+      <c r="AJ11" s="177"/>
+      <c r="AK11" s="177"/>
+      <c r="AL11" s="177"/>
+      <c r="AM11" s="177"/>
+      <c r="AN11" s="177"/>
+      <c r="AO11" s="177"/>
+      <c r="AP11" s="639"/>
+      <c r="AQ11" s="639"/>
+      <c r="AR11" s="639"/>
+      <c r="AS11" s="639"/>
+      <c r="AT11" s="639"/>
+      <c r="AU11" s="639"/>
+      <c r="AV11" s="641"/>
+      <c r="AW11" s="990"/>
+      <c r="AX11" s="639"/>
+      <c r="AY11" s="639"/>
+      <c r="AZ11" s="639"/>
+      <c r="BA11" s="639"/>
+      <c r="BB11" s="639"/>
+      <c r="BC11" s="639"/>
+      <c r="BD11" s="639"/>
+      <c r="BE11" s="639"/>
+      <c r="BF11" s="177"/>
+      <c r="BG11" s="177"/>
+      <c r="BH11" s="177"/>
+      <c r="BI11" s="177"/>
+      <c r="BJ11" s="177"/>
+      <c r="BK11" s="177"/>
+      <c r="BL11" s="177"/>
+      <c r="BM11" s="179"/>
+      <c r="BN11" s="641"/>
     </row>
-    <row r="11">
-      <c r="A11" s="731"/>
-      <c r="B11" s="732"/>
-      <c r="C11" s="732"/>
-      <c r="D11" s="732"/>
-      <c r="E11" s="732"/>
-      <c r="F11" s="732"/>
-      <c r="G11" s="732"/>
-      <c r="H11" s="733"/>
-      <c r="I11" s="732"/>
-      <c r="J11" s="732"/>
-      <c r="K11" s="732"/>
-      <c r="L11" s="733"/>
+    <row r="12" customHeight="1" ht="12">
+      <c r="A12" s="986"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="177"/>
+      <c r="T12" s="177"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="177"/>
+      <c r="Z12" s="177"/>
+      <c r="AA12" s="177"/>
+      <c r="AB12" s="177"/>
+      <c r="AC12" s="177"/>
+      <c r="AD12" s="177"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="177"/>
+      <c r="AG12" s="177"/>
+      <c r="AH12" s="177"/>
+      <c r="AI12" s="177"/>
+      <c r="AJ12" s="177"/>
+      <c r="AK12" s="177"/>
+      <c r="AL12" s="177"/>
+      <c r="AM12" s="177"/>
+      <c r="AN12" s="177"/>
+      <c r="AO12" s="177"/>
+      <c r="AP12" s="639"/>
+      <c r="AQ12" s="639"/>
+      <c r="AR12" s="639"/>
+      <c r="AS12" s="639"/>
+      <c r="AT12" s="639"/>
+      <c r="AU12" s="639"/>
+      <c r="AV12" s="641"/>
+      <c r="AW12" s="990"/>
+      <c r="AX12" s="639"/>
+      <c r="AY12" s="639"/>
+      <c r="AZ12" s="639"/>
+      <c r="BA12" s="639"/>
+      <c r="BB12" s="639"/>
+      <c r="BC12" s="639"/>
+      <c r="BD12" s="639"/>
+      <c r="BE12" s="639"/>
+      <c r="BF12" s="177"/>
+      <c r="BG12" s="177"/>
+      <c r="BH12" s="177"/>
+      <c r="BI12" s="177"/>
+      <c r="BJ12" s="177"/>
+      <c r="BK12" s="177"/>
+      <c r="BL12" s="177"/>
+      <c r="BM12" s="179"/>
+      <c r="BN12" s="641"/>
     </row>
-    <row r="12">
-      <c r="A12" s="731"/>
-      <c r="B12" s="732"/>
-      <c r="C12" s="732"/>
-      <c r="D12" s="732"/>
-      <c r="E12" s="732"/>
-      <c r="F12" s="732"/>
-      <c r="G12" s="732"/>
-      <c r="H12" s="733"/>
-      <c r="I12" s="732"/>
-      <c r="J12" s="732"/>
-      <c r="K12" s="732"/>
-      <c r="L12" s="733"/>
+    <row r="13" customHeight="1" ht="12">
+      <c r="A13" s="986"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="177"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="177"/>
+      <c r="Z13" s="177"/>
+      <c r="AA13" s="177"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="177"/>
+      <c r="AD13" s="177"/>
+      <c r="AE13" s="177"/>
+      <c r="AF13" s="177"/>
+      <c r="AG13" s="177"/>
+      <c r="AH13" s="177"/>
+      <c r="AI13" s="177"/>
+      <c r="AJ13" s="177"/>
+      <c r="AK13" s="177"/>
+      <c r="AL13" s="177"/>
+      <c r="AM13" s="177"/>
+      <c r="AN13" s="177"/>
+      <c r="AO13" s="177"/>
+      <c r="AP13" s="639"/>
+      <c r="AQ13" s="639"/>
+      <c r="AR13" s="639"/>
+      <c r="AS13" s="639"/>
+      <c r="AT13" s="639"/>
+      <c r="AU13" s="639"/>
+      <c r="AV13" s="641"/>
+      <c r="AW13" s="990"/>
+      <c r="AX13" s="639"/>
+      <c r="AY13" s="639"/>
+      <c r="AZ13" s="639"/>
+      <c r="BA13" s="639"/>
+      <c r="BB13" s="639"/>
+      <c r="BC13" s="639"/>
+      <c r="BD13" s="639"/>
+      <c r="BE13" s="639"/>
+      <c r="BF13" s="177"/>
+      <c r="BG13" s="177"/>
+      <c r="BH13" s="177"/>
+      <c r="BI13" s="177"/>
+      <c r="BJ13" s="177"/>
+      <c r="BK13" s="177"/>
+      <c r="BL13" s="177"/>
+      <c r="BM13" s="179"/>
+      <c r="BN13" s="641"/>
     </row>
-    <row r="13">
-      <c r="A13" s="731"/>
-      <c r="B13" s="732"/>
-      <c r="C13" s="732"/>
-      <c r="D13" s="732"/>
-      <c r="E13" s="732"/>
-      <c r="F13" s="732"/>
-      <c r="G13" s="732"/>
-      <c r="H13" s="733"/>
-      <c r="I13" s="732"/>
-      <c r="J13" s="732"/>
-      <c r="K13" s="732"/>
-      <c r="L13" s="733"/>
+    <row r="14" customHeight="1" ht="12">
+      <c r="A14" s="986"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="177"/>
+      <c r="V14" s="177"/>
+      <c r="W14" s="177"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="177"/>
+      <c r="Z14" s="177"/>
+      <c r="AA14" s="177"/>
+      <c r="AB14" s="177"/>
+      <c r="AC14" s="177"/>
+      <c r="AD14" s="177"/>
+      <c r="AE14" s="177"/>
+      <c r="AF14" s="177"/>
+      <c r="AG14" s="177"/>
+      <c r="AH14" s="177"/>
+      <c r="AI14" s="177"/>
+      <c r="AJ14" s="177"/>
+      <c r="AK14" s="177"/>
+      <c r="AL14" s="177"/>
+      <c r="AM14" s="177"/>
+      <c r="AN14" s="177"/>
+      <c r="AO14" s="177"/>
+      <c r="AP14" s="639"/>
+      <c r="AQ14" s="639"/>
+      <c r="AR14" s="639"/>
+      <c r="AS14" s="639"/>
+      <c r="AT14" s="639"/>
+      <c r="AU14" s="639"/>
+      <c r="AV14" s="641"/>
+      <c r="AW14" s="990"/>
+      <c r="AX14" s="639"/>
+      <c r="AY14" s="639"/>
+      <c r="AZ14" s="639"/>
+      <c r="BA14" s="639"/>
+      <c r="BB14" s="639"/>
+      <c r="BC14" s="639"/>
+      <c r="BD14" s="639"/>
+      <c r="BE14" s="639"/>
+      <c r="BF14" s="177"/>
+      <c r="BG14" s="177"/>
+      <c r="BH14" s="177"/>
+      <c r="BI14" s="177"/>
+      <c r="BJ14" s="177"/>
+      <c r="BK14" s="177"/>
+      <c r="BL14" s="177"/>
+      <c r="BM14" s="179"/>
+      <c r="BN14" s="641"/>
     </row>
-    <row r="14">
-      <c r="A14" s="731"/>
-      <c r="B14" s="732"/>
-      <c r="C14" s="732"/>
-      <c r="D14" s="732"/>
-      <c r="E14" s="732"/>
-      <c r="F14" s="732"/>
-      <c r="G14" s="732"/>
-      <c r="H14" s="733"/>
-      <c r="I14" s="732"/>
-      <c r="J14" s="732"/>
-      <c r="K14" s="732"/>
-      <c r="L14" s="733"/>
+    <row r="15" customHeight="1" ht="12">
+      <c r="A15" s="986"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
+      <c r="AA15" s="177"/>
+      <c r="AB15" s="177"/>
+      <c r="AC15" s="177"/>
+      <c r="AD15" s="177"/>
+      <c r="AE15" s="177"/>
+      <c r="AF15" s="177"/>
+      <c r="AG15" s="177"/>
+      <c r="AH15" s="177"/>
+      <c r="AI15" s="177"/>
+      <c r="AJ15" s="177"/>
+      <c r="AK15" s="177"/>
+      <c r="AL15" s="177"/>
+      <c r="AM15" s="177"/>
+      <c r="AN15" s="177"/>
+      <c r="AO15" s="177"/>
+      <c r="AP15" s="639"/>
+      <c r="AQ15" s="639"/>
+      <c r="AR15" s="639"/>
+      <c r="AS15" s="639"/>
+      <c r="AT15" s="639"/>
+      <c r="AU15" s="639"/>
+      <c r="AV15" s="641"/>
+      <c r="AW15" s="990"/>
+      <c r="AX15" s="639"/>
+      <c r="AY15" s="639"/>
+      <c r="AZ15" s="639"/>
+      <c r="BA15" s="639"/>
+      <c r="BB15" s="639"/>
+      <c r="BC15" s="639"/>
+      <c r="BD15" s="639"/>
+      <c r="BE15" s="639"/>
+      <c r="BF15" s="177"/>
+      <c r="BG15" s="177"/>
+      <c r="BH15" s="177"/>
+      <c r="BI15" s="177"/>
+      <c r="BJ15" s="177"/>
+      <c r="BK15" s="177"/>
+      <c r="BL15" s="177"/>
+      <c r="BM15" s="179"/>
+      <c r="BN15" s="641"/>
     </row>
-    <row r="15">
-      <c r="A15" s="731"/>
-      <c r="B15" s="732"/>
-      <c r="C15" s="732"/>
-      <c r="D15" s="732"/>
-      <c r="E15" s="732"/>
-      <c r="F15" s="732"/>
-      <c r="G15" s="732"/>
-      <c r="H15" s="733"/>
-      <c r="I15" s="732"/>
-      <c r="J15" s="732"/>
-      <c r="K15" s="732"/>
-      <c r="L15" s="733"/>
+    <row r="16" customHeight="1" ht="12">
+      <c r="A16" s="986"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="177"/>
+      <c r="AA16" s="177"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="177"/>
+      <c r="AF16" s="177"/>
+      <c r="AG16" s="177"/>
+      <c r="AH16" s="177"/>
+      <c r="AI16" s="177"/>
+      <c r="AJ16" s="177"/>
+      <c r="AK16" s="177"/>
+      <c r="AL16" s="177"/>
+      <c r="AM16" s="177"/>
+      <c r="AN16" s="177"/>
+      <c r="AO16" s="177"/>
+      <c r="AP16" s="639"/>
+      <c r="AQ16" s="639"/>
+      <c r="AR16" s="639"/>
+      <c r="AS16" s="639"/>
+      <c r="AT16" s="639"/>
+      <c r="AU16" s="639"/>
+      <c r="AV16" s="641"/>
+      <c r="AW16" s="990"/>
+      <c r="AX16" s="639"/>
+      <c r="AY16" s="639"/>
+      <c r="AZ16" s="639"/>
+      <c r="BA16" s="639"/>
+      <c r="BB16" s="639"/>
+      <c r="BC16" s="639"/>
+      <c r="BD16" s="639"/>
+      <c r="BE16" s="639"/>
+      <c r="BF16" s="177"/>
+      <c r="BG16" s="177"/>
+      <c r="BH16" s="177"/>
+      <c r="BI16" s="177"/>
+      <c r="BJ16" s="177"/>
+      <c r="BK16" s="177"/>
+      <c r="BL16" s="177"/>
+      <c r="BM16" s="179"/>
+      <c r="BN16" s="641"/>
     </row>
-    <row r="16">
-      <c r="A16" s="731"/>
-      <c r="B16" s="732"/>
-      <c r="C16" s="732"/>
-      <c r="D16" s="732"/>
-      <c r="E16" s="732"/>
-      <c r="F16" s="732"/>
-      <c r="G16" s="732"/>
-      <c r="H16" s="733"/>
-      <c r="I16" s="732"/>
-      <c r="J16" s="732"/>
-      <c r="K16" s="732"/>
-      <c r="L16" s="733"/>
+    <row r="17" customHeight="1" ht="12">
+      <c r="A17" s="986"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="177"/>
+      <c r="AF17" s="177"/>
+      <c r="AG17" s="177"/>
+      <c r="AH17" s="177"/>
+      <c r="AI17" s="177"/>
+      <c r="AJ17" s="177"/>
+      <c r="AK17" s="177"/>
+      <c r="AL17" s="177"/>
+      <c r="AM17" s="177"/>
+      <c r="AN17" s="177"/>
+      <c r="AO17" s="177"/>
+      <c r="AP17" s="639"/>
+      <c r="AQ17" s="639"/>
+      <c r="AR17" s="639"/>
+      <c r="AS17" s="639"/>
+      <c r="AT17" s="639"/>
+      <c r="AU17" s="639"/>
+      <c r="AV17" s="641"/>
+      <c r="AW17" s="990"/>
+      <c r="AX17" s="639"/>
+      <c r="AY17" s="639"/>
+      <c r="AZ17" s="639"/>
+      <c r="BA17" s="639"/>
+      <c r="BB17" s="639"/>
+      <c r="BC17" s="639"/>
+      <c r="BD17" s="639"/>
+      <c r="BE17" s="639"/>
+      <c r="BF17" s="177"/>
+      <c r="BG17" s="177"/>
+      <c r="BH17" s="177"/>
+      <c r="BI17" s="177"/>
+      <c r="BJ17" s="177"/>
+      <c r="BK17" s="177"/>
+      <c r="BL17" s="177"/>
+      <c r="BM17" s="179"/>
+      <c r="BN17" s="641"/>
     </row>
-    <row r="17">
-      <c r="A17" s="731"/>
-      <c r="B17" s="732"/>
-      <c r="C17" s="732"/>
-      <c r="D17" s="732"/>
-      <c r="E17" s="732"/>
-      <c r="F17" s="732"/>
-      <c r="G17" s="732"/>
-      <c r="H17" s="733"/>
-      <c r="I17" s="732"/>
-      <c r="J17" s="732"/>
-      <c r="K17" s="732"/>
-      <c r="L17" s="733"/>
+    <row r="18" customHeight="1" ht="12">
+      <c r="A18" s="986"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="177"/>
+      <c r="AF18" s="177"/>
+      <c r="AG18" s="177"/>
+      <c r="AH18" s="177"/>
+      <c r="AI18" s="177"/>
+      <c r="AJ18" s="177"/>
+      <c r="AK18" s="177"/>
+      <c r="AL18" s="177"/>
+      <c r="AM18" s="177"/>
+      <c r="AN18" s="177"/>
+      <c r="AO18" s="177"/>
+      <c r="AP18" s="639"/>
+      <c r="AQ18" s="639"/>
+      <c r="AR18" s="639"/>
+      <c r="AS18" s="639"/>
+      <c r="AT18" s="639"/>
+      <c r="AU18" s="639"/>
+      <c r="AV18" s="641"/>
+      <c r="AW18" s="990"/>
+      <c r="AX18" s="639"/>
+      <c r="AY18" s="639"/>
+      <c r="AZ18" s="639"/>
+      <c r="BA18" s="639"/>
+      <c r="BB18" s="639"/>
+      <c r="BC18" s="639"/>
+      <c r="BD18" s="639"/>
+      <c r="BE18" s="639"/>
+      <c r="BF18" s="177"/>
+      <c r="BG18" s="177"/>
+      <c r="BH18" s="177"/>
+      <c r="BI18" s="177"/>
+      <c r="BJ18" s="177"/>
+      <c r="BK18" s="177"/>
+      <c r="BL18" s="177"/>
+      <c r="BM18" s="179"/>
+      <c r="BN18" s="641"/>
     </row>
-    <row r="18">
-      <c r="A18" s="731"/>
-      <c r="B18" s="732"/>
-      <c r="C18" s="732"/>
-      <c r="D18" s="732"/>
-      <c r="E18" s="732"/>
-      <c r="F18" s="732"/>
-      <c r="G18" s="732"/>
-      <c r="H18" s="733"/>
-      <c r="I18" s="732"/>
-      <c r="J18" s="732"/>
-      <c r="K18" s="732"/>
-      <c r="L18" s="733"/>
+    <row r="19" customHeight="1" ht="12">
+      <c r="A19" s="986"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="177"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="177"/>
+      <c r="AA19" s="177"/>
+      <c r="AB19" s="177"/>
+      <c r="AC19" s="177"/>
+      <c r="AD19" s="177"/>
+      <c r="AE19" s="177"/>
+      <c r="AF19" s="177"/>
+      <c r="AG19" s="177"/>
+      <c r="AH19" s="177"/>
+      <c r="AI19" s="177"/>
+      <c r="AJ19" s="177"/>
+      <c r="AK19" s="177"/>
+      <c r="AL19" s="177"/>
+      <c r="AM19" s="177"/>
+      <c r="AN19" s="177"/>
+      <c r="AO19" s="177"/>
+      <c r="AP19" s="639"/>
+      <c r="AQ19" s="639"/>
+      <c r="AR19" s="639"/>
+      <c r="AS19" s="639"/>
+      <c r="AT19" s="639"/>
+      <c r="AU19" s="639"/>
+      <c r="AV19" s="641"/>
+      <c r="AW19" s="990"/>
+      <c r="AX19" s="639"/>
+      <c r="AY19" s="639"/>
+      <c r="AZ19" s="639"/>
+      <c r="BA19" s="639"/>
+      <c r="BB19" s="639"/>
+      <c r="BC19" s="639"/>
+      <c r="BD19" s="639"/>
+      <c r="BE19" s="639"/>
+      <c r="BF19" s="177"/>
+      <c r="BG19" s="177"/>
+      <c r="BH19" s="177"/>
+      <c r="BI19" s="177"/>
+      <c r="BJ19" s="177"/>
+      <c r="BK19" s="177"/>
+      <c r="BL19" s="177"/>
+      <c r="BM19" s="179"/>
+      <c r="BN19" s="641"/>
     </row>
-    <row r="19">
-      <c r="A19" s="731"/>
-      <c r="B19" s="732"/>
-      <c r="C19" s="732"/>
-      <c r="D19" s="732"/>
-      <c r="E19" s="732"/>
-      <c r="F19" s="732"/>
-      <c r="G19" s="732"/>
-      <c r="H19" s="733"/>
-      <c r="I19" s="732"/>
-      <c r="J19" s="732"/>
-      <c r="K19" s="732"/>
-      <c r="L19" s="733"/>
+    <row r="20" customHeight="1" ht="12">
+      <c r="A20" s="986"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="177"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="177"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="177"/>
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="177"/>
+      <c r="AC20" s="177"/>
+      <c r="AD20" s="177"/>
+      <c r="AE20" s="177"/>
+      <c r="AF20" s="177"/>
+      <c r="AG20" s="177"/>
+      <c r="AH20" s="177"/>
+      <c r="AI20" s="177"/>
+      <c r="AJ20" s="177"/>
+      <c r="AK20" s="177"/>
+      <c r="AL20" s="177"/>
+      <c r="AM20" s="177"/>
+      <c r="AN20" s="177"/>
+      <c r="AO20" s="177"/>
+      <c r="AP20" s="639"/>
+      <c r="AQ20" s="639"/>
+      <c r="AR20" s="639"/>
+      <c r="AS20" s="639"/>
+      <c r="AT20" s="639"/>
+      <c r="AU20" s="639"/>
+      <c r="AV20" s="641"/>
+      <c r="AW20" s="990"/>
+      <c r="AX20" s="639"/>
+      <c r="AY20" s="639"/>
+      <c r="AZ20" s="639"/>
+      <c r="BA20" s="639"/>
+      <c r="BB20" s="639"/>
+      <c r="BC20" s="639"/>
+      <c r="BD20" s="639"/>
+      <c r="BE20" s="639"/>
+      <c r="BF20" s="177"/>
+      <c r="BG20" s="177"/>
+      <c r="BH20" s="177"/>
+      <c r="BI20" s="177"/>
+      <c r="BJ20" s="177"/>
+      <c r="BK20" s="177"/>
+      <c r="BL20" s="177"/>
+      <c r="BM20" s="179"/>
+      <c r="BN20" s="641"/>
     </row>
-    <row r="20">
-      <c r="A20" s="731"/>
-      <c r="B20" s="732"/>
-      <c r="C20" s="732"/>
-      <c r="D20" s="732"/>
-      <c r="E20" s="732"/>
-      <c r="F20" s="732"/>
-      <c r="G20" s="732"/>
-      <c r="H20" s="733"/>
-      <c r="I20" s="732"/>
-      <c r="J20" s="732"/>
-      <c r="K20" s="732"/>
-      <c r="L20" s="733"/>
+    <row r="21" customHeight="1" ht="12">
+      <c r="A21" s="986"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="177"/>
+      <c r="AD21" s="177"/>
+      <c r="AE21" s="177"/>
+      <c r="AF21" s="177"/>
+      <c r="AG21" s="177"/>
+      <c r="AH21" s="177"/>
+      <c r="AI21" s="177"/>
+      <c r="AJ21" s="177"/>
+      <c r="AK21" s="177"/>
+      <c r="AL21" s="177"/>
+      <c r="AM21" s="177"/>
+      <c r="AN21" s="177"/>
+      <c r="AO21" s="177"/>
+      <c r="AP21" s="639"/>
+      <c r="AQ21" s="639"/>
+      <c r="AR21" s="639"/>
+      <c r="AS21" s="639"/>
+      <c r="AT21" s="639"/>
+      <c r="AU21" s="639"/>
+      <c r="AV21" s="641"/>
+      <c r="AW21" s="990"/>
+      <c r="AX21" s="639"/>
+      <c r="AY21" s="639"/>
+      <c r="AZ21" s="639"/>
+      <c r="BA21" s="639"/>
+      <c r="BB21" s="639"/>
+      <c r="BC21" s="639"/>
+      <c r="BD21" s="639"/>
+      <c r="BE21" s="639"/>
+      <c r="BF21" s="177"/>
+      <c r="BG21" s="177"/>
+      <c r="BH21" s="177"/>
+      <c r="BI21" s="177"/>
+      <c r="BJ21" s="177"/>
+      <c r="BK21" s="177"/>
+      <c r="BL21" s="177"/>
+      <c r="BM21" s="179"/>
+      <c r="BN21" s="641"/>
     </row>
-    <row r="21">
-      <c r="A21" s="731"/>
-      <c r="B21" s="732"/>
-      <c r="C21" s="732"/>
-      <c r="D21" s="732"/>
-      <c r="E21" s="732"/>
-      <c r="F21" s="732"/>
-      <c r="G21" s="732"/>
-      <c r="H21" s="733"/>
-      <c r="I21" s="732"/>
-      <c r="J21" s="732"/>
-      <c r="K21" s="732"/>
-      <c r="L21" s="733"/>
+    <row r="22" customHeight="1" ht="12">
+      <c r="A22" s="986"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
+      <c r="S22" s="177"/>
+      <c r="T22" s="177"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="177"/>
+      <c r="W22" s="177"/>
+      <c r="X22" s="177"/>
+      <c r="Y22" s="177"/>
+      <c r="Z22" s="177"/>
+      <c r="AA22" s="177"/>
+      <c r="AB22" s="177"/>
+      <c r="AC22" s="177"/>
+      <c r="AD22" s="177"/>
+      <c r="AE22" s="177"/>
+      <c r="AF22" s="177"/>
+      <c r="AG22" s="177"/>
+      <c r="AH22" s="177"/>
+      <c r="AI22" s="177"/>
+      <c r="AJ22" s="177"/>
+      <c r="AK22" s="177"/>
+      <c r="AL22" s="177"/>
+      <c r="AM22" s="177"/>
+      <c r="AN22" s="177"/>
+      <c r="AO22" s="177"/>
+      <c r="AP22" s="639"/>
+      <c r="AQ22" s="639"/>
+      <c r="AR22" s="639"/>
+      <c r="AS22" s="639"/>
+      <c r="AT22" s="639"/>
+      <c r="AU22" s="639"/>
+      <c r="AV22" s="641"/>
+      <c r="AW22" s="990"/>
+      <c r="AX22" s="639"/>
+      <c r="AY22" s="639"/>
+      <c r="AZ22" s="639"/>
+      <c r="BA22" s="639"/>
+      <c r="BB22" s="639"/>
+      <c r="BC22" s="639"/>
+      <c r="BD22" s="639"/>
+      <c r="BE22" s="639"/>
+      <c r="BF22" s="177"/>
+      <c r="BG22" s="177"/>
+      <c r="BH22" s="177"/>
+      <c r="BI22" s="177"/>
+      <c r="BJ22" s="177"/>
+      <c r="BK22" s="177"/>
+      <c r="BL22" s="177"/>
+      <c r="BM22" s="179"/>
+      <c r="BN22" s="641"/>
     </row>
-    <row r="22">
-      <c r="A22" s="731"/>
-      <c r="B22" s="732"/>
-      <c r="C22" s="732"/>
-      <c r="D22" s="732"/>
-      <c r="E22" s="732"/>
-      <c r="F22" s="732"/>
-      <c r="G22" s="732"/>
-      <c r="H22" s="733"/>
-      <c r="I22" s="732"/>
-      <c r="J22" s="732"/>
-      <c r="K22" s="732"/>
-      <c r="L22" s="733"/>
+    <row r="23" customHeight="1" ht="12">
+      <c r="A23" s="986"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="177"/>
+      <c r="T23" s="177"/>
+      <c r="U23" s="177"/>
+      <c r="V23" s="177"/>
+      <c r="W23" s="177"/>
+      <c r="X23" s="177"/>
+      <c r="Y23" s="177"/>
+      <c r="Z23" s="177"/>
+      <c r="AA23" s="177"/>
+      <c r="AB23" s="177"/>
+      <c r="AC23" s="177"/>
+      <c r="AD23" s="177"/>
+      <c r="AE23" s="177"/>
+      <c r="AF23" s="177"/>
+      <c r="AG23" s="177"/>
+      <c r="AH23" s="177"/>
+      <c r="AI23" s="177"/>
+      <c r="AJ23" s="177"/>
+      <c r="AK23" s="177"/>
+      <c r="AL23" s="177"/>
+      <c r="AM23" s="177"/>
+      <c r="AN23" s="177"/>
+      <c r="AO23" s="177"/>
+      <c r="AP23" s="639"/>
+      <c r="AQ23" s="639"/>
+      <c r="AR23" s="639"/>
+      <c r="AS23" s="639"/>
+      <c r="AT23" s="639"/>
+      <c r="AU23" s="639"/>
+      <c r="AV23" s="641"/>
+      <c r="AW23" s="990"/>
+      <c r="AX23" s="639"/>
+      <c r="AY23" s="639"/>
+      <c r="AZ23" s="639"/>
+      <c r="BA23" s="639"/>
+      <c r="BB23" s="639"/>
+      <c r="BC23" s="639"/>
+      <c r="BD23" s="639"/>
+      <c r="BE23" s="639"/>
+      <c r="BF23" s="177"/>
+      <c r="BG23" s="177"/>
+      <c r="BH23" s="177"/>
+      <c r="BI23" s="177"/>
+      <c r="BJ23" s="177"/>
+      <c r="BK23" s="177"/>
+      <c r="BL23" s="177"/>
+      <c r="BM23" s="179"/>
+      <c r="BN23" s="641"/>
     </row>
-    <row r="23">
-      <c r="A23" s="731"/>
-      <c r="B23" s="732"/>
-      <c r="C23" s="732"/>
-      <c r="D23" s="732"/>
-      <c r="E23" s="732"/>
-      <c r="F23" s="732"/>
-      <c r="G23" s="732"/>
-      <c r="H23" s="733"/>
-      <c r="I23" s="732"/>
-      <c r="J23" s="732"/>
-      <c r="K23" s="732"/>
-      <c r="L23" s="733"/>
+    <row r="24" customHeight="1" ht="12">
+      <c r="A24" s="986"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="177"/>
+      <c r="S24" s="177"/>
+      <c r="T24" s="177"/>
+      <c r="U24" s="177"/>
+      <c r="V24" s="177"/>
+      <c r="W24" s="177"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="177"/>
+      <c r="Z24" s="177"/>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="177"/>
+      <c r="AC24" s="177"/>
+      <c r="AD24" s="177"/>
+      <c r="AE24" s="177"/>
+      <c r="AF24" s="177"/>
+      <c r="AG24" s="177"/>
+      <c r="AH24" s="177"/>
+      <c r="AI24" s="177"/>
+      <c r="AJ24" s="177"/>
+      <c r="AK24" s="177"/>
+      <c r="AL24" s="177"/>
+      <c r="AM24" s="177"/>
+      <c r="AN24" s="177"/>
+      <c r="AO24" s="177"/>
+      <c r="AP24" s="639"/>
+      <c r="AQ24" s="639"/>
+      <c r="AR24" s="639"/>
+      <c r="AS24" s="639"/>
+      <c r="AT24" s="639"/>
+      <c r="AU24" s="639"/>
+      <c r="AV24" s="641"/>
+      <c r="AW24" s="990"/>
+      <c r="AX24" s="639"/>
+      <c r="AY24" s="639"/>
+      <c r="AZ24" s="639"/>
+      <c r="BA24" s="639"/>
+      <c r="BB24" s="639"/>
+      <c r="BC24" s="639"/>
+      <c r="BD24" s="639"/>
+      <c r="BE24" s="639"/>
+      <c r="BF24" s="177"/>
+      <c r="BG24" s="177"/>
+      <c r="BH24" s="177"/>
+      <c r="BI24" s="177"/>
+      <c r="BJ24" s="177"/>
+      <c r="BK24" s="177"/>
+      <c r="BL24" s="177"/>
+      <c r="BM24" s="179"/>
+      <c r="BN24" s="641"/>
     </row>
-    <row r="24">
-      <c r="A24" s="731"/>
-      <c r="B24" s="732"/>
-      <c r="C24" s="732"/>
-      <c r="D24" s="732"/>
-      <c r="E24" s="732"/>
-      <c r="F24" s="732"/>
-      <c r="G24" s="732"/>
-      <c r="H24" s="733"/>
-      <c r="I24" s="732"/>
-      <c r="J24" s="732"/>
-      <c r="K24" s="732"/>
-      <c r="L24" s="733"/>
+    <row r="25" customHeight="1" ht="12">
+      <c r="A25" s="986"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="177"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="177"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
+      <c r="AD25" s="177"/>
+      <c r="AE25" s="177"/>
+      <c r="AF25" s="177"/>
+      <c r="AG25" s="177"/>
+      <c r="AH25" s="177"/>
+      <c r="AI25" s="177"/>
+      <c r="AJ25" s="177"/>
+      <c r="AK25" s="177"/>
+      <c r="AL25" s="177"/>
+      <c r="AM25" s="177"/>
+      <c r="AN25" s="177"/>
+      <c r="AO25" s="177"/>
+      <c r="AP25" s="639"/>
+      <c r="AQ25" s="639"/>
+      <c r="AR25" s="639"/>
+      <c r="AS25" s="639"/>
+      <c r="AT25" s="639"/>
+      <c r="AU25" s="639"/>
+      <c r="AV25" s="641"/>
+      <c r="AW25" s="990"/>
+      <c r="AX25" s="639"/>
+      <c r="AY25" s="639"/>
+      <c r="AZ25" s="639"/>
+      <c r="BA25" s="639"/>
+      <c r="BB25" s="639"/>
+      <c r="BC25" s="639"/>
+      <c r="BD25" s="639"/>
+      <c r="BE25" s="639"/>
+      <c r="BF25" s="177"/>
+      <c r="BG25" s="177"/>
+      <c r="BH25" s="177"/>
+      <c r="BI25" s="177"/>
+      <c r="BJ25" s="177"/>
+      <c r="BK25" s="177"/>
+      <c r="BL25" s="177"/>
+      <c r="BM25" s="179"/>
+      <c r="BN25" s="641"/>
     </row>
-    <row r="25">
-      <c r="A25" s="731"/>
-      <c r="B25" s="732"/>
-      <c r="C25" s="732"/>
-      <c r="D25" s="732"/>
-      <c r="E25" s="732"/>
-      <c r="F25" s="732"/>
-      <c r="G25" s="732"/>
-      <c r="H25" s="733"/>
-      <c r="I25" s="732"/>
-      <c r="J25" s="732"/>
-      <c r="K25" s="732"/>
-      <c r="L25" s="733"/>
+    <row r="26" customHeight="1" ht="12">
+      <c r="A26" s="986"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177"/>
+      <c r="T26" s="177"/>
+      <c r="U26" s="177"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
+      <c r="X26" s="177"/>
+      <c r="Y26" s="177"/>
+      <c r="Z26" s="177"/>
+      <c r="AA26" s="177"/>
+      <c r="AB26" s="177"/>
+      <c r="AC26" s="177"/>
+      <c r="AD26" s="177"/>
+      <c r="AE26" s="177"/>
+      <c r="AF26" s="177"/>
+      <c r="AG26" s="177"/>
+      <c r="AH26" s="177"/>
+      <c r="AI26" s="177"/>
+      <c r="AJ26" s="177"/>
+      <c r="AK26" s="177"/>
+      <c r="AL26" s="177"/>
+      <c r="AM26" s="177"/>
+      <c r="AN26" s="177"/>
+      <c r="AO26" s="177"/>
+      <c r="AP26" s="639"/>
+      <c r="AQ26" s="639"/>
+      <c r="AR26" s="639"/>
+      <c r="AS26" s="639"/>
+      <c r="AT26" s="639"/>
+      <c r="AU26" s="639"/>
+      <c r="AV26" s="641"/>
+      <c r="AW26" s="990"/>
+      <c r="AX26" s="639"/>
+      <c r="AY26" s="639"/>
+      <c r="AZ26" s="639"/>
+      <c r="BA26" s="639"/>
+      <c r="BB26" s="639"/>
+      <c r="BC26" s="639"/>
+      <c r="BD26" s="639"/>
+      <c r="BE26" s="639"/>
+      <c r="BF26" s="177"/>
+      <c r="BG26" s="177"/>
+      <c r="BH26" s="177"/>
+      <c r="BI26" s="177"/>
+      <c r="BJ26" s="177"/>
+      <c r="BK26" s="177"/>
+      <c r="BL26" s="177"/>
+      <c r="BM26" s="179"/>
+      <c r="BN26" s="641"/>
     </row>
-    <row r="26">
-      <c r="A26" s="731"/>
-      <c r="B26" s="732"/>
-      <c r="C26" s="732"/>
-      <c r="D26" s="732"/>
-      <c r="E26" s="732"/>
-      <c r="F26" s="732"/>
-      <c r="G26" s="732"/>
-      <c r="H26" s="733"/>
-      <c r="I26" s="732"/>
-      <c r="J26" s="732"/>
-      <c r="K26" s="732"/>
-      <c r="L26" s="733"/>
+    <row r="27" customHeight="1" ht="12">
+      <c r="A27" s="986"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="177"/>
+      <c r="T27" s="177"/>
+      <c r="U27" s="177"/>
+      <c r="V27" s="177"/>
+      <c r="W27" s="177"/>
+      <c r="X27" s="177"/>
+      <c r="Y27" s="177"/>
+      <c r="Z27" s="177"/>
+      <c r="AA27" s="177"/>
+      <c r="AB27" s="177"/>
+      <c r="AC27" s="177"/>
+      <c r="AD27" s="177"/>
+      <c r="AE27" s="177"/>
+      <c r="AF27" s="177"/>
+      <c r="AG27" s="177"/>
+      <c r="AH27" s="177"/>
+      <c r="AI27" s="177"/>
+      <c r="AJ27" s="177"/>
+      <c r="AK27" s="177"/>
+      <c r="AL27" s="177"/>
+      <c r="AM27" s="177"/>
+      <c r="AN27" s="177"/>
+      <c r="AO27" s="177"/>
+      <c r="AP27" s="639"/>
+      <c r="AQ27" s="639"/>
+      <c r="AR27" s="639"/>
+      <c r="AS27" s="639"/>
+      <c r="AT27" s="639"/>
+      <c r="AU27" s="639"/>
+      <c r="AV27" s="641"/>
+      <c r="AW27" s="990"/>
+      <c r="AX27" s="639"/>
+      <c r="AY27" s="639"/>
+      <c r="AZ27" s="639"/>
+      <c r="BA27" s="639"/>
+      <c r="BB27" s="639"/>
+      <c r="BC27" s="639"/>
+      <c r="BD27" s="639"/>
+      <c r="BE27" s="639"/>
+      <c r="BF27" s="177"/>
+      <c r="BG27" s="177"/>
+      <c r="BH27" s="177"/>
+      <c r="BI27" s="177"/>
+      <c r="BJ27" s="177"/>
+      <c r="BK27" s="177"/>
+      <c r="BL27" s="177"/>
+      <c r="BM27" s="179"/>
+      <c r="BN27" s="641"/>
     </row>
-    <row r="27">
-      <c r="A27" s="731"/>
-      <c r="B27" s="732"/>
-      <c r="C27" s="732"/>
-      <c r="D27" s="732"/>
-      <c r="E27" s="732"/>
-      <c r="F27" s="732"/>
-      <c r="G27" s="732"/>
-      <c r="H27" s="733"/>
-      <c r="I27" s="732"/>
-      <c r="J27" s="732"/>
-      <c r="K27" s="732"/>
-      <c r="L27" s="733"/>
+    <row r="28" customHeight="1" ht="12">
+      <c r="A28" s="986"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="177"/>
+      <c r="AC28" s="177"/>
+      <c r="AD28" s="177"/>
+      <c r="AE28" s="177"/>
+      <c r="AF28" s="177"/>
+      <c r="AG28" s="177"/>
+      <c r="AH28" s="177"/>
+      <c r="AI28" s="177"/>
+      <c r="AJ28" s="177"/>
+      <c r="AK28" s="177"/>
+      <c r="AL28" s="177"/>
+      <c r="AM28" s="177"/>
+      <c r="AN28" s="177"/>
+      <c r="AO28" s="177"/>
+      <c r="AP28" s="639"/>
+      <c r="AQ28" s="639"/>
+      <c r="AR28" s="639"/>
+      <c r="AS28" s="639"/>
+      <c r="AT28" s="639"/>
+      <c r="AU28" s="639"/>
+      <c r="AV28" s="641"/>
+      <c r="AW28" s="990"/>
+      <c r="AX28" s="639"/>
+      <c r="AY28" s="639"/>
+      <c r="AZ28" s="639"/>
+      <c r="BA28" s="639"/>
+      <c r="BB28" s="639"/>
+      <c r="BC28" s="639"/>
+      <c r="BD28" s="639"/>
+      <c r="BE28" s="639"/>
+      <c r="BF28" s="177"/>
+      <c r="BG28" s="177"/>
+      <c r="BH28" s="177"/>
+      <c r="BI28" s="177"/>
+      <c r="BJ28" s="177"/>
+      <c r="BK28" s="177"/>
+      <c r="BL28" s="177"/>
+      <c r="BM28" s="179"/>
+      <c r="BN28" s="641"/>
     </row>
-    <row r="28">
-      <c r="A28" s="731"/>
-      <c r="B28" s="732"/>
-      <c r="C28" s="732"/>
-      <c r="D28" s="732"/>
-      <c r="E28" s="732"/>
-      <c r="F28" s="732"/>
-      <c r="G28" s="732"/>
-      <c r="H28" s="733"/>
-      <c r="I28" s="732"/>
-      <c r="J28" s="732"/>
-      <c r="K28" s="732"/>
-      <c r="L28" s="733"/>
+    <row r="29" customHeight="1" ht="12">
+      <c r="A29" s="986"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177"/>
+      <c r="T29" s="177"/>
+      <c r="U29" s="177"/>
+      <c r="V29" s="177"/>
+      <c r="W29" s="177"/>
+      <c r="X29" s="177"/>
+      <c r="Y29" s="177"/>
+      <c r="Z29" s="177"/>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="177"/>
+      <c r="AC29" s="177"/>
+      <c r="AD29" s="177"/>
+      <c r="AE29" s="177"/>
+      <c r="AF29" s="177"/>
+      <c r="AG29" s="177"/>
+      <c r="AH29" s="177"/>
+      <c r="AI29" s="177"/>
+      <c r="AJ29" s="177"/>
+      <c r="AK29" s="177"/>
+      <c r="AL29" s="177"/>
+      <c r="AM29" s="177"/>
+      <c r="AN29" s="177"/>
+      <c r="AO29" s="177"/>
+      <c r="AP29" s="639"/>
+      <c r="AQ29" s="639"/>
+      <c r="AR29" s="639"/>
+      <c r="AS29" s="639"/>
+      <c r="AT29" s="639"/>
+      <c r="AU29" s="639"/>
+      <c r="AV29" s="641"/>
+      <c r="AW29" s="990"/>
+      <c r="AX29" s="639"/>
+      <c r="AY29" s="639"/>
+      <c r="AZ29" s="639"/>
+      <c r="BA29" s="639"/>
+      <c r="BB29" s="639"/>
+      <c r="BC29" s="639"/>
+      <c r="BD29" s="639"/>
+      <c r="BE29" s="639"/>
+      <c r="BF29" s="177"/>
+      <c r="BG29" s="177"/>
+      <c r="BH29" s="177"/>
+      <c r="BI29" s="177"/>
+      <c r="BJ29" s="177"/>
+      <c r="BK29" s="177"/>
+      <c r="BL29" s="177"/>
+      <c r="BM29" s="179"/>
+      <c r="BN29" s="641"/>
     </row>
-    <row r="29">
-      <c r="A29" s="731"/>
-      <c r="B29" s="732"/>
-      <c r="C29" s="732"/>
-      <c r="D29" s="732"/>
-      <c r="E29" s="732"/>
-      <c r="F29" s="732"/>
-      <c r="G29" s="732"/>
-      <c r="H29" s="733"/>
-      <c r="I29" s="732"/>
-      <c r="J29" s="732"/>
-      <c r="K29" s="732"/>
-      <c r="L29" s="733"/>
+    <row r="30" customHeight="1" ht="12">
+      <c r="A30" s="986"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="177"/>
+      <c r="T30" s="177"/>
+      <c r="U30" s="177"/>
+      <c r="V30" s="177"/>
+      <c r="W30" s="177"/>
+      <c r="X30" s="177"/>
+      <c r="Y30" s="177"/>
+      <c r="Z30" s="177"/>
+      <c r="AA30" s="177"/>
+      <c r="AB30" s="177"/>
+      <c r="AC30" s="177"/>
+      <c r="AD30" s="177"/>
+      <c r="AE30" s="177"/>
+      <c r="AF30" s="177"/>
+      <c r="AG30" s="177"/>
+      <c r="AH30" s="177"/>
+      <c r="AI30" s="177"/>
+      <c r="AJ30" s="177"/>
+      <c r="AK30" s="177"/>
+      <c r="AL30" s="177"/>
+      <c r="AM30" s="177"/>
+      <c r="AN30" s="177"/>
+      <c r="AO30" s="177"/>
+      <c r="AP30" s="639"/>
+      <c r="AQ30" s="639"/>
+      <c r="AR30" s="639"/>
+      <c r="AS30" s="639"/>
+      <c r="AT30" s="639"/>
+      <c r="AU30" s="639"/>
+      <c r="AV30" s="641"/>
+      <c r="AW30" s="990"/>
+      <c r="AX30" s="639"/>
+      <c r="AY30" s="639"/>
+      <c r="AZ30" s="639"/>
+      <c r="BA30" s="639"/>
+      <c r="BB30" s="639"/>
+      <c r="BC30" s="639"/>
+      <c r="BD30" s="639"/>
+      <c r="BE30" s="177"/>
+      <c r="BF30" s="177"/>
+      <c r="BG30" s="177"/>
+      <c r="BH30" s="177"/>
+      <c r="BI30" s="177"/>
+      <c r="BJ30" s="177"/>
+      <c r="BK30" s="177"/>
+      <c r="BL30" s="177"/>
+      <c r="BM30" s="179"/>
+      <c r="BN30" s="641"/>
     </row>
-    <row r="30">
-      <c r="A30" s="731"/>
-      <c r="B30" s="732"/>
-      <c r="C30" s="732"/>
-      <c r="D30" s="732"/>
-      <c r="E30" s="732"/>
-      <c r="F30" s="732"/>
-      <c r="G30" s="732"/>
-      <c r="H30" s="733"/>
-      <c r="I30" s="732"/>
-      <c r="J30" s="732"/>
-      <c r="K30" s="732"/>
-      <c r="L30" s="733"/>
+    <row r="31" customHeight="1" ht="12">
+      <c r="A31" s="986"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177"/>
+      <c r="T31" s="177"/>
+      <c r="U31" s="177"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="177"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="177"/>
+      <c r="Z31" s="177"/>
+      <c r="AA31" s="177"/>
+      <c r="AB31" s="177"/>
+      <c r="AC31" s="177"/>
+      <c r="AD31" s="177"/>
+      <c r="AE31" s="177"/>
+      <c r="AF31" s="177"/>
+      <c r="AG31" s="177"/>
+      <c r="AH31" s="177"/>
+      <c r="AI31" s="177"/>
+      <c r="AJ31" s="177"/>
+      <c r="AK31" s="177"/>
+      <c r="AL31" s="177"/>
+      <c r="AM31" s="177"/>
+      <c r="AN31" s="177"/>
+      <c r="AO31" s="177"/>
+      <c r="AP31" s="639"/>
+      <c r="AQ31" s="639"/>
+      <c r="AR31" s="639"/>
+      <c r="AS31" s="639"/>
+      <c r="AT31" s="639"/>
+      <c r="AU31" s="639"/>
+      <c r="AV31" s="641"/>
+      <c r="AW31" s="990"/>
+      <c r="AX31" s="639"/>
+      <c r="AY31" s="639"/>
+      <c r="AZ31" s="639"/>
+      <c r="BA31" s="639"/>
+      <c r="BB31" s="639"/>
+      <c r="BC31" s="639"/>
+      <c r="BD31" s="639"/>
+      <c r="BE31" s="177"/>
+      <c r="BF31" s="177"/>
+      <c r="BG31" s="177"/>
+      <c r="BH31" s="177"/>
+      <c r="BI31" s="177"/>
+      <c r="BJ31" s="177"/>
+      <c r="BK31" s="177"/>
+      <c r="BL31" s="177"/>
+      <c r="BM31" s="179"/>
+      <c r="BN31" s="641"/>
     </row>
-    <row r="31">
-      <c r="A31" s="731"/>
-      <c r="B31" s="732"/>
-      <c r="C31" s="732"/>
-      <c r="D31" s="732"/>
-      <c r="E31" s="732"/>
-      <c r="F31" s="732"/>
-      <c r="G31" s="732"/>
-      <c r="H31" s="733"/>
-      <c r="I31" s="732"/>
-      <c r="J31" s="732"/>
-      <c r="K31" s="732"/>
-      <c r="L31" s="733"/>
+    <row r="32" customHeight="1" ht="12">
+      <c r="A32" s="986"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="177"/>
+      <c r="AD32" s="177"/>
+      <c r="AE32" s="177"/>
+      <c r="AF32" s="177"/>
+      <c r="AG32" s="177"/>
+      <c r="AH32" s="177"/>
+      <c r="AI32" s="177"/>
+      <c r="AJ32" s="177"/>
+      <c r="AK32" s="177"/>
+      <c r="AL32" s="177"/>
+      <c r="AM32" s="177"/>
+      <c r="AN32" s="177"/>
+      <c r="AO32" s="177"/>
+      <c r="AP32" s="639"/>
+      <c r="AQ32" s="639"/>
+      <c r="AR32" s="639"/>
+      <c r="AS32" s="639"/>
+      <c r="AT32" s="639"/>
+      <c r="AU32" s="639"/>
+      <c r="AV32" s="641"/>
+      <c r="AW32" s="990"/>
+      <c r="AX32" s="639"/>
+      <c r="AY32" s="639"/>
+      <c r="AZ32" s="639"/>
+      <c r="BA32" s="639"/>
+      <c r="BB32" s="639"/>
+      <c r="BC32" s="639"/>
+      <c r="BD32" s="639"/>
+      <c r="BE32" s="177"/>
+      <c r="BF32" s="177"/>
+      <c r="BG32" s="177"/>
+      <c r="BH32" s="177"/>
+      <c r="BI32" s="177"/>
+      <c r="BJ32" s="177"/>
+      <c r="BK32" s="177"/>
+      <c r="BL32" s="177"/>
+      <c r="BM32" s="179"/>
+      <c r="BN32" s="641"/>
     </row>
-    <row r="32">
-      <c r="A32" s="731"/>
-      <c r="B32" s="732"/>
-      <c r="C32" s="732"/>
-      <c r="D32" s="732"/>
-      <c r="E32" s="732"/>
-      <c r="F32" s="732"/>
-      <c r="G32" s="732"/>
-      <c r="H32" s="733"/>
-      <c r="I32" s="732"/>
-      <c r="J32" s="732"/>
-      <c r="K32" s="732"/>
-      <c r="L32" s="733"/>
+    <row r="33" customHeight="1" ht="12">
+      <c r="A33" s="986"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="177"/>
+      <c r="Z33" s="177"/>
+      <c r="AA33" s="177"/>
+      <c r="AB33" s="177"/>
+      <c r="AC33" s="177"/>
+      <c r="AD33" s="177"/>
+      <c r="AE33" s="177"/>
+      <c r="AF33" s="177"/>
+      <c r="AG33" s="177"/>
+      <c r="AH33" s="177"/>
+      <c r="AI33" s="177"/>
+      <c r="AJ33" s="177"/>
+      <c r="AK33" s="177"/>
+      <c r="AL33" s="177"/>
+      <c r="AM33" s="177"/>
+      <c r="AN33" s="177"/>
+      <c r="AO33" s="177"/>
+      <c r="AP33" s="639"/>
+      <c r="AQ33" s="639"/>
+      <c r="AR33" s="639"/>
+      <c r="AS33" s="639"/>
+      <c r="AT33" s="639"/>
+      <c r="AU33" s="639"/>
+      <c r="AV33" s="641"/>
+      <c r="AW33" s="990"/>
+      <c r="AX33" s="639"/>
+      <c r="AY33" s="639"/>
+      <c r="AZ33" s="639"/>
+      <c r="BA33" s="639"/>
+      <c r="BB33" s="639"/>
+      <c r="BC33" s="639"/>
+      <c r="BD33" s="639"/>
+      <c r="BE33" s="639"/>
+      <c r="BF33" s="177"/>
+      <c r="BG33" s="177"/>
+      <c r="BH33" s="177"/>
+      <c r="BI33" s="177"/>
+      <c r="BJ33" s="177"/>
+      <c r="BK33" s="177"/>
+      <c r="BL33" s="177"/>
+      <c r="BM33" s="179"/>
+      <c r="BN33" s="641"/>
     </row>
-    <row r="33">
-      <c r="A33" s="731"/>
-      <c r="B33" s="732"/>
-      <c r="C33" s="732"/>
-      <c r="D33" s="732"/>
-      <c r="E33" s="732"/>
-      <c r="F33" s="732"/>
-      <c r="G33" s="732"/>
-      <c r="H33" s="733"/>
-      <c r="I33" s="732"/>
-      <c r="J33" s="732"/>
-      <c r="K33" s="732"/>
-      <c r="L33" s="733"/>
+    <row r="34" customHeight="1" ht="12">
+      <c r="A34" s="986"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="177"/>
+      <c r="U34" s="177"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+      <c r="X34" s="177"/>
+      <c r="Y34" s="177"/>
+      <c r="Z34" s="177"/>
+      <c r="AA34" s="177"/>
+      <c r="AB34" s="177"/>
+      <c r="AC34" s="177"/>
+      <c r="AD34" s="177"/>
+      <c r="AE34" s="177"/>
+      <c r="AF34" s="177"/>
+      <c r="AG34" s="177"/>
+      <c r="AH34" s="177"/>
+      <c r="AI34" s="177"/>
+      <c r="AJ34" s="177"/>
+      <c r="AK34" s="177"/>
+      <c r="AL34" s="177"/>
+      <c r="AM34" s="177"/>
+      <c r="AN34" s="177"/>
+      <c r="AO34" s="177"/>
+      <c r="AP34" s="639"/>
+      <c r="AQ34" s="639"/>
+      <c r="AR34" s="639"/>
+      <c r="AS34" s="639"/>
+      <c r="AT34" s="639"/>
+      <c r="AU34" s="639"/>
+      <c r="AV34" s="641"/>
+      <c r="AW34" s="990"/>
+      <c r="AX34" s="639"/>
+      <c r="AY34" s="639"/>
+      <c r="AZ34" s="639"/>
+      <c r="BA34" s="639"/>
+      <c r="BB34" s="639"/>
+      <c r="BC34" s="639"/>
+      <c r="BD34" s="639"/>
+      <c r="BE34" s="177"/>
+      <c r="BF34" s="177"/>
+      <c r="BG34" s="177"/>
+      <c r="BH34" s="177"/>
+      <c r="BI34" s="177"/>
+      <c r="BJ34" s="177"/>
+      <c r="BK34" s="177"/>
+      <c r="BL34" s="177"/>
+      <c r="BM34" s="179"/>
+      <c r="BN34" s="641"/>
     </row>
-    <row r="34">
-      <c r="A34" s="734"/>
-      <c r="B34" s="735"/>
-      <c r="C34" s="735"/>
-      <c r="D34" s="735"/>
-      <c r="E34" s="735"/>
-      <c r="F34" s="735"/>
-      <c r="G34" s="735"/>
-      <c r="H34" s="736"/>
-      <c r="I34" s="735"/>
-      <c r="J34" s="735"/>
-      <c r="K34" s="735"/>
-      <c r="L34" s="736"/>
+    <row r="35" customHeight="1" ht="12">
+      <c r="A35" s="986"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="177"/>
+      <c r="U35" s="177"/>
+      <c r="V35" s="177"/>
+      <c r="W35" s="177"/>
+      <c r="X35" s="177"/>
+      <c r="Y35" s="177"/>
+      <c r="Z35" s="177"/>
+      <c r="AA35" s="177"/>
+      <c r="AB35" s="177"/>
+      <c r="AC35" s="177"/>
+      <c r="AD35" s="177"/>
+      <c r="AE35" s="177"/>
+      <c r="AF35" s="177"/>
+      <c r="AG35" s="177"/>
+      <c r="AH35" s="177"/>
+      <c r="AI35" s="177"/>
+      <c r="AJ35" s="177"/>
+      <c r="AK35" s="177"/>
+      <c r="AL35" s="177"/>
+      <c r="AM35" s="177"/>
+      <c r="AN35" s="177"/>
+      <c r="AO35" s="177"/>
+      <c r="AP35" s="639"/>
+      <c r="AQ35" s="639"/>
+      <c r="AR35" s="639"/>
+      <c r="AS35" s="639"/>
+      <c r="AT35" s="639"/>
+      <c r="AU35" s="639"/>
+      <c r="AV35" s="641"/>
+      <c r="AW35" s="990"/>
+      <c r="AX35" s="639"/>
+      <c r="AY35" s="639"/>
+      <c r="AZ35" s="639"/>
+      <c r="BA35" s="639"/>
+      <c r="BB35" s="639"/>
+      <c r="BC35" s="639"/>
+      <c r="BD35" s="639"/>
+      <c r="BE35" s="177"/>
+      <c r="BF35" s="177"/>
+      <c r="BG35" s="177"/>
+      <c r="BH35" s="177"/>
+      <c r="BI35" s="177"/>
+      <c r="BJ35" s="177"/>
+      <c r="BK35" s="177"/>
+      <c r="BL35" s="177"/>
+      <c r="BM35" s="179"/>
+      <c r="BN35" s="641"/>
+    </row>
+    <row r="36" customHeight="1" ht="12">
+      <c r="A36" s="986"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="177"/>
+      <c r="T36" s="177"/>
+      <c r="U36" s="177"/>
+      <c r="V36" s="177"/>
+      <c r="W36" s="177"/>
+      <c r="X36" s="177"/>
+      <c r="Y36" s="177"/>
+      <c r="Z36" s="177"/>
+      <c r="AA36" s="177"/>
+      <c r="AB36" s="177"/>
+      <c r="AC36" s="177"/>
+      <c r="AD36" s="177"/>
+      <c r="AE36" s="177"/>
+      <c r="AF36" s="177"/>
+      <c r="AG36" s="177"/>
+      <c r="AH36" s="177"/>
+      <c r="AI36" s="177"/>
+      <c r="AJ36" s="177"/>
+      <c r="AK36" s="177"/>
+      <c r="AL36" s="177"/>
+      <c r="AM36" s="177"/>
+      <c r="AN36" s="177"/>
+      <c r="AO36" s="177"/>
+      <c r="AP36" s="639"/>
+      <c r="AQ36" s="639"/>
+      <c r="AR36" s="639"/>
+      <c r="AS36" s="639"/>
+      <c r="AT36" s="639"/>
+      <c r="AU36" s="639"/>
+      <c r="AV36" s="641"/>
+      <c r="AW36" s="990"/>
+      <c r="AX36" s="639"/>
+      <c r="AY36" s="639"/>
+      <c r="AZ36" s="639"/>
+      <c r="BA36" s="639"/>
+      <c r="BB36" s="639"/>
+      <c r="BC36" s="639"/>
+      <c r="BD36" s="639"/>
+      <c r="BE36" s="177"/>
+      <c r="BF36" s="177"/>
+      <c r="BG36" s="177"/>
+      <c r="BH36" s="177"/>
+      <c r="BI36" s="177"/>
+      <c r="BJ36" s="177"/>
+      <c r="BK36" s="177"/>
+      <c r="BL36" s="177"/>
+      <c r="BM36" s="179"/>
+      <c r="BN36" s="641"/>
+    </row>
+    <row r="37" customHeight="1" ht="12">
+      <c r="A37" s="986"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="177"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="177"/>
+      <c r="S37" s="177"/>
+      <c r="T37" s="177"/>
+      <c r="U37" s="177"/>
+      <c r="V37" s="177"/>
+      <c r="W37" s="177"/>
+      <c r="X37" s="177"/>
+      <c r="Y37" s="177"/>
+      <c r="Z37" s="177"/>
+      <c r="AA37" s="177"/>
+      <c r="AB37" s="177"/>
+      <c r="AC37" s="177"/>
+      <c r="AD37" s="177"/>
+      <c r="AE37" s="177"/>
+      <c r="AF37" s="177"/>
+      <c r="AG37" s="177"/>
+      <c r="AH37" s="177"/>
+      <c r="AI37" s="177"/>
+      <c r="AJ37" s="177"/>
+      <c r="AK37" s="177"/>
+      <c r="AL37" s="177"/>
+      <c r="AM37" s="177"/>
+      <c r="AN37" s="177"/>
+      <c r="AO37" s="177"/>
+      <c r="AP37" s="639"/>
+      <c r="AQ37" s="639"/>
+      <c r="AR37" s="639"/>
+      <c r="AS37" s="639"/>
+      <c r="AT37" s="639"/>
+      <c r="AU37" s="639"/>
+      <c r="AV37" s="641"/>
+      <c r="AW37" s="990"/>
+      <c r="AX37" s="639"/>
+      <c r="AY37" s="639"/>
+      <c r="AZ37" s="639"/>
+      <c r="BA37" s="639"/>
+      <c r="BB37" s="639"/>
+      <c r="BC37" s="639"/>
+      <c r="BD37" s="639"/>
+      <c r="BE37" s="177"/>
+      <c r="BF37" s="177"/>
+      <c r="BG37" s="177"/>
+      <c r="BH37" s="177"/>
+      <c r="BI37" s="177"/>
+      <c r="BJ37" s="177"/>
+      <c r="BK37" s="177"/>
+      <c r="BL37" s="177"/>
+      <c r="BM37" s="179"/>
+      <c r="BN37" s="641"/>
+    </row>
+    <row r="38" customHeight="1" ht="12">
+      <c r="A38" s="986"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="177"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
+      <c r="R38" s="177"/>
+      <c r="S38" s="177"/>
+      <c r="T38" s="177"/>
+      <c r="U38" s="177"/>
+      <c r="V38" s="177"/>
+      <c r="W38" s="177"/>
+      <c r="X38" s="177"/>
+      <c r="Y38" s="177"/>
+      <c r="Z38" s="177"/>
+      <c r="AA38" s="177"/>
+      <c r="AB38" s="177"/>
+      <c r="AC38" s="177"/>
+      <c r="AD38" s="177"/>
+      <c r="AE38" s="177"/>
+      <c r="AF38" s="177"/>
+      <c r="AG38" s="177"/>
+      <c r="AH38" s="177"/>
+      <c r="AI38" s="177"/>
+      <c r="AJ38" s="177"/>
+      <c r="AK38" s="177"/>
+      <c r="AL38" s="177"/>
+      <c r="AM38" s="177"/>
+      <c r="AN38" s="177"/>
+      <c r="AO38" s="177"/>
+      <c r="AP38" s="639"/>
+      <c r="AQ38" s="639"/>
+      <c r="AR38" s="639"/>
+      <c r="AS38" s="639"/>
+      <c r="AT38" s="639"/>
+      <c r="AU38" s="639"/>
+      <c r="AV38" s="641"/>
+      <c r="AW38" s="990"/>
+      <c r="AX38" s="639"/>
+      <c r="AY38" s="639"/>
+      <c r="AZ38" s="639"/>
+      <c r="BA38" s="639"/>
+      <c r="BB38" s="639"/>
+      <c r="BC38" s="639"/>
+      <c r="BD38" s="639"/>
+      <c r="BE38" s="177"/>
+      <c r="BF38" s="177"/>
+      <c r="BG38" s="177"/>
+      <c r="BH38" s="177"/>
+      <c r="BI38" s="177"/>
+      <c r="BJ38" s="177"/>
+      <c r="BK38" s="177"/>
+      <c r="BL38" s="177"/>
+      <c r="BM38" s="179"/>
+      <c r="BN38" s="641"/>
+    </row>
+    <row r="39" customHeight="1" ht="12">
+      <c r="A39" s="986"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="177"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="177"/>
+      <c r="S39" s="177"/>
+      <c r="T39" s="177"/>
+      <c r="U39" s="177"/>
+      <c r="V39" s="177"/>
+      <c r="W39" s="177"/>
+      <c r="X39" s="177"/>
+      <c r="Y39" s="177"/>
+      <c r="Z39" s="177"/>
+      <c r="AA39" s="177"/>
+      <c r="AB39" s="177"/>
+      <c r="AC39" s="177"/>
+      <c r="AD39" s="177"/>
+      <c r="AE39" s="177"/>
+      <c r="AF39" s="177"/>
+      <c r="AG39" s="177"/>
+      <c r="AH39" s="177"/>
+      <c r="AI39" s="177"/>
+      <c r="AJ39" s="177"/>
+      <c r="AK39" s="177"/>
+      <c r="AL39" s="177"/>
+      <c r="AM39" s="177"/>
+      <c r="AN39" s="177"/>
+      <c r="AO39" s="177"/>
+      <c r="AP39" s="639"/>
+      <c r="AQ39" s="639"/>
+      <c r="AR39" s="639"/>
+      <c r="AS39" s="639"/>
+      <c r="AT39" s="639"/>
+      <c r="AU39" s="639"/>
+      <c r="AV39" s="641"/>
+      <c r="AW39" s="990"/>
+      <c r="AX39" s="639"/>
+      <c r="AY39" s="639"/>
+      <c r="AZ39" s="639"/>
+      <c r="BA39" s="639"/>
+      <c r="BB39" s="639"/>
+      <c r="BC39" s="639"/>
+      <c r="BD39" s="639"/>
+      <c r="BE39" s="177"/>
+      <c r="BF39" s="177"/>
+      <c r="BG39" s="177"/>
+      <c r="BH39" s="177"/>
+      <c r="BI39" s="177"/>
+      <c r="BJ39" s="177"/>
+      <c r="BK39" s="177"/>
+      <c r="BL39" s="177"/>
+      <c r="BM39" s="179"/>
+      <c r="BN39" s="641"/>
+    </row>
+    <row r="40" customHeight="1" ht="12">
+      <c r="A40" s="986"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="177"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="177"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="177"/>
+      <c r="T40" s="177"/>
+      <c r="U40" s="177"/>
+      <c r="V40" s="177"/>
+      <c r="W40" s="177"/>
+      <c r="X40" s="177"/>
+      <c r="Y40" s="177"/>
+      <c r="Z40" s="177"/>
+      <c r="AA40" s="177"/>
+      <c r="AB40" s="177"/>
+      <c r="AC40" s="177"/>
+      <c r="AD40" s="177"/>
+      <c r="AE40" s="177"/>
+      <c r="AF40" s="177"/>
+      <c r="AG40" s="177"/>
+      <c r="AH40" s="177"/>
+      <c r="AI40" s="177"/>
+      <c r="AJ40" s="177"/>
+      <c r="AK40" s="177"/>
+      <c r="AL40" s="177"/>
+      <c r="AM40" s="177"/>
+      <c r="AN40" s="177"/>
+      <c r="AO40" s="177"/>
+      <c r="AP40" s="639"/>
+      <c r="AQ40" s="639"/>
+      <c r="AR40" s="639"/>
+      <c r="AS40" s="639"/>
+      <c r="AT40" s="639"/>
+      <c r="AU40" s="639"/>
+      <c r="AV40" s="641"/>
+      <c r="AW40" s="990"/>
+      <c r="AX40" s="639"/>
+      <c r="AY40" s="639"/>
+      <c r="AZ40" s="639"/>
+      <c r="BA40" s="639"/>
+      <c r="BB40" s="639"/>
+      <c r="BC40" s="639"/>
+      <c r="BD40" s="639"/>
+      <c r="BE40" s="177"/>
+      <c r="BF40" s="177"/>
+      <c r="BG40" s="177"/>
+      <c r="BH40" s="177"/>
+      <c r="BI40" s="177"/>
+      <c r="BJ40" s="177"/>
+      <c r="BK40" s="177"/>
+      <c r="BL40" s="177"/>
+      <c r="BM40" s="179"/>
+      <c r="BN40" s="641"/>
+    </row>
+    <row r="41" customHeight="1" ht="12">
+      <c r="A41" s="986"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="177"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="177"/>
+      <c r="T41" s="177"/>
+      <c r="U41" s="177"/>
+      <c r="V41" s="177"/>
+      <c r="W41" s="177"/>
+      <c r="X41" s="177"/>
+      <c r="Y41" s="177"/>
+      <c r="Z41" s="177"/>
+      <c r="AA41" s="177"/>
+      <c r="AB41" s="177"/>
+      <c r="AC41" s="177"/>
+      <c r="AD41" s="177"/>
+      <c r="AE41" s="177"/>
+      <c r="AF41" s="177"/>
+      <c r="AG41" s="177"/>
+      <c r="AH41" s="177"/>
+      <c r="AI41" s="177"/>
+      <c r="AJ41" s="177"/>
+      <c r="AK41" s="177"/>
+      <c r="AL41" s="177"/>
+      <c r="AM41" s="177"/>
+      <c r="AN41" s="177"/>
+      <c r="AO41" s="177"/>
+      <c r="AP41" s="639"/>
+      <c r="AQ41" s="639"/>
+      <c r="AR41" s="639"/>
+      <c r="AS41" s="639"/>
+      <c r="AT41" s="639"/>
+      <c r="AU41" s="639"/>
+      <c r="AV41" s="641"/>
+      <c r="AW41" s="990"/>
+      <c r="AX41" s="639"/>
+      <c r="AY41" s="639"/>
+      <c r="AZ41" s="639"/>
+      <c r="BA41" s="639"/>
+      <c r="BB41" s="639"/>
+      <c r="BC41" s="639"/>
+      <c r="BD41" s="639"/>
+      <c r="BE41" s="177"/>
+      <c r="BF41" s="177"/>
+      <c r="BG41" s="177"/>
+      <c r="BH41" s="177"/>
+      <c r="BI41" s="177"/>
+      <c r="BJ41" s="177"/>
+      <c r="BK41" s="177"/>
+      <c r="BL41" s="177"/>
+      <c r="BM41" s="179"/>
+      <c r="BN41" s="641"/>
+    </row>
+    <row r="42" customHeight="1" ht="12">
+      <c r="A42" s="986"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="177"/>
+      <c r="L42" s="177"/>
+      <c r="M42" s="177"/>
+      <c r="N42" s="177"/>
+      <c r="O42" s="177"/>
+      <c r="P42" s="177"/>
+      <c r="Q42" s="177"/>
+      <c r="R42" s="177"/>
+      <c r="S42" s="177"/>
+      <c r="T42" s="177"/>
+      <c r="U42" s="177"/>
+      <c r="V42" s="177"/>
+      <c r="W42" s="177"/>
+      <c r="X42" s="177"/>
+      <c r="Y42" s="177"/>
+      <c r="Z42" s="177"/>
+      <c r="AA42" s="177"/>
+      <c r="AB42" s="177"/>
+      <c r="AC42" s="177"/>
+      <c r="AD42" s="177"/>
+      <c r="AE42" s="177"/>
+      <c r="AF42" s="177"/>
+      <c r="AG42" s="177"/>
+      <c r="AH42" s="177"/>
+      <c r="AI42" s="177"/>
+      <c r="AJ42" s="177"/>
+      <c r="AK42" s="177"/>
+      <c r="AL42" s="177"/>
+      <c r="AM42" s="177"/>
+      <c r="AN42" s="177"/>
+      <c r="AO42" s="177"/>
+      <c r="AP42" s="639"/>
+      <c r="AQ42" s="639"/>
+      <c r="AR42" s="639"/>
+      <c r="AS42" s="639"/>
+      <c r="AT42" s="639"/>
+      <c r="AU42" s="639"/>
+      <c r="AV42" s="641"/>
+      <c r="AW42" s="990"/>
+      <c r="AX42" s="639"/>
+      <c r="AY42" s="639"/>
+      <c r="AZ42" s="639"/>
+      <c r="BA42" s="639"/>
+      <c r="BB42" s="639"/>
+      <c r="BC42" s="639"/>
+      <c r="BD42" s="639"/>
+      <c r="BE42" s="177"/>
+      <c r="BF42" s="177"/>
+      <c r="BG42" s="177"/>
+      <c r="BH42" s="177"/>
+      <c r="BI42" s="177"/>
+      <c r="BJ42" s="177"/>
+      <c r="BK42" s="177"/>
+      <c r="BL42" s="177"/>
+      <c r="BM42" s="179"/>
+      <c r="BN42" s="641"/>
+    </row>
+    <row r="43" customHeight="1" ht="12">
+      <c r="A43" s="995"/>
+      <c r="B43" s="996"/>
+      <c r="C43" s="996"/>
+      <c r="D43" s="996"/>
+      <c r="E43" s="996"/>
+      <c r="F43" s="996"/>
+      <c r="G43" s="996"/>
+      <c r="H43" s="996"/>
+      <c r="I43" s="996"/>
+      <c r="J43" s="996"/>
+      <c r="K43" s="996"/>
+      <c r="L43" s="996"/>
+      <c r="M43" s="996"/>
+      <c r="N43" s="996"/>
+      <c r="O43" s="996"/>
+      <c r="P43" s="996"/>
+      <c r="Q43" s="996"/>
+      <c r="R43" s="996"/>
+      <c r="S43" s="996"/>
+      <c r="T43" s="996"/>
+      <c r="U43" s="996"/>
+      <c r="V43" s="996"/>
+      <c r="W43" s="996"/>
+      <c r="X43" s="996"/>
+      <c r="Y43" s="996"/>
+      <c r="Z43" s="996"/>
+      <c r="AA43" s="996"/>
+      <c r="AB43" s="996"/>
+      <c r="AC43" s="996"/>
+      <c r="AD43" s="996"/>
+      <c r="AE43" s="996"/>
+      <c r="AF43" s="996"/>
+      <c r="AG43" s="996"/>
+      <c r="AH43" s="996"/>
+      <c r="AI43" s="996"/>
+      <c r="AJ43" s="996"/>
+      <c r="AK43" s="996"/>
+      <c r="AL43" s="996"/>
+      <c r="AM43" s="996"/>
+      <c r="AN43" s="996"/>
+      <c r="AO43" s="996"/>
+      <c r="AP43" s="997"/>
+      <c r="AQ43" s="997"/>
+      <c r="AR43" s="997"/>
+      <c r="AS43" s="997"/>
+      <c r="AT43" s="997"/>
+      <c r="AU43" s="997"/>
+      <c r="AV43" s="1000"/>
+      <c r="AW43" s="1004"/>
+      <c r="AX43" s="997"/>
+      <c r="AY43" s="997"/>
+      <c r="AZ43" s="997"/>
+      <c r="BA43" s="997"/>
+      <c r="BB43" s="997"/>
+      <c r="BC43" s="997"/>
+      <c r="BD43" s="997"/>
+      <c r="BE43" s="996"/>
+      <c r="BF43" s="996"/>
+      <c r="BG43" s="996"/>
+      <c r="BH43" s="996"/>
+      <c r="BI43" s="996"/>
+      <c r="BJ43" s="996"/>
+      <c r="BK43" s="996"/>
+      <c r="BL43" s="996"/>
+      <c r="BM43" s="999"/>
+      <c r="BN43" s="1000"/>
+    </row>
+    <row r="44" customHeight="1" ht="12">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
+      <c r="AM44" s="30"/>
+      <c r="AN44" s="30"/>
+      <c r="AO44" s="30"/>
+      <c r="AP44" s="24"/>
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="24"/>
+      <c r="AS44" s="24"/>
+      <c r="AT44" s="24"/>
+      <c r="AU44" s="24"/>
+      <c r="AV44" s="24"/>
+      <c r="AW44" s="24"/>
+      <c r="AX44" s="24"/>
+      <c r="AY44" s="24"/>
+      <c r="AZ44" s="24"/>
+      <c r="BA44" s="24"/>
+      <c r="BB44" s="24"/>
+      <c r="BC44" s="24"/>
+      <c r="BD44" s="24"/>
+      <c r="BE44" s="24"/>
+      <c r="BF44" s="24"/>
+      <c r="BG44" s="24"/>
+      <c r="BH44" s="24"/>
+      <c r="BI44" s="24"/>
+      <c r="BJ44" s="24"/>
+      <c r="BK44" s="24"/>
+      <c r="BL44" s="24"/>
+      <c r="BM44" s="24"/>
+      <c r="BN44" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I4:L5"/>
+  <mergeCells count="38">
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
+    <mergeCell ref="BE43:BM43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
+++ b/DOC/基本設計/基本設計_emsm_基本給機能更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
@@ -815,12 +815,15 @@
   <si>
     <t>対象年度は対象年ではない場合</t>
   </si>
+  <si>
+    <t>YYYYMMDD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="134" x14ac:knownFonts="1">
+  <fonts count="135" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1709,6 +1712,13 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Yu Gothic UI"/>
+      <color rgb="FF000000"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -6605,7 +6615,7 @@
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1010">
+  <cellXfs count="1011">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9675,6 +9685,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="133" applyFont="1" fillId="5" applyFill="1" borderId="152" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="134" applyFont="1" fillId="6" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11586,7 +11599,7 @@
   <dimension ref="A1:BN33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11" activeCellId="0"/>
+      <selection activeCell="BE9" sqref="BE9:BM9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12405,7 +12418,7 @@
       <c r="BB9" s="157"/>
       <c r="BC9" s="157"/>
       <c r="BD9" s="158"/>
-      <c r="BE9" s="344" t="s">
+      <c r="BE9" s="1010" t="s">
         <v>82</v>
       </c>
       <c r="BF9" s="345"/>
@@ -13270,7 +13283,7 @@
   <dimension ref="A1:BM33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25:P26" activeCellId="0"/>
+      <selection activeCell="AP9" sqref="AP9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13284,7 +13297,8 @@
     <col min="32" max="32" width="2.125" style="24"/>
     <col min="33" max="33" width="5.625" style="24" customWidth="1"/>
     <col min="34" max="34" width="2.125" style="24"/>
-    <col min="35" max="36" width="2.125" style="24"/>
+    <col min="35" max="35" width="3.25" style="24" customWidth="1"/>
+    <col min="36" max="36" width="2.125" style="24"/>
     <col min="36" max="36" width="5.125" style="24" customWidth="1"/>
     <col min="37" max="200" width="2.125" style="24"/>
     <col min="201" max="201" width="0.75" style="24" customWidth="1"/>
@@ -17293,8 +17307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN36"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="Y18" sqref="Y18:AB18" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="140" zoomScaleNormal="140" workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection activeCell="AB26" sqref="AB26" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18749,8 +18763,8 @@
         <v>64</v>
       </c>
       <c r="X17" s="784"/>
-      <c r="Y17" s="815" t="s">
-        <v>65</v>
+      <c r="Y17" s="805" t="s">
+        <v>257</v>
       </c>
       <c r="Z17" s="816"/>
       <c r="AA17" s="816"/>
@@ -18838,7 +18852,7 @@
       </c>
       <c r="X18" s="870"/>
       <c r="Y18" s="871" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="Z18" s="872"/>
       <c r="AA18" s="872"/>
@@ -19912,7 +19926,7 @@
       <c r="BB10" s="455"/>
       <c r="BC10" s="456"/>
     </row>
-    <row r="11" customHeight="1" ht="11">
+    <row r="11" customHeight="1" ht="10">
       <c r="A11" s="475">
         <v>5</v>
       </c>
@@ -20227,8 +20241,8 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1" showRowColHeaders="true" showGridLines="true" tabSelected="1">
-      <selection activeCell="AK21" sqref="AK21" activeCellId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1" showRowColHeaders="true" showGridLines="true">
+      <selection activeCell="AL19" sqref="AL19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" customHeight="true" defaultColWidth="2.125"/>
